--- a/Engine/Unity/3.x/Learning_01/Example/Packages/.module.unitycommon@1.7.0/Templates/Tables/SaleItemInfo/T_SaleItemInfoTable.xlsx
+++ b/Engine/Unity/3.x/Learning_01/Example/Packages/.module.unitycommon@1.7.0/Templates/Tables/SaleItemInfo/T_SaleItemInfoTable.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
   <si>
     <t>Price</t>
   </si>
@@ -38,6 +38,12 @@
   </si>
   <si>
     <t>Description</t>
+  </si>
+  <si>
+    <t>Sample</t>
+  </si>
+  <si>
+    <t>샘플 판매 아이템 정보</t>
   </si>
 </sst>
 </file>
@@ -72,13 +78,19 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
@@ -299,8 +311,7 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="4" width="14.43"/>
-    <col customWidth="1" min="6" max="6" width="14.43"/>
+    <col customWidth="1" min="1" max="8" width="14.43"/>
     <col customWidth="1" min="9" max="9" width="17.57"/>
   </cols>
   <sheetData>
@@ -334,4000 +345,4025 @@
       </c>
     </row>
     <row r="2" ht="15.0" customHeight="1">
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
+      <c r="A2" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="E2" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="F2" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="G2" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="H2" s="4">
+        <v>-1.0</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="3" ht="15.0" customHeight="1">
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
     </row>
     <row r="4" ht="15.0" customHeight="1">
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
     </row>
     <row r="5" ht="15.0" customHeight="1">
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
     </row>
     <row r="6" ht="15.0" customHeight="1">
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
     </row>
     <row r="7" ht="15.0" customHeight="1">
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
     </row>
     <row r="8" ht="15.0" customHeight="1">
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
     </row>
     <row r="9" ht="15.0" customHeight="1">
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
     </row>
     <row r="10" ht="15.0" customHeight="1">
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
     </row>
     <row r="11" ht="15.0" customHeight="1">
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
     </row>
     <row r="12" ht="15.0" customHeight="1">
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
     </row>
     <row r="13" ht="15.0" customHeight="1">
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
     </row>
     <row r="14" ht="15.0" customHeight="1">
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
     </row>
     <row r="15" ht="15.0" customHeight="1">
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
     </row>
     <row r="16" ht="15.0" customHeight="1">
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
     </row>
     <row r="17" ht="15.0" customHeight="1">
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
     </row>
     <row r="18" ht="15.0" customHeight="1">
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
     </row>
     <row r="19" ht="15.0" customHeight="1">
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
     </row>
     <row r="20" ht="15.0" customHeight="1">
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
     </row>
     <row r="21" ht="15.0" customHeight="1">
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
     </row>
     <row r="22" ht="15.0" customHeight="1">
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
     </row>
     <row r="23" ht="15.0" customHeight="1">
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
     </row>
     <row r="24" ht="15.0" customHeight="1">
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
     </row>
     <row r="25" ht="15.0" customHeight="1">
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
     </row>
     <row r="26" ht="15.0" customHeight="1">
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="5"/>
     </row>
     <row r="27" ht="15.0" customHeight="1">
-      <c r="G27" s="3"/>
-      <c r="H27" s="3"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="5"/>
     </row>
     <row r="28" ht="15.0" customHeight="1">
-      <c r="G28" s="3"/>
-      <c r="H28" s="3"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="5"/>
     </row>
     <row r="29" ht="15.0" customHeight="1">
-      <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
+      <c r="G29" s="5"/>
+      <c r="H29" s="5"/>
     </row>
     <row r="30" ht="15.0" customHeight="1">
-      <c r="G30" s="3"/>
-      <c r="H30" s="3"/>
+      <c r="G30" s="5"/>
+      <c r="H30" s="5"/>
     </row>
     <row r="31" ht="15.0" customHeight="1">
-      <c r="G31" s="3"/>
-      <c r="H31" s="3"/>
+      <c r="G31" s="5"/>
+      <c r="H31" s="5"/>
     </row>
     <row r="32" ht="15.0" customHeight="1">
-      <c r="G32" s="3"/>
-      <c r="H32" s="3"/>
+      <c r="G32" s="5"/>
+      <c r="H32" s="5"/>
     </row>
     <row r="33" ht="15.0" customHeight="1">
-      <c r="G33" s="3"/>
-      <c r="H33" s="3"/>
+      <c r="G33" s="5"/>
+      <c r="H33" s="5"/>
     </row>
     <row r="34" ht="15.0" customHeight="1">
-      <c r="G34" s="3"/>
-      <c r="H34" s="3"/>
+      <c r="G34" s="5"/>
+      <c r="H34" s="5"/>
     </row>
     <row r="35" ht="15.0" customHeight="1">
-      <c r="G35" s="3"/>
-      <c r="H35" s="3"/>
+      <c r="G35" s="5"/>
+      <c r="H35" s="5"/>
     </row>
     <row r="36" ht="15.0" customHeight="1">
-      <c r="G36" s="3"/>
-      <c r="H36" s="3"/>
+      <c r="G36" s="5"/>
+      <c r="H36" s="5"/>
     </row>
     <row r="37" ht="15.0" customHeight="1">
-      <c r="G37" s="3"/>
-      <c r="H37" s="3"/>
+      <c r="G37" s="5"/>
+      <c r="H37" s="5"/>
     </row>
     <row r="38" ht="15.0" customHeight="1">
-      <c r="G38" s="3"/>
-      <c r="H38" s="3"/>
+      <c r="G38" s="5"/>
+      <c r="H38" s="5"/>
     </row>
     <row r="39" ht="15.0" customHeight="1">
-      <c r="G39" s="3"/>
-      <c r="H39" s="3"/>
+      <c r="G39" s="5"/>
+      <c r="H39" s="5"/>
     </row>
     <row r="40" ht="15.0" customHeight="1">
-      <c r="G40" s="3"/>
-      <c r="H40" s="3"/>
+      <c r="G40" s="5"/>
+      <c r="H40" s="5"/>
     </row>
     <row r="41" ht="15.0" customHeight="1">
-      <c r="G41" s="3"/>
-      <c r="H41" s="3"/>
+      <c r="G41" s="5"/>
+      <c r="H41" s="5"/>
     </row>
     <row r="42" ht="15.0" customHeight="1">
-      <c r="G42" s="3"/>
-      <c r="H42" s="3"/>
+      <c r="G42" s="5"/>
+      <c r="H42" s="5"/>
     </row>
     <row r="43" ht="15.0" customHeight="1">
-      <c r="G43" s="3"/>
-      <c r="H43" s="3"/>
+      <c r="G43" s="5"/>
+      <c r="H43" s="5"/>
     </row>
     <row r="44" ht="15.0" customHeight="1">
-      <c r="G44" s="3"/>
-      <c r="H44" s="3"/>
+      <c r="G44" s="5"/>
+      <c r="H44" s="5"/>
     </row>
     <row r="45" ht="15.0" customHeight="1">
-      <c r="G45" s="3"/>
-      <c r="H45" s="3"/>
+      <c r="G45" s="5"/>
+      <c r="H45" s="5"/>
     </row>
     <row r="46" ht="15.0" customHeight="1">
-      <c r="G46" s="3"/>
-      <c r="H46" s="3"/>
+      <c r="G46" s="5"/>
+      <c r="H46" s="5"/>
     </row>
     <row r="47" ht="15.0" customHeight="1">
-      <c r="G47" s="3"/>
-      <c r="H47" s="3"/>
+      <c r="G47" s="5"/>
+      <c r="H47" s="5"/>
     </row>
     <row r="48" ht="15.0" customHeight="1">
-      <c r="G48" s="3"/>
-      <c r="H48" s="3"/>
+      <c r="G48" s="5"/>
+      <c r="H48" s="5"/>
     </row>
     <row r="49" ht="15.0" customHeight="1">
-      <c r="G49" s="3"/>
-      <c r="H49" s="3"/>
+      <c r="G49" s="5"/>
+      <c r="H49" s="5"/>
     </row>
     <row r="50" ht="15.0" customHeight="1">
-      <c r="G50" s="3"/>
-      <c r="H50" s="3"/>
+      <c r="G50" s="5"/>
+      <c r="H50" s="5"/>
     </row>
     <row r="51" ht="15.0" customHeight="1">
-      <c r="G51" s="3"/>
-      <c r="H51" s="3"/>
+      <c r="G51" s="5"/>
+      <c r="H51" s="5"/>
     </row>
     <row r="52" ht="15.0" customHeight="1">
-      <c r="G52" s="3"/>
-      <c r="H52" s="3"/>
+      <c r="G52" s="5"/>
+      <c r="H52" s="5"/>
     </row>
     <row r="53" ht="15.0" customHeight="1">
-      <c r="G53" s="3"/>
-      <c r="H53" s="3"/>
+      <c r="G53" s="5"/>
+      <c r="H53" s="5"/>
     </row>
     <row r="54" ht="15.0" customHeight="1">
-      <c r="G54" s="3"/>
-      <c r="H54" s="3"/>
+      <c r="G54" s="5"/>
+      <c r="H54" s="5"/>
     </row>
     <row r="55" ht="15.0" customHeight="1">
-      <c r="G55" s="3"/>
-      <c r="H55" s="3"/>
+      <c r="G55" s="5"/>
+      <c r="H55" s="5"/>
     </row>
     <row r="56" ht="15.0" customHeight="1">
-      <c r="G56" s="3"/>
-      <c r="H56" s="3"/>
+      <c r="G56" s="5"/>
+      <c r="H56" s="5"/>
     </row>
     <row r="57" ht="15.0" customHeight="1">
-      <c r="G57" s="3"/>
-      <c r="H57" s="3"/>
+      <c r="G57" s="5"/>
+      <c r="H57" s="5"/>
     </row>
     <row r="58" ht="15.0" customHeight="1">
-      <c r="G58" s="3"/>
-      <c r="H58" s="3"/>
+      <c r="G58" s="5"/>
+      <c r="H58" s="5"/>
     </row>
     <row r="59" ht="15.0" customHeight="1">
-      <c r="G59" s="3"/>
-      <c r="H59" s="3"/>
+      <c r="G59" s="5"/>
+      <c r="H59" s="5"/>
     </row>
     <row r="60" ht="15.0" customHeight="1">
-      <c r="G60" s="3"/>
-      <c r="H60" s="3"/>
+      <c r="G60" s="5"/>
+      <c r="H60" s="5"/>
     </row>
     <row r="61" ht="15.0" customHeight="1">
-      <c r="G61" s="3"/>
-      <c r="H61" s="3"/>
+      <c r="G61" s="5"/>
+      <c r="H61" s="5"/>
     </row>
     <row r="62" ht="15.0" customHeight="1">
-      <c r="G62" s="3"/>
-      <c r="H62" s="3"/>
+      <c r="G62" s="5"/>
+      <c r="H62" s="5"/>
     </row>
     <row r="63" ht="15.0" customHeight="1">
-      <c r="G63" s="3"/>
-      <c r="H63" s="3"/>
+      <c r="G63" s="5"/>
+      <c r="H63" s="5"/>
     </row>
     <row r="64" ht="15.0" customHeight="1">
-      <c r="G64" s="3"/>
-      <c r="H64" s="3"/>
+      <c r="G64" s="5"/>
+      <c r="H64" s="5"/>
     </row>
     <row r="65" ht="15.0" customHeight="1">
-      <c r="G65" s="3"/>
-      <c r="H65" s="3"/>
+      <c r="G65" s="5"/>
+      <c r="H65" s="5"/>
     </row>
     <row r="66" ht="15.0" customHeight="1">
-      <c r="G66" s="3"/>
-      <c r="H66" s="3"/>
+      <c r="G66" s="5"/>
+      <c r="H66" s="5"/>
     </row>
     <row r="67" ht="15.0" customHeight="1">
-      <c r="G67" s="3"/>
-      <c r="H67" s="3"/>
+      <c r="G67" s="5"/>
+      <c r="H67" s="5"/>
     </row>
     <row r="68" ht="15.0" customHeight="1">
-      <c r="G68" s="3"/>
-      <c r="H68" s="3"/>
+      <c r="G68" s="5"/>
+      <c r="H68" s="5"/>
     </row>
     <row r="69" ht="15.0" customHeight="1">
-      <c r="G69" s="3"/>
-      <c r="H69" s="3"/>
+      <c r="G69" s="5"/>
+      <c r="H69" s="5"/>
     </row>
     <row r="70" ht="15.0" customHeight="1">
-      <c r="G70" s="3"/>
-      <c r="H70" s="3"/>
+      <c r="G70" s="5"/>
+      <c r="H70" s="5"/>
     </row>
     <row r="71" ht="15.0" customHeight="1">
-      <c r="G71" s="3"/>
-      <c r="H71" s="3"/>
+      <c r="G71" s="5"/>
+      <c r="H71" s="5"/>
     </row>
     <row r="72" ht="15.0" customHeight="1">
-      <c r="G72" s="3"/>
-      <c r="H72" s="3"/>
+      <c r="G72" s="5"/>
+      <c r="H72" s="5"/>
     </row>
     <row r="73" ht="15.0" customHeight="1">
-      <c r="G73" s="3"/>
-      <c r="H73" s="3"/>
+      <c r="G73" s="5"/>
+      <c r="H73" s="5"/>
     </row>
     <row r="74" ht="15.0" customHeight="1">
-      <c r="G74" s="3"/>
-      <c r="H74" s="3"/>
+      <c r="G74" s="5"/>
+      <c r="H74" s="5"/>
     </row>
     <row r="75" ht="15.0" customHeight="1">
-      <c r="G75" s="3"/>
-      <c r="H75" s="3"/>
+      <c r="G75" s="5"/>
+      <c r="H75" s="5"/>
     </row>
     <row r="76" ht="15.0" customHeight="1">
-      <c r="G76" s="3"/>
-      <c r="H76" s="3"/>
+      <c r="G76" s="5"/>
+      <c r="H76" s="5"/>
     </row>
     <row r="77" ht="15.0" customHeight="1">
-      <c r="G77" s="3"/>
-      <c r="H77" s="3"/>
+      <c r="G77" s="5"/>
+      <c r="H77" s="5"/>
     </row>
     <row r="78" ht="15.0" customHeight="1">
-      <c r="G78" s="3"/>
-      <c r="H78" s="3"/>
+      <c r="G78" s="5"/>
+      <c r="H78" s="5"/>
     </row>
     <row r="79" ht="15.0" customHeight="1">
-      <c r="G79" s="3"/>
-      <c r="H79" s="3"/>
+      <c r="G79" s="5"/>
+      <c r="H79" s="5"/>
     </row>
     <row r="80" ht="15.0" customHeight="1">
-      <c r="G80" s="3"/>
-      <c r="H80" s="3"/>
+      <c r="G80" s="5"/>
+      <c r="H80" s="5"/>
     </row>
     <row r="81" ht="15.0" customHeight="1">
-      <c r="G81" s="3"/>
-      <c r="H81" s="3"/>
+      <c r="G81" s="5"/>
+      <c r="H81" s="5"/>
     </row>
     <row r="82" ht="15.0" customHeight="1">
-      <c r="G82" s="3"/>
-      <c r="H82" s="3"/>
+      <c r="G82" s="5"/>
+      <c r="H82" s="5"/>
     </row>
     <row r="83" ht="15.0" customHeight="1">
-      <c r="G83" s="3"/>
-      <c r="H83" s="3"/>
+      <c r="G83" s="5"/>
+      <c r="H83" s="5"/>
     </row>
     <row r="84" ht="15.0" customHeight="1">
-      <c r="G84" s="3"/>
-      <c r="H84" s="3"/>
+      <c r="G84" s="5"/>
+      <c r="H84" s="5"/>
     </row>
     <row r="85" ht="15.0" customHeight="1">
-      <c r="G85" s="3"/>
-      <c r="H85" s="3"/>
+      <c r="G85" s="5"/>
+      <c r="H85" s="5"/>
     </row>
     <row r="86" ht="15.0" customHeight="1">
-      <c r="G86" s="3"/>
-      <c r="H86" s="3"/>
+      <c r="G86" s="5"/>
+      <c r="H86" s="5"/>
     </row>
     <row r="87" ht="15.0" customHeight="1">
-      <c r="G87" s="3"/>
-      <c r="H87" s="3"/>
+      <c r="G87" s="5"/>
+      <c r="H87" s="5"/>
     </row>
     <row r="88" ht="15.0" customHeight="1">
-      <c r="G88" s="3"/>
-      <c r="H88" s="3"/>
+      <c r="G88" s="5"/>
+      <c r="H88" s="5"/>
     </row>
     <row r="89" ht="15.0" customHeight="1">
-      <c r="G89" s="3"/>
-      <c r="H89" s="3"/>
+      <c r="G89" s="5"/>
+      <c r="H89" s="5"/>
     </row>
     <row r="90" ht="15.0" customHeight="1">
-      <c r="G90" s="3"/>
-      <c r="H90" s="3"/>
+      <c r="G90" s="5"/>
+      <c r="H90" s="5"/>
     </row>
     <row r="91" ht="15.0" customHeight="1">
-      <c r="G91" s="3"/>
-      <c r="H91" s="3"/>
+      <c r="G91" s="5"/>
+      <c r="H91" s="5"/>
     </row>
     <row r="92" ht="15.0" customHeight="1">
-      <c r="G92" s="3"/>
-      <c r="H92" s="3"/>
+      <c r="G92" s="5"/>
+      <c r="H92" s="5"/>
     </row>
     <row r="93" ht="15.0" customHeight="1">
-      <c r="G93" s="3"/>
-      <c r="H93" s="3"/>
+      <c r="G93" s="5"/>
+      <c r="H93" s="5"/>
     </row>
     <row r="94" ht="15.0" customHeight="1">
-      <c r="G94" s="3"/>
-      <c r="H94" s="3"/>
+      <c r="G94" s="5"/>
+      <c r="H94" s="5"/>
     </row>
     <row r="95" ht="15.0" customHeight="1">
-      <c r="G95" s="3"/>
-      <c r="H95" s="3"/>
+      <c r="G95" s="5"/>
+      <c r="H95" s="5"/>
     </row>
     <row r="96" ht="15.0" customHeight="1">
-      <c r="G96" s="3"/>
-      <c r="H96" s="3"/>
+      <c r="G96" s="5"/>
+      <c r="H96" s="5"/>
     </row>
     <row r="97" ht="15.0" customHeight="1">
-      <c r="G97" s="3"/>
-      <c r="H97" s="3"/>
+      <c r="G97" s="5"/>
+      <c r="H97" s="5"/>
     </row>
     <row r="98" ht="15.0" customHeight="1">
-      <c r="G98" s="3"/>
-      <c r="H98" s="3"/>
+      <c r="G98" s="5"/>
+      <c r="H98" s="5"/>
     </row>
     <row r="99" ht="15.0" customHeight="1">
-      <c r="G99" s="3"/>
-      <c r="H99" s="3"/>
+      <c r="G99" s="5"/>
+      <c r="H99" s="5"/>
     </row>
     <row r="100" ht="15.0" customHeight="1">
-      <c r="G100" s="3"/>
-      <c r="H100" s="3"/>
+      <c r="G100" s="5"/>
+      <c r="H100" s="5"/>
     </row>
     <row r="101" ht="15.0" customHeight="1">
-      <c r="G101" s="3"/>
-      <c r="H101" s="3"/>
+      <c r="G101" s="5"/>
+      <c r="H101" s="5"/>
     </row>
     <row r="102" ht="15.0" customHeight="1">
-      <c r="G102" s="3"/>
-      <c r="H102" s="3"/>
+      <c r="G102" s="5"/>
+      <c r="H102" s="5"/>
     </row>
     <row r="103" ht="15.0" customHeight="1">
-      <c r="G103" s="3"/>
-      <c r="H103" s="3"/>
+      <c r="G103" s="5"/>
+      <c r="H103" s="5"/>
     </row>
     <row r="104" ht="15.0" customHeight="1">
-      <c r="G104" s="3"/>
-      <c r="H104" s="3"/>
+      <c r="G104" s="5"/>
+      <c r="H104" s="5"/>
     </row>
     <row r="105" ht="15.0" customHeight="1">
-      <c r="G105" s="3"/>
-      <c r="H105" s="3"/>
+      <c r="G105" s="5"/>
+      <c r="H105" s="5"/>
     </row>
     <row r="106" ht="15.0" customHeight="1">
-      <c r="G106" s="3"/>
-      <c r="H106" s="3"/>
+      <c r="G106" s="5"/>
+      <c r="H106" s="5"/>
     </row>
     <row r="107" ht="15.0" customHeight="1">
-      <c r="G107" s="3"/>
-      <c r="H107" s="3"/>
+      <c r="G107" s="5"/>
+      <c r="H107" s="5"/>
     </row>
     <row r="108" ht="15.0" customHeight="1">
-      <c r="G108" s="3"/>
-      <c r="H108" s="3"/>
+      <c r="G108" s="5"/>
+      <c r="H108" s="5"/>
     </row>
     <row r="109" ht="15.0" customHeight="1">
-      <c r="G109" s="3"/>
-      <c r="H109" s="3"/>
+      <c r="G109" s="5"/>
+      <c r="H109" s="5"/>
     </row>
     <row r="110" ht="15.0" customHeight="1">
-      <c r="G110" s="3"/>
-      <c r="H110" s="3"/>
+      <c r="G110" s="5"/>
+      <c r="H110" s="5"/>
     </row>
     <row r="111" ht="15.0" customHeight="1">
-      <c r="G111" s="3"/>
-      <c r="H111" s="3"/>
+      <c r="G111" s="5"/>
+      <c r="H111" s="5"/>
     </row>
     <row r="112" ht="15.0" customHeight="1">
-      <c r="G112" s="3"/>
-      <c r="H112" s="3"/>
+      <c r="G112" s="5"/>
+      <c r="H112" s="5"/>
     </row>
     <row r="113" ht="15.0" customHeight="1">
-      <c r="G113" s="3"/>
-      <c r="H113" s="3"/>
+      <c r="G113" s="5"/>
+      <c r="H113" s="5"/>
     </row>
     <row r="114" ht="15.0" customHeight="1">
-      <c r="G114" s="3"/>
-      <c r="H114" s="3"/>
+      <c r="G114" s="5"/>
+      <c r="H114" s="5"/>
     </row>
     <row r="115" ht="15.0" customHeight="1">
-      <c r="G115" s="3"/>
-      <c r="H115" s="3"/>
+      <c r="G115" s="5"/>
+      <c r="H115" s="5"/>
     </row>
     <row r="116" ht="15.0" customHeight="1">
-      <c r="G116" s="3"/>
-      <c r="H116" s="3"/>
+      <c r="G116" s="5"/>
+      <c r="H116" s="5"/>
     </row>
     <row r="117" ht="15.0" customHeight="1">
-      <c r="G117" s="3"/>
-      <c r="H117" s="3"/>
+      <c r="G117" s="5"/>
+      <c r="H117" s="5"/>
     </row>
     <row r="118" ht="15.0" customHeight="1">
-      <c r="G118" s="3"/>
-      <c r="H118" s="3"/>
+      <c r="G118" s="5"/>
+      <c r="H118" s="5"/>
     </row>
     <row r="119" ht="15.0" customHeight="1">
-      <c r="G119" s="3"/>
-      <c r="H119" s="3"/>
+      <c r="G119" s="5"/>
+      <c r="H119" s="5"/>
     </row>
     <row r="120" ht="15.0" customHeight="1">
-      <c r="G120" s="3"/>
-      <c r="H120" s="3"/>
+      <c r="G120" s="5"/>
+      <c r="H120" s="5"/>
     </row>
     <row r="121" ht="15.0" customHeight="1">
-      <c r="G121" s="3"/>
-      <c r="H121" s="3"/>
+      <c r="G121" s="5"/>
+      <c r="H121" s="5"/>
     </row>
     <row r="122" ht="15.0" customHeight="1">
-      <c r="G122" s="3"/>
-      <c r="H122" s="3"/>
+      <c r="G122" s="5"/>
+      <c r="H122" s="5"/>
     </row>
     <row r="123" ht="15.0" customHeight="1">
-      <c r="G123" s="3"/>
-      <c r="H123" s="3"/>
+      <c r="G123" s="5"/>
+      <c r="H123" s="5"/>
     </row>
     <row r="124" ht="15.0" customHeight="1">
-      <c r="G124" s="3"/>
-      <c r="H124" s="3"/>
+      <c r="G124" s="5"/>
+      <c r="H124" s="5"/>
     </row>
     <row r="125" ht="15.0" customHeight="1">
-      <c r="G125" s="3"/>
-      <c r="H125" s="3"/>
+      <c r="G125" s="5"/>
+      <c r="H125" s="5"/>
     </row>
     <row r="126" ht="15.0" customHeight="1">
-      <c r="G126" s="3"/>
-      <c r="H126" s="3"/>
+      <c r="G126" s="5"/>
+      <c r="H126" s="5"/>
     </row>
     <row r="127" ht="15.0" customHeight="1">
-      <c r="G127" s="3"/>
-      <c r="H127" s="3"/>
+      <c r="G127" s="5"/>
+      <c r="H127" s="5"/>
     </row>
     <row r="128" ht="15.0" customHeight="1">
-      <c r="G128" s="3"/>
-      <c r="H128" s="3"/>
+      <c r="G128" s="5"/>
+      <c r="H128" s="5"/>
     </row>
     <row r="129" ht="15.0" customHeight="1">
-      <c r="G129" s="3"/>
-      <c r="H129" s="3"/>
+      <c r="G129" s="5"/>
+      <c r="H129" s="5"/>
     </row>
     <row r="130" ht="15.0" customHeight="1">
-      <c r="G130" s="3"/>
-      <c r="H130" s="3"/>
+      <c r="G130" s="5"/>
+      <c r="H130" s="5"/>
     </row>
     <row r="131" ht="15.0" customHeight="1">
-      <c r="G131" s="3"/>
-      <c r="H131" s="3"/>
+      <c r="G131" s="5"/>
+      <c r="H131" s="5"/>
     </row>
     <row r="132" ht="15.0" customHeight="1">
-      <c r="G132" s="3"/>
-      <c r="H132" s="3"/>
+      <c r="G132" s="5"/>
+      <c r="H132" s="5"/>
     </row>
     <row r="133" ht="15.0" customHeight="1">
-      <c r="G133" s="3"/>
-      <c r="H133" s="3"/>
+      <c r="G133" s="5"/>
+      <c r="H133" s="5"/>
     </row>
     <row r="134" ht="15.0" customHeight="1">
-      <c r="G134" s="3"/>
-      <c r="H134" s="3"/>
+      <c r="G134" s="5"/>
+      <c r="H134" s="5"/>
     </row>
     <row r="135" ht="15.0" customHeight="1">
-      <c r="G135" s="3"/>
-      <c r="H135" s="3"/>
+      <c r="G135" s="5"/>
+      <c r="H135" s="5"/>
     </row>
     <row r="136" ht="15.0" customHeight="1">
-      <c r="G136" s="3"/>
-      <c r="H136" s="3"/>
+      <c r="G136" s="5"/>
+      <c r="H136" s="5"/>
     </row>
     <row r="137" ht="15.0" customHeight="1">
-      <c r="G137" s="3"/>
-      <c r="H137" s="3"/>
+      <c r="G137" s="5"/>
+      <c r="H137" s="5"/>
     </row>
     <row r="138" ht="15.0" customHeight="1">
-      <c r="G138" s="3"/>
-      <c r="H138" s="3"/>
+      <c r="G138" s="5"/>
+      <c r="H138" s="5"/>
     </row>
     <row r="139" ht="15.0" customHeight="1">
-      <c r="G139" s="3"/>
-      <c r="H139" s="3"/>
+      <c r="G139" s="5"/>
+      <c r="H139" s="5"/>
     </row>
     <row r="140" ht="15.0" customHeight="1">
-      <c r="G140" s="3"/>
-      <c r="H140" s="3"/>
+      <c r="G140" s="5"/>
+      <c r="H140" s="5"/>
     </row>
     <row r="141" ht="15.0" customHeight="1">
-      <c r="G141" s="3"/>
-      <c r="H141" s="3"/>
+      <c r="G141" s="5"/>
+      <c r="H141" s="5"/>
     </row>
     <row r="142" ht="15.0" customHeight="1">
-      <c r="G142" s="3"/>
-      <c r="H142" s="3"/>
+      <c r="G142" s="5"/>
+      <c r="H142" s="5"/>
     </row>
     <row r="143" ht="15.0" customHeight="1">
-      <c r="G143" s="3"/>
-      <c r="H143" s="3"/>
+      <c r="G143" s="5"/>
+      <c r="H143" s="5"/>
     </row>
     <row r="144" ht="15.0" customHeight="1">
-      <c r="G144" s="3"/>
-      <c r="H144" s="3"/>
+      <c r="G144" s="5"/>
+      <c r="H144" s="5"/>
     </row>
     <row r="145" ht="15.0" customHeight="1">
-      <c r="G145" s="3"/>
-      <c r="H145" s="3"/>
+      <c r="G145" s="5"/>
+      <c r="H145" s="5"/>
     </row>
     <row r="146" ht="15.0" customHeight="1">
-      <c r="G146" s="3"/>
-      <c r="H146" s="3"/>
+      <c r="G146" s="5"/>
+      <c r="H146" s="5"/>
     </row>
     <row r="147" ht="15.0" customHeight="1">
-      <c r="G147" s="3"/>
-      <c r="H147" s="3"/>
+      <c r="G147" s="5"/>
+      <c r="H147" s="5"/>
     </row>
     <row r="148" ht="15.0" customHeight="1">
-      <c r="G148" s="3"/>
-      <c r="H148" s="3"/>
+      <c r="G148" s="5"/>
+      <c r="H148" s="5"/>
     </row>
     <row r="149" ht="15.0" customHeight="1">
-      <c r="G149" s="3"/>
-      <c r="H149" s="3"/>
+      <c r="G149" s="5"/>
+      <c r="H149" s="5"/>
     </row>
     <row r="150" ht="15.0" customHeight="1">
-      <c r="G150" s="3"/>
-      <c r="H150" s="3"/>
+      <c r="G150" s="5"/>
+      <c r="H150" s="5"/>
     </row>
     <row r="151" ht="15.0" customHeight="1">
-      <c r="G151" s="3"/>
-      <c r="H151" s="3"/>
+      <c r="G151" s="5"/>
+      <c r="H151" s="5"/>
     </row>
     <row r="152" ht="15.0" customHeight="1">
-      <c r="G152" s="3"/>
-      <c r="H152" s="3"/>
+      <c r="G152" s="5"/>
+      <c r="H152" s="5"/>
     </row>
     <row r="153" ht="15.0" customHeight="1">
-      <c r="G153" s="3"/>
-      <c r="H153" s="3"/>
+      <c r="G153" s="5"/>
+      <c r="H153" s="5"/>
     </row>
     <row r="154" ht="15.0" customHeight="1">
-      <c r="G154" s="3"/>
-      <c r="H154" s="3"/>
+      <c r="G154" s="5"/>
+      <c r="H154" s="5"/>
     </row>
     <row r="155" ht="15.0" customHeight="1">
-      <c r="G155" s="3"/>
-      <c r="H155" s="3"/>
+      <c r="G155" s="5"/>
+      <c r="H155" s="5"/>
     </row>
     <row r="156" ht="15.0" customHeight="1">
-      <c r="G156" s="3"/>
-      <c r="H156" s="3"/>
+      <c r="G156" s="5"/>
+      <c r="H156" s="5"/>
     </row>
     <row r="157" ht="15.0" customHeight="1">
-      <c r="G157" s="3"/>
-      <c r="H157" s="3"/>
+      <c r="G157" s="5"/>
+      <c r="H157" s="5"/>
     </row>
     <row r="158" ht="15.0" customHeight="1">
-      <c r="G158" s="3"/>
-      <c r="H158" s="3"/>
+      <c r="G158" s="5"/>
+      <c r="H158" s="5"/>
     </row>
     <row r="159" ht="15.0" customHeight="1">
-      <c r="G159" s="3"/>
-      <c r="H159" s="3"/>
+      <c r="G159" s="5"/>
+      <c r="H159" s="5"/>
     </row>
     <row r="160" ht="15.0" customHeight="1">
-      <c r="G160" s="3"/>
-      <c r="H160" s="3"/>
+      <c r="G160" s="5"/>
+      <c r="H160" s="5"/>
     </row>
     <row r="161" ht="15.0" customHeight="1">
-      <c r="G161" s="3"/>
-      <c r="H161" s="3"/>
+      <c r="G161" s="5"/>
+      <c r="H161" s="5"/>
     </row>
     <row r="162" ht="15.0" customHeight="1">
-      <c r="G162" s="3"/>
-      <c r="H162" s="3"/>
+      <c r="G162" s="5"/>
+      <c r="H162" s="5"/>
     </row>
     <row r="163" ht="15.0" customHeight="1">
-      <c r="G163" s="3"/>
-      <c r="H163" s="3"/>
+      <c r="G163" s="5"/>
+      <c r="H163" s="5"/>
     </row>
     <row r="164" ht="15.0" customHeight="1">
-      <c r="G164" s="3"/>
-      <c r="H164" s="3"/>
+      <c r="G164" s="5"/>
+      <c r="H164" s="5"/>
     </row>
     <row r="165" ht="15.0" customHeight="1">
-      <c r="G165" s="3"/>
-      <c r="H165" s="3"/>
+      <c r="G165" s="5"/>
+      <c r="H165" s="5"/>
     </row>
     <row r="166" ht="15.0" customHeight="1">
-      <c r="G166" s="3"/>
-      <c r="H166" s="3"/>
+      <c r="G166" s="5"/>
+      <c r="H166" s="5"/>
     </row>
     <row r="167" ht="15.0" customHeight="1">
-      <c r="G167" s="3"/>
-      <c r="H167" s="3"/>
+      <c r="G167" s="5"/>
+      <c r="H167" s="5"/>
     </row>
     <row r="168" ht="15.0" customHeight="1">
-      <c r="G168" s="3"/>
-      <c r="H168" s="3"/>
+      <c r="G168" s="5"/>
+      <c r="H168" s="5"/>
     </row>
     <row r="169" ht="15.0" customHeight="1">
-      <c r="G169" s="3"/>
-      <c r="H169" s="3"/>
+      <c r="G169" s="5"/>
+      <c r="H169" s="5"/>
     </row>
     <row r="170" ht="15.0" customHeight="1">
-      <c r="G170" s="3"/>
-      <c r="H170" s="3"/>
+      <c r="G170" s="5"/>
+      <c r="H170" s="5"/>
     </row>
     <row r="171" ht="15.0" customHeight="1">
-      <c r="G171" s="3"/>
-      <c r="H171" s="3"/>
+      <c r="G171" s="5"/>
+      <c r="H171" s="5"/>
     </row>
     <row r="172" ht="15.0" customHeight="1">
-      <c r="G172" s="3"/>
-      <c r="H172" s="3"/>
+      <c r="G172" s="5"/>
+      <c r="H172" s="5"/>
     </row>
     <row r="173" ht="15.0" customHeight="1">
-      <c r="G173" s="3"/>
-      <c r="H173" s="3"/>
+      <c r="G173" s="5"/>
+      <c r="H173" s="5"/>
     </row>
     <row r="174" ht="15.0" customHeight="1">
-      <c r="G174" s="3"/>
-      <c r="H174" s="3"/>
+      <c r="G174" s="5"/>
+      <c r="H174" s="5"/>
     </row>
     <row r="175" ht="15.0" customHeight="1">
-      <c r="G175" s="3"/>
-      <c r="H175" s="3"/>
+      <c r="G175" s="5"/>
+      <c r="H175" s="5"/>
     </row>
     <row r="176" ht="15.0" customHeight="1">
-      <c r="G176" s="3"/>
-      <c r="H176" s="3"/>
+      <c r="G176" s="5"/>
+      <c r="H176" s="5"/>
     </row>
     <row r="177" ht="15.0" customHeight="1">
-      <c r="G177" s="3"/>
-      <c r="H177" s="3"/>
+      <c r="G177" s="5"/>
+      <c r="H177" s="5"/>
     </row>
     <row r="178" ht="15.0" customHeight="1">
-      <c r="G178" s="3"/>
-      <c r="H178" s="3"/>
+      <c r="G178" s="5"/>
+      <c r="H178" s="5"/>
     </row>
     <row r="179" ht="15.0" customHeight="1">
-      <c r="G179" s="3"/>
-      <c r="H179" s="3"/>
+      <c r="G179" s="5"/>
+      <c r="H179" s="5"/>
     </row>
     <row r="180" ht="15.0" customHeight="1">
-      <c r="G180" s="3"/>
-      <c r="H180" s="3"/>
+      <c r="G180" s="5"/>
+      <c r="H180" s="5"/>
     </row>
     <row r="181" ht="15.0" customHeight="1">
-      <c r="G181" s="3"/>
-      <c r="H181" s="3"/>
+      <c r="G181" s="5"/>
+      <c r="H181" s="5"/>
     </row>
     <row r="182" ht="15.0" customHeight="1">
-      <c r="G182" s="3"/>
-      <c r="H182" s="3"/>
+      <c r="G182" s="5"/>
+      <c r="H182" s="5"/>
     </row>
     <row r="183" ht="15.0" customHeight="1">
-      <c r="G183" s="3"/>
-      <c r="H183" s="3"/>
+      <c r="G183" s="5"/>
+      <c r="H183" s="5"/>
     </row>
     <row r="184" ht="15.0" customHeight="1">
-      <c r="G184" s="3"/>
-      <c r="H184" s="3"/>
+      <c r="G184" s="5"/>
+      <c r="H184" s="5"/>
     </row>
     <row r="185" ht="15.0" customHeight="1">
-      <c r="G185" s="3"/>
-      <c r="H185" s="3"/>
+      <c r="G185" s="5"/>
+      <c r="H185" s="5"/>
     </row>
     <row r="186" ht="15.0" customHeight="1">
-      <c r="G186" s="3"/>
-      <c r="H186" s="3"/>
+      <c r="G186" s="5"/>
+      <c r="H186" s="5"/>
     </row>
     <row r="187" ht="15.0" customHeight="1">
-      <c r="G187" s="3"/>
-      <c r="H187" s="3"/>
+      <c r="G187" s="5"/>
+      <c r="H187" s="5"/>
     </row>
     <row r="188" ht="15.0" customHeight="1">
-      <c r="G188" s="3"/>
-      <c r="H188" s="3"/>
+      <c r="G188" s="5"/>
+      <c r="H188" s="5"/>
     </row>
     <row r="189" ht="15.0" customHeight="1">
-      <c r="G189" s="3"/>
-      <c r="H189" s="3"/>
+      <c r="G189" s="5"/>
+      <c r="H189" s="5"/>
     </row>
     <row r="190" ht="15.0" customHeight="1">
-      <c r="G190" s="3"/>
-      <c r="H190" s="3"/>
+      <c r="G190" s="5"/>
+      <c r="H190" s="5"/>
     </row>
     <row r="191" ht="15.0" customHeight="1">
-      <c r="G191" s="3"/>
-      <c r="H191" s="3"/>
+      <c r="G191" s="5"/>
+      <c r="H191" s="5"/>
     </row>
     <row r="192" ht="15.0" customHeight="1">
-      <c r="G192" s="3"/>
-      <c r="H192" s="3"/>
+      <c r="G192" s="5"/>
+      <c r="H192" s="5"/>
     </row>
     <row r="193" ht="15.0" customHeight="1">
-      <c r="G193" s="3"/>
-      <c r="H193" s="3"/>
+      <c r="G193" s="5"/>
+      <c r="H193" s="5"/>
     </row>
     <row r="194" ht="15.0" customHeight="1">
-      <c r="G194" s="3"/>
-      <c r="H194" s="3"/>
+      <c r="G194" s="5"/>
+      <c r="H194" s="5"/>
     </row>
     <row r="195" ht="15.0" customHeight="1">
-      <c r="G195" s="3"/>
-      <c r="H195" s="3"/>
+      <c r="G195" s="5"/>
+      <c r="H195" s="5"/>
     </row>
     <row r="196" ht="15.0" customHeight="1">
-      <c r="G196" s="3"/>
-      <c r="H196" s="3"/>
+      <c r="G196" s="5"/>
+      <c r="H196" s="5"/>
     </row>
     <row r="197" ht="15.0" customHeight="1">
-      <c r="G197" s="3"/>
-      <c r="H197" s="3"/>
+      <c r="G197" s="5"/>
+      <c r="H197" s="5"/>
     </row>
     <row r="198" ht="15.0" customHeight="1">
-      <c r="G198" s="3"/>
-      <c r="H198" s="3"/>
+      <c r="G198" s="5"/>
+      <c r="H198" s="5"/>
     </row>
     <row r="199" ht="15.0" customHeight="1">
-      <c r="G199" s="3"/>
-      <c r="H199" s="3"/>
+      <c r="G199" s="5"/>
+      <c r="H199" s="5"/>
     </row>
     <row r="200" ht="15.0" customHeight="1">
-      <c r="G200" s="3"/>
-      <c r="H200" s="3"/>
+      <c r="G200" s="5"/>
+      <c r="H200" s="5"/>
     </row>
     <row r="201" ht="15.0" customHeight="1">
-      <c r="G201" s="3"/>
-      <c r="H201" s="3"/>
+      <c r="G201" s="5"/>
+      <c r="H201" s="5"/>
     </row>
     <row r="202" ht="15.0" customHeight="1">
-      <c r="G202" s="3"/>
-      <c r="H202" s="3"/>
+      <c r="G202" s="5"/>
+      <c r="H202" s="5"/>
     </row>
     <row r="203" ht="15.0" customHeight="1">
-      <c r="G203" s="3"/>
-      <c r="H203" s="3"/>
+      <c r="G203" s="5"/>
+      <c r="H203" s="5"/>
     </row>
     <row r="204" ht="15.0" customHeight="1">
-      <c r="G204" s="3"/>
-      <c r="H204" s="3"/>
+      <c r="G204" s="5"/>
+      <c r="H204" s="5"/>
     </row>
     <row r="205" ht="15.0" customHeight="1">
-      <c r="G205" s="3"/>
-      <c r="H205" s="3"/>
+      <c r="G205" s="5"/>
+      <c r="H205" s="5"/>
     </row>
     <row r="206" ht="15.0" customHeight="1">
-      <c r="G206" s="3"/>
-      <c r="H206" s="3"/>
+      <c r="G206" s="5"/>
+      <c r="H206" s="5"/>
     </row>
     <row r="207" ht="15.0" customHeight="1">
-      <c r="G207" s="3"/>
-      <c r="H207" s="3"/>
+      <c r="G207" s="5"/>
+      <c r="H207" s="5"/>
     </row>
     <row r="208" ht="15.0" customHeight="1">
-      <c r="G208" s="3"/>
-      <c r="H208" s="3"/>
+      <c r="G208" s="5"/>
+      <c r="H208" s="5"/>
     </row>
     <row r="209" ht="15.0" customHeight="1">
-      <c r="G209" s="3"/>
-      <c r="H209" s="3"/>
+      <c r="G209" s="5"/>
+      <c r="H209" s="5"/>
     </row>
     <row r="210" ht="15.0" customHeight="1">
-      <c r="G210" s="3"/>
-      <c r="H210" s="3"/>
+      <c r="G210" s="5"/>
+      <c r="H210" s="5"/>
     </row>
     <row r="211" ht="15.0" customHeight="1">
-      <c r="G211" s="3"/>
-      <c r="H211" s="3"/>
+      <c r="G211" s="5"/>
+      <c r="H211" s="5"/>
     </row>
     <row r="212" ht="15.0" customHeight="1">
-      <c r="G212" s="3"/>
-      <c r="H212" s="3"/>
+      <c r="G212" s="5"/>
+      <c r="H212" s="5"/>
     </row>
     <row r="213" ht="15.0" customHeight="1">
-      <c r="G213" s="3"/>
-      <c r="H213" s="3"/>
+      <c r="G213" s="5"/>
+      <c r="H213" s="5"/>
     </row>
     <row r="214" ht="15.0" customHeight="1">
-      <c r="G214" s="3"/>
-      <c r="H214" s="3"/>
+      <c r="G214" s="5"/>
+      <c r="H214" s="5"/>
     </row>
     <row r="215" ht="15.0" customHeight="1">
-      <c r="G215" s="3"/>
-      <c r="H215" s="3"/>
+      <c r="G215" s="5"/>
+      <c r="H215" s="5"/>
     </row>
     <row r="216" ht="15.0" customHeight="1">
-      <c r="G216" s="3"/>
-      <c r="H216" s="3"/>
+      <c r="G216" s="5"/>
+      <c r="H216" s="5"/>
     </row>
     <row r="217" ht="15.0" customHeight="1">
-      <c r="G217" s="3"/>
-      <c r="H217" s="3"/>
+      <c r="G217" s="5"/>
+      <c r="H217" s="5"/>
     </row>
     <row r="218" ht="15.0" customHeight="1">
-      <c r="G218" s="3"/>
-      <c r="H218" s="3"/>
+      <c r="G218" s="5"/>
+      <c r="H218" s="5"/>
     </row>
     <row r="219" ht="15.0" customHeight="1">
-      <c r="G219" s="3"/>
-      <c r="H219" s="3"/>
+      <c r="G219" s="5"/>
+      <c r="H219" s="5"/>
     </row>
     <row r="220" ht="15.0" customHeight="1">
-      <c r="G220" s="3"/>
-      <c r="H220" s="3"/>
+      <c r="G220" s="5"/>
+      <c r="H220" s="5"/>
     </row>
     <row r="221" ht="15.75" customHeight="1">
-      <c r="G221" s="3"/>
-      <c r="H221" s="3"/>
+      <c r="G221" s="5"/>
+      <c r="H221" s="5"/>
     </row>
     <row r="222" ht="15.75" customHeight="1">
-      <c r="G222" s="3"/>
-      <c r="H222" s="3"/>
+      <c r="G222" s="5"/>
+      <c r="H222" s="5"/>
     </row>
     <row r="223" ht="15.75" customHeight="1">
-      <c r="G223" s="3"/>
-      <c r="H223" s="3"/>
+      <c r="G223" s="5"/>
+      <c r="H223" s="5"/>
     </row>
     <row r="224" ht="15.75" customHeight="1">
-      <c r="G224" s="3"/>
-      <c r="H224" s="3"/>
+      <c r="G224" s="5"/>
+      <c r="H224" s="5"/>
     </row>
     <row r="225" ht="15.75" customHeight="1">
-      <c r="G225" s="3"/>
-      <c r="H225" s="3"/>
+      <c r="G225" s="5"/>
+      <c r="H225" s="5"/>
     </row>
     <row r="226" ht="15.75" customHeight="1">
-      <c r="G226" s="3"/>
-      <c r="H226" s="3"/>
+      <c r="G226" s="5"/>
+      <c r="H226" s="5"/>
     </row>
     <row r="227" ht="15.75" customHeight="1">
-      <c r="G227" s="3"/>
-      <c r="H227" s="3"/>
+      <c r="G227" s="5"/>
+      <c r="H227" s="5"/>
     </row>
     <row r="228" ht="15.75" customHeight="1">
-      <c r="G228" s="3"/>
-      <c r="H228" s="3"/>
+      <c r="G228" s="5"/>
+      <c r="H228" s="5"/>
     </row>
     <row r="229" ht="15.75" customHeight="1">
-      <c r="G229" s="3"/>
-      <c r="H229" s="3"/>
+      <c r="G229" s="5"/>
+      <c r="H229" s="5"/>
     </row>
     <row r="230" ht="15.75" customHeight="1">
-      <c r="G230" s="3"/>
-      <c r="H230" s="3"/>
+      <c r="G230" s="5"/>
+      <c r="H230" s="5"/>
     </row>
     <row r="231" ht="15.75" customHeight="1">
-      <c r="G231" s="3"/>
-      <c r="H231" s="3"/>
+      <c r="G231" s="5"/>
+      <c r="H231" s="5"/>
     </row>
     <row r="232" ht="15.75" customHeight="1">
-      <c r="G232" s="3"/>
-      <c r="H232" s="3"/>
+      <c r="G232" s="5"/>
+      <c r="H232" s="5"/>
     </row>
     <row r="233" ht="15.75" customHeight="1">
-      <c r="G233" s="3"/>
-      <c r="H233" s="3"/>
+      <c r="G233" s="5"/>
+      <c r="H233" s="5"/>
     </row>
     <row r="234" ht="15.75" customHeight="1">
-      <c r="G234" s="3"/>
-      <c r="H234" s="3"/>
+      <c r="G234" s="5"/>
+      <c r="H234" s="5"/>
     </row>
     <row r="235" ht="15.75" customHeight="1">
-      <c r="G235" s="3"/>
-      <c r="H235" s="3"/>
+      <c r="G235" s="5"/>
+      <c r="H235" s="5"/>
     </row>
     <row r="236" ht="15.75" customHeight="1">
-      <c r="G236" s="3"/>
-      <c r="H236" s="3"/>
+      <c r="G236" s="5"/>
+      <c r="H236" s="5"/>
     </row>
     <row r="237" ht="15.75" customHeight="1">
-      <c r="G237" s="3"/>
-      <c r="H237" s="3"/>
+      <c r="G237" s="5"/>
+      <c r="H237" s="5"/>
     </row>
     <row r="238" ht="15.75" customHeight="1">
-      <c r="G238" s="3"/>
-      <c r="H238" s="3"/>
+      <c r="G238" s="5"/>
+      <c r="H238" s="5"/>
     </row>
     <row r="239" ht="15.75" customHeight="1">
-      <c r="G239" s="3"/>
-      <c r="H239" s="3"/>
+      <c r="G239" s="5"/>
+      <c r="H239" s="5"/>
     </row>
     <row r="240" ht="15.75" customHeight="1">
-      <c r="G240" s="3"/>
-      <c r="H240" s="3"/>
+      <c r="G240" s="5"/>
+      <c r="H240" s="5"/>
     </row>
     <row r="241" ht="15.75" customHeight="1">
-      <c r="G241" s="3"/>
-      <c r="H241" s="3"/>
+      <c r="G241" s="5"/>
+      <c r="H241" s="5"/>
     </row>
     <row r="242" ht="15.75" customHeight="1">
-      <c r="G242" s="3"/>
-      <c r="H242" s="3"/>
+      <c r="G242" s="5"/>
+      <c r="H242" s="5"/>
     </row>
     <row r="243" ht="15.75" customHeight="1">
-      <c r="G243" s="3"/>
-      <c r="H243" s="3"/>
+      <c r="G243" s="5"/>
+      <c r="H243" s="5"/>
     </row>
     <row r="244" ht="15.75" customHeight="1">
-      <c r="G244" s="3"/>
-      <c r="H244" s="3"/>
+      <c r="G244" s="5"/>
+      <c r="H244" s="5"/>
     </row>
     <row r="245" ht="15.75" customHeight="1">
-      <c r="G245" s="3"/>
-      <c r="H245" s="3"/>
+      <c r="G245" s="5"/>
+      <c r="H245" s="5"/>
     </row>
     <row r="246" ht="15.75" customHeight="1">
-      <c r="G246" s="3"/>
-      <c r="H246" s="3"/>
+      <c r="G246" s="5"/>
+      <c r="H246" s="5"/>
     </row>
     <row r="247" ht="15.75" customHeight="1">
-      <c r="G247" s="3"/>
-      <c r="H247" s="3"/>
+      <c r="G247" s="5"/>
+      <c r="H247" s="5"/>
     </row>
     <row r="248" ht="15.75" customHeight="1">
-      <c r="G248" s="3"/>
-      <c r="H248" s="3"/>
+      <c r="G248" s="5"/>
+      <c r="H248" s="5"/>
     </row>
     <row r="249" ht="15.75" customHeight="1">
-      <c r="G249" s="3"/>
-      <c r="H249" s="3"/>
+      <c r="G249" s="5"/>
+      <c r="H249" s="5"/>
     </row>
     <row r="250" ht="15.75" customHeight="1">
-      <c r="G250" s="3"/>
-      <c r="H250" s="3"/>
+      <c r="G250" s="5"/>
+      <c r="H250" s="5"/>
     </row>
     <row r="251" ht="15.75" customHeight="1">
-      <c r="G251" s="3"/>
-      <c r="H251" s="3"/>
+      <c r="G251" s="5"/>
+      <c r="H251" s="5"/>
     </row>
     <row r="252" ht="15.75" customHeight="1">
-      <c r="G252" s="3"/>
-      <c r="H252" s="3"/>
+      <c r="G252" s="5"/>
+      <c r="H252" s="5"/>
     </row>
     <row r="253" ht="15.75" customHeight="1">
-      <c r="G253" s="3"/>
-      <c r="H253" s="3"/>
+      <c r="G253" s="5"/>
+      <c r="H253" s="5"/>
     </row>
     <row r="254" ht="15.75" customHeight="1">
-      <c r="G254" s="3"/>
-      <c r="H254" s="3"/>
+      <c r="G254" s="5"/>
+      <c r="H254" s="5"/>
     </row>
     <row r="255" ht="15.75" customHeight="1">
-      <c r="G255" s="3"/>
-      <c r="H255" s="3"/>
+      <c r="G255" s="5"/>
+      <c r="H255" s="5"/>
     </row>
     <row r="256" ht="15.75" customHeight="1">
-      <c r="G256" s="3"/>
-      <c r="H256" s="3"/>
+      <c r="G256" s="5"/>
+      <c r="H256" s="5"/>
     </row>
     <row r="257" ht="15.75" customHeight="1">
-      <c r="G257" s="3"/>
-      <c r="H257" s="3"/>
+      <c r="G257" s="5"/>
+      <c r="H257" s="5"/>
     </row>
     <row r="258" ht="15.75" customHeight="1">
-      <c r="G258" s="3"/>
-      <c r="H258" s="3"/>
+      <c r="G258" s="5"/>
+      <c r="H258" s="5"/>
     </row>
     <row r="259" ht="15.75" customHeight="1">
-      <c r="G259" s="3"/>
-      <c r="H259" s="3"/>
+      <c r="G259" s="5"/>
+      <c r="H259" s="5"/>
     </row>
     <row r="260" ht="15.75" customHeight="1">
-      <c r="G260" s="3"/>
-      <c r="H260" s="3"/>
+      <c r="G260" s="5"/>
+      <c r="H260" s="5"/>
     </row>
     <row r="261" ht="15.75" customHeight="1">
-      <c r="G261" s="3"/>
-      <c r="H261" s="3"/>
+      <c r="G261" s="5"/>
+      <c r="H261" s="5"/>
     </row>
     <row r="262" ht="15.75" customHeight="1">
-      <c r="G262" s="3"/>
-      <c r="H262" s="3"/>
+      <c r="G262" s="5"/>
+      <c r="H262" s="5"/>
     </row>
     <row r="263" ht="15.75" customHeight="1">
-      <c r="G263" s="3"/>
-      <c r="H263" s="3"/>
+      <c r="G263" s="5"/>
+      <c r="H263" s="5"/>
     </row>
     <row r="264" ht="15.75" customHeight="1">
-      <c r="G264" s="3"/>
-      <c r="H264" s="3"/>
+      <c r="G264" s="5"/>
+      <c r="H264" s="5"/>
     </row>
     <row r="265" ht="15.75" customHeight="1">
-      <c r="G265" s="3"/>
-      <c r="H265" s="3"/>
+      <c r="G265" s="5"/>
+      <c r="H265" s="5"/>
     </row>
     <row r="266" ht="15.75" customHeight="1">
-      <c r="G266" s="3"/>
-      <c r="H266" s="3"/>
+      <c r="G266" s="5"/>
+      <c r="H266" s="5"/>
     </row>
     <row r="267" ht="15.75" customHeight="1">
-      <c r="G267" s="3"/>
-      <c r="H267" s="3"/>
+      <c r="G267" s="5"/>
+      <c r="H267" s="5"/>
     </row>
     <row r="268" ht="15.75" customHeight="1">
-      <c r="G268" s="3"/>
-      <c r="H268" s="3"/>
+      <c r="G268" s="5"/>
+      <c r="H268" s="5"/>
     </row>
     <row r="269" ht="15.75" customHeight="1">
-      <c r="G269" s="3"/>
-      <c r="H269" s="3"/>
+      <c r="G269" s="5"/>
+      <c r="H269" s="5"/>
     </row>
     <row r="270" ht="15.75" customHeight="1">
-      <c r="G270" s="3"/>
-      <c r="H270" s="3"/>
+      <c r="G270" s="5"/>
+      <c r="H270" s="5"/>
     </row>
     <row r="271" ht="15.75" customHeight="1">
-      <c r="G271" s="3"/>
-      <c r="H271" s="3"/>
+      <c r="G271" s="5"/>
+      <c r="H271" s="5"/>
     </row>
     <row r="272" ht="15.75" customHeight="1">
-      <c r="G272" s="3"/>
-      <c r="H272" s="3"/>
+      <c r="G272" s="5"/>
+      <c r="H272" s="5"/>
     </row>
     <row r="273" ht="15.75" customHeight="1">
-      <c r="G273" s="3"/>
-      <c r="H273" s="3"/>
+      <c r="G273" s="5"/>
+      <c r="H273" s="5"/>
     </row>
     <row r="274" ht="15.75" customHeight="1">
-      <c r="G274" s="3"/>
-      <c r="H274" s="3"/>
+      <c r="G274" s="5"/>
+      <c r="H274" s="5"/>
     </row>
     <row r="275" ht="15.75" customHeight="1">
-      <c r="G275" s="3"/>
-      <c r="H275" s="3"/>
+      <c r="G275" s="5"/>
+      <c r="H275" s="5"/>
     </row>
     <row r="276" ht="15.75" customHeight="1">
-      <c r="G276" s="3"/>
-      <c r="H276" s="3"/>
+      <c r="G276" s="5"/>
+      <c r="H276" s="5"/>
     </row>
     <row r="277" ht="15.75" customHeight="1">
-      <c r="G277" s="3"/>
-      <c r="H277" s="3"/>
+      <c r="G277" s="5"/>
+      <c r="H277" s="5"/>
     </row>
     <row r="278" ht="15.75" customHeight="1">
-      <c r="G278" s="3"/>
-      <c r="H278" s="3"/>
+      <c r="G278" s="5"/>
+      <c r="H278" s="5"/>
     </row>
     <row r="279" ht="15.75" customHeight="1">
-      <c r="G279" s="3"/>
-      <c r="H279" s="3"/>
+      <c r="G279" s="5"/>
+      <c r="H279" s="5"/>
     </row>
     <row r="280" ht="15.75" customHeight="1">
-      <c r="G280" s="3"/>
-      <c r="H280" s="3"/>
+      <c r="G280" s="5"/>
+      <c r="H280" s="5"/>
     </row>
     <row r="281" ht="15.75" customHeight="1">
-      <c r="G281" s="3"/>
-      <c r="H281" s="3"/>
+      <c r="G281" s="5"/>
+      <c r="H281" s="5"/>
     </row>
     <row r="282" ht="15.75" customHeight="1">
-      <c r="G282" s="3"/>
-      <c r="H282" s="3"/>
+      <c r="G282" s="5"/>
+      <c r="H282" s="5"/>
     </row>
     <row r="283" ht="15.75" customHeight="1">
-      <c r="G283" s="3"/>
-      <c r="H283" s="3"/>
+      <c r="G283" s="5"/>
+      <c r="H283" s="5"/>
     </row>
     <row r="284" ht="15.75" customHeight="1">
-      <c r="G284" s="3"/>
-      <c r="H284" s="3"/>
+      <c r="G284" s="5"/>
+      <c r="H284" s="5"/>
     </row>
     <row r="285" ht="15.75" customHeight="1">
-      <c r="G285" s="3"/>
-      <c r="H285" s="3"/>
+      <c r="G285" s="5"/>
+      <c r="H285" s="5"/>
     </row>
     <row r="286" ht="15.75" customHeight="1">
-      <c r="G286" s="3"/>
-      <c r="H286" s="3"/>
+      <c r="G286" s="5"/>
+      <c r="H286" s="5"/>
     </row>
     <row r="287" ht="15.75" customHeight="1">
-      <c r="G287" s="3"/>
-      <c r="H287" s="3"/>
+      <c r="G287" s="5"/>
+      <c r="H287" s="5"/>
     </row>
     <row r="288" ht="15.75" customHeight="1">
-      <c r="G288" s="3"/>
-      <c r="H288" s="3"/>
+      <c r="G288" s="5"/>
+      <c r="H288" s="5"/>
     </row>
     <row r="289" ht="15.75" customHeight="1">
-      <c r="G289" s="3"/>
-      <c r="H289" s="3"/>
+      <c r="G289" s="5"/>
+      <c r="H289" s="5"/>
     </row>
     <row r="290" ht="15.75" customHeight="1">
-      <c r="G290" s="3"/>
-      <c r="H290" s="3"/>
+      <c r="G290" s="5"/>
+      <c r="H290" s="5"/>
     </row>
     <row r="291" ht="15.75" customHeight="1">
-      <c r="G291" s="3"/>
-      <c r="H291" s="3"/>
+      <c r="G291" s="5"/>
+      <c r="H291" s="5"/>
     </row>
     <row r="292" ht="15.75" customHeight="1">
-      <c r="G292" s="3"/>
-      <c r="H292" s="3"/>
+      <c r="G292" s="5"/>
+      <c r="H292" s="5"/>
     </row>
     <row r="293" ht="15.75" customHeight="1">
-      <c r="G293" s="3"/>
-      <c r="H293" s="3"/>
+      <c r="G293" s="5"/>
+      <c r="H293" s="5"/>
     </row>
     <row r="294" ht="15.75" customHeight="1">
-      <c r="G294" s="3"/>
-      <c r="H294" s="3"/>
+      <c r="G294" s="5"/>
+      <c r="H294" s="5"/>
     </row>
     <row r="295" ht="15.75" customHeight="1">
-      <c r="G295" s="3"/>
-      <c r="H295" s="3"/>
+      <c r="G295" s="5"/>
+      <c r="H295" s="5"/>
     </row>
     <row r="296" ht="15.75" customHeight="1">
-      <c r="G296" s="3"/>
-      <c r="H296" s="3"/>
+      <c r="G296" s="5"/>
+      <c r="H296" s="5"/>
     </row>
     <row r="297" ht="15.75" customHeight="1">
-      <c r="G297" s="3"/>
-      <c r="H297" s="3"/>
+      <c r="G297" s="5"/>
+      <c r="H297" s="5"/>
     </row>
     <row r="298" ht="15.75" customHeight="1">
-      <c r="G298" s="3"/>
-      <c r="H298" s="3"/>
+      <c r="G298" s="5"/>
+      <c r="H298" s="5"/>
     </row>
     <row r="299" ht="15.75" customHeight="1">
-      <c r="G299" s="3"/>
-      <c r="H299" s="3"/>
+      <c r="G299" s="5"/>
+      <c r="H299" s="5"/>
     </row>
     <row r="300" ht="15.75" customHeight="1">
-      <c r="G300" s="3"/>
-      <c r="H300" s="3"/>
+      <c r="G300" s="5"/>
+      <c r="H300" s="5"/>
     </row>
     <row r="301" ht="15.75" customHeight="1">
-      <c r="G301" s="3"/>
-      <c r="H301" s="3"/>
+      <c r="G301" s="5"/>
+      <c r="H301" s="5"/>
     </row>
     <row r="302" ht="15.75" customHeight="1">
-      <c r="G302" s="3"/>
-      <c r="H302" s="3"/>
+      <c r="G302" s="5"/>
+      <c r="H302" s="5"/>
     </row>
     <row r="303" ht="15.75" customHeight="1">
-      <c r="G303" s="3"/>
-      <c r="H303" s="3"/>
+      <c r="G303" s="5"/>
+      <c r="H303" s="5"/>
     </row>
     <row r="304" ht="15.75" customHeight="1">
-      <c r="G304" s="3"/>
-      <c r="H304" s="3"/>
+      <c r="G304" s="5"/>
+      <c r="H304" s="5"/>
     </row>
     <row r="305" ht="15.75" customHeight="1">
-      <c r="G305" s="3"/>
-      <c r="H305" s="3"/>
+      <c r="G305" s="5"/>
+      <c r="H305" s="5"/>
     </row>
     <row r="306" ht="15.75" customHeight="1">
-      <c r="G306" s="3"/>
-      <c r="H306" s="3"/>
+      <c r="G306" s="5"/>
+      <c r="H306" s="5"/>
     </row>
     <row r="307" ht="15.75" customHeight="1">
-      <c r="G307" s="3"/>
-      <c r="H307" s="3"/>
+      <c r="G307" s="5"/>
+      <c r="H307" s="5"/>
     </row>
     <row r="308" ht="15.75" customHeight="1">
-      <c r="G308" s="3"/>
-      <c r="H308" s="3"/>
+      <c r="G308" s="5"/>
+      <c r="H308" s="5"/>
     </row>
     <row r="309" ht="15.75" customHeight="1">
-      <c r="G309" s="3"/>
-      <c r="H309" s="3"/>
+      <c r="G309" s="5"/>
+      <c r="H309" s="5"/>
     </row>
     <row r="310" ht="15.75" customHeight="1">
-      <c r="G310" s="3"/>
-      <c r="H310" s="3"/>
+      <c r="G310" s="5"/>
+      <c r="H310" s="5"/>
     </row>
     <row r="311" ht="15.75" customHeight="1">
-      <c r="G311" s="3"/>
-      <c r="H311" s="3"/>
+      <c r="G311" s="5"/>
+      <c r="H311" s="5"/>
     </row>
     <row r="312" ht="15.75" customHeight="1">
-      <c r="G312" s="3"/>
-      <c r="H312" s="3"/>
+      <c r="G312" s="5"/>
+      <c r="H312" s="5"/>
     </row>
     <row r="313" ht="15.75" customHeight="1">
-      <c r="G313" s="3"/>
-      <c r="H313" s="3"/>
+      <c r="G313" s="5"/>
+      <c r="H313" s="5"/>
     </row>
     <row r="314" ht="15.75" customHeight="1">
-      <c r="G314" s="3"/>
-      <c r="H314" s="3"/>
+      <c r="G314" s="5"/>
+      <c r="H314" s="5"/>
     </row>
     <row r="315" ht="15.75" customHeight="1">
-      <c r="G315" s="3"/>
-      <c r="H315" s="3"/>
+      <c r="G315" s="5"/>
+      <c r="H315" s="5"/>
     </row>
     <row r="316" ht="15.75" customHeight="1">
-      <c r="G316" s="3"/>
-      <c r="H316" s="3"/>
+      <c r="G316" s="5"/>
+      <c r="H316" s="5"/>
     </row>
     <row r="317" ht="15.75" customHeight="1">
-      <c r="G317" s="3"/>
-      <c r="H317" s="3"/>
+      <c r="G317" s="5"/>
+      <c r="H317" s="5"/>
     </row>
     <row r="318" ht="15.75" customHeight="1">
-      <c r="G318" s="3"/>
-      <c r="H318" s="3"/>
+      <c r="G318" s="5"/>
+      <c r="H318" s="5"/>
     </row>
     <row r="319" ht="15.75" customHeight="1">
-      <c r="G319" s="3"/>
-      <c r="H319" s="3"/>
+      <c r="G319" s="5"/>
+      <c r="H319" s="5"/>
     </row>
     <row r="320" ht="15.75" customHeight="1">
-      <c r="G320" s="3"/>
-      <c r="H320" s="3"/>
+      <c r="G320" s="5"/>
+      <c r="H320" s="5"/>
     </row>
     <row r="321" ht="15.75" customHeight="1">
-      <c r="G321" s="3"/>
-      <c r="H321" s="3"/>
+      <c r="G321" s="5"/>
+      <c r="H321" s="5"/>
     </row>
     <row r="322" ht="15.75" customHeight="1">
-      <c r="G322" s="3"/>
-      <c r="H322" s="3"/>
+      <c r="G322" s="5"/>
+      <c r="H322" s="5"/>
     </row>
     <row r="323" ht="15.75" customHeight="1">
-      <c r="G323" s="3"/>
-      <c r="H323" s="3"/>
+      <c r="G323" s="5"/>
+      <c r="H323" s="5"/>
     </row>
     <row r="324" ht="15.75" customHeight="1">
-      <c r="G324" s="3"/>
-      <c r="H324" s="3"/>
+      <c r="G324" s="5"/>
+      <c r="H324" s="5"/>
     </row>
     <row r="325" ht="15.75" customHeight="1">
-      <c r="G325" s="3"/>
-      <c r="H325" s="3"/>
+      <c r="G325" s="5"/>
+      <c r="H325" s="5"/>
     </row>
     <row r="326" ht="15.75" customHeight="1">
-      <c r="G326" s="3"/>
-      <c r="H326" s="3"/>
+      <c r="G326" s="5"/>
+      <c r="H326" s="5"/>
     </row>
     <row r="327" ht="15.75" customHeight="1">
-      <c r="G327" s="3"/>
-      <c r="H327" s="3"/>
+      <c r="G327" s="5"/>
+      <c r="H327" s="5"/>
     </row>
     <row r="328" ht="15.75" customHeight="1">
-      <c r="G328" s="3"/>
-      <c r="H328" s="3"/>
+      <c r="G328" s="5"/>
+      <c r="H328" s="5"/>
     </row>
     <row r="329" ht="15.75" customHeight="1">
-      <c r="G329" s="3"/>
-      <c r="H329" s="3"/>
+      <c r="G329" s="5"/>
+      <c r="H329" s="5"/>
     </row>
     <row r="330" ht="15.75" customHeight="1">
-      <c r="G330" s="3"/>
-      <c r="H330" s="3"/>
+      <c r="G330" s="5"/>
+      <c r="H330" s="5"/>
     </row>
     <row r="331" ht="15.75" customHeight="1">
-      <c r="G331" s="3"/>
-      <c r="H331" s="3"/>
+      <c r="G331" s="5"/>
+      <c r="H331" s="5"/>
     </row>
     <row r="332" ht="15.75" customHeight="1">
-      <c r="G332" s="3"/>
-      <c r="H332" s="3"/>
+      <c r="G332" s="5"/>
+      <c r="H332" s="5"/>
     </row>
     <row r="333" ht="15.75" customHeight="1">
-      <c r="G333" s="3"/>
-      <c r="H333" s="3"/>
+      <c r="G333" s="5"/>
+      <c r="H333" s="5"/>
     </row>
     <row r="334" ht="15.75" customHeight="1">
-      <c r="G334" s="3"/>
-      <c r="H334" s="3"/>
+      <c r="G334" s="5"/>
+      <c r="H334" s="5"/>
     </row>
     <row r="335" ht="15.75" customHeight="1">
-      <c r="G335" s="3"/>
-      <c r="H335" s="3"/>
+      <c r="G335" s="5"/>
+      <c r="H335" s="5"/>
     </row>
     <row r="336" ht="15.75" customHeight="1">
-      <c r="G336" s="3"/>
-      <c r="H336" s="3"/>
+      <c r="G336" s="5"/>
+      <c r="H336" s="5"/>
     </row>
     <row r="337" ht="15.75" customHeight="1">
-      <c r="G337" s="3"/>
-      <c r="H337" s="3"/>
+      <c r="G337" s="5"/>
+      <c r="H337" s="5"/>
     </row>
     <row r="338" ht="15.75" customHeight="1">
-      <c r="G338" s="3"/>
-      <c r="H338" s="3"/>
+      <c r="G338" s="5"/>
+      <c r="H338" s="5"/>
     </row>
     <row r="339" ht="15.75" customHeight="1">
-      <c r="G339" s="3"/>
-      <c r="H339" s="3"/>
+      <c r="G339" s="5"/>
+      <c r="H339" s="5"/>
     </row>
     <row r="340" ht="15.75" customHeight="1">
-      <c r="G340" s="3"/>
-      <c r="H340" s="3"/>
+      <c r="G340" s="5"/>
+      <c r="H340" s="5"/>
     </row>
     <row r="341" ht="15.75" customHeight="1">
-      <c r="G341" s="3"/>
-      <c r="H341" s="3"/>
+      <c r="G341" s="5"/>
+      <c r="H341" s="5"/>
     </row>
     <row r="342" ht="15.75" customHeight="1">
-      <c r="G342" s="3"/>
-      <c r="H342" s="3"/>
+      <c r="G342" s="5"/>
+      <c r="H342" s="5"/>
     </row>
     <row r="343" ht="15.75" customHeight="1">
-      <c r="G343" s="3"/>
-      <c r="H343" s="3"/>
+      <c r="G343" s="5"/>
+      <c r="H343" s="5"/>
     </row>
     <row r="344" ht="15.75" customHeight="1">
-      <c r="G344" s="3"/>
-      <c r="H344" s="3"/>
+      <c r="G344" s="5"/>
+      <c r="H344" s="5"/>
     </row>
     <row r="345" ht="15.75" customHeight="1">
-      <c r="G345" s="3"/>
-      <c r="H345" s="3"/>
+      <c r="G345" s="5"/>
+      <c r="H345" s="5"/>
     </row>
     <row r="346" ht="15.75" customHeight="1">
-      <c r="G346" s="3"/>
-      <c r="H346" s="3"/>
+      <c r="G346" s="5"/>
+      <c r="H346" s="5"/>
     </row>
     <row r="347" ht="15.75" customHeight="1">
-      <c r="G347" s="3"/>
-      <c r="H347" s="3"/>
+      <c r="G347" s="5"/>
+      <c r="H347" s="5"/>
     </row>
     <row r="348" ht="15.75" customHeight="1">
-      <c r="G348" s="3"/>
-      <c r="H348" s="3"/>
+      <c r="G348" s="5"/>
+      <c r="H348" s="5"/>
     </row>
     <row r="349" ht="15.75" customHeight="1">
-      <c r="G349" s="3"/>
-      <c r="H349" s="3"/>
+      <c r="G349" s="5"/>
+      <c r="H349" s="5"/>
     </row>
     <row r="350" ht="15.75" customHeight="1">
-      <c r="G350" s="3"/>
-      <c r="H350" s="3"/>
+      <c r="G350" s="5"/>
+      <c r="H350" s="5"/>
     </row>
     <row r="351" ht="15.75" customHeight="1">
-      <c r="G351" s="3"/>
-      <c r="H351" s="3"/>
+      <c r="G351" s="5"/>
+      <c r="H351" s="5"/>
     </row>
     <row r="352" ht="15.75" customHeight="1">
-      <c r="G352" s="3"/>
-      <c r="H352" s="3"/>
+      <c r="G352" s="5"/>
+      <c r="H352" s="5"/>
     </row>
     <row r="353" ht="15.75" customHeight="1">
-      <c r="G353" s="3"/>
-      <c r="H353" s="3"/>
+      <c r="G353" s="5"/>
+      <c r="H353" s="5"/>
     </row>
     <row r="354" ht="15.75" customHeight="1">
-      <c r="G354" s="3"/>
-      <c r="H354" s="3"/>
+      <c r="G354" s="5"/>
+      <c r="H354" s="5"/>
     </row>
     <row r="355" ht="15.75" customHeight="1">
-      <c r="G355" s="3"/>
-      <c r="H355" s="3"/>
+      <c r="G355" s="5"/>
+      <c r="H355" s="5"/>
     </row>
     <row r="356" ht="15.75" customHeight="1">
-      <c r="G356" s="3"/>
-      <c r="H356" s="3"/>
+      <c r="G356" s="5"/>
+      <c r="H356" s="5"/>
     </row>
     <row r="357" ht="15.75" customHeight="1">
-      <c r="G357" s="3"/>
-      <c r="H357" s="3"/>
+      <c r="G357" s="5"/>
+      <c r="H357" s="5"/>
     </row>
     <row r="358" ht="15.75" customHeight="1">
-      <c r="G358" s="3"/>
-      <c r="H358" s="3"/>
+      <c r="G358" s="5"/>
+      <c r="H358" s="5"/>
     </row>
     <row r="359" ht="15.75" customHeight="1">
-      <c r="G359" s="3"/>
-      <c r="H359" s="3"/>
+      <c r="G359" s="5"/>
+      <c r="H359" s="5"/>
     </row>
     <row r="360" ht="15.75" customHeight="1">
-      <c r="G360" s="3"/>
-      <c r="H360" s="3"/>
+      <c r="G360" s="5"/>
+      <c r="H360" s="5"/>
     </row>
     <row r="361" ht="15.75" customHeight="1">
-      <c r="G361" s="3"/>
-      <c r="H361" s="3"/>
+      <c r="G361" s="5"/>
+      <c r="H361" s="5"/>
     </row>
     <row r="362" ht="15.75" customHeight="1">
-      <c r="G362" s="3"/>
-      <c r="H362" s="3"/>
+      <c r="G362" s="5"/>
+      <c r="H362" s="5"/>
     </row>
     <row r="363" ht="15.75" customHeight="1">
-      <c r="G363" s="3"/>
-      <c r="H363" s="3"/>
+      <c r="G363" s="5"/>
+      <c r="H363" s="5"/>
     </row>
     <row r="364" ht="15.75" customHeight="1">
-      <c r="G364" s="3"/>
-      <c r="H364" s="3"/>
+      <c r="G364" s="5"/>
+      <c r="H364" s="5"/>
     </row>
     <row r="365" ht="15.75" customHeight="1">
-      <c r="G365" s="3"/>
-      <c r="H365" s="3"/>
+      <c r="G365" s="5"/>
+      <c r="H365" s="5"/>
     </row>
     <row r="366" ht="15.75" customHeight="1">
-      <c r="G366" s="3"/>
-      <c r="H366" s="3"/>
+      <c r="G366" s="5"/>
+      <c r="H366" s="5"/>
     </row>
     <row r="367" ht="15.75" customHeight="1">
-      <c r="G367" s="3"/>
-      <c r="H367" s="3"/>
+      <c r="G367" s="5"/>
+      <c r="H367" s="5"/>
     </row>
     <row r="368" ht="15.75" customHeight="1">
-      <c r="G368" s="3"/>
-      <c r="H368" s="3"/>
+      <c r="G368" s="5"/>
+      <c r="H368" s="5"/>
     </row>
     <row r="369" ht="15.75" customHeight="1">
-      <c r="G369" s="3"/>
-      <c r="H369" s="3"/>
+      <c r="G369" s="5"/>
+      <c r="H369" s="5"/>
     </row>
     <row r="370" ht="15.75" customHeight="1">
-      <c r="G370" s="3"/>
-      <c r="H370" s="3"/>
+      <c r="G370" s="5"/>
+      <c r="H370" s="5"/>
     </row>
     <row r="371" ht="15.75" customHeight="1">
-      <c r="G371" s="3"/>
-      <c r="H371" s="3"/>
+      <c r="G371" s="5"/>
+      <c r="H371" s="5"/>
     </row>
     <row r="372" ht="15.75" customHeight="1">
-      <c r="G372" s="3"/>
-      <c r="H372" s="3"/>
+      <c r="G372" s="5"/>
+      <c r="H372" s="5"/>
     </row>
     <row r="373" ht="15.75" customHeight="1">
-      <c r="G373" s="3"/>
-      <c r="H373" s="3"/>
+      <c r="G373" s="5"/>
+      <c r="H373" s="5"/>
     </row>
     <row r="374" ht="15.75" customHeight="1">
-      <c r="G374" s="3"/>
-      <c r="H374" s="3"/>
+      <c r="G374" s="5"/>
+      <c r="H374" s="5"/>
     </row>
     <row r="375" ht="15.75" customHeight="1">
-      <c r="G375" s="3"/>
-      <c r="H375" s="3"/>
+      <c r="G375" s="5"/>
+      <c r="H375" s="5"/>
     </row>
     <row r="376" ht="15.75" customHeight="1">
-      <c r="G376" s="3"/>
-      <c r="H376" s="3"/>
+      <c r="G376" s="5"/>
+      <c r="H376" s="5"/>
     </row>
     <row r="377" ht="15.75" customHeight="1">
-      <c r="G377" s="3"/>
-      <c r="H377" s="3"/>
+      <c r="G377" s="5"/>
+      <c r="H377" s="5"/>
     </row>
     <row r="378" ht="15.75" customHeight="1">
-      <c r="G378" s="3"/>
-      <c r="H378" s="3"/>
+      <c r="G378" s="5"/>
+      <c r="H378" s="5"/>
     </row>
     <row r="379" ht="15.75" customHeight="1">
-      <c r="G379" s="3"/>
-      <c r="H379" s="3"/>
+      <c r="G379" s="5"/>
+      <c r="H379" s="5"/>
     </row>
     <row r="380" ht="15.75" customHeight="1">
-      <c r="G380" s="3"/>
-      <c r="H380" s="3"/>
+      <c r="G380" s="5"/>
+      <c r="H380" s="5"/>
     </row>
     <row r="381" ht="15.75" customHeight="1">
-      <c r="G381" s="3"/>
-      <c r="H381" s="3"/>
+      <c r="G381" s="5"/>
+      <c r="H381" s="5"/>
     </row>
     <row r="382" ht="15.75" customHeight="1">
-      <c r="G382" s="3"/>
-      <c r="H382" s="3"/>
+      <c r="G382" s="5"/>
+      <c r="H382" s="5"/>
     </row>
     <row r="383" ht="15.75" customHeight="1">
-      <c r="G383" s="3"/>
-      <c r="H383" s="3"/>
+      <c r="G383" s="5"/>
+      <c r="H383" s="5"/>
     </row>
     <row r="384" ht="15.75" customHeight="1">
-      <c r="G384" s="3"/>
-      <c r="H384" s="3"/>
+      <c r="G384" s="5"/>
+      <c r="H384" s="5"/>
     </row>
     <row r="385" ht="15.75" customHeight="1">
-      <c r="G385" s="3"/>
-      <c r="H385" s="3"/>
+      <c r="G385" s="5"/>
+      <c r="H385" s="5"/>
     </row>
     <row r="386" ht="15.75" customHeight="1">
-      <c r="G386" s="3"/>
-      <c r="H386" s="3"/>
+      <c r="G386" s="5"/>
+      <c r="H386" s="5"/>
     </row>
     <row r="387" ht="15.75" customHeight="1">
-      <c r="G387" s="3"/>
-      <c r="H387" s="3"/>
+      <c r="G387" s="5"/>
+      <c r="H387" s="5"/>
     </row>
     <row r="388" ht="15.75" customHeight="1">
-      <c r="G388" s="3"/>
-      <c r="H388" s="3"/>
+      <c r="G388" s="5"/>
+      <c r="H388" s="5"/>
     </row>
     <row r="389" ht="15.75" customHeight="1">
-      <c r="G389" s="3"/>
-      <c r="H389" s="3"/>
+      <c r="G389" s="5"/>
+      <c r="H389" s="5"/>
     </row>
     <row r="390" ht="15.75" customHeight="1">
-      <c r="G390" s="3"/>
-      <c r="H390" s="3"/>
+      <c r="G390" s="5"/>
+      <c r="H390" s="5"/>
     </row>
     <row r="391" ht="15.75" customHeight="1">
-      <c r="G391" s="3"/>
-      <c r="H391" s="3"/>
+      <c r="G391" s="5"/>
+      <c r="H391" s="5"/>
     </row>
     <row r="392" ht="15.75" customHeight="1">
-      <c r="G392" s="3"/>
-      <c r="H392" s="3"/>
+      <c r="G392" s="5"/>
+      <c r="H392" s="5"/>
     </row>
     <row r="393" ht="15.75" customHeight="1">
-      <c r="G393" s="3"/>
-      <c r="H393" s="3"/>
+      <c r="G393" s="5"/>
+      <c r="H393" s="5"/>
     </row>
     <row r="394" ht="15.75" customHeight="1">
-      <c r="G394" s="3"/>
-      <c r="H394" s="3"/>
+      <c r="G394" s="5"/>
+      <c r="H394" s="5"/>
     </row>
     <row r="395" ht="15.75" customHeight="1">
-      <c r="G395" s="3"/>
-      <c r="H395" s="3"/>
+      <c r="G395" s="5"/>
+      <c r="H395" s="5"/>
     </row>
     <row r="396" ht="15.75" customHeight="1">
-      <c r="G396" s="3"/>
-      <c r="H396" s="3"/>
+      <c r="G396" s="5"/>
+      <c r="H396" s="5"/>
     </row>
     <row r="397" ht="15.75" customHeight="1">
-      <c r="G397" s="3"/>
-      <c r="H397" s="3"/>
+      <c r="G397" s="5"/>
+      <c r="H397" s="5"/>
     </row>
     <row r="398" ht="15.75" customHeight="1">
-      <c r="G398" s="3"/>
-      <c r="H398" s="3"/>
+      <c r="G398" s="5"/>
+      <c r="H398" s="5"/>
     </row>
     <row r="399" ht="15.75" customHeight="1">
-      <c r="G399" s="3"/>
-      <c r="H399" s="3"/>
+      <c r="G399" s="5"/>
+      <c r="H399" s="5"/>
     </row>
     <row r="400" ht="15.75" customHeight="1">
-      <c r="G400" s="3"/>
-      <c r="H400" s="3"/>
+      <c r="G400" s="5"/>
+      <c r="H400" s="5"/>
     </row>
     <row r="401" ht="15.75" customHeight="1">
-      <c r="G401" s="3"/>
-      <c r="H401" s="3"/>
+      <c r="G401" s="5"/>
+      <c r="H401" s="5"/>
     </row>
     <row r="402" ht="15.75" customHeight="1">
-      <c r="G402" s="3"/>
-      <c r="H402" s="3"/>
+      <c r="G402" s="5"/>
+      <c r="H402" s="5"/>
     </row>
     <row r="403" ht="15.75" customHeight="1">
-      <c r="G403" s="3"/>
-      <c r="H403" s="3"/>
+      <c r="G403" s="5"/>
+      <c r="H403" s="5"/>
     </row>
     <row r="404" ht="15.75" customHeight="1">
-      <c r="G404" s="3"/>
-      <c r="H404" s="3"/>
+      <c r="G404" s="5"/>
+      <c r="H404" s="5"/>
     </row>
     <row r="405" ht="15.75" customHeight="1">
-      <c r="G405" s="3"/>
-      <c r="H405" s="3"/>
+      <c r="G405" s="5"/>
+      <c r="H405" s="5"/>
     </row>
     <row r="406" ht="15.75" customHeight="1">
-      <c r="G406" s="3"/>
-      <c r="H406" s="3"/>
+      <c r="G406" s="5"/>
+      <c r="H406" s="5"/>
     </row>
     <row r="407" ht="15.75" customHeight="1">
-      <c r="G407" s="3"/>
-      <c r="H407" s="3"/>
+      <c r="G407" s="5"/>
+      <c r="H407" s="5"/>
     </row>
     <row r="408" ht="15.75" customHeight="1">
-      <c r="G408" s="3"/>
-      <c r="H408" s="3"/>
+      <c r="G408" s="5"/>
+      <c r="H408" s="5"/>
     </row>
     <row r="409" ht="15.75" customHeight="1">
-      <c r="G409" s="3"/>
-      <c r="H409" s="3"/>
+      <c r="G409" s="5"/>
+      <c r="H409" s="5"/>
     </row>
     <row r="410" ht="15.75" customHeight="1">
-      <c r="G410" s="3"/>
-      <c r="H410" s="3"/>
+      <c r="G410" s="5"/>
+      <c r="H410" s="5"/>
     </row>
     <row r="411" ht="15.75" customHeight="1">
-      <c r="G411" s="3"/>
-      <c r="H411" s="3"/>
+      <c r="G411" s="5"/>
+      <c r="H411" s="5"/>
     </row>
     <row r="412" ht="15.75" customHeight="1">
-      <c r="G412" s="3"/>
-      <c r="H412" s="3"/>
+      <c r="G412" s="5"/>
+      <c r="H412" s="5"/>
     </row>
     <row r="413" ht="15.75" customHeight="1">
-      <c r="G413" s="3"/>
-      <c r="H413" s="3"/>
+      <c r="G413" s="5"/>
+      <c r="H413" s="5"/>
     </row>
     <row r="414" ht="15.75" customHeight="1">
-      <c r="G414" s="3"/>
-      <c r="H414" s="3"/>
+      <c r="G414" s="5"/>
+      <c r="H414" s="5"/>
     </row>
     <row r="415" ht="15.75" customHeight="1">
-      <c r="G415" s="3"/>
-      <c r="H415" s="3"/>
+      <c r="G415" s="5"/>
+      <c r="H415" s="5"/>
     </row>
     <row r="416" ht="15.75" customHeight="1">
-      <c r="G416" s="3"/>
-      <c r="H416" s="3"/>
+      <c r="G416" s="5"/>
+      <c r="H416" s="5"/>
     </row>
     <row r="417" ht="15.75" customHeight="1">
-      <c r="G417" s="3"/>
-      <c r="H417" s="3"/>
+      <c r="G417" s="5"/>
+      <c r="H417" s="5"/>
     </row>
     <row r="418" ht="15.75" customHeight="1">
-      <c r="G418" s="3"/>
-      <c r="H418" s="3"/>
+      <c r="G418" s="5"/>
+      <c r="H418" s="5"/>
     </row>
     <row r="419" ht="15.75" customHeight="1">
-      <c r="G419" s="3"/>
-      <c r="H419" s="3"/>
+      <c r="G419" s="5"/>
+      <c r="H419" s="5"/>
     </row>
     <row r="420" ht="15.75" customHeight="1">
-      <c r="G420" s="3"/>
-      <c r="H420" s="3"/>
+      <c r="G420" s="5"/>
+      <c r="H420" s="5"/>
     </row>
     <row r="421" ht="15.75" customHeight="1">
-      <c r="G421" s="3"/>
-      <c r="H421" s="3"/>
+      <c r="G421" s="5"/>
+      <c r="H421" s="5"/>
     </row>
     <row r="422" ht="15.75" customHeight="1">
-      <c r="G422" s="3"/>
-      <c r="H422" s="3"/>
+      <c r="G422" s="5"/>
+      <c r="H422" s="5"/>
     </row>
     <row r="423" ht="15.75" customHeight="1">
-      <c r="G423" s="3"/>
-      <c r="H423" s="3"/>
+      <c r="G423" s="5"/>
+      <c r="H423" s="5"/>
     </row>
     <row r="424" ht="15.75" customHeight="1">
-      <c r="G424" s="3"/>
-      <c r="H424" s="3"/>
+      <c r="G424" s="5"/>
+      <c r="H424" s="5"/>
     </row>
     <row r="425" ht="15.75" customHeight="1">
-      <c r="G425" s="3"/>
-      <c r="H425" s="3"/>
+      <c r="G425" s="5"/>
+      <c r="H425" s="5"/>
     </row>
     <row r="426" ht="15.75" customHeight="1">
-      <c r="G426" s="3"/>
-      <c r="H426" s="3"/>
+      <c r="G426" s="5"/>
+      <c r="H426" s="5"/>
     </row>
     <row r="427" ht="15.75" customHeight="1">
-      <c r="G427" s="3"/>
-      <c r="H427" s="3"/>
+      <c r="G427" s="5"/>
+      <c r="H427" s="5"/>
     </row>
     <row r="428" ht="15.75" customHeight="1">
-      <c r="G428" s="3"/>
-      <c r="H428" s="3"/>
+      <c r="G428" s="5"/>
+      <c r="H428" s="5"/>
     </row>
     <row r="429" ht="15.75" customHeight="1">
-      <c r="G429" s="3"/>
-      <c r="H429" s="3"/>
+      <c r="G429" s="5"/>
+      <c r="H429" s="5"/>
     </row>
     <row r="430" ht="15.75" customHeight="1">
-      <c r="G430" s="3"/>
-      <c r="H430" s="3"/>
+      <c r="G430" s="5"/>
+      <c r="H430" s="5"/>
     </row>
     <row r="431" ht="15.75" customHeight="1">
-      <c r="G431" s="3"/>
-      <c r="H431" s="3"/>
+      <c r="G431" s="5"/>
+      <c r="H431" s="5"/>
     </row>
     <row r="432" ht="15.75" customHeight="1">
-      <c r="G432" s="3"/>
-      <c r="H432" s="3"/>
+      <c r="G432" s="5"/>
+      <c r="H432" s="5"/>
     </row>
     <row r="433" ht="15.75" customHeight="1">
-      <c r="G433" s="3"/>
-      <c r="H433" s="3"/>
+      <c r="G433" s="5"/>
+      <c r="H433" s="5"/>
     </row>
     <row r="434" ht="15.75" customHeight="1">
-      <c r="G434" s="3"/>
-      <c r="H434" s="3"/>
+      <c r="G434" s="5"/>
+      <c r="H434" s="5"/>
     </row>
     <row r="435" ht="15.75" customHeight="1">
-      <c r="G435" s="3"/>
-      <c r="H435" s="3"/>
+      <c r="G435" s="5"/>
+      <c r="H435" s="5"/>
     </row>
     <row r="436" ht="15.75" customHeight="1">
-      <c r="G436" s="3"/>
-      <c r="H436" s="3"/>
+      <c r="G436" s="5"/>
+      <c r="H436" s="5"/>
     </row>
     <row r="437" ht="15.75" customHeight="1">
-      <c r="G437" s="3"/>
-      <c r="H437" s="3"/>
+      <c r="G437" s="5"/>
+      <c r="H437" s="5"/>
     </row>
     <row r="438" ht="15.75" customHeight="1">
-      <c r="G438" s="3"/>
-      <c r="H438" s="3"/>
+      <c r="G438" s="5"/>
+      <c r="H438" s="5"/>
     </row>
     <row r="439" ht="15.75" customHeight="1">
-      <c r="G439" s="3"/>
-      <c r="H439" s="3"/>
+      <c r="G439" s="5"/>
+      <c r="H439" s="5"/>
     </row>
     <row r="440" ht="15.75" customHeight="1">
-      <c r="G440" s="3"/>
-      <c r="H440" s="3"/>
+      <c r="G440" s="5"/>
+      <c r="H440" s="5"/>
     </row>
     <row r="441" ht="15.75" customHeight="1">
-      <c r="G441" s="3"/>
-      <c r="H441" s="3"/>
+      <c r="G441" s="5"/>
+      <c r="H441" s="5"/>
     </row>
     <row r="442" ht="15.75" customHeight="1">
-      <c r="G442" s="3"/>
-      <c r="H442" s="3"/>
+      <c r="G442" s="5"/>
+      <c r="H442" s="5"/>
     </row>
     <row r="443" ht="15.75" customHeight="1">
-      <c r="G443" s="3"/>
-      <c r="H443" s="3"/>
+      <c r="G443" s="5"/>
+      <c r="H443" s="5"/>
     </row>
     <row r="444" ht="15.75" customHeight="1">
-      <c r="G444" s="3"/>
-      <c r="H444" s="3"/>
+      <c r="G444" s="5"/>
+      <c r="H444" s="5"/>
     </row>
     <row r="445" ht="15.75" customHeight="1">
-      <c r="G445" s="3"/>
-      <c r="H445" s="3"/>
+      <c r="G445" s="5"/>
+      <c r="H445" s="5"/>
     </row>
     <row r="446" ht="15.75" customHeight="1">
-      <c r="G446" s="3"/>
-      <c r="H446" s="3"/>
+      <c r="G446" s="5"/>
+      <c r="H446" s="5"/>
     </row>
     <row r="447" ht="15.75" customHeight="1">
-      <c r="G447" s="3"/>
-      <c r="H447" s="3"/>
+      <c r="G447" s="5"/>
+      <c r="H447" s="5"/>
     </row>
     <row r="448" ht="15.75" customHeight="1">
-      <c r="G448" s="3"/>
-      <c r="H448" s="3"/>
+      <c r="G448" s="5"/>
+      <c r="H448" s="5"/>
     </row>
     <row r="449" ht="15.75" customHeight="1">
-      <c r="G449" s="3"/>
-      <c r="H449" s="3"/>
+      <c r="G449" s="5"/>
+      <c r="H449" s="5"/>
     </row>
     <row r="450" ht="15.75" customHeight="1">
-      <c r="G450" s="3"/>
-      <c r="H450" s="3"/>
+      <c r="G450" s="5"/>
+      <c r="H450" s="5"/>
     </row>
     <row r="451" ht="15.75" customHeight="1">
-      <c r="G451" s="3"/>
-      <c r="H451" s="3"/>
+      <c r="G451" s="5"/>
+      <c r="H451" s="5"/>
     </row>
     <row r="452" ht="15.75" customHeight="1">
-      <c r="G452" s="3"/>
-      <c r="H452" s="3"/>
+      <c r="G452" s="5"/>
+      <c r="H452" s="5"/>
     </row>
     <row r="453" ht="15.75" customHeight="1">
-      <c r="G453" s="3"/>
-      <c r="H453" s="3"/>
+      <c r="G453" s="5"/>
+      <c r="H453" s="5"/>
     </row>
     <row r="454" ht="15.75" customHeight="1">
-      <c r="G454" s="3"/>
-      <c r="H454" s="3"/>
+      <c r="G454" s="5"/>
+      <c r="H454" s="5"/>
     </row>
     <row r="455" ht="15.75" customHeight="1">
-      <c r="G455" s="3"/>
-      <c r="H455" s="3"/>
+      <c r="G455" s="5"/>
+      <c r="H455" s="5"/>
     </row>
     <row r="456" ht="15.75" customHeight="1">
-      <c r="G456" s="3"/>
-      <c r="H456" s="3"/>
+      <c r="G456" s="5"/>
+      <c r="H456" s="5"/>
     </row>
     <row r="457" ht="15.75" customHeight="1">
-      <c r="G457" s="3"/>
-      <c r="H457" s="3"/>
+      <c r="G457" s="5"/>
+      <c r="H457" s="5"/>
     </row>
     <row r="458" ht="15.75" customHeight="1">
-      <c r="G458" s="3"/>
-      <c r="H458" s="3"/>
+      <c r="G458" s="5"/>
+      <c r="H458" s="5"/>
     </row>
     <row r="459" ht="15.75" customHeight="1">
-      <c r="G459" s="3"/>
-      <c r="H459" s="3"/>
+      <c r="G459" s="5"/>
+      <c r="H459" s="5"/>
     </row>
     <row r="460" ht="15.75" customHeight="1">
-      <c r="G460" s="3"/>
-      <c r="H460" s="3"/>
+      <c r="G460" s="5"/>
+      <c r="H460" s="5"/>
     </row>
     <row r="461" ht="15.75" customHeight="1">
-      <c r="G461" s="3"/>
-      <c r="H461" s="3"/>
+      <c r="G461" s="5"/>
+      <c r="H461" s="5"/>
     </row>
     <row r="462" ht="15.75" customHeight="1">
-      <c r="G462" s="3"/>
-      <c r="H462" s="3"/>
+      <c r="G462" s="5"/>
+      <c r="H462" s="5"/>
     </row>
     <row r="463" ht="15.75" customHeight="1">
-      <c r="G463" s="3"/>
-      <c r="H463" s="3"/>
+      <c r="G463" s="5"/>
+      <c r="H463" s="5"/>
     </row>
     <row r="464" ht="15.75" customHeight="1">
-      <c r="G464" s="3"/>
-      <c r="H464" s="3"/>
+      <c r="G464" s="5"/>
+      <c r="H464" s="5"/>
     </row>
     <row r="465" ht="15.75" customHeight="1">
-      <c r="G465" s="3"/>
-      <c r="H465" s="3"/>
+      <c r="G465" s="5"/>
+      <c r="H465" s="5"/>
     </row>
     <row r="466" ht="15.75" customHeight="1">
-      <c r="G466" s="3"/>
-      <c r="H466" s="3"/>
+      <c r="G466" s="5"/>
+      <c r="H466" s="5"/>
     </row>
     <row r="467" ht="15.75" customHeight="1">
-      <c r="G467" s="3"/>
-      <c r="H467" s="3"/>
+      <c r="G467" s="5"/>
+      <c r="H467" s="5"/>
     </row>
     <row r="468" ht="15.75" customHeight="1">
-      <c r="G468" s="3"/>
-      <c r="H468" s="3"/>
+      <c r="G468" s="5"/>
+      <c r="H468" s="5"/>
     </row>
     <row r="469" ht="15.75" customHeight="1">
-      <c r="G469" s="3"/>
-      <c r="H469" s="3"/>
+      <c r="G469" s="5"/>
+      <c r="H469" s="5"/>
     </row>
     <row r="470" ht="15.75" customHeight="1">
-      <c r="G470" s="3"/>
-      <c r="H470" s="3"/>
+      <c r="G470" s="5"/>
+      <c r="H470" s="5"/>
     </row>
     <row r="471" ht="15.75" customHeight="1">
-      <c r="G471" s="3"/>
-      <c r="H471" s="3"/>
+      <c r="G471" s="5"/>
+      <c r="H471" s="5"/>
     </row>
     <row r="472" ht="15.75" customHeight="1">
-      <c r="G472" s="3"/>
-      <c r="H472" s="3"/>
+      <c r="G472" s="5"/>
+      <c r="H472" s="5"/>
     </row>
     <row r="473" ht="15.75" customHeight="1">
-      <c r="G473" s="3"/>
-      <c r="H473" s="3"/>
+      <c r="G473" s="5"/>
+      <c r="H473" s="5"/>
     </row>
     <row r="474" ht="15.75" customHeight="1">
-      <c r="G474" s="3"/>
-      <c r="H474" s="3"/>
+      <c r="G474" s="5"/>
+      <c r="H474" s="5"/>
     </row>
     <row r="475" ht="15.75" customHeight="1">
-      <c r="G475" s="3"/>
-      <c r="H475" s="3"/>
+      <c r="G475" s="5"/>
+      <c r="H475" s="5"/>
     </row>
     <row r="476" ht="15.75" customHeight="1">
-      <c r="G476" s="3"/>
-      <c r="H476" s="3"/>
+      <c r="G476" s="5"/>
+      <c r="H476" s="5"/>
     </row>
     <row r="477" ht="15.75" customHeight="1">
-      <c r="G477" s="3"/>
-      <c r="H477" s="3"/>
+      <c r="G477" s="5"/>
+      <c r="H477" s="5"/>
     </row>
     <row r="478" ht="15.75" customHeight="1">
-      <c r="G478" s="3"/>
-      <c r="H478" s="3"/>
+      <c r="G478" s="5"/>
+      <c r="H478" s="5"/>
     </row>
     <row r="479" ht="15.75" customHeight="1">
-      <c r="G479" s="3"/>
-      <c r="H479" s="3"/>
+      <c r="G479" s="5"/>
+      <c r="H479" s="5"/>
     </row>
     <row r="480" ht="15.75" customHeight="1">
-      <c r="G480" s="3"/>
-      <c r="H480" s="3"/>
+      <c r="G480" s="5"/>
+      <c r="H480" s="5"/>
     </row>
     <row r="481" ht="15.75" customHeight="1">
-      <c r="G481" s="3"/>
-      <c r="H481" s="3"/>
+      <c r="G481" s="5"/>
+      <c r="H481" s="5"/>
     </row>
     <row r="482" ht="15.75" customHeight="1">
-      <c r="G482" s="3"/>
-      <c r="H482" s="3"/>
+      <c r="G482" s="5"/>
+      <c r="H482" s="5"/>
     </row>
     <row r="483" ht="15.75" customHeight="1">
-      <c r="G483" s="3"/>
-      <c r="H483" s="3"/>
+      <c r="G483" s="5"/>
+      <c r="H483" s="5"/>
     </row>
     <row r="484" ht="15.75" customHeight="1">
-      <c r="G484" s="3"/>
-      <c r="H484" s="3"/>
+      <c r="G484" s="5"/>
+      <c r="H484" s="5"/>
     </row>
     <row r="485" ht="15.75" customHeight="1">
-      <c r="G485" s="3"/>
-      <c r="H485" s="3"/>
+      <c r="G485" s="5"/>
+      <c r="H485" s="5"/>
     </row>
     <row r="486" ht="15.75" customHeight="1">
-      <c r="G486" s="3"/>
-      <c r="H486" s="3"/>
+      <c r="G486" s="5"/>
+      <c r="H486" s="5"/>
     </row>
     <row r="487" ht="15.75" customHeight="1">
-      <c r="G487" s="3"/>
-      <c r="H487" s="3"/>
+      <c r="G487" s="5"/>
+      <c r="H487" s="5"/>
     </row>
     <row r="488" ht="15.75" customHeight="1">
-      <c r="G488" s="3"/>
-      <c r="H488" s="3"/>
+      <c r="G488" s="5"/>
+      <c r="H488" s="5"/>
     </row>
     <row r="489" ht="15.75" customHeight="1">
-      <c r="G489" s="3"/>
-      <c r="H489" s="3"/>
+      <c r="G489" s="5"/>
+      <c r="H489" s="5"/>
     </row>
     <row r="490" ht="15.75" customHeight="1">
-      <c r="G490" s="3"/>
-      <c r="H490" s="3"/>
+      <c r="G490" s="5"/>
+      <c r="H490" s="5"/>
     </row>
     <row r="491" ht="15.75" customHeight="1">
-      <c r="G491" s="3"/>
-      <c r="H491" s="3"/>
+      <c r="G491" s="5"/>
+      <c r="H491" s="5"/>
     </row>
     <row r="492" ht="15.75" customHeight="1">
-      <c r="G492" s="3"/>
-      <c r="H492" s="3"/>
+      <c r="G492" s="5"/>
+      <c r="H492" s="5"/>
     </row>
     <row r="493" ht="15.75" customHeight="1">
-      <c r="G493" s="3"/>
-      <c r="H493" s="3"/>
+      <c r="G493" s="5"/>
+      <c r="H493" s="5"/>
     </row>
     <row r="494" ht="15.75" customHeight="1">
-      <c r="G494" s="3"/>
-      <c r="H494" s="3"/>
+      <c r="G494" s="5"/>
+      <c r="H494" s="5"/>
     </row>
     <row r="495" ht="15.75" customHeight="1">
-      <c r="G495" s="3"/>
-      <c r="H495" s="3"/>
+      <c r="G495" s="5"/>
+      <c r="H495" s="5"/>
     </row>
     <row r="496" ht="15.75" customHeight="1">
-      <c r="G496" s="3"/>
-      <c r="H496" s="3"/>
+      <c r="G496" s="5"/>
+      <c r="H496" s="5"/>
     </row>
     <row r="497" ht="15.75" customHeight="1">
-      <c r="G497" s="3"/>
-      <c r="H497" s="3"/>
+      <c r="G497" s="5"/>
+      <c r="H497" s="5"/>
     </row>
     <row r="498" ht="15.75" customHeight="1">
-      <c r="G498" s="3"/>
-      <c r="H498" s="3"/>
+      <c r="G498" s="5"/>
+      <c r="H498" s="5"/>
     </row>
     <row r="499" ht="15.75" customHeight="1">
-      <c r="G499" s="3"/>
-      <c r="H499" s="3"/>
+      <c r="G499" s="5"/>
+      <c r="H499" s="5"/>
     </row>
     <row r="500" ht="15.75" customHeight="1">
-      <c r="G500" s="3"/>
-      <c r="H500" s="3"/>
+      <c r="G500" s="5"/>
+      <c r="H500" s="5"/>
     </row>
     <row r="501" ht="15.75" customHeight="1">
-      <c r="G501" s="3"/>
-      <c r="H501" s="3"/>
+      <c r="G501" s="5"/>
+      <c r="H501" s="5"/>
     </row>
     <row r="502" ht="15.75" customHeight="1">
-      <c r="G502" s="3"/>
-      <c r="H502" s="3"/>
+      <c r="G502" s="5"/>
+      <c r="H502" s="5"/>
     </row>
     <row r="503" ht="15.75" customHeight="1">
-      <c r="G503" s="3"/>
-      <c r="H503" s="3"/>
+      <c r="G503" s="5"/>
+      <c r="H503" s="5"/>
     </row>
     <row r="504" ht="15.75" customHeight="1">
-      <c r="G504" s="3"/>
-      <c r="H504" s="3"/>
+      <c r="G504" s="5"/>
+      <c r="H504" s="5"/>
     </row>
     <row r="505" ht="15.75" customHeight="1">
-      <c r="G505" s="3"/>
-      <c r="H505" s="3"/>
+      <c r="G505" s="5"/>
+      <c r="H505" s="5"/>
     </row>
     <row r="506" ht="15.75" customHeight="1">
-      <c r="G506" s="3"/>
-      <c r="H506" s="3"/>
+      <c r="G506" s="5"/>
+      <c r="H506" s="5"/>
     </row>
     <row r="507" ht="15.75" customHeight="1">
-      <c r="G507" s="3"/>
-      <c r="H507" s="3"/>
+      <c r="G507" s="5"/>
+      <c r="H507" s="5"/>
     </row>
     <row r="508" ht="15.75" customHeight="1">
-      <c r="G508" s="3"/>
-      <c r="H508" s="3"/>
+      <c r="G508" s="5"/>
+      <c r="H508" s="5"/>
     </row>
     <row r="509" ht="15.75" customHeight="1">
-      <c r="G509" s="3"/>
-      <c r="H509" s="3"/>
+      <c r="G509" s="5"/>
+      <c r="H509" s="5"/>
     </row>
     <row r="510" ht="15.75" customHeight="1">
-      <c r="G510" s="3"/>
-      <c r="H510" s="3"/>
+      <c r="G510" s="5"/>
+      <c r="H510" s="5"/>
     </row>
     <row r="511" ht="15.75" customHeight="1">
-      <c r="G511" s="3"/>
-      <c r="H511" s="3"/>
+      <c r="G511" s="5"/>
+      <c r="H511" s="5"/>
     </row>
     <row r="512" ht="15.75" customHeight="1">
-      <c r="G512" s="3"/>
-      <c r="H512" s="3"/>
+      <c r="G512" s="5"/>
+      <c r="H512" s="5"/>
     </row>
     <row r="513" ht="15.75" customHeight="1">
-      <c r="G513" s="3"/>
-      <c r="H513" s="3"/>
+      <c r="G513" s="5"/>
+      <c r="H513" s="5"/>
     </row>
     <row r="514" ht="15.75" customHeight="1">
-      <c r="G514" s="3"/>
-      <c r="H514" s="3"/>
+      <c r="G514" s="5"/>
+      <c r="H514" s="5"/>
     </row>
     <row r="515" ht="15.75" customHeight="1">
-      <c r="G515" s="3"/>
-      <c r="H515" s="3"/>
+      <c r="G515" s="5"/>
+      <c r="H515" s="5"/>
     </row>
     <row r="516" ht="15.75" customHeight="1">
-      <c r="G516" s="3"/>
-      <c r="H516" s="3"/>
+      <c r="G516" s="5"/>
+      <c r="H516" s="5"/>
     </row>
     <row r="517" ht="15.75" customHeight="1">
-      <c r="G517" s="3"/>
-      <c r="H517" s="3"/>
+      <c r="G517" s="5"/>
+      <c r="H517" s="5"/>
     </row>
     <row r="518" ht="15.75" customHeight="1">
-      <c r="G518" s="3"/>
-      <c r="H518" s="3"/>
+      <c r="G518" s="5"/>
+      <c r="H518" s="5"/>
     </row>
     <row r="519" ht="15.75" customHeight="1">
-      <c r="G519" s="3"/>
-      <c r="H519" s="3"/>
+      <c r="G519" s="5"/>
+      <c r="H519" s="5"/>
     </row>
     <row r="520" ht="15.75" customHeight="1">
-      <c r="G520" s="3"/>
-      <c r="H520" s="3"/>
+      <c r="G520" s="5"/>
+      <c r="H520" s="5"/>
     </row>
     <row r="521" ht="15.75" customHeight="1">
-      <c r="G521" s="3"/>
-      <c r="H521" s="3"/>
+      <c r="G521" s="5"/>
+      <c r="H521" s="5"/>
     </row>
     <row r="522" ht="15.75" customHeight="1">
-      <c r="G522" s="3"/>
-      <c r="H522" s="3"/>
+      <c r="G522" s="5"/>
+      <c r="H522" s="5"/>
     </row>
     <row r="523" ht="15.75" customHeight="1">
-      <c r="G523" s="3"/>
-      <c r="H523" s="3"/>
+      <c r="G523" s="5"/>
+      <c r="H523" s="5"/>
     </row>
     <row r="524" ht="15.75" customHeight="1">
-      <c r="G524" s="3"/>
-      <c r="H524" s="3"/>
+      <c r="G524" s="5"/>
+      <c r="H524" s="5"/>
     </row>
     <row r="525" ht="15.75" customHeight="1">
-      <c r="G525" s="3"/>
-      <c r="H525" s="3"/>
+      <c r="G525" s="5"/>
+      <c r="H525" s="5"/>
     </row>
     <row r="526" ht="15.75" customHeight="1">
-      <c r="G526" s="3"/>
-      <c r="H526" s="3"/>
+      <c r="G526" s="5"/>
+      <c r="H526" s="5"/>
     </row>
     <row r="527" ht="15.75" customHeight="1">
-      <c r="G527" s="3"/>
-      <c r="H527" s="3"/>
+      <c r="G527" s="5"/>
+      <c r="H527" s="5"/>
     </row>
     <row r="528" ht="15.75" customHeight="1">
-      <c r="G528" s="3"/>
-      <c r="H528" s="3"/>
+      <c r="G528" s="5"/>
+      <c r="H528" s="5"/>
     </row>
     <row r="529" ht="15.75" customHeight="1">
-      <c r="G529" s="3"/>
-      <c r="H529" s="3"/>
+      <c r="G529" s="5"/>
+      <c r="H529" s="5"/>
     </row>
     <row r="530" ht="15.75" customHeight="1">
-      <c r="G530" s="3"/>
-      <c r="H530" s="3"/>
+      <c r="G530" s="5"/>
+      <c r="H530" s="5"/>
     </row>
     <row r="531" ht="15.75" customHeight="1">
-      <c r="G531" s="3"/>
-      <c r="H531" s="3"/>
+      <c r="G531" s="5"/>
+      <c r="H531" s="5"/>
     </row>
     <row r="532" ht="15.75" customHeight="1">
-      <c r="G532" s="3"/>
-      <c r="H532" s="3"/>
+      <c r="G532" s="5"/>
+      <c r="H532" s="5"/>
     </row>
     <row r="533" ht="15.75" customHeight="1">
-      <c r="G533" s="3"/>
-      <c r="H533" s="3"/>
+      <c r="G533" s="5"/>
+      <c r="H533" s="5"/>
     </row>
     <row r="534" ht="15.75" customHeight="1">
-      <c r="G534" s="3"/>
-      <c r="H534" s="3"/>
+      <c r="G534" s="5"/>
+      <c r="H534" s="5"/>
     </row>
     <row r="535" ht="15.75" customHeight="1">
-      <c r="G535" s="3"/>
-      <c r="H535" s="3"/>
+      <c r="G535" s="5"/>
+      <c r="H535" s="5"/>
     </row>
     <row r="536" ht="15.75" customHeight="1">
-      <c r="G536" s="3"/>
-      <c r="H536" s="3"/>
+      <c r="G536" s="5"/>
+      <c r="H536" s="5"/>
     </row>
     <row r="537" ht="15.75" customHeight="1">
-      <c r="G537" s="3"/>
-      <c r="H537" s="3"/>
+      <c r="G537" s="5"/>
+      <c r="H537" s="5"/>
     </row>
     <row r="538" ht="15.75" customHeight="1">
-      <c r="G538" s="3"/>
-      <c r="H538" s="3"/>
+      <c r="G538" s="5"/>
+      <c r="H538" s="5"/>
     </row>
     <row r="539" ht="15.75" customHeight="1">
-      <c r="G539" s="3"/>
-      <c r="H539" s="3"/>
+      <c r="G539" s="5"/>
+      <c r="H539" s="5"/>
     </row>
     <row r="540" ht="15.75" customHeight="1">
-      <c r="G540" s="3"/>
-      <c r="H540" s="3"/>
+      <c r="G540" s="5"/>
+      <c r="H540" s="5"/>
     </row>
     <row r="541" ht="15.75" customHeight="1">
-      <c r="G541" s="3"/>
-      <c r="H541" s="3"/>
+      <c r="G541" s="5"/>
+      <c r="H541" s="5"/>
     </row>
     <row r="542" ht="15.75" customHeight="1">
-      <c r="G542" s="3"/>
-      <c r="H542" s="3"/>
+      <c r="G542" s="5"/>
+      <c r="H542" s="5"/>
     </row>
     <row r="543" ht="15.75" customHeight="1">
-      <c r="G543" s="3"/>
-      <c r="H543" s="3"/>
+      <c r="G543" s="5"/>
+      <c r="H543" s="5"/>
     </row>
     <row r="544" ht="15.75" customHeight="1">
-      <c r="G544" s="3"/>
-      <c r="H544" s="3"/>
+      <c r="G544" s="5"/>
+      <c r="H544" s="5"/>
     </row>
     <row r="545" ht="15.75" customHeight="1">
-      <c r="G545" s="3"/>
-      <c r="H545" s="3"/>
+      <c r="G545" s="5"/>
+      <c r="H545" s="5"/>
     </row>
     <row r="546" ht="15.75" customHeight="1">
-      <c r="G546" s="3"/>
-      <c r="H546" s="3"/>
+      <c r="G546" s="5"/>
+      <c r="H546" s="5"/>
     </row>
     <row r="547" ht="15.75" customHeight="1">
-      <c r="G547" s="3"/>
-      <c r="H547" s="3"/>
+      <c r="G547" s="5"/>
+      <c r="H547" s="5"/>
     </row>
     <row r="548" ht="15.75" customHeight="1">
-      <c r="G548" s="3"/>
-      <c r="H548" s="3"/>
+      <c r="G548" s="5"/>
+      <c r="H548" s="5"/>
     </row>
     <row r="549" ht="15.75" customHeight="1">
-      <c r="G549" s="3"/>
-      <c r="H549" s="3"/>
+      <c r="G549" s="5"/>
+      <c r="H549" s="5"/>
     </row>
     <row r="550" ht="15.75" customHeight="1">
-      <c r="G550" s="3"/>
-      <c r="H550" s="3"/>
+      <c r="G550" s="5"/>
+      <c r="H550" s="5"/>
     </row>
     <row r="551" ht="15.75" customHeight="1">
-      <c r="G551" s="3"/>
-      <c r="H551" s="3"/>
+      <c r="G551" s="5"/>
+      <c r="H551" s="5"/>
     </row>
     <row r="552" ht="15.75" customHeight="1">
-      <c r="G552" s="3"/>
-      <c r="H552" s="3"/>
+      <c r="G552" s="5"/>
+      <c r="H552" s="5"/>
     </row>
     <row r="553" ht="15.75" customHeight="1">
-      <c r="G553" s="3"/>
-      <c r="H553" s="3"/>
+      <c r="G553" s="5"/>
+      <c r="H553" s="5"/>
     </row>
     <row r="554" ht="15.75" customHeight="1">
-      <c r="G554" s="3"/>
-      <c r="H554" s="3"/>
+      <c r="G554" s="5"/>
+      <c r="H554" s="5"/>
     </row>
     <row r="555" ht="15.75" customHeight="1">
-      <c r="G555" s="3"/>
-      <c r="H555" s="3"/>
+      <c r="G555" s="5"/>
+      <c r="H555" s="5"/>
     </row>
     <row r="556" ht="15.75" customHeight="1">
-      <c r="G556" s="3"/>
-      <c r="H556" s="3"/>
+      <c r="G556" s="5"/>
+      <c r="H556" s="5"/>
     </row>
     <row r="557" ht="15.75" customHeight="1">
-      <c r="G557" s="3"/>
-      <c r="H557" s="3"/>
+      <c r="G557" s="5"/>
+      <c r="H557" s="5"/>
     </row>
     <row r="558" ht="15.75" customHeight="1">
-      <c r="G558" s="3"/>
-      <c r="H558" s="3"/>
+      <c r="G558" s="5"/>
+      <c r="H558" s="5"/>
     </row>
     <row r="559" ht="15.75" customHeight="1">
-      <c r="G559" s="3"/>
-      <c r="H559" s="3"/>
+      <c r="G559" s="5"/>
+      <c r="H559" s="5"/>
     </row>
     <row r="560" ht="15.75" customHeight="1">
-      <c r="G560" s="3"/>
-      <c r="H560" s="3"/>
+      <c r="G560" s="5"/>
+      <c r="H560" s="5"/>
     </row>
     <row r="561" ht="15.75" customHeight="1">
-      <c r="G561" s="3"/>
-      <c r="H561" s="3"/>
+      <c r="G561" s="5"/>
+      <c r="H561" s="5"/>
     </row>
     <row r="562" ht="15.75" customHeight="1">
-      <c r="G562" s="3"/>
-      <c r="H562" s="3"/>
+      <c r="G562" s="5"/>
+      <c r="H562" s="5"/>
     </row>
     <row r="563" ht="15.75" customHeight="1">
-      <c r="G563" s="3"/>
-      <c r="H563" s="3"/>
+      <c r="G563" s="5"/>
+      <c r="H563" s="5"/>
     </row>
     <row r="564" ht="15.75" customHeight="1">
-      <c r="G564" s="3"/>
-      <c r="H564" s="3"/>
+      <c r="G564" s="5"/>
+      <c r="H564" s="5"/>
     </row>
     <row r="565" ht="15.75" customHeight="1">
-      <c r="G565" s="3"/>
-      <c r="H565" s="3"/>
+      <c r="G565" s="5"/>
+      <c r="H565" s="5"/>
     </row>
     <row r="566" ht="15.75" customHeight="1">
-      <c r="G566" s="3"/>
-      <c r="H566" s="3"/>
+      <c r="G566" s="5"/>
+      <c r="H566" s="5"/>
     </row>
     <row r="567" ht="15.75" customHeight="1">
-      <c r="G567" s="3"/>
-      <c r="H567" s="3"/>
+      <c r="G567" s="5"/>
+      <c r="H567" s="5"/>
     </row>
     <row r="568" ht="15.75" customHeight="1">
-      <c r="G568" s="3"/>
-      <c r="H568" s="3"/>
+      <c r="G568" s="5"/>
+      <c r="H568" s="5"/>
     </row>
     <row r="569" ht="15.75" customHeight="1">
-      <c r="G569" s="3"/>
-      <c r="H569" s="3"/>
+      <c r="G569" s="5"/>
+      <c r="H569" s="5"/>
     </row>
     <row r="570" ht="15.75" customHeight="1">
-      <c r="G570" s="3"/>
-      <c r="H570" s="3"/>
+      <c r="G570" s="5"/>
+      <c r="H570" s="5"/>
     </row>
     <row r="571" ht="15.75" customHeight="1">
-      <c r="G571" s="3"/>
-      <c r="H571" s="3"/>
+      <c r="G571" s="5"/>
+      <c r="H571" s="5"/>
     </row>
     <row r="572" ht="15.75" customHeight="1">
-      <c r="G572" s="3"/>
-      <c r="H572" s="3"/>
+      <c r="G572" s="5"/>
+      <c r="H572" s="5"/>
     </row>
     <row r="573" ht="15.75" customHeight="1">
-      <c r="G573" s="3"/>
-      <c r="H573" s="3"/>
+      <c r="G573" s="5"/>
+      <c r="H573" s="5"/>
     </row>
     <row r="574" ht="15.75" customHeight="1">
-      <c r="G574" s="3"/>
-      <c r="H574" s="3"/>
+      <c r="G574" s="5"/>
+      <c r="H574" s="5"/>
     </row>
     <row r="575" ht="15.75" customHeight="1">
-      <c r="G575" s="3"/>
-      <c r="H575" s="3"/>
+      <c r="G575" s="5"/>
+      <c r="H575" s="5"/>
     </row>
     <row r="576" ht="15.75" customHeight="1">
-      <c r="G576" s="3"/>
-      <c r="H576" s="3"/>
+      <c r="G576" s="5"/>
+      <c r="H576" s="5"/>
     </row>
     <row r="577" ht="15.75" customHeight="1">
-      <c r="G577" s="3"/>
-      <c r="H577" s="3"/>
+      <c r="G577" s="5"/>
+      <c r="H577" s="5"/>
     </row>
     <row r="578" ht="15.75" customHeight="1">
-      <c r="G578" s="3"/>
-      <c r="H578" s="3"/>
+      <c r="G578" s="5"/>
+      <c r="H578" s="5"/>
     </row>
     <row r="579" ht="15.75" customHeight="1">
-      <c r="G579" s="3"/>
-      <c r="H579" s="3"/>
+      <c r="G579" s="5"/>
+      <c r="H579" s="5"/>
     </row>
     <row r="580" ht="15.75" customHeight="1">
-      <c r="G580" s="3"/>
-      <c r="H580" s="3"/>
+      <c r="G580" s="5"/>
+      <c r="H580" s="5"/>
     </row>
     <row r="581" ht="15.75" customHeight="1">
-      <c r="G581" s="3"/>
-      <c r="H581" s="3"/>
+      <c r="G581" s="5"/>
+      <c r="H581" s="5"/>
     </row>
     <row r="582" ht="15.75" customHeight="1">
-      <c r="G582" s="3"/>
-      <c r="H582" s="3"/>
+      <c r="G582" s="5"/>
+      <c r="H582" s="5"/>
     </row>
     <row r="583" ht="15.75" customHeight="1">
-      <c r="G583" s="3"/>
-      <c r="H583" s="3"/>
+      <c r="G583" s="5"/>
+      <c r="H583" s="5"/>
     </row>
     <row r="584" ht="15.75" customHeight="1">
-      <c r="G584" s="3"/>
-      <c r="H584" s="3"/>
+      <c r="G584" s="5"/>
+      <c r="H584" s="5"/>
     </row>
     <row r="585" ht="15.75" customHeight="1">
-      <c r="G585" s="3"/>
-      <c r="H585" s="3"/>
+      <c r="G585" s="5"/>
+      <c r="H585" s="5"/>
     </row>
     <row r="586" ht="15.75" customHeight="1">
-      <c r="G586" s="3"/>
-      <c r="H586" s="3"/>
+      <c r="G586" s="5"/>
+      <c r="H586" s="5"/>
     </row>
     <row r="587" ht="15.75" customHeight="1">
-      <c r="G587" s="3"/>
-      <c r="H587" s="3"/>
+      <c r="G587" s="5"/>
+      <c r="H587" s="5"/>
     </row>
     <row r="588" ht="15.75" customHeight="1">
-      <c r="G588" s="3"/>
-      <c r="H588" s="3"/>
+      <c r="G588" s="5"/>
+      <c r="H588" s="5"/>
     </row>
     <row r="589" ht="15.75" customHeight="1">
-      <c r="G589" s="3"/>
-      <c r="H589" s="3"/>
+      <c r="G589" s="5"/>
+      <c r="H589" s="5"/>
     </row>
     <row r="590" ht="15.75" customHeight="1">
-      <c r="G590" s="3"/>
-      <c r="H590" s="3"/>
+      <c r="G590" s="5"/>
+      <c r="H590" s="5"/>
     </row>
     <row r="591" ht="15.75" customHeight="1">
-      <c r="G591" s="3"/>
-      <c r="H591" s="3"/>
+      <c r="G591" s="5"/>
+      <c r="H591" s="5"/>
     </row>
     <row r="592" ht="15.75" customHeight="1">
-      <c r="G592" s="3"/>
-      <c r="H592" s="3"/>
+      <c r="G592" s="5"/>
+      <c r="H592" s="5"/>
     </row>
     <row r="593" ht="15.75" customHeight="1">
-      <c r="G593" s="3"/>
-      <c r="H593" s="3"/>
+      <c r="G593" s="5"/>
+      <c r="H593" s="5"/>
     </row>
     <row r="594" ht="15.75" customHeight="1">
-      <c r="G594" s="3"/>
-      <c r="H594" s="3"/>
+      <c r="G594" s="5"/>
+      <c r="H594" s="5"/>
     </row>
     <row r="595" ht="15.75" customHeight="1">
-      <c r="G595" s="3"/>
-      <c r="H595" s="3"/>
+      <c r="G595" s="5"/>
+      <c r="H595" s="5"/>
     </row>
     <row r="596" ht="15.75" customHeight="1">
-      <c r="G596" s="3"/>
-      <c r="H596" s="3"/>
+      <c r="G596" s="5"/>
+      <c r="H596" s="5"/>
     </row>
     <row r="597" ht="15.75" customHeight="1">
-      <c r="G597" s="3"/>
-      <c r="H597" s="3"/>
+      <c r="G597" s="5"/>
+      <c r="H597" s="5"/>
     </row>
     <row r="598" ht="15.75" customHeight="1">
-      <c r="G598" s="3"/>
-      <c r="H598" s="3"/>
+      <c r="G598" s="5"/>
+      <c r="H598" s="5"/>
     </row>
     <row r="599" ht="15.75" customHeight="1">
-      <c r="G599" s="3"/>
-      <c r="H599" s="3"/>
+      <c r="G599" s="5"/>
+      <c r="H599" s="5"/>
     </row>
     <row r="600" ht="15.75" customHeight="1">
-      <c r="G600" s="3"/>
-      <c r="H600" s="3"/>
+      <c r="G600" s="5"/>
+      <c r="H600" s="5"/>
     </row>
     <row r="601" ht="15.75" customHeight="1">
-      <c r="G601" s="3"/>
-      <c r="H601" s="3"/>
+      <c r="G601" s="5"/>
+      <c r="H601" s="5"/>
     </row>
     <row r="602" ht="15.75" customHeight="1">
-      <c r="G602" s="3"/>
-      <c r="H602" s="3"/>
+      <c r="G602" s="5"/>
+      <c r="H602" s="5"/>
     </row>
     <row r="603" ht="15.75" customHeight="1">
-      <c r="G603" s="3"/>
-      <c r="H603" s="3"/>
+      <c r="G603" s="5"/>
+      <c r="H603" s="5"/>
     </row>
     <row r="604" ht="15.75" customHeight="1">
-      <c r="G604" s="3"/>
-      <c r="H604" s="3"/>
+      <c r="G604" s="5"/>
+      <c r="H604" s="5"/>
     </row>
     <row r="605" ht="15.75" customHeight="1">
-      <c r="G605" s="3"/>
-      <c r="H605" s="3"/>
+      <c r="G605" s="5"/>
+      <c r="H605" s="5"/>
     </row>
     <row r="606" ht="15.75" customHeight="1">
-      <c r="G606" s="3"/>
-      <c r="H606" s="3"/>
+      <c r="G606" s="5"/>
+      <c r="H606" s="5"/>
     </row>
     <row r="607" ht="15.75" customHeight="1">
-      <c r="G607" s="3"/>
-      <c r="H607" s="3"/>
+      <c r="G607" s="5"/>
+      <c r="H607" s="5"/>
     </row>
     <row r="608" ht="15.75" customHeight="1">
-      <c r="G608" s="3"/>
-      <c r="H608" s="3"/>
+      <c r="G608" s="5"/>
+      <c r="H608" s="5"/>
     </row>
     <row r="609" ht="15.75" customHeight="1">
-      <c r="G609" s="3"/>
-      <c r="H609" s="3"/>
+      <c r="G609" s="5"/>
+      <c r="H609" s="5"/>
     </row>
     <row r="610" ht="15.75" customHeight="1">
-      <c r="G610" s="3"/>
-      <c r="H610" s="3"/>
+      <c r="G610" s="5"/>
+      <c r="H610" s="5"/>
     </row>
     <row r="611" ht="15.75" customHeight="1">
-      <c r="G611" s="3"/>
-      <c r="H611" s="3"/>
+      <c r="G611" s="5"/>
+      <c r="H611" s="5"/>
     </row>
     <row r="612" ht="15.75" customHeight="1">
-      <c r="G612" s="3"/>
-      <c r="H612" s="3"/>
+      <c r="G612" s="5"/>
+      <c r="H612" s="5"/>
     </row>
     <row r="613" ht="15.75" customHeight="1">
-      <c r="G613" s="3"/>
-      <c r="H613" s="3"/>
+      <c r="G613" s="5"/>
+      <c r="H613" s="5"/>
     </row>
     <row r="614" ht="15.75" customHeight="1">
-      <c r="G614" s="3"/>
-      <c r="H614" s="3"/>
+      <c r="G614" s="5"/>
+      <c r="H614" s="5"/>
     </row>
     <row r="615" ht="15.75" customHeight="1">
-      <c r="G615" s="3"/>
-      <c r="H615" s="3"/>
+      <c r="G615" s="5"/>
+      <c r="H615" s="5"/>
     </row>
     <row r="616" ht="15.75" customHeight="1">
-      <c r="G616" s="3"/>
-      <c r="H616" s="3"/>
+      <c r="G616" s="5"/>
+      <c r="H616" s="5"/>
     </row>
     <row r="617" ht="15.75" customHeight="1">
-      <c r="G617" s="3"/>
-      <c r="H617" s="3"/>
+      <c r="G617" s="5"/>
+      <c r="H617" s="5"/>
     </row>
     <row r="618" ht="15.75" customHeight="1">
-      <c r="G618" s="3"/>
-      <c r="H618" s="3"/>
+      <c r="G618" s="5"/>
+      <c r="H618" s="5"/>
     </row>
     <row r="619" ht="15.75" customHeight="1">
-      <c r="G619" s="3"/>
-      <c r="H619" s="3"/>
+      <c r="G619" s="5"/>
+      <c r="H619" s="5"/>
     </row>
     <row r="620" ht="15.75" customHeight="1">
-      <c r="G620" s="3"/>
-      <c r="H620" s="3"/>
+      <c r="G620" s="5"/>
+      <c r="H620" s="5"/>
     </row>
     <row r="621" ht="15.75" customHeight="1">
-      <c r="G621" s="3"/>
-      <c r="H621" s="3"/>
+      <c r="G621" s="5"/>
+      <c r="H621" s="5"/>
     </row>
     <row r="622" ht="15.75" customHeight="1">
-      <c r="G622" s="3"/>
-      <c r="H622" s="3"/>
+      <c r="G622" s="5"/>
+      <c r="H622" s="5"/>
     </row>
     <row r="623" ht="15.75" customHeight="1">
-      <c r="G623" s="3"/>
-      <c r="H623" s="3"/>
+      <c r="G623" s="5"/>
+      <c r="H623" s="5"/>
     </row>
     <row r="624" ht="15.75" customHeight="1">
-      <c r="G624" s="3"/>
-      <c r="H624" s="3"/>
+      <c r="G624" s="5"/>
+      <c r="H624" s="5"/>
     </row>
     <row r="625" ht="15.75" customHeight="1">
-      <c r="G625" s="3"/>
-      <c r="H625" s="3"/>
+      <c r="G625" s="5"/>
+      <c r="H625" s="5"/>
     </row>
     <row r="626" ht="15.75" customHeight="1">
-      <c r="G626" s="3"/>
-      <c r="H626" s="3"/>
+      <c r="G626" s="5"/>
+      <c r="H626" s="5"/>
     </row>
     <row r="627" ht="15.75" customHeight="1">
-      <c r="G627" s="3"/>
-      <c r="H627" s="3"/>
+      <c r="G627" s="5"/>
+      <c r="H627" s="5"/>
     </row>
     <row r="628" ht="15.75" customHeight="1">
-      <c r="G628" s="3"/>
-      <c r="H628" s="3"/>
+      <c r="G628" s="5"/>
+      <c r="H628" s="5"/>
     </row>
     <row r="629" ht="15.75" customHeight="1">
-      <c r="G629" s="3"/>
-      <c r="H629" s="3"/>
+      <c r="G629" s="5"/>
+      <c r="H629" s="5"/>
     </row>
     <row r="630" ht="15.75" customHeight="1">
-      <c r="G630" s="3"/>
-      <c r="H630" s="3"/>
+      <c r="G630" s="5"/>
+      <c r="H630" s="5"/>
     </row>
     <row r="631" ht="15.75" customHeight="1">
-      <c r="G631" s="3"/>
-      <c r="H631" s="3"/>
+      <c r="G631" s="5"/>
+      <c r="H631" s="5"/>
     </row>
     <row r="632" ht="15.75" customHeight="1">
-      <c r="G632" s="3"/>
-      <c r="H632" s="3"/>
+      <c r="G632" s="5"/>
+      <c r="H632" s="5"/>
     </row>
     <row r="633" ht="15.75" customHeight="1">
-      <c r="G633" s="3"/>
-      <c r="H633" s="3"/>
+      <c r="G633" s="5"/>
+      <c r="H633" s="5"/>
     </row>
     <row r="634" ht="15.75" customHeight="1">
-      <c r="G634" s="3"/>
-      <c r="H634" s="3"/>
+      <c r="G634" s="5"/>
+      <c r="H634" s="5"/>
     </row>
     <row r="635" ht="15.75" customHeight="1">
-      <c r="G635" s="3"/>
-      <c r="H635" s="3"/>
+      <c r="G635" s="5"/>
+      <c r="H635" s="5"/>
     </row>
     <row r="636" ht="15.75" customHeight="1">
-      <c r="G636" s="3"/>
-      <c r="H636" s="3"/>
+      <c r="G636" s="5"/>
+      <c r="H636" s="5"/>
     </row>
     <row r="637" ht="15.75" customHeight="1">
-      <c r="G637" s="3"/>
-      <c r="H637" s="3"/>
+      <c r="G637" s="5"/>
+      <c r="H637" s="5"/>
     </row>
     <row r="638" ht="15.75" customHeight="1">
-      <c r="G638" s="3"/>
-      <c r="H638" s="3"/>
+      <c r="G638" s="5"/>
+      <c r="H638" s="5"/>
     </row>
     <row r="639" ht="15.75" customHeight="1">
-      <c r="G639" s="3"/>
-      <c r="H639" s="3"/>
+      <c r="G639" s="5"/>
+      <c r="H639" s="5"/>
     </row>
     <row r="640" ht="15.75" customHeight="1">
-      <c r="G640" s="3"/>
-      <c r="H640" s="3"/>
+      <c r="G640" s="5"/>
+      <c r="H640" s="5"/>
     </row>
     <row r="641" ht="15.75" customHeight="1">
-      <c r="G641" s="3"/>
-      <c r="H641" s="3"/>
+      <c r="G641" s="5"/>
+      <c r="H641" s="5"/>
     </row>
     <row r="642" ht="15.75" customHeight="1">
-      <c r="G642" s="3"/>
-      <c r="H642" s="3"/>
+      <c r="G642" s="5"/>
+      <c r="H642" s="5"/>
     </row>
     <row r="643" ht="15.75" customHeight="1">
-      <c r="G643" s="3"/>
-      <c r="H643" s="3"/>
+      <c r="G643" s="5"/>
+      <c r="H643" s="5"/>
     </row>
     <row r="644" ht="15.75" customHeight="1">
-      <c r="G644" s="3"/>
-      <c r="H644" s="3"/>
+      <c r="G644" s="5"/>
+      <c r="H644" s="5"/>
     </row>
     <row r="645" ht="15.75" customHeight="1">
-      <c r="G645" s="3"/>
-      <c r="H645" s="3"/>
+      <c r="G645" s="5"/>
+      <c r="H645" s="5"/>
     </row>
     <row r="646" ht="15.75" customHeight="1">
-      <c r="G646" s="3"/>
-      <c r="H646" s="3"/>
+      <c r="G646" s="5"/>
+      <c r="H646" s="5"/>
     </row>
     <row r="647" ht="15.75" customHeight="1">
-      <c r="G647" s="3"/>
-      <c r="H647" s="3"/>
+      <c r="G647" s="5"/>
+      <c r="H647" s="5"/>
     </row>
     <row r="648" ht="15.75" customHeight="1">
-      <c r="G648" s="3"/>
-      <c r="H648" s="3"/>
+      <c r="G648" s="5"/>
+      <c r="H648" s="5"/>
     </row>
     <row r="649" ht="15.75" customHeight="1">
-      <c r="G649" s="3"/>
-      <c r="H649" s="3"/>
+      <c r="G649" s="5"/>
+      <c r="H649" s="5"/>
     </row>
     <row r="650" ht="15.75" customHeight="1">
-      <c r="G650" s="3"/>
-      <c r="H650" s="3"/>
+      <c r="G650" s="5"/>
+      <c r="H650" s="5"/>
     </row>
     <row r="651" ht="15.75" customHeight="1">
-      <c r="G651" s="3"/>
-      <c r="H651" s="3"/>
+      <c r="G651" s="5"/>
+      <c r="H651" s="5"/>
     </row>
     <row r="652" ht="15.75" customHeight="1">
-      <c r="G652" s="3"/>
-      <c r="H652" s="3"/>
+      <c r="G652" s="5"/>
+      <c r="H652" s="5"/>
     </row>
     <row r="653" ht="15.75" customHeight="1">
-      <c r="G653" s="3"/>
-      <c r="H653" s="3"/>
+      <c r="G653" s="5"/>
+      <c r="H653" s="5"/>
     </row>
     <row r="654" ht="15.75" customHeight="1">
-      <c r="G654" s="3"/>
-      <c r="H654" s="3"/>
+      <c r="G654" s="5"/>
+      <c r="H654" s="5"/>
     </row>
     <row r="655" ht="15.75" customHeight="1">
-      <c r="G655" s="3"/>
-      <c r="H655" s="3"/>
+      <c r="G655" s="5"/>
+      <c r="H655" s="5"/>
     </row>
     <row r="656" ht="15.75" customHeight="1">
-      <c r="G656" s="3"/>
-      <c r="H656" s="3"/>
+      <c r="G656" s="5"/>
+      <c r="H656" s="5"/>
     </row>
     <row r="657" ht="15.75" customHeight="1">
-      <c r="G657" s="3"/>
-      <c r="H657" s="3"/>
+      <c r="G657" s="5"/>
+      <c r="H657" s="5"/>
     </row>
     <row r="658" ht="15.75" customHeight="1">
-      <c r="G658" s="3"/>
-      <c r="H658" s="3"/>
+      <c r="G658" s="5"/>
+      <c r="H658" s="5"/>
     </row>
     <row r="659" ht="15.75" customHeight="1">
-      <c r="G659" s="3"/>
-      <c r="H659" s="3"/>
+      <c r="G659" s="5"/>
+      <c r="H659" s="5"/>
     </row>
     <row r="660" ht="15.75" customHeight="1">
-      <c r="G660" s="3"/>
-      <c r="H660" s="3"/>
+      <c r="G660" s="5"/>
+      <c r="H660" s="5"/>
     </row>
     <row r="661" ht="15.75" customHeight="1">
-      <c r="G661" s="3"/>
-      <c r="H661" s="3"/>
+      <c r="G661" s="5"/>
+      <c r="H661" s="5"/>
     </row>
     <row r="662" ht="15.75" customHeight="1">
-      <c r="G662" s="3"/>
-      <c r="H662" s="3"/>
+      <c r="G662" s="5"/>
+      <c r="H662" s="5"/>
     </row>
     <row r="663" ht="15.75" customHeight="1">
-      <c r="G663" s="3"/>
-      <c r="H663" s="3"/>
+      <c r="G663" s="5"/>
+      <c r="H663" s="5"/>
     </row>
     <row r="664" ht="15.75" customHeight="1">
-      <c r="G664" s="3"/>
-      <c r="H664" s="3"/>
+      <c r="G664" s="5"/>
+      <c r="H664" s="5"/>
     </row>
     <row r="665" ht="15.75" customHeight="1">
-      <c r="G665" s="3"/>
-      <c r="H665" s="3"/>
+      <c r="G665" s="5"/>
+      <c r="H665" s="5"/>
     </row>
     <row r="666" ht="15.75" customHeight="1">
-      <c r="G666" s="3"/>
-      <c r="H666" s="3"/>
+      <c r="G666" s="5"/>
+      <c r="H666" s="5"/>
     </row>
     <row r="667" ht="15.75" customHeight="1">
-      <c r="G667" s="3"/>
-      <c r="H667" s="3"/>
+      <c r="G667" s="5"/>
+      <c r="H667" s="5"/>
     </row>
     <row r="668" ht="15.75" customHeight="1">
-      <c r="G668" s="3"/>
-      <c r="H668" s="3"/>
+      <c r="G668" s="5"/>
+      <c r="H668" s="5"/>
     </row>
     <row r="669" ht="15.75" customHeight="1">
-      <c r="G669" s="3"/>
-      <c r="H669" s="3"/>
+      <c r="G669" s="5"/>
+      <c r="H669" s="5"/>
     </row>
     <row r="670" ht="15.75" customHeight="1">
-      <c r="G670" s="3"/>
-      <c r="H670" s="3"/>
+      <c r="G670" s="5"/>
+      <c r="H670" s="5"/>
     </row>
     <row r="671" ht="15.75" customHeight="1">
-      <c r="G671" s="3"/>
-      <c r="H671" s="3"/>
+      <c r="G671" s="5"/>
+      <c r="H671" s="5"/>
     </row>
     <row r="672" ht="15.75" customHeight="1">
-      <c r="G672" s="3"/>
-      <c r="H672" s="3"/>
+      <c r="G672" s="5"/>
+      <c r="H672" s="5"/>
     </row>
     <row r="673" ht="15.75" customHeight="1">
-      <c r="G673" s="3"/>
-      <c r="H673" s="3"/>
+      <c r="G673" s="5"/>
+      <c r="H673" s="5"/>
     </row>
     <row r="674" ht="15.75" customHeight="1">
-      <c r="G674" s="3"/>
-      <c r="H674" s="3"/>
+      <c r="G674" s="5"/>
+      <c r="H674" s="5"/>
     </row>
     <row r="675" ht="15.75" customHeight="1">
-      <c r="G675" s="3"/>
-      <c r="H675" s="3"/>
+      <c r="G675" s="5"/>
+      <c r="H675" s="5"/>
     </row>
     <row r="676" ht="15.75" customHeight="1">
-      <c r="G676" s="3"/>
-      <c r="H676" s="3"/>
+      <c r="G676" s="5"/>
+      <c r="H676" s="5"/>
     </row>
     <row r="677" ht="15.75" customHeight="1">
-      <c r="G677" s="3"/>
-      <c r="H677" s="3"/>
+      <c r="G677" s="5"/>
+      <c r="H677" s="5"/>
     </row>
     <row r="678" ht="15.75" customHeight="1">
-      <c r="G678" s="3"/>
-      <c r="H678" s="3"/>
+      <c r="G678" s="5"/>
+      <c r="H678" s="5"/>
     </row>
     <row r="679" ht="15.75" customHeight="1">
-      <c r="G679" s="3"/>
-      <c r="H679" s="3"/>
+      <c r="G679" s="5"/>
+      <c r="H679" s="5"/>
     </row>
     <row r="680" ht="15.75" customHeight="1">
-      <c r="G680" s="3"/>
-      <c r="H680" s="3"/>
+      <c r="G680" s="5"/>
+      <c r="H680" s="5"/>
     </row>
     <row r="681" ht="15.75" customHeight="1">
-      <c r="G681" s="3"/>
-      <c r="H681" s="3"/>
+      <c r="G681" s="5"/>
+      <c r="H681" s="5"/>
     </row>
     <row r="682" ht="15.75" customHeight="1">
-      <c r="G682" s="3"/>
-      <c r="H682" s="3"/>
+      <c r="G682" s="5"/>
+      <c r="H682" s="5"/>
     </row>
     <row r="683" ht="15.75" customHeight="1">
-      <c r="G683" s="3"/>
-      <c r="H683" s="3"/>
+      <c r="G683" s="5"/>
+      <c r="H683" s="5"/>
     </row>
     <row r="684" ht="15.75" customHeight="1">
-      <c r="G684" s="3"/>
-      <c r="H684" s="3"/>
+      <c r="G684" s="5"/>
+      <c r="H684" s="5"/>
     </row>
     <row r="685" ht="15.75" customHeight="1">
-      <c r="G685" s="3"/>
-      <c r="H685" s="3"/>
+      <c r="G685" s="5"/>
+      <c r="H685" s="5"/>
     </row>
     <row r="686" ht="15.75" customHeight="1">
-      <c r="G686" s="3"/>
-      <c r="H686" s="3"/>
+      <c r="G686" s="5"/>
+      <c r="H686" s="5"/>
     </row>
     <row r="687" ht="15.75" customHeight="1">
-      <c r="G687" s="3"/>
-      <c r="H687" s="3"/>
+      <c r="G687" s="5"/>
+      <c r="H687" s="5"/>
     </row>
     <row r="688" ht="15.75" customHeight="1">
-      <c r="G688" s="3"/>
-      <c r="H688" s="3"/>
+      <c r="G688" s="5"/>
+      <c r="H688" s="5"/>
     </row>
     <row r="689" ht="15.75" customHeight="1">
-      <c r="G689" s="3"/>
-      <c r="H689" s="3"/>
+      <c r="G689" s="5"/>
+      <c r="H689" s="5"/>
     </row>
     <row r="690" ht="15.75" customHeight="1">
-      <c r="G690" s="3"/>
-      <c r="H690" s="3"/>
+      <c r="G690" s="5"/>
+      <c r="H690" s="5"/>
     </row>
     <row r="691" ht="15.75" customHeight="1">
-      <c r="G691" s="3"/>
-      <c r="H691" s="3"/>
+      <c r="G691" s="5"/>
+      <c r="H691" s="5"/>
     </row>
     <row r="692" ht="15.75" customHeight="1">
-      <c r="G692" s="3"/>
-      <c r="H692" s="3"/>
+      <c r="G692" s="5"/>
+      <c r="H692" s="5"/>
     </row>
     <row r="693" ht="15.75" customHeight="1">
-      <c r="G693" s="3"/>
-      <c r="H693" s="3"/>
+      <c r="G693" s="5"/>
+      <c r="H693" s="5"/>
     </row>
     <row r="694" ht="15.75" customHeight="1">
-      <c r="G694" s="3"/>
-      <c r="H694" s="3"/>
+      <c r="G694" s="5"/>
+      <c r="H694" s="5"/>
     </row>
     <row r="695" ht="15.75" customHeight="1">
-      <c r="G695" s="3"/>
-      <c r="H695" s="3"/>
+      <c r="G695" s="5"/>
+      <c r="H695" s="5"/>
     </row>
     <row r="696" ht="15.75" customHeight="1">
-      <c r="G696" s="3"/>
-      <c r="H696" s="3"/>
+      <c r="G696" s="5"/>
+      <c r="H696" s="5"/>
     </row>
     <row r="697" ht="15.75" customHeight="1">
-      <c r="G697" s="3"/>
-      <c r="H697" s="3"/>
+      <c r="G697" s="5"/>
+      <c r="H697" s="5"/>
     </row>
     <row r="698" ht="15.75" customHeight="1">
-      <c r="G698" s="3"/>
-      <c r="H698" s="3"/>
+      <c r="G698" s="5"/>
+      <c r="H698" s="5"/>
     </row>
     <row r="699" ht="15.75" customHeight="1">
-      <c r="G699" s="3"/>
-      <c r="H699" s="3"/>
+      <c r="G699" s="5"/>
+      <c r="H699" s="5"/>
     </row>
     <row r="700" ht="15.75" customHeight="1">
-      <c r="G700" s="3"/>
-      <c r="H700" s="3"/>
+      <c r="G700" s="5"/>
+      <c r="H700" s="5"/>
     </row>
     <row r="701" ht="15.75" customHeight="1">
-      <c r="G701" s="3"/>
-      <c r="H701" s="3"/>
+      <c r="G701" s="5"/>
+      <c r="H701" s="5"/>
     </row>
     <row r="702" ht="15.75" customHeight="1">
-      <c r="G702" s="3"/>
-      <c r="H702" s="3"/>
+      <c r="G702" s="5"/>
+      <c r="H702" s="5"/>
     </row>
     <row r="703" ht="15.75" customHeight="1">
-      <c r="G703" s="3"/>
-      <c r="H703" s="3"/>
+      <c r="G703" s="5"/>
+      <c r="H703" s="5"/>
     </row>
     <row r="704" ht="15.75" customHeight="1">
-      <c r="G704" s="3"/>
-      <c r="H704" s="3"/>
+      <c r="G704" s="5"/>
+      <c r="H704" s="5"/>
     </row>
     <row r="705" ht="15.75" customHeight="1">
-      <c r="G705" s="3"/>
-      <c r="H705" s="3"/>
+      <c r="G705" s="5"/>
+      <c r="H705" s="5"/>
     </row>
     <row r="706" ht="15.75" customHeight="1">
-      <c r="G706" s="3"/>
-      <c r="H706" s="3"/>
+      <c r="G706" s="5"/>
+      <c r="H706" s="5"/>
     </row>
     <row r="707" ht="15.75" customHeight="1">
-      <c r="G707" s="3"/>
-      <c r="H707" s="3"/>
+      <c r="G707" s="5"/>
+      <c r="H707" s="5"/>
     </row>
     <row r="708" ht="15.75" customHeight="1">
-      <c r="G708" s="3"/>
-      <c r="H708" s="3"/>
+      <c r="G708" s="5"/>
+      <c r="H708" s="5"/>
     </row>
     <row r="709" ht="15.75" customHeight="1">
-      <c r="G709" s="3"/>
-      <c r="H709" s="3"/>
+      <c r="G709" s="5"/>
+      <c r="H709" s="5"/>
     </row>
     <row r="710" ht="15.75" customHeight="1">
-      <c r="G710" s="3"/>
-      <c r="H710" s="3"/>
+      <c r="G710" s="5"/>
+      <c r="H710" s="5"/>
     </row>
     <row r="711" ht="15.75" customHeight="1">
-      <c r="G711" s="3"/>
-      <c r="H711" s="3"/>
+      <c r="G711" s="5"/>
+      <c r="H711" s="5"/>
     </row>
     <row r="712" ht="15.75" customHeight="1">
-      <c r="G712" s="3"/>
-      <c r="H712" s="3"/>
+      <c r="G712" s="5"/>
+      <c r="H712" s="5"/>
     </row>
     <row r="713" ht="15.75" customHeight="1">
-      <c r="G713" s="3"/>
-      <c r="H713" s="3"/>
+      <c r="G713" s="5"/>
+      <c r="H713" s="5"/>
     </row>
     <row r="714" ht="15.75" customHeight="1">
-      <c r="G714" s="3"/>
-      <c r="H714" s="3"/>
+      <c r="G714" s="5"/>
+      <c r="H714" s="5"/>
     </row>
     <row r="715" ht="15.75" customHeight="1">
-      <c r="G715" s="3"/>
-      <c r="H715" s="3"/>
+      <c r="G715" s="5"/>
+      <c r="H715" s="5"/>
     </row>
     <row r="716" ht="15.75" customHeight="1">
-      <c r="G716" s="3"/>
-      <c r="H716" s="3"/>
+      <c r="G716" s="5"/>
+      <c r="H716" s="5"/>
     </row>
     <row r="717" ht="15.75" customHeight="1">
-      <c r="G717" s="3"/>
-      <c r="H717" s="3"/>
+      <c r="G717" s="5"/>
+      <c r="H717" s="5"/>
     </row>
     <row r="718" ht="15.75" customHeight="1">
-      <c r="G718" s="3"/>
-      <c r="H718" s="3"/>
+      <c r="G718" s="5"/>
+      <c r="H718" s="5"/>
     </row>
     <row r="719" ht="15.75" customHeight="1">
-      <c r="G719" s="3"/>
-      <c r="H719" s="3"/>
+      <c r="G719" s="5"/>
+      <c r="H719" s="5"/>
     </row>
     <row r="720" ht="15.75" customHeight="1">
-      <c r="G720" s="3"/>
-      <c r="H720" s="3"/>
+      <c r="G720" s="5"/>
+      <c r="H720" s="5"/>
     </row>
     <row r="721" ht="15.75" customHeight="1">
-      <c r="G721" s="3"/>
-      <c r="H721" s="3"/>
+      <c r="G721" s="5"/>
+      <c r="H721" s="5"/>
     </row>
     <row r="722" ht="15.75" customHeight="1">
-      <c r="G722" s="3"/>
-      <c r="H722" s="3"/>
+      <c r="G722" s="5"/>
+      <c r="H722" s="5"/>
     </row>
     <row r="723" ht="15.75" customHeight="1">
-      <c r="G723" s="3"/>
-      <c r="H723" s="3"/>
+      <c r="G723" s="5"/>
+      <c r="H723" s="5"/>
     </row>
     <row r="724" ht="15.75" customHeight="1">
-      <c r="G724" s="3"/>
-      <c r="H724" s="3"/>
+      <c r="G724" s="5"/>
+      <c r="H724" s="5"/>
     </row>
     <row r="725" ht="15.75" customHeight="1">
-      <c r="G725" s="3"/>
-      <c r="H725" s="3"/>
+      <c r="G725" s="5"/>
+      <c r="H725" s="5"/>
     </row>
     <row r="726" ht="15.75" customHeight="1">
-      <c r="G726" s="3"/>
-      <c r="H726" s="3"/>
+      <c r="G726" s="5"/>
+      <c r="H726" s="5"/>
     </row>
     <row r="727" ht="15.75" customHeight="1">
-      <c r="G727" s="3"/>
-      <c r="H727" s="3"/>
+      <c r="G727" s="5"/>
+      <c r="H727" s="5"/>
     </row>
     <row r="728" ht="15.75" customHeight="1">
-      <c r="G728" s="3"/>
-      <c r="H728" s="3"/>
+      <c r="G728" s="5"/>
+      <c r="H728" s="5"/>
     </row>
     <row r="729" ht="15.75" customHeight="1">
-      <c r="G729" s="3"/>
-      <c r="H729" s="3"/>
+      <c r="G729" s="5"/>
+      <c r="H729" s="5"/>
     </row>
     <row r="730" ht="15.75" customHeight="1">
-      <c r="G730" s="3"/>
-      <c r="H730" s="3"/>
+      <c r="G730" s="5"/>
+      <c r="H730" s="5"/>
     </row>
     <row r="731" ht="15.75" customHeight="1">
-      <c r="G731" s="3"/>
-      <c r="H731" s="3"/>
+      <c r="G731" s="5"/>
+      <c r="H731" s="5"/>
     </row>
     <row r="732" ht="15.75" customHeight="1">
-      <c r="G732" s="3"/>
-      <c r="H732" s="3"/>
+      <c r="G732" s="5"/>
+      <c r="H732" s="5"/>
     </row>
     <row r="733" ht="15.75" customHeight="1">
-      <c r="G733" s="3"/>
-      <c r="H733" s="3"/>
+      <c r="G733" s="5"/>
+      <c r="H733" s="5"/>
     </row>
     <row r="734" ht="15.75" customHeight="1">
-      <c r="G734" s="3"/>
-      <c r="H734" s="3"/>
+      <c r="G734" s="5"/>
+      <c r="H734" s="5"/>
     </row>
     <row r="735" ht="15.75" customHeight="1">
-      <c r="G735" s="3"/>
-      <c r="H735" s="3"/>
+      <c r="G735" s="5"/>
+      <c r="H735" s="5"/>
     </row>
     <row r="736" ht="15.75" customHeight="1">
-      <c r="G736" s="3"/>
-      <c r="H736" s="3"/>
+      <c r="G736" s="5"/>
+      <c r="H736" s="5"/>
     </row>
     <row r="737" ht="15.75" customHeight="1">
-      <c r="G737" s="3"/>
-      <c r="H737" s="3"/>
+      <c r="G737" s="5"/>
+      <c r="H737" s="5"/>
     </row>
     <row r="738" ht="15.75" customHeight="1">
-      <c r="G738" s="3"/>
-      <c r="H738" s="3"/>
+      <c r="G738" s="5"/>
+      <c r="H738" s="5"/>
     </row>
     <row r="739" ht="15.75" customHeight="1">
-      <c r="G739" s="3"/>
-      <c r="H739" s="3"/>
+      <c r="G739" s="5"/>
+      <c r="H739" s="5"/>
     </row>
     <row r="740" ht="15.75" customHeight="1">
-      <c r="G740" s="3"/>
-      <c r="H740" s="3"/>
+      <c r="G740" s="5"/>
+      <c r="H740" s="5"/>
     </row>
     <row r="741" ht="15.75" customHeight="1">
-      <c r="G741" s="3"/>
-      <c r="H741" s="3"/>
+      <c r="G741" s="5"/>
+      <c r="H741" s="5"/>
     </row>
     <row r="742" ht="15.75" customHeight="1">
-      <c r="G742" s="3"/>
-      <c r="H742" s="3"/>
+      <c r="G742" s="5"/>
+      <c r="H742" s="5"/>
     </row>
     <row r="743" ht="15.75" customHeight="1">
-      <c r="G743" s="3"/>
-      <c r="H743" s="3"/>
+      <c r="G743" s="5"/>
+      <c r="H743" s="5"/>
     </row>
     <row r="744" ht="15.75" customHeight="1">
-      <c r="G744" s="3"/>
-      <c r="H744" s="3"/>
+      <c r="G744" s="5"/>
+      <c r="H744" s="5"/>
     </row>
     <row r="745" ht="15.75" customHeight="1">
-      <c r="G745" s="3"/>
-      <c r="H745" s="3"/>
+      <c r="G745" s="5"/>
+      <c r="H745" s="5"/>
     </row>
     <row r="746" ht="15.75" customHeight="1">
-      <c r="G746" s="3"/>
-      <c r="H746" s="3"/>
+      <c r="G746" s="5"/>
+      <c r="H746" s="5"/>
     </row>
     <row r="747" ht="15.75" customHeight="1">
-      <c r="G747" s="3"/>
-      <c r="H747" s="3"/>
+      <c r="G747" s="5"/>
+      <c r="H747" s="5"/>
     </row>
     <row r="748" ht="15.75" customHeight="1">
-      <c r="G748" s="3"/>
-      <c r="H748" s="3"/>
+      <c r="G748" s="5"/>
+      <c r="H748" s="5"/>
     </row>
     <row r="749" ht="15.75" customHeight="1">
-      <c r="G749" s="3"/>
-      <c r="H749" s="3"/>
+      <c r="G749" s="5"/>
+      <c r="H749" s="5"/>
     </row>
     <row r="750" ht="15.75" customHeight="1">
-      <c r="G750" s="3"/>
-      <c r="H750" s="3"/>
+      <c r="G750" s="5"/>
+      <c r="H750" s="5"/>
     </row>
     <row r="751" ht="15.75" customHeight="1">
-      <c r="G751" s="3"/>
-      <c r="H751" s="3"/>
+      <c r="G751" s="5"/>
+      <c r="H751" s="5"/>
     </row>
     <row r="752" ht="15.75" customHeight="1">
-      <c r="G752" s="3"/>
-      <c r="H752" s="3"/>
+      <c r="G752" s="5"/>
+      <c r="H752" s="5"/>
     </row>
     <row r="753" ht="15.75" customHeight="1">
-      <c r="G753" s="3"/>
-      <c r="H753" s="3"/>
+      <c r="G753" s="5"/>
+      <c r="H753" s="5"/>
     </row>
     <row r="754" ht="15.75" customHeight="1">
-      <c r="G754" s="3"/>
-      <c r="H754" s="3"/>
+      <c r="G754" s="5"/>
+      <c r="H754" s="5"/>
     </row>
     <row r="755" ht="15.75" customHeight="1">
-      <c r="G755" s="3"/>
-      <c r="H755" s="3"/>
+      <c r="G755" s="5"/>
+      <c r="H755" s="5"/>
     </row>
     <row r="756" ht="15.75" customHeight="1">
-      <c r="G756" s="3"/>
-      <c r="H756" s="3"/>
+      <c r="G756" s="5"/>
+      <c r="H756" s="5"/>
     </row>
     <row r="757" ht="15.75" customHeight="1">
-      <c r="G757" s="3"/>
-      <c r="H757" s="3"/>
+      <c r="G757" s="5"/>
+      <c r="H757" s="5"/>
     </row>
     <row r="758" ht="15.75" customHeight="1">
-      <c r="G758" s="3"/>
-      <c r="H758" s="3"/>
+      <c r="G758" s="5"/>
+      <c r="H758" s="5"/>
     </row>
     <row r="759" ht="15.75" customHeight="1">
-      <c r="G759" s="3"/>
-      <c r="H759" s="3"/>
+      <c r="G759" s="5"/>
+      <c r="H759" s="5"/>
     </row>
     <row r="760" ht="15.75" customHeight="1">
-      <c r="G760" s="3"/>
-      <c r="H760" s="3"/>
+      <c r="G760" s="5"/>
+      <c r="H760" s="5"/>
     </row>
     <row r="761" ht="15.75" customHeight="1">
-      <c r="G761" s="3"/>
-      <c r="H761" s="3"/>
+      <c r="G761" s="5"/>
+      <c r="H761" s="5"/>
     </row>
     <row r="762" ht="15.75" customHeight="1">
-      <c r="G762" s="3"/>
-      <c r="H762" s="3"/>
+      <c r="G762" s="5"/>
+      <c r="H762" s="5"/>
     </row>
     <row r="763" ht="15.75" customHeight="1">
-      <c r="G763" s="3"/>
-      <c r="H763" s="3"/>
+      <c r="G763" s="5"/>
+      <c r="H763" s="5"/>
     </row>
     <row r="764" ht="15.75" customHeight="1">
-      <c r="G764" s="3"/>
-      <c r="H764" s="3"/>
+      <c r="G764" s="5"/>
+      <c r="H764" s="5"/>
     </row>
     <row r="765" ht="15.75" customHeight="1">
-      <c r="G765" s="3"/>
-      <c r="H765" s="3"/>
+      <c r="G765" s="5"/>
+      <c r="H765" s="5"/>
     </row>
     <row r="766" ht="15.75" customHeight="1">
-      <c r="G766" s="3"/>
-      <c r="H766" s="3"/>
+      <c r="G766" s="5"/>
+      <c r="H766" s="5"/>
     </row>
     <row r="767" ht="15.75" customHeight="1">
-      <c r="G767" s="3"/>
-      <c r="H767" s="3"/>
+      <c r="G767" s="5"/>
+      <c r="H767" s="5"/>
     </row>
     <row r="768" ht="15.75" customHeight="1">
-      <c r="G768" s="3"/>
-      <c r="H768" s="3"/>
+      <c r="G768" s="5"/>
+      <c r="H768" s="5"/>
     </row>
     <row r="769" ht="15.75" customHeight="1">
-      <c r="G769" s="3"/>
-      <c r="H769" s="3"/>
+      <c r="G769" s="5"/>
+      <c r="H769" s="5"/>
     </row>
     <row r="770" ht="15.75" customHeight="1">
-      <c r="G770" s="3"/>
-      <c r="H770" s="3"/>
+      <c r="G770" s="5"/>
+      <c r="H770" s="5"/>
     </row>
     <row r="771" ht="15.75" customHeight="1">
-      <c r="G771" s="3"/>
-      <c r="H771" s="3"/>
+      <c r="G771" s="5"/>
+      <c r="H771" s="5"/>
     </row>
     <row r="772" ht="15.75" customHeight="1">
-      <c r="G772" s="3"/>
-      <c r="H772" s="3"/>
+      <c r="G772" s="5"/>
+      <c r="H772" s="5"/>
     </row>
     <row r="773" ht="15.75" customHeight="1">
-      <c r="G773" s="3"/>
-      <c r="H773" s="3"/>
+      <c r="G773" s="5"/>
+      <c r="H773" s="5"/>
     </row>
     <row r="774" ht="15.75" customHeight="1">
-      <c r="G774" s="3"/>
-      <c r="H774" s="3"/>
+      <c r="G774" s="5"/>
+      <c r="H774" s="5"/>
     </row>
     <row r="775" ht="15.75" customHeight="1">
-      <c r="G775" s="3"/>
-      <c r="H775" s="3"/>
+      <c r="G775" s="5"/>
+      <c r="H775" s="5"/>
     </row>
     <row r="776" ht="15.75" customHeight="1">
-      <c r="G776" s="3"/>
-      <c r="H776" s="3"/>
+      <c r="G776" s="5"/>
+      <c r="H776" s="5"/>
     </row>
     <row r="777" ht="15.75" customHeight="1">
-      <c r="G777" s="3"/>
-      <c r="H777" s="3"/>
+      <c r="G777" s="5"/>
+      <c r="H777" s="5"/>
     </row>
     <row r="778" ht="15.75" customHeight="1">
-      <c r="G778" s="3"/>
-      <c r="H778" s="3"/>
+      <c r="G778" s="5"/>
+      <c r="H778" s="5"/>
     </row>
     <row r="779" ht="15.75" customHeight="1">
-      <c r="G779" s="3"/>
-      <c r="H779" s="3"/>
+      <c r="G779" s="5"/>
+      <c r="H779" s="5"/>
     </row>
     <row r="780" ht="15.75" customHeight="1">
-      <c r="G780" s="3"/>
-      <c r="H780" s="3"/>
+      <c r="G780" s="5"/>
+      <c r="H780" s="5"/>
     </row>
     <row r="781" ht="15.75" customHeight="1">
-      <c r="G781" s="3"/>
-      <c r="H781" s="3"/>
+      <c r="G781" s="5"/>
+      <c r="H781" s="5"/>
     </row>
     <row r="782" ht="15.75" customHeight="1">
-      <c r="G782" s="3"/>
-      <c r="H782" s="3"/>
+      <c r="G782" s="5"/>
+      <c r="H782" s="5"/>
     </row>
     <row r="783" ht="15.75" customHeight="1">
-      <c r="G783" s="3"/>
-      <c r="H783" s="3"/>
+      <c r="G783" s="5"/>
+      <c r="H783" s="5"/>
     </row>
     <row r="784" ht="15.75" customHeight="1">
-      <c r="G784" s="3"/>
-      <c r="H784" s="3"/>
+      <c r="G784" s="5"/>
+      <c r="H784" s="5"/>
     </row>
     <row r="785" ht="15.75" customHeight="1">
-      <c r="G785" s="3"/>
-      <c r="H785" s="3"/>
+      <c r="G785" s="5"/>
+      <c r="H785" s="5"/>
     </row>
     <row r="786" ht="15.75" customHeight="1">
-      <c r="G786" s="3"/>
-      <c r="H786" s="3"/>
+      <c r="G786" s="5"/>
+      <c r="H786" s="5"/>
     </row>
     <row r="787" ht="15.75" customHeight="1">
-      <c r="G787" s="3"/>
-      <c r="H787" s="3"/>
+      <c r="G787" s="5"/>
+      <c r="H787" s="5"/>
     </row>
     <row r="788" ht="15.75" customHeight="1">
-      <c r="G788" s="3"/>
-      <c r="H788" s="3"/>
+      <c r="G788" s="5"/>
+      <c r="H788" s="5"/>
     </row>
     <row r="789" ht="15.75" customHeight="1">
-      <c r="G789" s="3"/>
-      <c r="H789" s="3"/>
+      <c r="G789" s="5"/>
+      <c r="H789" s="5"/>
     </row>
     <row r="790" ht="15.75" customHeight="1">
-      <c r="G790" s="3"/>
-      <c r="H790" s="3"/>
+      <c r="G790" s="5"/>
+      <c r="H790" s="5"/>
     </row>
     <row r="791" ht="15.75" customHeight="1">
-      <c r="G791" s="3"/>
-      <c r="H791" s="3"/>
+      <c r="G791" s="5"/>
+      <c r="H791" s="5"/>
     </row>
     <row r="792" ht="15.75" customHeight="1">
-      <c r="G792" s="3"/>
-      <c r="H792" s="3"/>
+      <c r="G792" s="5"/>
+      <c r="H792" s="5"/>
     </row>
     <row r="793" ht="15.75" customHeight="1">
-      <c r="G793" s="3"/>
-      <c r="H793" s="3"/>
+      <c r="G793" s="5"/>
+      <c r="H793" s="5"/>
     </row>
     <row r="794" ht="15.75" customHeight="1">
-      <c r="G794" s="3"/>
-      <c r="H794" s="3"/>
+      <c r="G794" s="5"/>
+      <c r="H794" s="5"/>
     </row>
     <row r="795" ht="15.75" customHeight="1">
-      <c r="G795" s="3"/>
-      <c r="H795" s="3"/>
+      <c r="G795" s="5"/>
+      <c r="H795" s="5"/>
     </row>
     <row r="796" ht="15.75" customHeight="1">
-      <c r="G796" s="3"/>
-      <c r="H796" s="3"/>
+      <c r="G796" s="5"/>
+      <c r="H796" s="5"/>
     </row>
     <row r="797" ht="15.75" customHeight="1">
-      <c r="G797" s="3"/>
-      <c r="H797" s="3"/>
+      <c r="G797" s="5"/>
+      <c r="H797" s="5"/>
     </row>
     <row r="798" ht="15.75" customHeight="1">
-      <c r="G798" s="3"/>
-      <c r="H798" s="3"/>
+      <c r="G798" s="5"/>
+      <c r="H798" s="5"/>
     </row>
     <row r="799" ht="15.75" customHeight="1">
-      <c r="G799" s="3"/>
-      <c r="H799" s="3"/>
+      <c r="G799" s="5"/>
+      <c r="H799" s="5"/>
     </row>
     <row r="800" ht="15.75" customHeight="1">
-      <c r="G800" s="3"/>
-      <c r="H800" s="3"/>
+      <c r="G800" s="5"/>
+      <c r="H800" s="5"/>
     </row>
     <row r="801" ht="15.75" customHeight="1">
-      <c r="G801" s="3"/>
-      <c r="H801" s="3"/>
+      <c r="G801" s="5"/>
+      <c r="H801" s="5"/>
     </row>
     <row r="802" ht="15.75" customHeight="1">
-      <c r="G802" s="3"/>
-      <c r="H802" s="3"/>
+      <c r="G802" s="5"/>
+      <c r="H802" s="5"/>
     </row>
     <row r="803" ht="15.75" customHeight="1">
-      <c r="G803" s="3"/>
-      <c r="H803" s="3"/>
+      <c r="G803" s="5"/>
+      <c r="H803" s="5"/>
     </row>
     <row r="804" ht="15.75" customHeight="1">
-      <c r="G804" s="3"/>
-      <c r="H804" s="3"/>
+      <c r="G804" s="5"/>
+      <c r="H804" s="5"/>
     </row>
     <row r="805" ht="15.75" customHeight="1">
-      <c r="G805" s="3"/>
-      <c r="H805" s="3"/>
+      <c r="G805" s="5"/>
+      <c r="H805" s="5"/>
     </row>
     <row r="806" ht="15.75" customHeight="1">
-      <c r="G806" s="3"/>
-      <c r="H806" s="3"/>
+      <c r="G806" s="5"/>
+      <c r="H806" s="5"/>
     </row>
     <row r="807" ht="15.75" customHeight="1">
-      <c r="G807" s="3"/>
-      <c r="H807" s="3"/>
+      <c r="G807" s="5"/>
+      <c r="H807" s="5"/>
     </row>
     <row r="808" ht="15.75" customHeight="1">
-      <c r="G808" s="3"/>
-      <c r="H808" s="3"/>
+      <c r="G808" s="5"/>
+      <c r="H808" s="5"/>
     </row>
     <row r="809" ht="15.75" customHeight="1">
-      <c r="G809" s="3"/>
-      <c r="H809" s="3"/>
+      <c r="G809" s="5"/>
+      <c r="H809" s="5"/>
     </row>
     <row r="810" ht="15.75" customHeight="1">
-      <c r="G810" s="3"/>
-      <c r="H810" s="3"/>
+      <c r="G810" s="5"/>
+      <c r="H810" s="5"/>
     </row>
     <row r="811" ht="15.75" customHeight="1">
-      <c r="G811" s="3"/>
-      <c r="H811" s="3"/>
+      <c r="G811" s="5"/>
+      <c r="H811" s="5"/>
     </row>
     <row r="812" ht="15.75" customHeight="1">
-      <c r="G812" s="3"/>
-      <c r="H812" s="3"/>
+      <c r="G812" s="5"/>
+      <c r="H812" s="5"/>
     </row>
     <row r="813" ht="15.75" customHeight="1">
-      <c r="G813" s="3"/>
-      <c r="H813" s="3"/>
+      <c r="G813" s="5"/>
+      <c r="H813" s="5"/>
     </row>
     <row r="814" ht="15.75" customHeight="1">
-      <c r="G814" s="3"/>
-      <c r="H814" s="3"/>
+      <c r="G814" s="5"/>
+      <c r="H814" s="5"/>
     </row>
     <row r="815" ht="15.75" customHeight="1">
-      <c r="G815" s="3"/>
-      <c r="H815" s="3"/>
+      <c r="G815" s="5"/>
+      <c r="H815" s="5"/>
     </row>
     <row r="816" ht="15.75" customHeight="1">
-      <c r="G816" s="3"/>
-      <c r="H816" s="3"/>
+      <c r="G816" s="5"/>
+      <c r="H816" s="5"/>
     </row>
     <row r="817" ht="15.75" customHeight="1">
-      <c r="G817" s="3"/>
-      <c r="H817" s="3"/>
+      <c r="G817" s="5"/>
+      <c r="H817" s="5"/>
     </row>
     <row r="818" ht="15.75" customHeight="1">
-      <c r="G818" s="3"/>
-      <c r="H818" s="3"/>
+      <c r="G818" s="5"/>
+      <c r="H818" s="5"/>
     </row>
     <row r="819" ht="15.75" customHeight="1">
-      <c r="G819" s="3"/>
-      <c r="H819" s="3"/>
+      <c r="G819" s="5"/>
+      <c r="H819" s="5"/>
     </row>
     <row r="820" ht="15.75" customHeight="1">
-      <c r="G820" s="3"/>
-      <c r="H820" s="3"/>
+      <c r="G820" s="5"/>
+      <c r="H820" s="5"/>
     </row>
     <row r="821" ht="15.75" customHeight="1">
-      <c r="G821" s="3"/>
-      <c r="H821" s="3"/>
+      <c r="G821" s="5"/>
+      <c r="H821" s="5"/>
     </row>
     <row r="822" ht="15.75" customHeight="1">
-      <c r="G822" s="3"/>
-      <c r="H822" s="3"/>
+      <c r="G822" s="5"/>
+      <c r="H822" s="5"/>
     </row>
     <row r="823" ht="15.75" customHeight="1">
-      <c r="G823" s="3"/>
-      <c r="H823" s="3"/>
+      <c r="G823" s="5"/>
+      <c r="H823" s="5"/>
     </row>
     <row r="824" ht="15.75" customHeight="1">
-      <c r="G824" s="3"/>
-      <c r="H824" s="3"/>
+      <c r="G824" s="5"/>
+      <c r="H824" s="5"/>
     </row>
     <row r="825" ht="15.75" customHeight="1">
-      <c r="G825" s="3"/>
-      <c r="H825" s="3"/>
+      <c r="G825" s="5"/>
+      <c r="H825" s="5"/>
     </row>
     <row r="826" ht="15.75" customHeight="1">
-      <c r="G826" s="3"/>
-      <c r="H826" s="3"/>
+      <c r="G826" s="5"/>
+      <c r="H826" s="5"/>
     </row>
     <row r="827" ht="15.75" customHeight="1">
-      <c r="G827" s="3"/>
-      <c r="H827" s="3"/>
+      <c r="G827" s="5"/>
+      <c r="H827" s="5"/>
     </row>
     <row r="828" ht="15.75" customHeight="1">
-      <c r="G828" s="3"/>
-      <c r="H828" s="3"/>
+      <c r="G828" s="5"/>
+      <c r="H828" s="5"/>
     </row>
     <row r="829" ht="15.75" customHeight="1">
-      <c r="G829" s="3"/>
-      <c r="H829" s="3"/>
+      <c r="G829" s="5"/>
+      <c r="H829" s="5"/>
     </row>
     <row r="830" ht="15.75" customHeight="1">
-      <c r="G830" s="3"/>
-      <c r="H830" s="3"/>
+      <c r="G830" s="5"/>
+      <c r="H830" s="5"/>
     </row>
     <row r="831" ht="15.75" customHeight="1">
-      <c r="G831" s="3"/>
-      <c r="H831" s="3"/>
+      <c r="G831" s="5"/>
+      <c r="H831" s="5"/>
     </row>
     <row r="832" ht="15.75" customHeight="1">
-      <c r="G832" s="3"/>
-      <c r="H832" s="3"/>
+      <c r="G832" s="5"/>
+      <c r="H832" s="5"/>
     </row>
     <row r="833" ht="15.75" customHeight="1">
-      <c r="G833" s="3"/>
-      <c r="H833" s="3"/>
+      <c r="G833" s="5"/>
+      <c r="H833" s="5"/>
     </row>
     <row r="834" ht="15.75" customHeight="1">
-      <c r="G834" s="3"/>
-      <c r="H834" s="3"/>
+      <c r="G834" s="5"/>
+      <c r="H834" s="5"/>
     </row>
     <row r="835" ht="15.75" customHeight="1">
-      <c r="G835" s="3"/>
-      <c r="H835" s="3"/>
+      <c r="G835" s="5"/>
+      <c r="H835" s="5"/>
     </row>
     <row r="836" ht="15.75" customHeight="1">
-      <c r="G836" s="3"/>
-      <c r="H836" s="3"/>
+      <c r="G836" s="5"/>
+      <c r="H836" s="5"/>
     </row>
     <row r="837" ht="15.75" customHeight="1">
-      <c r="G837" s="3"/>
-      <c r="H837" s="3"/>
+      <c r="G837" s="5"/>
+      <c r="H837" s="5"/>
     </row>
     <row r="838" ht="15.75" customHeight="1">
-      <c r="G838" s="3"/>
-      <c r="H838" s="3"/>
+      <c r="G838" s="5"/>
+      <c r="H838" s="5"/>
     </row>
     <row r="839" ht="15.75" customHeight="1">
-      <c r="G839" s="3"/>
-      <c r="H839" s="3"/>
+      <c r="G839" s="5"/>
+      <c r="H839" s="5"/>
     </row>
     <row r="840" ht="15.75" customHeight="1">
-      <c r="G840" s="3"/>
-      <c r="H840" s="3"/>
+      <c r="G840" s="5"/>
+      <c r="H840" s="5"/>
     </row>
     <row r="841" ht="15.75" customHeight="1">
-      <c r="G841" s="3"/>
-      <c r="H841" s="3"/>
+      <c r="G841" s="5"/>
+      <c r="H841" s="5"/>
     </row>
     <row r="842" ht="15.75" customHeight="1">
-      <c r="G842" s="3"/>
-      <c r="H842" s="3"/>
+      <c r="G842" s="5"/>
+      <c r="H842" s="5"/>
     </row>
     <row r="843" ht="15.75" customHeight="1">
-      <c r="G843" s="3"/>
-      <c r="H843" s="3"/>
+      <c r="G843" s="5"/>
+      <c r="H843" s="5"/>
     </row>
     <row r="844" ht="15.75" customHeight="1">
-      <c r="G844" s="3"/>
-      <c r="H844" s="3"/>
+      <c r="G844" s="5"/>
+      <c r="H844" s="5"/>
     </row>
     <row r="845" ht="15.75" customHeight="1">
-      <c r="G845" s="3"/>
-      <c r="H845" s="3"/>
+      <c r="G845" s="5"/>
+      <c r="H845" s="5"/>
     </row>
     <row r="846" ht="15.75" customHeight="1">
-      <c r="G846" s="3"/>
-      <c r="H846" s="3"/>
+      <c r="G846" s="5"/>
+      <c r="H846" s="5"/>
     </row>
     <row r="847" ht="15.75" customHeight="1">
-      <c r="G847" s="3"/>
-      <c r="H847" s="3"/>
+      <c r="G847" s="5"/>
+      <c r="H847" s="5"/>
     </row>
     <row r="848" ht="15.75" customHeight="1">
-      <c r="G848" s="3"/>
-      <c r="H848" s="3"/>
+      <c r="G848" s="5"/>
+      <c r="H848" s="5"/>
     </row>
     <row r="849" ht="15.75" customHeight="1">
-      <c r="G849" s="3"/>
-      <c r="H849" s="3"/>
+      <c r="G849" s="5"/>
+      <c r="H849" s="5"/>
     </row>
     <row r="850" ht="15.75" customHeight="1">
-      <c r="G850" s="3"/>
-      <c r="H850" s="3"/>
+      <c r="G850" s="5"/>
+      <c r="H850" s="5"/>
     </row>
     <row r="851" ht="15.75" customHeight="1">
-      <c r="G851" s="3"/>
-      <c r="H851" s="3"/>
+      <c r="G851" s="5"/>
+      <c r="H851" s="5"/>
     </row>
     <row r="852" ht="15.75" customHeight="1">
-      <c r="G852" s="3"/>
-      <c r="H852" s="3"/>
+      <c r="G852" s="5"/>
+      <c r="H852" s="5"/>
     </row>
     <row r="853" ht="15.75" customHeight="1">
-      <c r="G853" s="3"/>
-      <c r="H853" s="3"/>
+      <c r="G853" s="5"/>
+      <c r="H853" s="5"/>
     </row>
     <row r="854" ht="15.75" customHeight="1">
-      <c r="G854" s="3"/>
-      <c r="H854" s="3"/>
+      <c r="G854" s="5"/>
+      <c r="H854" s="5"/>
     </row>
     <row r="855" ht="15.75" customHeight="1">
-      <c r="G855" s="3"/>
-      <c r="H855" s="3"/>
+      <c r="G855" s="5"/>
+      <c r="H855" s="5"/>
     </row>
     <row r="856" ht="15.75" customHeight="1">
-      <c r="G856" s="3"/>
-      <c r="H856" s="3"/>
+      <c r="G856" s="5"/>
+      <c r="H856" s="5"/>
     </row>
     <row r="857" ht="15.75" customHeight="1">
-      <c r="G857" s="3"/>
-      <c r="H857" s="3"/>
+      <c r="G857" s="5"/>
+      <c r="H857" s="5"/>
     </row>
     <row r="858" ht="15.75" customHeight="1">
-      <c r="G858" s="3"/>
-      <c r="H858" s="3"/>
+      <c r="G858" s="5"/>
+      <c r="H858" s="5"/>
     </row>
     <row r="859" ht="15.75" customHeight="1">
-      <c r="G859" s="3"/>
-      <c r="H859" s="3"/>
+      <c r="G859" s="5"/>
+      <c r="H859" s="5"/>
     </row>
     <row r="860" ht="15.75" customHeight="1">
-      <c r="G860" s="3"/>
-      <c r="H860" s="3"/>
+      <c r="G860" s="5"/>
+      <c r="H860" s="5"/>
     </row>
     <row r="861" ht="15.75" customHeight="1">
-      <c r="G861" s="3"/>
-      <c r="H861" s="3"/>
+      <c r="G861" s="5"/>
+      <c r="H861" s="5"/>
     </row>
     <row r="862" ht="15.75" customHeight="1">
-      <c r="G862" s="3"/>
-      <c r="H862" s="3"/>
+      <c r="G862" s="5"/>
+      <c r="H862" s="5"/>
     </row>
     <row r="863" ht="15.75" customHeight="1">
-      <c r="G863" s="3"/>
-      <c r="H863" s="3"/>
+      <c r="G863" s="5"/>
+      <c r="H863" s="5"/>
     </row>
     <row r="864" ht="15.75" customHeight="1">
-      <c r="G864" s="3"/>
-      <c r="H864" s="3"/>
+      <c r="G864" s="5"/>
+      <c r="H864" s="5"/>
     </row>
     <row r="865" ht="15.75" customHeight="1">
-      <c r="G865" s="3"/>
-      <c r="H865" s="3"/>
+      <c r="G865" s="5"/>
+      <c r="H865" s="5"/>
     </row>
     <row r="866" ht="15.75" customHeight="1">
-      <c r="G866" s="3"/>
-      <c r="H866" s="3"/>
+      <c r="G866" s="5"/>
+      <c r="H866" s="5"/>
     </row>
     <row r="867" ht="15.75" customHeight="1">
-      <c r="G867" s="3"/>
-      <c r="H867" s="3"/>
+      <c r="G867" s="5"/>
+      <c r="H867" s="5"/>
     </row>
     <row r="868" ht="15.75" customHeight="1">
-      <c r="G868" s="3"/>
-      <c r="H868" s="3"/>
+      <c r="G868" s="5"/>
+      <c r="H868" s="5"/>
     </row>
     <row r="869" ht="15.75" customHeight="1">
-      <c r="G869" s="3"/>
-      <c r="H869" s="3"/>
+      <c r="G869" s="5"/>
+      <c r="H869" s="5"/>
     </row>
     <row r="870" ht="15.75" customHeight="1">
-      <c r="G870" s="3"/>
-      <c r="H870" s="3"/>
+      <c r="G870" s="5"/>
+      <c r="H870" s="5"/>
     </row>
     <row r="871" ht="15.75" customHeight="1">
-      <c r="G871" s="3"/>
-      <c r="H871" s="3"/>
+      <c r="G871" s="5"/>
+      <c r="H871" s="5"/>
     </row>
     <row r="872" ht="15.75" customHeight="1">
-      <c r="G872" s="3"/>
-      <c r="H872" s="3"/>
+      <c r="G872" s="5"/>
+      <c r="H872" s="5"/>
     </row>
     <row r="873" ht="15.75" customHeight="1">
-      <c r="G873" s="3"/>
-      <c r="H873" s="3"/>
+      <c r="G873" s="5"/>
+      <c r="H873" s="5"/>
     </row>
     <row r="874" ht="15.75" customHeight="1">
-      <c r="G874" s="3"/>
-      <c r="H874" s="3"/>
+      <c r="G874" s="5"/>
+      <c r="H874" s="5"/>
     </row>
     <row r="875" ht="15.75" customHeight="1">
-      <c r="G875" s="3"/>
-      <c r="H875" s="3"/>
+      <c r="G875" s="5"/>
+      <c r="H875" s="5"/>
     </row>
     <row r="876" ht="15.75" customHeight="1">
-      <c r="G876" s="3"/>
-      <c r="H876" s="3"/>
+      <c r="G876" s="5"/>
+      <c r="H876" s="5"/>
     </row>
     <row r="877" ht="15.75" customHeight="1">
-      <c r="G877" s="3"/>
-      <c r="H877" s="3"/>
+      <c r="G877" s="5"/>
+      <c r="H877" s="5"/>
     </row>
     <row r="878" ht="15.75" customHeight="1">
-      <c r="G878" s="3"/>
-      <c r="H878" s="3"/>
+      <c r="G878" s="5"/>
+      <c r="H878" s="5"/>
     </row>
     <row r="879" ht="15.75" customHeight="1">
-      <c r="G879" s="3"/>
-      <c r="H879" s="3"/>
+      <c r="G879" s="5"/>
+      <c r="H879" s="5"/>
     </row>
     <row r="880" ht="15.75" customHeight="1">
-      <c r="G880" s="3"/>
-      <c r="H880" s="3"/>
+      <c r="G880" s="5"/>
+      <c r="H880" s="5"/>
     </row>
     <row r="881" ht="15.75" customHeight="1">
-      <c r="G881" s="3"/>
-      <c r="H881" s="3"/>
+      <c r="G881" s="5"/>
+      <c r="H881" s="5"/>
     </row>
     <row r="882" ht="15.75" customHeight="1">
-      <c r="G882" s="3"/>
-      <c r="H882" s="3"/>
+      <c r="G882" s="5"/>
+      <c r="H882" s="5"/>
     </row>
     <row r="883" ht="15.75" customHeight="1">
-      <c r="G883" s="3"/>
-      <c r="H883" s="3"/>
+      <c r="G883" s="5"/>
+      <c r="H883" s="5"/>
     </row>
     <row r="884" ht="15.75" customHeight="1">
-      <c r="G884" s="3"/>
-      <c r="H884" s="3"/>
+      <c r="G884" s="5"/>
+      <c r="H884" s="5"/>
     </row>
     <row r="885" ht="15.75" customHeight="1">
-      <c r="G885" s="3"/>
-      <c r="H885" s="3"/>
+      <c r="G885" s="5"/>
+      <c r="H885" s="5"/>
     </row>
     <row r="886" ht="15.75" customHeight="1">
-      <c r="G886" s="3"/>
-      <c r="H886" s="3"/>
+      <c r="G886" s="5"/>
+      <c r="H886" s="5"/>
     </row>
     <row r="887" ht="15.75" customHeight="1">
-      <c r="G887" s="3"/>
-      <c r="H887" s="3"/>
+      <c r="G887" s="5"/>
+      <c r="H887" s="5"/>
     </row>
     <row r="888" ht="15.75" customHeight="1">
-      <c r="G888" s="3"/>
-      <c r="H888" s="3"/>
+      <c r="G888" s="5"/>
+      <c r="H888" s="5"/>
     </row>
     <row r="889" ht="15.75" customHeight="1">
-      <c r="G889" s="3"/>
-      <c r="H889" s="3"/>
+      <c r="G889" s="5"/>
+      <c r="H889" s="5"/>
     </row>
     <row r="890" ht="15.75" customHeight="1">
-      <c r="G890" s="3"/>
-      <c r="H890" s="3"/>
+      <c r="G890" s="5"/>
+      <c r="H890" s="5"/>
     </row>
     <row r="891" ht="15.75" customHeight="1">
-      <c r="G891" s="3"/>
-      <c r="H891" s="3"/>
+      <c r="G891" s="5"/>
+      <c r="H891" s="5"/>
     </row>
     <row r="892" ht="15.75" customHeight="1">
-      <c r="G892" s="3"/>
-      <c r="H892" s="3"/>
+      <c r="G892" s="5"/>
+      <c r="H892" s="5"/>
     </row>
     <row r="893" ht="15.75" customHeight="1">
-      <c r="G893" s="3"/>
-      <c r="H893" s="3"/>
+      <c r="G893" s="5"/>
+      <c r="H893" s="5"/>
     </row>
     <row r="894" ht="15.75" customHeight="1">
-      <c r="G894" s="3"/>
-      <c r="H894" s="3"/>
+      <c r="G894" s="5"/>
+      <c r="H894" s="5"/>
     </row>
     <row r="895" ht="15.75" customHeight="1">
-      <c r="G895" s="3"/>
-      <c r="H895" s="3"/>
+      <c r="G895" s="5"/>
+      <c r="H895" s="5"/>
     </row>
     <row r="896" ht="15.75" customHeight="1">
-      <c r="G896" s="3"/>
-      <c r="H896" s="3"/>
+      <c r="G896" s="5"/>
+      <c r="H896" s="5"/>
     </row>
     <row r="897" ht="15.75" customHeight="1">
-      <c r="G897" s="3"/>
-      <c r="H897" s="3"/>
+      <c r="G897" s="5"/>
+      <c r="H897" s="5"/>
     </row>
     <row r="898" ht="15.75" customHeight="1">
-      <c r="G898" s="3"/>
-      <c r="H898" s="3"/>
+      <c r="G898" s="5"/>
+      <c r="H898" s="5"/>
     </row>
     <row r="899" ht="15.75" customHeight="1">
-      <c r="G899" s="3"/>
-      <c r="H899" s="3"/>
+      <c r="G899" s="5"/>
+      <c r="H899" s="5"/>
     </row>
     <row r="900" ht="15.75" customHeight="1">
-      <c r="G900" s="3"/>
-      <c r="H900" s="3"/>
+      <c r="G900" s="5"/>
+      <c r="H900" s="5"/>
     </row>
     <row r="901" ht="15.75" customHeight="1">
-      <c r="G901" s="3"/>
-      <c r="H901" s="3"/>
+      <c r="G901" s="5"/>
+      <c r="H901" s="5"/>
     </row>
     <row r="902" ht="15.75" customHeight="1">
-      <c r="G902" s="3"/>
-      <c r="H902" s="3"/>
+      <c r="G902" s="5"/>
+      <c r="H902" s="5"/>
     </row>
     <row r="903" ht="15.75" customHeight="1">
-      <c r="G903" s="3"/>
-      <c r="H903" s="3"/>
+      <c r="G903" s="5"/>
+      <c r="H903" s="5"/>
     </row>
     <row r="904" ht="15.75" customHeight="1">
-      <c r="G904" s="3"/>
-      <c r="H904" s="3"/>
+      <c r="G904" s="5"/>
+      <c r="H904" s="5"/>
     </row>
     <row r="905" ht="15.75" customHeight="1">
-      <c r="G905" s="3"/>
-      <c r="H905" s="3"/>
+      <c r="G905" s="5"/>
+      <c r="H905" s="5"/>
     </row>
     <row r="906" ht="15.75" customHeight="1">
-      <c r="G906" s="3"/>
-      <c r="H906" s="3"/>
+      <c r="G906" s="5"/>
+      <c r="H906" s="5"/>
     </row>
     <row r="907" ht="15.75" customHeight="1">
-      <c r="G907" s="3"/>
-      <c r="H907" s="3"/>
+      <c r="G907" s="5"/>
+      <c r="H907" s="5"/>
     </row>
     <row r="908" ht="15.75" customHeight="1">
-      <c r="G908" s="3"/>
-      <c r="H908" s="3"/>
+      <c r="G908" s="5"/>
+      <c r="H908" s="5"/>
     </row>
     <row r="909" ht="15.75" customHeight="1">
-      <c r="G909" s="3"/>
-      <c r="H909" s="3"/>
+      <c r="G909" s="5"/>
+      <c r="H909" s="5"/>
     </row>
     <row r="910" ht="15.75" customHeight="1">
-      <c r="G910" s="3"/>
-      <c r="H910" s="3"/>
+      <c r="G910" s="5"/>
+      <c r="H910" s="5"/>
     </row>
     <row r="911" ht="15.75" customHeight="1">
-      <c r="G911" s="3"/>
-      <c r="H911" s="3"/>
+      <c r="G911" s="5"/>
+      <c r="H911" s="5"/>
     </row>
     <row r="912" ht="15.75" customHeight="1">
-      <c r="G912" s="3"/>
-      <c r="H912" s="3"/>
+      <c r="G912" s="5"/>
+      <c r="H912" s="5"/>
     </row>
     <row r="913" ht="15.75" customHeight="1">
-      <c r="G913" s="3"/>
-      <c r="H913" s="3"/>
+      <c r="G913" s="5"/>
+      <c r="H913" s="5"/>
     </row>
     <row r="914" ht="15.75" customHeight="1">
-      <c r="G914" s="3"/>
-      <c r="H914" s="3"/>
+      <c r="G914" s="5"/>
+      <c r="H914" s="5"/>
     </row>
     <row r="915" ht="15.75" customHeight="1">
-      <c r="G915" s="3"/>
-      <c r="H915" s="3"/>
+      <c r="G915" s="5"/>
+      <c r="H915" s="5"/>
     </row>
     <row r="916" ht="15.75" customHeight="1">
-      <c r="G916" s="3"/>
-      <c r="H916" s="3"/>
+      <c r="G916" s="5"/>
+      <c r="H916" s="5"/>
     </row>
     <row r="917" ht="15.75" customHeight="1">
-      <c r="G917" s="3"/>
-      <c r="H917" s="3"/>
+      <c r="G917" s="5"/>
+      <c r="H917" s="5"/>
     </row>
     <row r="918" ht="15.75" customHeight="1">
-      <c r="G918" s="3"/>
-      <c r="H918" s="3"/>
+      <c r="G918" s="5"/>
+      <c r="H918" s="5"/>
     </row>
     <row r="919" ht="15.75" customHeight="1">
-      <c r="G919" s="3"/>
-      <c r="H919" s="3"/>
+      <c r="G919" s="5"/>
+      <c r="H919" s="5"/>
     </row>
     <row r="920" ht="15.75" customHeight="1">
-      <c r="G920" s="3"/>
-      <c r="H920" s="3"/>
+      <c r="G920" s="5"/>
+      <c r="H920" s="5"/>
     </row>
     <row r="921" ht="15.75" customHeight="1">
-      <c r="G921" s="3"/>
-      <c r="H921" s="3"/>
+      <c r="G921" s="5"/>
+      <c r="H921" s="5"/>
     </row>
     <row r="922" ht="15.75" customHeight="1">
-      <c r="G922" s="3"/>
-      <c r="H922" s="3"/>
+      <c r="G922" s="5"/>
+      <c r="H922" s="5"/>
     </row>
     <row r="923" ht="15.75" customHeight="1">
-      <c r="G923" s="3"/>
-      <c r="H923" s="3"/>
+      <c r="G923" s="5"/>
+      <c r="H923" s="5"/>
     </row>
     <row r="924" ht="15.75" customHeight="1">
-      <c r="G924" s="3"/>
-      <c r="H924" s="3"/>
+      <c r="G924" s="5"/>
+      <c r="H924" s="5"/>
     </row>
     <row r="925" ht="15.75" customHeight="1">
-      <c r="G925" s="3"/>
-      <c r="H925" s="3"/>
+      <c r="G925" s="5"/>
+      <c r="H925" s="5"/>
     </row>
     <row r="926" ht="15.75" customHeight="1">
-      <c r="G926" s="3"/>
-      <c r="H926" s="3"/>
+      <c r="G926" s="5"/>
+      <c r="H926" s="5"/>
     </row>
     <row r="927" ht="15.75" customHeight="1">
-      <c r="G927" s="3"/>
-      <c r="H927" s="3"/>
+      <c r="G927" s="5"/>
+      <c r="H927" s="5"/>
     </row>
     <row r="928" ht="15.75" customHeight="1">
-      <c r="G928" s="3"/>
-      <c r="H928" s="3"/>
+      <c r="G928" s="5"/>
+      <c r="H928" s="5"/>
     </row>
     <row r="929" ht="15.75" customHeight="1">
-      <c r="G929" s="3"/>
-      <c r="H929" s="3"/>
+      <c r="G929" s="5"/>
+      <c r="H929" s="5"/>
     </row>
     <row r="930" ht="15.75" customHeight="1">
-      <c r="G930" s="3"/>
-      <c r="H930" s="3"/>
+      <c r="G930" s="5"/>
+      <c r="H930" s="5"/>
     </row>
     <row r="931" ht="15.75" customHeight="1">
-      <c r="G931" s="3"/>
-      <c r="H931" s="3"/>
+      <c r="G931" s="5"/>
+      <c r="H931" s="5"/>
     </row>
     <row r="932" ht="15.75" customHeight="1">
-      <c r="G932" s="3"/>
-      <c r="H932" s="3"/>
+      <c r="G932" s="5"/>
+      <c r="H932" s="5"/>
     </row>
     <row r="933" ht="15.75" customHeight="1">
-      <c r="G933" s="3"/>
-      <c r="H933" s="3"/>
+      <c r="G933" s="5"/>
+      <c r="H933" s="5"/>
     </row>
     <row r="934" ht="15.75" customHeight="1">
-      <c r="G934" s="3"/>
-      <c r="H934" s="3"/>
+      <c r="G934" s="5"/>
+      <c r="H934" s="5"/>
     </row>
     <row r="935" ht="15.75" customHeight="1">
-      <c r="G935" s="3"/>
-      <c r="H935" s="3"/>
+      <c r="G935" s="5"/>
+      <c r="H935" s="5"/>
     </row>
     <row r="936" ht="15.75" customHeight="1">
-      <c r="G936" s="3"/>
-      <c r="H936" s="3"/>
+      <c r="G936" s="5"/>
+      <c r="H936" s="5"/>
     </row>
     <row r="937" ht="15.75" customHeight="1">
-      <c r="G937" s="3"/>
-      <c r="H937" s="3"/>
+      <c r="G937" s="5"/>
+      <c r="H937" s="5"/>
     </row>
     <row r="938" ht="15.75" customHeight="1">
-      <c r="G938" s="3"/>
-      <c r="H938" s="3"/>
+      <c r="G938" s="5"/>
+      <c r="H938" s="5"/>
     </row>
     <row r="939" ht="15.75" customHeight="1">
-      <c r="G939" s="3"/>
-      <c r="H939" s="3"/>
+      <c r="G939" s="5"/>
+      <c r="H939" s="5"/>
     </row>
     <row r="940" ht="15.75" customHeight="1">
-      <c r="G940" s="3"/>
-      <c r="H940" s="3"/>
+      <c r="G940" s="5"/>
+      <c r="H940" s="5"/>
     </row>
     <row r="941" ht="15.75" customHeight="1">
-      <c r="G941" s="3"/>
-      <c r="H941" s="3"/>
+      <c r="G941" s="5"/>
+      <c r="H941" s="5"/>
     </row>
     <row r="942" ht="15.75" customHeight="1">
-      <c r="G942" s="3"/>
-      <c r="H942" s="3"/>
+      <c r="G942" s="5"/>
+      <c r="H942" s="5"/>
     </row>
     <row r="943" ht="15.75" customHeight="1">
-      <c r="G943" s="3"/>
-      <c r="H943" s="3"/>
+      <c r="G943" s="5"/>
+      <c r="H943" s="5"/>
     </row>
     <row r="944" ht="15.75" customHeight="1">
-      <c r="G944" s="3"/>
-      <c r="H944" s="3"/>
+      <c r="G944" s="5"/>
+      <c r="H944" s="5"/>
     </row>
     <row r="945" ht="15.75" customHeight="1">
-      <c r="G945" s="3"/>
-      <c r="H945" s="3"/>
+      <c r="G945" s="5"/>
+      <c r="H945" s="5"/>
     </row>
     <row r="946" ht="15.75" customHeight="1">
-      <c r="G946" s="3"/>
-      <c r="H946" s="3"/>
+      <c r="G946" s="5"/>
+      <c r="H946" s="5"/>
     </row>
     <row r="947" ht="15.75" customHeight="1">
-      <c r="G947" s="3"/>
-      <c r="H947" s="3"/>
+      <c r="G947" s="5"/>
+      <c r="H947" s="5"/>
     </row>
     <row r="948" ht="15.75" customHeight="1">
-      <c r="G948" s="3"/>
-      <c r="H948" s="3"/>
+      <c r="G948" s="5"/>
+      <c r="H948" s="5"/>
     </row>
     <row r="949" ht="15.75" customHeight="1">
-      <c r="G949" s="3"/>
-      <c r="H949" s="3"/>
+      <c r="G949" s="5"/>
+      <c r="H949" s="5"/>
     </row>
     <row r="950" ht="15.75" customHeight="1">
-      <c r="G950" s="3"/>
-      <c r="H950" s="3"/>
+      <c r="G950" s="5"/>
+      <c r="H950" s="5"/>
     </row>
     <row r="951" ht="15.75" customHeight="1">
-      <c r="G951" s="3"/>
-      <c r="H951" s="3"/>
+      <c r="G951" s="5"/>
+      <c r="H951" s="5"/>
     </row>
     <row r="952" ht="15.75" customHeight="1">
-      <c r="G952" s="3"/>
-      <c r="H952" s="3"/>
+      <c r="G952" s="5"/>
+      <c r="H952" s="5"/>
     </row>
     <row r="953" ht="15.75" customHeight="1">
-      <c r="G953" s="3"/>
-      <c r="H953" s="3"/>
+      <c r="G953" s="5"/>
+      <c r="H953" s="5"/>
     </row>
     <row r="954" ht="15.75" customHeight="1">
-      <c r="G954" s="3"/>
-      <c r="H954" s="3"/>
+      <c r="G954" s="5"/>
+      <c r="H954" s="5"/>
     </row>
     <row r="955" ht="15.75" customHeight="1">
-      <c r="G955" s="3"/>
-      <c r="H955" s="3"/>
+      <c r="G955" s="5"/>
+      <c r="H955" s="5"/>
     </row>
     <row r="956" ht="15.75" customHeight="1">
-      <c r="G956" s="3"/>
-      <c r="H956" s="3"/>
+      <c r="G956" s="5"/>
+      <c r="H956" s="5"/>
     </row>
     <row r="957" ht="15.75" customHeight="1">
-      <c r="G957" s="3"/>
-      <c r="H957" s="3"/>
+      <c r="G957" s="5"/>
+      <c r="H957" s="5"/>
     </row>
     <row r="958" ht="15.75" customHeight="1">
-      <c r="G958" s="3"/>
-      <c r="H958" s="3"/>
+      <c r="G958" s="5"/>
+      <c r="H958" s="5"/>
     </row>
     <row r="959" ht="15.75" customHeight="1">
-      <c r="G959" s="3"/>
-      <c r="H959" s="3"/>
+      <c r="G959" s="5"/>
+      <c r="H959" s="5"/>
     </row>
     <row r="960" ht="15.75" customHeight="1">
-      <c r="G960" s="3"/>
-      <c r="H960" s="3"/>
+      <c r="G960" s="5"/>
+      <c r="H960" s="5"/>
     </row>
     <row r="961" ht="15.75" customHeight="1">
-      <c r="G961" s="3"/>
-      <c r="H961" s="3"/>
+      <c r="G961" s="5"/>
+      <c r="H961" s="5"/>
     </row>
     <row r="962" ht="15.75" customHeight="1">
-      <c r="G962" s="3"/>
-      <c r="H962" s="3"/>
+      <c r="G962" s="5"/>
+      <c r="H962" s="5"/>
     </row>
     <row r="963" ht="15.75" customHeight="1">
-      <c r="G963" s="3"/>
-      <c r="H963" s="3"/>
+      <c r="G963" s="5"/>
+      <c r="H963" s="5"/>
     </row>
     <row r="964" ht="15.75" customHeight="1">
-      <c r="G964" s="3"/>
-      <c r="H964" s="3"/>
+      <c r="G964" s="5"/>
+      <c r="H964" s="5"/>
     </row>
     <row r="965" ht="15.75" customHeight="1">
-      <c r="G965" s="3"/>
-      <c r="H965" s="3"/>
+      <c r="G965" s="5"/>
+      <c r="H965" s="5"/>
     </row>
     <row r="966" ht="15.75" customHeight="1">
-      <c r="G966" s="3"/>
-      <c r="H966" s="3"/>
+      <c r="G966" s="5"/>
+      <c r="H966" s="5"/>
     </row>
     <row r="967" ht="15.75" customHeight="1">
-      <c r="G967" s="3"/>
-      <c r="H967" s="3"/>
+      <c r="G967" s="5"/>
+      <c r="H967" s="5"/>
     </row>
     <row r="968" ht="15.75" customHeight="1">
-      <c r="G968" s="3"/>
-      <c r="H968" s="3"/>
+      <c r="G968" s="5"/>
+      <c r="H968" s="5"/>
     </row>
     <row r="969" ht="15.75" customHeight="1">
-      <c r="G969" s="3"/>
-      <c r="H969" s="3"/>
+      <c r="G969" s="5"/>
+      <c r="H969" s="5"/>
     </row>
     <row r="970" ht="15.75" customHeight="1">
-      <c r="G970" s="3"/>
-      <c r="H970" s="3"/>
+      <c r="G970" s="5"/>
+      <c r="H970" s="5"/>
     </row>
     <row r="971" ht="15.75" customHeight="1">
-      <c r="G971" s="3"/>
-      <c r="H971" s="3"/>
+      <c r="G971" s="5"/>
+      <c r="H971" s="5"/>
     </row>
     <row r="972" ht="15.75" customHeight="1">
-      <c r="G972" s="3"/>
-      <c r="H972" s="3"/>
+      <c r="G972" s="5"/>
+      <c r="H972" s="5"/>
     </row>
     <row r="973" ht="15.75" customHeight="1">
-      <c r="G973" s="3"/>
-      <c r="H973" s="3"/>
+      <c r="G973" s="5"/>
+      <c r="H973" s="5"/>
     </row>
     <row r="974" ht="15.75" customHeight="1">
-      <c r="G974" s="3"/>
-      <c r="H974" s="3"/>
+      <c r="G974" s="5"/>
+      <c r="H974" s="5"/>
     </row>
     <row r="975" ht="15.75" customHeight="1">
-      <c r="G975" s="3"/>
-      <c r="H975" s="3"/>
+      <c r="G975" s="5"/>
+      <c r="H975" s="5"/>
     </row>
     <row r="976" ht="15.75" customHeight="1">
-      <c r="G976" s="3"/>
-      <c r="H976" s="3"/>
+      <c r="G976" s="5"/>
+      <c r="H976" s="5"/>
     </row>
     <row r="977" ht="15.75" customHeight="1">
-      <c r="G977" s="3"/>
-      <c r="H977" s="3"/>
+      <c r="G977" s="5"/>
+      <c r="H977" s="5"/>
     </row>
     <row r="978" ht="15.75" customHeight="1">
-      <c r="G978" s="3"/>
-      <c r="H978" s="3"/>
+      <c r="G978" s="5"/>
+      <c r="H978" s="5"/>
     </row>
     <row r="979" ht="15.75" customHeight="1">
-      <c r="G979" s="3"/>
-      <c r="H979" s="3"/>
+      <c r="G979" s="5"/>
+      <c r="H979" s="5"/>
     </row>
     <row r="980" ht="15.75" customHeight="1">
-      <c r="G980" s="3"/>
-      <c r="H980" s="3"/>
+      <c r="G980" s="5"/>
+      <c r="H980" s="5"/>
     </row>
     <row r="981" ht="15.75" customHeight="1">
-      <c r="G981" s="3"/>
-      <c r="H981" s="3"/>
+      <c r="G981" s="5"/>
+      <c r="H981" s="5"/>
     </row>
     <row r="982" ht="15.75" customHeight="1">
-      <c r="G982" s="3"/>
-      <c r="H982" s="3"/>
+      <c r="G982" s="5"/>
+      <c r="H982" s="5"/>
     </row>
     <row r="983" ht="15.75" customHeight="1">
-      <c r="G983" s="3"/>
-      <c r="H983" s="3"/>
+      <c r="G983" s="5"/>
+      <c r="H983" s="5"/>
     </row>
     <row r="984" ht="15.75" customHeight="1">
-      <c r="G984" s="3"/>
-      <c r="H984" s="3"/>
+      <c r="G984" s="5"/>
+      <c r="H984" s="5"/>
     </row>
     <row r="985" ht="15.75" customHeight="1">
-      <c r="G985" s="3"/>
-      <c r="H985" s="3"/>
+      <c r="G985" s="5"/>
+      <c r="H985" s="5"/>
     </row>
     <row r="986" ht="15.75" customHeight="1">
-      <c r="G986" s="3"/>
-      <c r="H986" s="3"/>
+      <c r="G986" s="5"/>
+      <c r="H986" s="5"/>
     </row>
     <row r="987" ht="15.75" customHeight="1">
-      <c r="G987" s="3"/>
-      <c r="H987" s="3"/>
+      <c r="G987" s="5"/>
+      <c r="H987" s="5"/>
     </row>
     <row r="988" ht="15.75" customHeight="1">
-      <c r="G988" s="3"/>
-      <c r="H988" s="3"/>
+      <c r="G988" s="5"/>
+      <c r="H988" s="5"/>
     </row>
     <row r="989" ht="15.75" customHeight="1">
-      <c r="G989" s="3"/>
-      <c r="H989" s="3"/>
+      <c r="G989" s="5"/>
+      <c r="H989" s="5"/>
     </row>
     <row r="990" ht="15.75" customHeight="1">
-      <c r="G990" s="3"/>
-      <c r="H990" s="3"/>
+      <c r="G990" s="5"/>
+      <c r="H990" s="5"/>
     </row>
     <row r="991" ht="15.75" customHeight="1">
-      <c r="G991" s="3"/>
-      <c r="H991" s="3"/>
+      <c r="G991" s="5"/>
+      <c r="H991" s="5"/>
     </row>
     <row r="992" ht="15.75" customHeight="1">
-      <c r="G992" s="3"/>
-      <c r="H992" s="3"/>
+      <c r="G992" s="5"/>
+      <c r="H992" s="5"/>
     </row>
     <row r="993" ht="15.75" customHeight="1">
-      <c r="G993" s="3"/>
-      <c r="H993" s="3"/>
+      <c r="G993" s="5"/>
+      <c r="H993" s="5"/>
     </row>
     <row r="994" ht="15.75" customHeight="1">
-      <c r="G994" s="3"/>
-      <c r="H994" s="3"/>
+      <c r="G994" s="5"/>
+      <c r="H994" s="5"/>
     </row>
     <row r="995" ht="15.75" customHeight="1">
-      <c r="G995" s="3"/>
-      <c r="H995" s="3"/>
+      <c r="G995" s="5"/>
+      <c r="H995" s="5"/>
     </row>
     <row r="996" ht="15.75" customHeight="1">
-      <c r="G996" s="3"/>
-      <c r="H996" s="3"/>
+      <c r="G996" s="5"/>
+      <c r="H996" s="5"/>
     </row>
     <row r="997" ht="15.75" customHeight="1">
-      <c r="G997" s="3"/>
-      <c r="H997" s="3"/>
+      <c r="G997" s="5"/>
+      <c r="H997" s="5"/>
     </row>
     <row r="998" ht="15.75" customHeight="1">
-      <c r="G998" s="3"/>
-      <c r="H998" s="3"/>
+      <c r="G998" s="5"/>
+      <c r="H998" s="5"/>
     </row>
     <row r="999" ht="15.75" customHeight="1">
-      <c r="G999" s="3"/>
-      <c r="H999" s="3"/>
+      <c r="G999" s="5"/>
+      <c r="H999" s="5"/>
     </row>
     <row r="1000" ht="15.75" customHeight="1">
-      <c r="G1000" s="3"/>
-      <c r="H1000" s="3"/>
+      <c r="G1000" s="5"/>
+      <c r="H1000" s="5"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>

--- a/Engine/Unity/3.x/Learning_01/Example/Packages/.module.unitycommon@1.7.0/Templates/Tables/SaleItemInfo/T_SaleItemInfoTable.xlsx
+++ b/Engine/Unity/3.x/Learning_01/Example/Packages/.module.unitycommon@1.7.0/Templates/Tables/SaleItemInfo/T_SaleItemInfoTable.xlsx
@@ -13,9 +13,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
   <si>
-    <t>Price</t>
-  </si>
-  <si>
     <t>Name</t>
   </si>
   <si>
@@ -23,6 +20,9 @@
   </si>
   <si>
     <t>Replace</t>
+  </si>
+  <si>
+    <t>Price</t>
   </si>
   <si>
     <t>PriceKinds</t>
@@ -50,7 +50,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -63,6 +63,7 @@
     <font>
       <name val="Arial"/>
     </font>
+    <font/>
   </fonts>
   <fills count="2">
     <fill>
@@ -78,15 +79,18 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -311,7 +315,8 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="8" width="14.43"/>
+    <col customWidth="1" min="1" max="2" width="14.43"/>
+    <col customWidth="1" min="4" max="8" width="14.43"/>
     <col customWidth="1" min="9" max="9" width="17.57"/>
   </cols>
   <sheetData>
@@ -322,7 +327,7 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
@@ -334,10 +339,10 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
@@ -345,4025 +350,4025 @@
       </c>
     </row>
     <row r="2" ht="15.0" customHeight="1">
-      <c r="A2" s="3">
+      <c r="A2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="2">
         <v>0.0</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="3">
+      <c r="D2" s="4">
         <v>0.0</v>
       </c>
-      <c r="E2" s="3">
+      <c r="E2" s="2">
         <v>-1.0</v>
       </c>
-      <c r="F2" s="3">
+      <c r="F2" s="2">
         <v>-1.0</v>
       </c>
-      <c r="G2" s="4">
+      <c r="G2" s="5">
         <v>0.0</v>
       </c>
-      <c r="H2" s="4">
+      <c r="H2" s="5">
         <v>-1.0</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="I2" s="2" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="3" ht="15.0" customHeight="1">
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
     </row>
     <row r="4" ht="15.0" customHeight="1">
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
     </row>
     <row r="5" ht="15.0" customHeight="1">
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
     </row>
     <row r="6" ht="15.0" customHeight="1">
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
     </row>
     <row r="7" ht="15.0" customHeight="1">
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
     </row>
     <row r="8" ht="15.0" customHeight="1">
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
     </row>
     <row r="9" ht="15.0" customHeight="1">
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
     </row>
     <row r="10" ht="15.0" customHeight="1">
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
     </row>
     <row r="11" ht="15.0" customHeight="1">
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
     </row>
     <row r="12" ht="15.0" customHeight="1">
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
     </row>
     <row r="13" ht="15.0" customHeight="1">
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
     </row>
     <row r="14" ht="15.0" customHeight="1">
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
     </row>
     <row r="15" ht="15.0" customHeight="1">
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
     </row>
     <row r="16" ht="15.0" customHeight="1">
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
     </row>
     <row r="17" ht="15.0" customHeight="1">
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
     </row>
     <row r="18" ht="15.0" customHeight="1">
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
     </row>
     <row r="19" ht="15.0" customHeight="1">
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
     </row>
     <row r="20" ht="15.0" customHeight="1">
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
     </row>
     <row r="21" ht="15.0" customHeight="1">
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
     </row>
     <row r="22" ht="15.0" customHeight="1">
-      <c r="G22" s="5"/>
-      <c r="H22" s="5"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
     </row>
     <row r="23" ht="15.0" customHeight="1">
-      <c r="G23" s="5"/>
-      <c r="H23" s="5"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
     </row>
     <row r="24" ht="15.0" customHeight="1">
-      <c r="G24" s="5"/>
-      <c r="H24" s="5"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
     </row>
     <row r="25" ht="15.0" customHeight="1">
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6"/>
     </row>
     <row r="26" ht="15.0" customHeight="1">
-      <c r="G26" s="5"/>
-      <c r="H26" s="5"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6"/>
     </row>
     <row r="27" ht="15.0" customHeight="1">
-      <c r="G27" s="5"/>
-      <c r="H27" s="5"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="6"/>
     </row>
     <row r="28" ht="15.0" customHeight="1">
-      <c r="G28" s="5"/>
-      <c r="H28" s="5"/>
+      <c r="G28" s="6"/>
+      <c r="H28" s="6"/>
     </row>
     <row r="29" ht="15.0" customHeight="1">
-      <c r="G29" s="5"/>
-      <c r="H29" s="5"/>
+      <c r="G29" s="6"/>
+      <c r="H29" s="6"/>
     </row>
     <row r="30" ht="15.0" customHeight="1">
-      <c r="G30" s="5"/>
-      <c r="H30" s="5"/>
+      <c r="G30" s="6"/>
+      <c r="H30" s="6"/>
     </row>
     <row r="31" ht="15.0" customHeight="1">
-      <c r="G31" s="5"/>
-      <c r="H31" s="5"/>
+      <c r="G31" s="6"/>
+      <c r="H31" s="6"/>
     </row>
     <row r="32" ht="15.0" customHeight="1">
-      <c r="G32" s="5"/>
-      <c r="H32" s="5"/>
+      <c r="G32" s="6"/>
+      <c r="H32" s="6"/>
     </row>
     <row r="33" ht="15.0" customHeight="1">
-      <c r="G33" s="5"/>
-      <c r="H33" s="5"/>
+      <c r="G33" s="6"/>
+      <c r="H33" s="6"/>
     </row>
     <row r="34" ht="15.0" customHeight="1">
-      <c r="G34" s="5"/>
-      <c r="H34" s="5"/>
+      <c r="G34" s="6"/>
+      <c r="H34" s="6"/>
     </row>
     <row r="35" ht="15.0" customHeight="1">
-      <c r="G35" s="5"/>
-      <c r="H35" s="5"/>
+      <c r="G35" s="6"/>
+      <c r="H35" s="6"/>
     </row>
     <row r="36" ht="15.0" customHeight="1">
-      <c r="G36" s="5"/>
-      <c r="H36" s="5"/>
+      <c r="G36" s="6"/>
+      <c r="H36" s="6"/>
     </row>
     <row r="37" ht="15.0" customHeight="1">
-      <c r="G37" s="5"/>
-      <c r="H37" s="5"/>
+      <c r="G37" s="6"/>
+      <c r="H37" s="6"/>
     </row>
     <row r="38" ht="15.0" customHeight="1">
-      <c r="G38" s="5"/>
-      <c r="H38" s="5"/>
+      <c r="G38" s="6"/>
+      <c r="H38" s="6"/>
     </row>
     <row r="39" ht="15.0" customHeight="1">
-      <c r="G39" s="5"/>
-      <c r="H39" s="5"/>
+      <c r="G39" s="6"/>
+      <c r="H39" s="6"/>
     </row>
     <row r="40" ht="15.0" customHeight="1">
-      <c r="G40" s="5"/>
-      <c r="H40" s="5"/>
+      <c r="G40" s="6"/>
+      <c r="H40" s="6"/>
     </row>
     <row r="41" ht="15.0" customHeight="1">
-      <c r="G41" s="5"/>
-      <c r="H41" s="5"/>
+      <c r="G41" s="6"/>
+      <c r="H41" s="6"/>
     </row>
     <row r="42" ht="15.0" customHeight="1">
-      <c r="G42" s="5"/>
-      <c r="H42" s="5"/>
+      <c r="G42" s="6"/>
+      <c r="H42" s="6"/>
     </row>
     <row r="43" ht="15.0" customHeight="1">
-      <c r="G43" s="5"/>
-      <c r="H43" s="5"/>
+      <c r="G43" s="6"/>
+      <c r="H43" s="6"/>
     </row>
     <row r="44" ht="15.0" customHeight="1">
-      <c r="G44" s="5"/>
-      <c r="H44" s="5"/>
+      <c r="G44" s="6"/>
+      <c r="H44" s="6"/>
     </row>
     <row r="45" ht="15.0" customHeight="1">
-      <c r="G45" s="5"/>
-      <c r="H45" s="5"/>
+      <c r="G45" s="6"/>
+      <c r="H45" s="6"/>
     </row>
     <row r="46" ht="15.0" customHeight="1">
-      <c r="G46" s="5"/>
-      <c r="H46" s="5"/>
+      <c r="G46" s="6"/>
+      <c r="H46" s="6"/>
     </row>
     <row r="47" ht="15.0" customHeight="1">
-      <c r="G47" s="5"/>
-      <c r="H47" s="5"/>
+      <c r="G47" s="6"/>
+      <c r="H47" s="6"/>
     </row>
     <row r="48" ht="15.0" customHeight="1">
-      <c r="G48" s="5"/>
-      <c r="H48" s="5"/>
+      <c r="G48" s="6"/>
+      <c r="H48" s="6"/>
     </row>
     <row r="49" ht="15.0" customHeight="1">
-      <c r="G49" s="5"/>
-      <c r="H49" s="5"/>
+      <c r="G49" s="6"/>
+      <c r="H49" s="6"/>
     </row>
     <row r="50" ht="15.0" customHeight="1">
-      <c r="G50" s="5"/>
-      <c r="H50" s="5"/>
+      <c r="G50" s="6"/>
+      <c r="H50" s="6"/>
     </row>
     <row r="51" ht="15.0" customHeight="1">
-      <c r="G51" s="5"/>
-      <c r="H51" s="5"/>
+      <c r="G51" s="6"/>
+      <c r="H51" s="6"/>
     </row>
     <row r="52" ht="15.0" customHeight="1">
-      <c r="G52" s="5"/>
-      <c r="H52" s="5"/>
+      <c r="G52" s="6"/>
+      <c r="H52" s="6"/>
     </row>
     <row r="53" ht="15.0" customHeight="1">
-      <c r="G53" s="5"/>
-      <c r="H53" s="5"/>
+      <c r="G53" s="6"/>
+      <c r="H53" s="6"/>
     </row>
     <row r="54" ht="15.0" customHeight="1">
-      <c r="G54" s="5"/>
-      <c r="H54" s="5"/>
+      <c r="G54" s="6"/>
+      <c r="H54" s="6"/>
     </row>
     <row r="55" ht="15.0" customHeight="1">
-      <c r="G55" s="5"/>
-      <c r="H55" s="5"/>
+      <c r="G55" s="6"/>
+      <c r="H55" s="6"/>
     </row>
     <row r="56" ht="15.0" customHeight="1">
-      <c r="G56" s="5"/>
-      <c r="H56" s="5"/>
+      <c r="G56" s="6"/>
+      <c r="H56" s="6"/>
     </row>
     <row r="57" ht="15.0" customHeight="1">
-      <c r="G57" s="5"/>
-      <c r="H57" s="5"/>
+      <c r="G57" s="6"/>
+      <c r="H57" s="6"/>
     </row>
     <row r="58" ht="15.0" customHeight="1">
-      <c r="G58" s="5"/>
-      <c r="H58" s="5"/>
+      <c r="G58" s="6"/>
+      <c r="H58" s="6"/>
     </row>
     <row r="59" ht="15.0" customHeight="1">
-      <c r="G59" s="5"/>
-      <c r="H59" s="5"/>
+      <c r="G59" s="6"/>
+      <c r="H59" s="6"/>
     </row>
     <row r="60" ht="15.0" customHeight="1">
-      <c r="G60" s="5"/>
-      <c r="H60" s="5"/>
+      <c r="G60" s="6"/>
+      <c r="H60" s="6"/>
     </row>
     <row r="61" ht="15.0" customHeight="1">
-      <c r="G61" s="5"/>
-      <c r="H61" s="5"/>
+      <c r="G61" s="6"/>
+      <c r="H61" s="6"/>
     </row>
     <row r="62" ht="15.0" customHeight="1">
-      <c r="G62" s="5"/>
-      <c r="H62" s="5"/>
+      <c r="G62" s="6"/>
+      <c r="H62" s="6"/>
     </row>
     <row r="63" ht="15.0" customHeight="1">
-      <c r="G63" s="5"/>
-      <c r="H63" s="5"/>
+      <c r="G63" s="6"/>
+      <c r="H63" s="6"/>
     </row>
     <row r="64" ht="15.0" customHeight="1">
-      <c r="G64" s="5"/>
-      <c r="H64" s="5"/>
+      <c r="G64" s="6"/>
+      <c r="H64" s="6"/>
     </row>
     <row r="65" ht="15.0" customHeight="1">
-      <c r="G65" s="5"/>
-      <c r="H65" s="5"/>
+      <c r="G65" s="6"/>
+      <c r="H65" s="6"/>
     </row>
     <row r="66" ht="15.0" customHeight="1">
-      <c r="G66" s="5"/>
-      <c r="H66" s="5"/>
+      <c r="G66" s="6"/>
+      <c r="H66" s="6"/>
     </row>
     <row r="67" ht="15.0" customHeight="1">
-      <c r="G67" s="5"/>
-      <c r="H67" s="5"/>
+      <c r="G67" s="6"/>
+      <c r="H67" s="6"/>
     </row>
     <row r="68" ht="15.0" customHeight="1">
-      <c r="G68" s="5"/>
-      <c r="H68" s="5"/>
+      <c r="G68" s="6"/>
+      <c r="H68" s="6"/>
     </row>
     <row r="69" ht="15.0" customHeight="1">
-      <c r="G69" s="5"/>
-      <c r="H69" s="5"/>
+      <c r="G69" s="6"/>
+      <c r="H69" s="6"/>
     </row>
     <row r="70" ht="15.0" customHeight="1">
-      <c r="G70" s="5"/>
-      <c r="H70" s="5"/>
+      <c r="G70" s="6"/>
+      <c r="H70" s="6"/>
     </row>
     <row r="71" ht="15.0" customHeight="1">
-      <c r="G71" s="5"/>
-      <c r="H71" s="5"/>
+      <c r="G71" s="6"/>
+      <c r="H71" s="6"/>
     </row>
     <row r="72" ht="15.0" customHeight="1">
-      <c r="G72" s="5"/>
-      <c r="H72" s="5"/>
+      <c r="G72" s="6"/>
+      <c r="H72" s="6"/>
     </row>
     <row r="73" ht="15.0" customHeight="1">
-      <c r="G73" s="5"/>
-      <c r="H73" s="5"/>
+      <c r="G73" s="6"/>
+      <c r="H73" s="6"/>
     </row>
     <row r="74" ht="15.0" customHeight="1">
-      <c r="G74" s="5"/>
-      <c r="H74" s="5"/>
+      <c r="G74" s="6"/>
+      <c r="H74" s="6"/>
     </row>
     <row r="75" ht="15.0" customHeight="1">
-      <c r="G75" s="5"/>
-      <c r="H75" s="5"/>
+      <c r="G75" s="6"/>
+      <c r="H75" s="6"/>
     </row>
     <row r="76" ht="15.0" customHeight="1">
-      <c r="G76" s="5"/>
-      <c r="H76" s="5"/>
+      <c r="G76" s="6"/>
+      <c r="H76" s="6"/>
     </row>
     <row r="77" ht="15.0" customHeight="1">
-      <c r="G77" s="5"/>
-      <c r="H77" s="5"/>
+      <c r="G77" s="6"/>
+      <c r="H77" s="6"/>
     </row>
     <row r="78" ht="15.0" customHeight="1">
-      <c r="G78" s="5"/>
-      <c r="H78" s="5"/>
+      <c r="G78" s="6"/>
+      <c r="H78" s="6"/>
     </row>
     <row r="79" ht="15.0" customHeight="1">
-      <c r="G79" s="5"/>
-      <c r="H79" s="5"/>
+      <c r="G79" s="6"/>
+      <c r="H79" s="6"/>
     </row>
     <row r="80" ht="15.0" customHeight="1">
-      <c r="G80" s="5"/>
-      <c r="H80" s="5"/>
+      <c r="G80" s="6"/>
+      <c r="H80" s="6"/>
     </row>
     <row r="81" ht="15.0" customHeight="1">
-      <c r="G81" s="5"/>
-      <c r="H81" s="5"/>
+      <c r="G81" s="6"/>
+      <c r="H81" s="6"/>
     </row>
     <row r="82" ht="15.0" customHeight="1">
-      <c r="G82" s="5"/>
-      <c r="H82" s="5"/>
+      <c r="G82" s="6"/>
+      <c r="H82" s="6"/>
     </row>
     <row r="83" ht="15.0" customHeight="1">
-      <c r="G83" s="5"/>
-      <c r="H83" s="5"/>
+      <c r="G83" s="6"/>
+      <c r="H83" s="6"/>
     </row>
     <row r="84" ht="15.0" customHeight="1">
-      <c r="G84" s="5"/>
-      <c r="H84" s="5"/>
+      <c r="G84" s="6"/>
+      <c r="H84" s="6"/>
     </row>
     <row r="85" ht="15.0" customHeight="1">
-      <c r="G85" s="5"/>
-      <c r="H85" s="5"/>
+      <c r="G85" s="6"/>
+      <c r="H85" s="6"/>
     </row>
     <row r="86" ht="15.0" customHeight="1">
-      <c r="G86" s="5"/>
-      <c r="H86" s="5"/>
+      <c r="G86" s="6"/>
+      <c r="H86" s="6"/>
     </row>
     <row r="87" ht="15.0" customHeight="1">
-      <c r="G87" s="5"/>
-      <c r="H87" s="5"/>
+      <c r="G87" s="6"/>
+      <c r="H87" s="6"/>
     </row>
     <row r="88" ht="15.0" customHeight="1">
-      <c r="G88" s="5"/>
-      <c r="H88" s="5"/>
+      <c r="G88" s="6"/>
+      <c r="H88" s="6"/>
     </row>
     <row r="89" ht="15.0" customHeight="1">
-      <c r="G89" s="5"/>
-      <c r="H89" s="5"/>
+      <c r="G89" s="6"/>
+      <c r="H89" s="6"/>
     </row>
     <row r="90" ht="15.0" customHeight="1">
-      <c r="G90" s="5"/>
-      <c r="H90" s="5"/>
+      <c r="G90" s="6"/>
+      <c r="H90" s="6"/>
     </row>
     <row r="91" ht="15.0" customHeight="1">
-      <c r="G91" s="5"/>
-      <c r="H91" s="5"/>
+      <c r="G91" s="6"/>
+      <c r="H91" s="6"/>
     </row>
     <row r="92" ht="15.0" customHeight="1">
-      <c r="G92" s="5"/>
-      <c r="H92" s="5"/>
+      <c r="G92" s="6"/>
+      <c r="H92" s="6"/>
     </row>
     <row r="93" ht="15.0" customHeight="1">
-      <c r="G93" s="5"/>
-      <c r="H93" s="5"/>
+      <c r="G93" s="6"/>
+      <c r="H93" s="6"/>
     </row>
     <row r="94" ht="15.0" customHeight="1">
-      <c r="G94" s="5"/>
-      <c r="H94" s="5"/>
+      <c r="G94" s="6"/>
+      <c r="H94" s="6"/>
     </row>
     <row r="95" ht="15.0" customHeight="1">
-      <c r="G95" s="5"/>
-      <c r="H95" s="5"/>
+      <c r="G95" s="6"/>
+      <c r="H95" s="6"/>
     </row>
     <row r="96" ht="15.0" customHeight="1">
-      <c r="G96" s="5"/>
-      <c r="H96" s="5"/>
+      <c r="G96" s="6"/>
+      <c r="H96" s="6"/>
     </row>
     <row r="97" ht="15.0" customHeight="1">
-      <c r="G97" s="5"/>
-      <c r="H97" s="5"/>
+      <c r="G97" s="6"/>
+      <c r="H97" s="6"/>
     </row>
     <row r="98" ht="15.0" customHeight="1">
-      <c r="G98" s="5"/>
-      <c r="H98" s="5"/>
+      <c r="G98" s="6"/>
+      <c r="H98" s="6"/>
     </row>
     <row r="99" ht="15.0" customHeight="1">
-      <c r="G99" s="5"/>
-      <c r="H99" s="5"/>
+      <c r="G99" s="6"/>
+      <c r="H99" s="6"/>
     </row>
     <row r="100" ht="15.0" customHeight="1">
-      <c r="G100" s="5"/>
-      <c r="H100" s="5"/>
+      <c r="G100" s="6"/>
+      <c r="H100" s="6"/>
     </row>
     <row r="101" ht="15.0" customHeight="1">
-      <c r="G101" s="5"/>
-      <c r="H101" s="5"/>
+      <c r="G101" s="6"/>
+      <c r="H101" s="6"/>
     </row>
     <row r="102" ht="15.0" customHeight="1">
-      <c r="G102" s="5"/>
-      <c r="H102" s="5"/>
+      <c r="G102" s="6"/>
+      <c r="H102" s="6"/>
     </row>
     <row r="103" ht="15.0" customHeight="1">
-      <c r="G103" s="5"/>
-      <c r="H103" s="5"/>
+      <c r="G103" s="6"/>
+      <c r="H103" s="6"/>
     </row>
     <row r="104" ht="15.0" customHeight="1">
-      <c r="G104" s="5"/>
-      <c r="H104" s="5"/>
+      <c r="G104" s="6"/>
+      <c r="H104" s="6"/>
     </row>
     <row r="105" ht="15.0" customHeight="1">
-      <c r="G105" s="5"/>
-      <c r="H105" s="5"/>
+      <c r="G105" s="6"/>
+      <c r="H105" s="6"/>
     </row>
     <row r="106" ht="15.0" customHeight="1">
-      <c r="G106" s="5"/>
-      <c r="H106" s="5"/>
+      <c r="G106" s="6"/>
+      <c r="H106" s="6"/>
     </row>
     <row r="107" ht="15.0" customHeight="1">
-      <c r="G107" s="5"/>
-      <c r="H107" s="5"/>
+      <c r="G107" s="6"/>
+      <c r="H107" s="6"/>
     </row>
     <row r="108" ht="15.0" customHeight="1">
-      <c r="G108" s="5"/>
-      <c r="H108" s="5"/>
+      <c r="G108" s="6"/>
+      <c r="H108" s="6"/>
     </row>
     <row r="109" ht="15.0" customHeight="1">
-      <c r="G109" s="5"/>
-      <c r="H109" s="5"/>
+      <c r="G109" s="6"/>
+      <c r="H109" s="6"/>
     </row>
     <row r="110" ht="15.0" customHeight="1">
-      <c r="G110" s="5"/>
-      <c r="H110" s="5"/>
+      <c r="G110" s="6"/>
+      <c r="H110" s="6"/>
     </row>
     <row r="111" ht="15.0" customHeight="1">
-      <c r="G111" s="5"/>
-      <c r="H111" s="5"/>
+      <c r="G111" s="6"/>
+      <c r="H111" s="6"/>
     </row>
     <row r="112" ht="15.0" customHeight="1">
-      <c r="G112" s="5"/>
-      <c r="H112" s="5"/>
+      <c r="G112" s="6"/>
+      <c r="H112" s="6"/>
     </row>
     <row r="113" ht="15.0" customHeight="1">
-      <c r="G113" s="5"/>
-      <c r="H113" s="5"/>
+      <c r="G113" s="6"/>
+      <c r="H113" s="6"/>
     </row>
     <row r="114" ht="15.0" customHeight="1">
-      <c r="G114" s="5"/>
-      <c r="H114" s="5"/>
+      <c r="G114" s="6"/>
+      <c r="H114" s="6"/>
     </row>
     <row r="115" ht="15.0" customHeight="1">
-      <c r="G115" s="5"/>
-      <c r="H115" s="5"/>
+      <c r="G115" s="6"/>
+      <c r="H115" s="6"/>
     </row>
     <row r="116" ht="15.0" customHeight="1">
-      <c r="G116" s="5"/>
-      <c r="H116" s="5"/>
+      <c r="G116" s="6"/>
+      <c r="H116" s="6"/>
     </row>
     <row r="117" ht="15.0" customHeight="1">
-      <c r="G117" s="5"/>
-      <c r="H117" s="5"/>
+      <c r="G117" s="6"/>
+      <c r="H117" s="6"/>
     </row>
     <row r="118" ht="15.0" customHeight="1">
-      <c r="G118" s="5"/>
-      <c r="H118" s="5"/>
+      <c r="G118" s="6"/>
+      <c r="H118" s="6"/>
     </row>
     <row r="119" ht="15.0" customHeight="1">
-      <c r="G119" s="5"/>
-      <c r="H119" s="5"/>
+      <c r="G119" s="6"/>
+      <c r="H119" s="6"/>
     </row>
     <row r="120" ht="15.0" customHeight="1">
-      <c r="G120" s="5"/>
-      <c r="H120" s="5"/>
+      <c r="G120" s="6"/>
+      <c r="H120" s="6"/>
     </row>
     <row r="121" ht="15.0" customHeight="1">
-      <c r="G121" s="5"/>
-      <c r="H121" s="5"/>
+      <c r="G121" s="6"/>
+      <c r="H121" s="6"/>
     </row>
     <row r="122" ht="15.0" customHeight="1">
-      <c r="G122" s="5"/>
-      <c r="H122" s="5"/>
+      <c r="G122" s="6"/>
+      <c r="H122" s="6"/>
     </row>
     <row r="123" ht="15.0" customHeight="1">
-      <c r="G123" s="5"/>
-      <c r="H123" s="5"/>
+      <c r="G123" s="6"/>
+      <c r="H123" s="6"/>
     </row>
     <row r="124" ht="15.0" customHeight="1">
-      <c r="G124" s="5"/>
-      <c r="H124" s="5"/>
+      <c r="G124" s="6"/>
+      <c r="H124" s="6"/>
     </row>
     <row r="125" ht="15.0" customHeight="1">
-      <c r="G125" s="5"/>
-      <c r="H125" s="5"/>
+      <c r="G125" s="6"/>
+      <c r="H125" s="6"/>
     </row>
     <row r="126" ht="15.0" customHeight="1">
-      <c r="G126" s="5"/>
-      <c r="H126" s="5"/>
+      <c r="G126" s="6"/>
+      <c r="H126" s="6"/>
     </row>
     <row r="127" ht="15.0" customHeight="1">
-      <c r="G127" s="5"/>
-      <c r="H127" s="5"/>
+      <c r="G127" s="6"/>
+      <c r="H127" s="6"/>
     </row>
     <row r="128" ht="15.0" customHeight="1">
-      <c r="G128" s="5"/>
-      <c r="H128" s="5"/>
+      <c r="G128" s="6"/>
+      <c r="H128" s="6"/>
     </row>
     <row r="129" ht="15.0" customHeight="1">
-      <c r="G129" s="5"/>
-      <c r="H129" s="5"/>
+      <c r="G129" s="6"/>
+      <c r="H129" s="6"/>
     </row>
     <row r="130" ht="15.0" customHeight="1">
-      <c r="G130" s="5"/>
-      <c r="H130" s="5"/>
+      <c r="G130" s="6"/>
+      <c r="H130" s="6"/>
     </row>
     <row r="131" ht="15.0" customHeight="1">
-      <c r="G131" s="5"/>
-      <c r="H131" s="5"/>
+      <c r="G131" s="6"/>
+      <c r="H131" s="6"/>
     </row>
     <row r="132" ht="15.0" customHeight="1">
-      <c r="G132" s="5"/>
-      <c r="H132" s="5"/>
+      <c r="G132" s="6"/>
+      <c r="H132" s="6"/>
     </row>
     <row r="133" ht="15.0" customHeight="1">
-      <c r="G133" s="5"/>
-      <c r="H133" s="5"/>
+      <c r="G133" s="6"/>
+      <c r="H133" s="6"/>
     </row>
     <row r="134" ht="15.0" customHeight="1">
-      <c r="G134" s="5"/>
-      <c r="H134" s="5"/>
+      <c r="G134" s="6"/>
+      <c r="H134" s="6"/>
     </row>
     <row r="135" ht="15.0" customHeight="1">
-      <c r="G135" s="5"/>
-      <c r="H135" s="5"/>
+      <c r="G135" s="6"/>
+      <c r="H135" s="6"/>
     </row>
     <row r="136" ht="15.0" customHeight="1">
-      <c r="G136" s="5"/>
-      <c r="H136" s="5"/>
+      <c r="G136" s="6"/>
+      <c r="H136" s="6"/>
     </row>
     <row r="137" ht="15.0" customHeight="1">
-      <c r="G137" s="5"/>
-      <c r="H137" s="5"/>
+      <c r="G137" s="6"/>
+      <c r="H137" s="6"/>
     </row>
     <row r="138" ht="15.0" customHeight="1">
-      <c r="G138" s="5"/>
-      <c r="H138" s="5"/>
+      <c r="G138" s="6"/>
+      <c r="H138" s="6"/>
     </row>
     <row r="139" ht="15.0" customHeight="1">
-      <c r="G139" s="5"/>
-      <c r="H139" s="5"/>
+      <c r="G139" s="6"/>
+      <c r="H139" s="6"/>
     </row>
     <row r="140" ht="15.0" customHeight="1">
-      <c r="G140" s="5"/>
-      <c r="H140" s="5"/>
+      <c r="G140" s="6"/>
+      <c r="H140" s="6"/>
     </row>
     <row r="141" ht="15.0" customHeight="1">
-      <c r="G141" s="5"/>
-      <c r="H141" s="5"/>
+      <c r="G141" s="6"/>
+      <c r="H141" s="6"/>
     </row>
     <row r="142" ht="15.0" customHeight="1">
-      <c r="G142" s="5"/>
-      <c r="H142" s="5"/>
+      <c r="G142" s="6"/>
+      <c r="H142" s="6"/>
     </row>
     <row r="143" ht="15.0" customHeight="1">
-      <c r="G143" s="5"/>
-      <c r="H143" s="5"/>
+      <c r="G143" s="6"/>
+      <c r="H143" s="6"/>
     </row>
     <row r="144" ht="15.0" customHeight="1">
-      <c r="G144" s="5"/>
-      <c r="H144" s="5"/>
+      <c r="G144" s="6"/>
+      <c r="H144" s="6"/>
     </row>
     <row r="145" ht="15.0" customHeight="1">
-      <c r="G145" s="5"/>
-      <c r="H145" s="5"/>
+      <c r="G145" s="6"/>
+      <c r="H145" s="6"/>
     </row>
     <row r="146" ht="15.0" customHeight="1">
-      <c r="G146" s="5"/>
-      <c r="H146" s="5"/>
+      <c r="G146" s="6"/>
+      <c r="H146" s="6"/>
     </row>
     <row r="147" ht="15.0" customHeight="1">
-      <c r="G147" s="5"/>
-      <c r="H147" s="5"/>
+      <c r="G147" s="6"/>
+      <c r="H147" s="6"/>
     </row>
     <row r="148" ht="15.0" customHeight="1">
-      <c r="G148" s="5"/>
-      <c r="H148" s="5"/>
+      <c r="G148" s="6"/>
+      <c r="H148" s="6"/>
     </row>
     <row r="149" ht="15.0" customHeight="1">
-      <c r="G149" s="5"/>
-      <c r="H149" s="5"/>
+      <c r="G149" s="6"/>
+      <c r="H149" s="6"/>
     </row>
     <row r="150" ht="15.0" customHeight="1">
-      <c r="G150" s="5"/>
-      <c r="H150" s="5"/>
+      <c r="G150" s="6"/>
+      <c r="H150" s="6"/>
     </row>
     <row r="151" ht="15.0" customHeight="1">
-      <c r="G151" s="5"/>
-      <c r="H151" s="5"/>
+      <c r="G151" s="6"/>
+      <c r="H151" s="6"/>
     </row>
     <row r="152" ht="15.0" customHeight="1">
-      <c r="G152" s="5"/>
-      <c r="H152" s="5"/>
+      <c r="G152" s="6"/>
+      <c r="H152" s="6"/>
     </row>
     <row r="153" ht="15.0" customHeight="1">
-      <c r="G153" s="5"/>
-      <c r="H153" s="5"/>
+      <c r="G153" s="6"/>
+      <c r="H153" s="6"/>
     </row>
     <row r="154" ht="15.0" customHeight="1">
-      <c r="G154" s="5"/>
-      <c r="H154" s="5"/>
+      <c r="G154" s="6"/>
+      <c r="H154" s="6"/>
     </row>
     <row r="155" ht="15.0" customHeight="1">
-      <c r="G155" s="5"/>
-      <c r="H155" s="5"/>
+      <c r="G155" s="6"/>
+      <c r="H155" s="6"/>
     </row>
     <row r="156" ht="15.0" customHeight="1">
-      <c r="G156" s="5"/>
-      <c r="H156" s="5"/>
+      <c r="G156" s="6"/>
+      <c r="H156" s="6"/>
     </row>
     <row r="157" ht="15.0" customHeight="1">
-      <c r="G157" s="5"/>
-      <c r="H157" s="5"/>
+      <c r="G157" s="6"/>
+      <c r="H157" s="6"/>
     </row>
     <row r="158" ht="15.0" customHeight="1">
-      <c r="G158" s="5"/>
-      <c r="H158" s="5"/>
+      <c r="G158" s="6"/>
+      <c r="H158" s="6"/>
     </row>
     <row r="159" ht="15.0" customHeight="1">
-      <c r="G159" s="5"/>
-      <c r="H159" s="5"/>
+      <c r="G159" s="6"/>
+      <c r="H159" s="6"/>
     </row>
     <row r="160" ht="15.0" customHeight="1">
-      <c r="G160" s="5"/>
-      <c r="H160" s="5"/>
+      <c r="G160" s="6"/>
+      <c r="H160" s="6"/>
     </row>
     <row r="161" ht="15.0" customHeight="1">
-      <c r="G161" s="5"/>
-      <c r="H161" s="5"/>
+      <c r="G161" s="6"/>
+      <c r="H161" s="6"/>
     </row>
     <row r="162" ht="15.0" customHeight="1">
-      <c r="G162" s="5"/>
-      <c r="H162" s="5"/>
+      <c r="G162" s="6"/>
+      <c r="H162" s="6"/>
     </row>
     <row r="163" ht="15.0" customHeight="1">
-      <c r="G163" s="5"/>
-      <c r="H163" s="5"/>
+      <c r="G163" s="6"/>
+      <c r="H163" s="6"/>
     </row>
     <row r="164" ht="15.0" customHeight="1">
-      <c r="G164" s="5"/>
-      <c r="H164" s="5"/>
+      <c r="G164" s="6"/>
+      <c r="H164" s="6"/>
     </row>
     <row r="165" ht="15.0" customHeight="1">
-      <c r="G165" s="5"/>
-      <c r="H165" s="5"/>
+      <c r="G165" s="6"/>
+      <c r="H165" s="6"/>
     </row>
     <row r="166" ht="15.0" customHeight="1">
-      <c r="G166" s="5"/>
-      <c r="H166" s="5"/>
+      <c r="G166" s="6"/>
+      <c r="H166" s="6"/>
     </row>
     <row r="167" ht="15.0" customHeight="1">
-      <c r="G167" s="5"/>
-      <c r="H167" s="5"/>
+      <c r="G167" s="6"/>
+      <c r="H167" s="6"/>
     </row>
     <row r="168" ht="15.0" customHeight="1">
-      <c r="G168" s="5"/>
-      <c r="H168" s="5"/>
+      <c r="G168" s="6"/>
+      <c r="H168" s="6"/>
     </row>
     <row r="169" ht="15.0" customHeight="1">
-      <c r="G169" s="5"/>
-      <c r="H169" s="5"/>
+      <c r="G169" s="6"/>
+      <c r="H169" s="6"/>
     </row>
     <row r="170" ht="15.0" customHeight="1">
-      <c r="G170" s="5"/>
-      <c r="H170" s="5"/>
+      <c r="G170" s="6"/>
+      <c r="H170" s="6"/>
     </row>
     <row r="171" ht="15.0" customHeight="1">
-      <c r="G171" s="5"/>
-      <c r="H171" s="5"/>
+      <c r="G171" s="6"/>
+      <c r="H171" s="6"/>
     </row>
     <row r="172" ht="15.0" customHeight="1">
-      <c r="G172" s="5"/>
-      <c r="H172" s="5"/>
+      <c r="G172" s="6"/>
+      <c r="H172" s="6"/>
     </row>
     <row r="173" ht="15.0" customHeight="1">
-      <c r="G173" s="5"/>
-      <c r="H173" s="5"/>
+      <c r="G173" s="6"/>
+      <c r="H173" s="6"/>
     </row>
     <row r="174" ht="15.0" customHeight="1">
-      <c r="G174" s="5"/>
-      <c r="H174" s="5"/>
+      <c r="G174" s="6"/>
+      <c r="H174" s="6"/>
     </row>
     <row r="175" ht="15.0" customHeight="1">
-      <c r="G175" s="5"/>
-      <c r="H175" s="5"/>
+      <c r="G175" s="6"/>
+      <c r="H175" s="6"/>
     </row>
     <row r="176" ht="15.0" customHeight="1">
-      <c r="G176" s="5"/>
-      <c r="H176" s="5"/>
+      <c r="G176" s="6"/>
+      <c r="H176" s="6"/>
     </row>
     <row r="177" ht="15.0" customHeight="1">
-      <c r="G177" s="5"/>
-      <c r="H177" s="5"/>
+      <c r="G177" s="6"/>
+      <c r="H177" s="6"/>
     </row>
     <row r="178" ht="15.0" customHeight="1">
-      <c r="G178" s="5"/>
-      <c r="H178" s="5"/>
+      <c r="G178" s="6"/>
+      <c r="H178" s="6"/>
     </row>
     <row r="179" ht="15.0" customHeight="1">
-      <c r="G179" s="5"/>
-      <c r="H179" s="5"/>
+      <c r="G179" s="6"/>
+      <c r="H179" s="6"/>
     </row>
     <row r="180" ht="15.0" customHeight="1">
-      <c r="G180" s="5"/>
-      <c r="H180" s="5"/>
+      <c r="G180" s="6"/>
+      <c r="H180" s="6"/>
     </row>
     <row r="181" ht="15.0" customHeight="1">
-      <c r="G181" s="5"/>
-      <c r="H181" s="5"/>
+      <c r="G181" s="6"/>
+      <c r="H181" s="6"/>
     </row>
     <row r="182" ht="15.0" customHeight="1">
-      <c r="G182" s="5"/>
-      <c r="H182" s="5"/>
+      <c r="G182" s="6"/>
+      <c r="H182" s="6"/>
     </row>
     <row r="183" ht="15.0" customHeight="1">
-      <c r="G183" s="5"/>
-      <c r="H183" s="5"/>
+      <c r="G183" s="6"/>
+      <c r="H183" s="6"/>
     </row>
     <row r="184" ht="15.0" customHeight="1">
-      <c r="G184" s="5"/>
-      <c r="H184" s="5"/>
+      <c r="G184" s="6"/>
+      <c r="H184" s="6"/>
     </row>
     <row r="185" ht="15.0" customHeight="1">
-      <c r="G185" s="5"/>
-      <c r="H185" s="5"/>
+      <c r="G185" s="6"/>
+      <c r="H185" s="6"/>
     </row>
     <row r="186" ht="15.0" customHeight="1">
-      <c r="G186" s="5"/>
-      <c r="H186" s="5"/>
+      <c r="G186" s="6"/>
+      <c r="H186" s="6"/>
     </row>
     <row r="187" ht="15.0" customHeight="1">
-      <c r="G187" s="5"/>
-      <c r="H187" s="5"/>
+      <c r="G187" s="6"/>
+      <c r="H187" s="6"/>
     </row>
     <row r="188" ht="15.0" customHeight="1">
-      <c r="G188" s="5"/>
-      <c r="H188" s="5"/>
+      <c r="G188" s="6"/>
+      <c r="H188" s="6"/>
     </row>
     <row r="189" ht="15.0" customHeight="1">
-      <c r="G189" s="5"/>
-      <c r="H189" s="5"/>
+      <c r="G189" s="6"/>
+      <c r="H189" s="6"/>
     </row>
     <row r="190" ht="15.0" customHeight="1">
-      <c r="G190" s="5"/>
-      <c r="H190" s="5"/>
+      <c r="G190" s="6"/>
+      <c r="H190" s="6"/>
     </row>
     <row r="191" ht="15.0" customHeight="1">
-      <c r="G191" s="5"/>
-      <c r="H191" s="5"/>
+      <c r="G191" s="6"/>
+      <c r="H191" s="6"/>
     </row>
     <row r="192" ht="15.0" customHeight="1">
-      <c r="G192" s="5"/>
-      <c r="H192" s="5"/>
+      <c r="G192" s="6"/>
+      <c r="H192" s="6"/>
     </row>
     <row r="193" ht="15.0" customHeight="1">
-      <c r="G193" s="5"/>
-      <c r="H193" s="5"/>
+      <c r="G193" s="6"/>
+      <c r="H193" s="6"/>
     </row>
     <row r="194" ht="15.0" customHeight="1">
-      <c r="G194" s="5"/>
-      <c r="H194" s="5"/>
+      <c r="G194" s="6"/>
+      <c r="H194" s="6"/>
     </row>
     <row r="195" ht="15.0" customHeight="1">
-      <c r="G195" s="5"/>
-      <c r="H195" s="5"/>
+      <c r="G195" s="6"/>
+      <c r="H195" s="6"/>
     </row>
     <row r="196" ht="15.0" customHeight="1">
-      <c r="G196" s="5"/>
-      <c r="H196" s="5"/>
+      <c r="G196" s="6"/>
+      <c r="H196" s="6"/>
     </row>
     <row r="197" ht="15.0" customHeight="1">
-      <c r="G197" s="5"/>
-      <c r="H197" s="5"/>
+      <c r="G197" s="6"/>
+      <c r="H197" s="6"/>
     </row>
     <row r="198" ht="15.0" customHeight="1">
-      <c r="G198" s="5"/>
-      <c r="H198" s="5"/>
+      <c r="G198" s="6"/>
+      <c r="H198" s="6"/>
     </row>
     <row r="199" ht="15.0" customHeight="1">
-      <c r="G199" s="5"/>
-      <c r="H199" s="5"/>
+      <c r="G199" s="6"/>
+      <c r="H199" s="6"/>
     </row>
     <row r="200" ht="15.0" customHeight="1">
-      <c r="G200" s="5"/>
-      <c r="H200" s="5"/>
+      <c r="G200" s="6"/>
+      <c r="H200" s="6"/>
     </row>
     <row r="201" ht="15.0" customHeight="1">
-      <c r="G201" s="5"/>
-      <c r="H201" s="5"/>
+      <c r="G201" s="6"/>
+      <c r="H201" s="6"/>
     </row>
     <row r="202" ht="15.0" customHeight="1">
-      <c r="G202" s="5"/>
-      <c r="H202" s="5"/>
+      <c r="G202" s="6"/>
+      <c r="H202" s="6"/>
     </row>
     <row r="203" ht="15.0" customHeight="1">
-      <c r="G203" s="5"/>
-      <c r="H203" s="5"/>
+      <c r="G203" s="6"/>
+      <c r="H203" s="6"/>
     </row>
     <row r="204" ht="15.0" customHeight="1">
-      <c r="G204" s="5"/>
-      <c r="H204" s="5"/>
+      <c r="G204" s="6"/>
+      <c r="H204" s="6"/>
     </row>
     <row r="205" ht="15.0" customHeight="1">
-      <c r="G205" s="5"/>
-      <c r="H205" s="5"/>
+      <c r="G205" s="6"/>
+      <c r="H205" s="6"/>
     </row>
     <row r="206" ht="15.0" customHeight="1">
-      <c r="G206" s="5"/>
-      <c r="H206" s="5"/>
+      <c r="G206" s="6"/>
+      <c r="H206" s="6"/>
     </row>
     <row r="207" ht="15.0" customHeight="1">
-      <c r="G207" s="5"/>
-      <c r="H207" s="5"/>
+      <c r="G207" s="6"/>
+      <c r="H207" s="6"/>
     </row>
     <row r="208" ht="15.0" customHeight="1">
-      <c r="G208" s="5"/>
-      <c r="H208" s="5"/>
+      <c r="G208" s="6"/>
+      <c r="H208" s="6"/>
     </row>
     <row r="209" ht="15.0" customHeight="1">
-      <c r="G209" s="5"/>
-      <c r="H209" s="5"/>
+      <c r="G209" s="6"/>
+      <c r="H209" s="6"/>
     </row>
     <row r="210" ht="15.0" customHeight="1">
-      <c r="G210" s="5"/>
-      <c r="H210" s="5"/>
+      <c r="G210" s="6"/>
+      <c r="H210" s="6"/>
     </row>
     <row r="211" ht="15.0" customHeight="1">
-      <c r="G211" s="5"/>
-      <c r="H211" s="5"/>
+      <c r="G211" s="6"/>
+      <c r="H211" s="6"/>
     </row>
     <row r="212" ht="15.0" customHeight="1">
-      <c r="G212" s="5"/>
-      <c r="H212" s="5"/>
+      <c r="G212" s="6"/>
+      <c r="H212" s="6"/>
     </row>
     <row r="213" ht="15.0" customHeight="1">
-      <c r="G213" s="5"/>
-      <c r="H213" s="5"/>
+      <c r="G213" s="6"/>
+      <c r="H213" s="6"/>
     </row>
     <row r="214" ht="15.0" customHeight="1">
-      <c r="G214" s="5"/>
-      <c r="H214" s="5"/>
+      <c r="G214" s="6"/>
+      <c r="H214" s="6"/>
     </row>
     <row r="215" ht="15.0" customHeight="1">
-      <c r="G215" s="5"/>
-      <c r="H215" s="5"/>
+      <c r="G215" s="6"/>
+      <c r="H215" s="6"/>
     </row>
     <row r="216" ht="15.0" customHeight="1">
-      <c r="G216" s="5"/>
-      <c r="H216" s="5"/>
+      <c r="G216" s="6"/>
+      <c r="H216" s="6"/>
     </row>
     <row r="217" ht="15.0" customHeight="1">
-      <c r="G217" s="5"/>
-      <c r="H217" s="5"/>
+      <c r="G217" s="6"/>
+      <c r="H217" s="6"/>
     </row>
     <row r="218" ht="15.0" customHeight="1">
-      <c r="G218" s="5"/>
-      <c r="H218" s="5"/>
+      <c r="G218" s="6"/>
+      <c r="H218" s="6"/>
     </row>
     <row r="219" ht="15.0" customHeight="1">
-      <c r="G219" s="5"/>
-      <c r="H219" s="5"/>
+      <c r="G219" s="6"/>
+      <c r="H219" s="6"/>
     </row>
     <row r="220" ht="15.0" customHeight="1">
-      <c r="G220" s="5"/>
-      <c r="H220" s="5"/>
+      <c r="G220" s="6"/>
+      <c r="H220" s="6"/>
     </row>
     <row r="221" ht="15.75" customHeight="1">
-      <c r="G221" s="5"/>
-      <c r="H221" s="5"/>
+      <c r="G221" s="6"/>
+      <c r="H221" s="6"/>
     </row>
     <row r="222" ht="15.75" customHeight="1">
-      <c r="G222" s="5"/>
-      <c r="H222" s="5"/>
+      <c r="G222" s="6"/>
+      <c r="H222" s="6"/>
     </row>
     <row r="223" ht="15.75" customHeight="1">
-      <c r="G223" s="5"/>
-      <c r="H223" s="5"/>
+      <c r="G223" s="6"/>
+      <c r="H223" s="6"/>
     </row>
     <row r="224" ht="15.75" customHeight="1">
-      <c r="G224" s="5"/>
-      <c r="H224" s="5"/>
+      <c r="G224" s="6"/>
+      <c r="H224" s="6"/>
     </row>
     <row r="225" ht="15.75" customHeight="1">
-      <c r="G225" s="5"/>
-      <c r="H225" s="5"/>
+      <c r="G225" s="6"/>
+      <c r="H225" s="6"/>
     </row>
     <row r="226" ht="15.75" customHeight="1">
-      <c r="G226" s="5"/>
-      <c r="H226" s="5"/>
+      <c r="G226" s="6"/>
+      <c r="H226" s="6"/>
     </row>
     <row r="227" ht="15.75" customHeight="1">
-      <c r="G227" s="5"/>
-      <c r="H227" s="5"/>
+      <c r="G227" s="6"/>
+      <c r="H227" s="6"/>
     </row>
     <row r="228" ht="15.75" customHeight="1">
-      <c r="G228" s="5"/>
-      <c r="H228" s="5"/>
+      <c r="G228" s="6"/>
+      <c r="H228" s="6"/>
     </row>
     <row r="229" ht="15.75" customHeight="1">
-      <c r="G229" s="5"/>
-      <c r="H229" s="5"/>
+      <c r="G229" s="6"/>
+      <c r="H229" s="6"/>
     </row>
     <row r="230" ht="15.75" customHeight="1">
-      <c r="G230" s="5"/>
-      <c r="H230" s="5"/>
+      <c r="G230" s="6"/>
+      <c r="H230" s="6"/>
     </row>
     <row r="231" ht="15.75" customHeight="1">
-      <c r="G231" s="5"/>
-      <c r="H231" s="5"/>
+      <c r="G231" s="6"/>
+      <c r="H231" s="6"/>
     </row>
     <row r="232" ht="15.75" customHeight="1">
-      <c r="G232" s="5"/>
-      <c r="H232" s="5"/>
+      <c r="G232" s="6"/>
+      <c r="H232" s="6"/>
     </row>
     <row r="233" ht="15.75" customHeight="1">
-      <c r="G233" s="5"/>
-      <c r="H233" s="5"/>
+      <c r="G233" s="6"/>
+      <c r="H233" s="6"/>
     </row>
     <row r="234" ht="15.75" customHeight="1">
-      <c r="G234" s="5"/>
-      <c r="H234" s="5"/>
+      <c r="G234" s="6"/>
+      <c r="H234" s="6"/>
     </row>
     <row r="235" ht="15.75" customHeight="1">
-      <c r="G235" s="5"/>
-      <c r="H235" s="5"/>
+      <c r="G235" s="6"/>
+      <c r="H235" s="6"/>
     </row>
     <row r="236" ht="15.75" customHeight="1">
-      <c r="G236" s="5"/>
-      <c r="H236" s="5"/>
+      <c r="G236" s="6"/>
+      <c r="H236" s="6"/>
     </row>
     <row r="237" ht="15.75" customHeight="1">
-      <c r="G237" s="5"/>
-      <c r="H237" s="5"/>
+      <c r="G237" s="6"/>
+      <c r="H237" s="6"/>
     </row>
     <row r="238" ht="15.75" customHeight="1">
-      <c r="G238" s="5"/>
-      <c r="H238" s="5"/>
+      <c r="G238" s="6"/>
+      <c r="H238" s="6"/>
     </row>
     <row r="239" ht="15.75" customHeight="1">
-      <c r="G239" s="5"/>
-      <c r="H239" s="5"/>
+      <c r="G239" s="6"/>
+      <c r="H239" s="6"/>
     </row>
     <row r="240" ht="15.75" customHeight="1">
-      <c r="G240" s="5"/>
-      <c r="H240" s="5"/>
+      <c r="G240" s="6"/>
+      <c r="H240" s="6"/>
     </row>
     <row r="241" ht="15.75" customHeight="1">
-      <c r="G241" s="5"/>
-      <c r="H241" s="5"/>
+      <c r="G241" s="6"/>
+      <c r="H241" s="6"/>
     </row>
     <row r="242" ht="15.75" customHeight="1">
-      <c r="G242" s="5"/>
-      <c r="H242" s="5"/>
+      <c r="G242" s="6"/>
+      <c r="H242" s="6"/>
     </row>
     <row r="243" ht="15.75" customHeight="1">
-      <c r="G243" s="5"/>
-      <c r="H243" s="5"/>
+      <c r="G243" s="6"/>
+      <c r="H243" s="6"/>
     </row>
     <row r="244" ht="15.75" customHeight="1">
-      <c r="G244" s="5"/>
-      <c r="H244" s="5"/>
+      <c r="G244" s="6"/>
+      <c r="H244" s="6"/>
     </row>
     <row r="245" ht="15.75" customHeight="1">
-      <c r="G245" s="5"/>
-      <c r="H245" s="5"/>
+      <c r="G245" s="6"/>
+      <c r="H245" s="6"/>
     </row>
     <row r="246" ht="15.75" customHeight="1">
-      <c r="G246" s="5"/>
-      <c r="H246" s="5"/>
+      <c r="G246" s="6"/>
+      <c r="H246" s="6"/>
     </row>
     <row r="247" ht="15.75" customHeight="1">
-      <c r="G247" s="5"/>
-      <c r="H247" s="5"/>
+      <c r="G247" s="6"/>
+      <c r="H247" s="6"/>
     </row>
     <row r="248" ht="15.75" customHeight="1">
-      <c r="G248" s="5"/>
-      <c r="H248" s="5"/>
+      <c r="G248" s="6"/>
+      <c r="H248" s="6"/>
     </row>
     <row r="249" ht="15.75" customHeight="1">
-      <c r="G249" s="5"/>
-      <c r="H249" s="5"/>
+      <c r="G249" s="6"/>
+      <c r="H249" s="6"/>
     </row>
     <row r="250" ht="15.75" customHeight="1">
-      <c r="G250" s="5"/>
-      <c r="H250" s="5"/>
+      <c r="G250" s="6"/>
+      <c r="H250" s="6"/>
     </row>
     <row r="251" ht="15.75" customHeight="1">
-      <c r="G251" s="5"/>
-      <c r="H251" s="5"/>
+      <c r="G251" s="6"/>
+      <c r="H251" s="6"/>
     </row>
     <row r="252" ht="15.75" customHeight="1">
-      <c r="G252" s="5"/>
-      <c r="H252" s="5"/>
+      <c r="G252" s="6"/>
+      <c r="H252" s="6"/>
     </row>
     <row r="253" ht="15.75" customHeight="1">
-      <c r="G253" s="5"/>
-      <c r="H253" s="5"/>
+      <c r="G253" s="6"/>
+      <c r="H253" s="6"/>
     </row>
     <row r="254" ht="15.75" customHeight="1">
-      <c r="G254" s="5"/>
-      <c r="H254" s="5"/>
+      <c r="G254" s="6"/>
+      <c r="H254" s="6"/>
     </row>
     <row r="255" ht="15.75" customHeight="1">
-      <c r="G255" s="5"/>
-      <c r="H255" s="5"/>
+      <c r="G255" s="6"/>
+      <c r="H255" s="6"/>
     </row>
     <row r="256" ht="15.75" customHeight="1">
-      <c r="G256" s="5"/>
-      <c r="H256" s="5"/>
+      <c r="G256" s="6"/>
+      <c r="H256" s="6"/>
     </row>
     <row r="257" ht="15.75" customHeight="1">
-      <c r="G257" s="5"/>
-      <c r="H257" s="5"/>
+      <c r="G257" s="6"/>
+      <c r="H257" s="6"/>
     </row>
     <row r="258" ht="15.75" customHeight="1">
-      <c r="G258" s="5"/>
-      <c r="H258" s="5"/>
+      <c r="G258" s="6"/>
+      <c r="H258" s="6"/>
     </row>
     <row r="259" ht="15.75" customHeight="1">
-      <c r="G259" s="5"/>
-      <c r="H259" s="5"/>
+      <c r="G259" s="6"/>
+      <c r="H259" s="6"/>
     </row>
     <row r="260" ht="15.75" customHeight="1">
-      <c r="G260" s="5"/>
-      <c r="H260" s="5"/>
+      <c r="G260" s="6"/>
+      <c r="H260" s="6"/>
     </row>
     <row r="261" ht="15.75" customHeight="1">
-      <c r="G261" s="5"/>
-      <c r="H261" s="5"/>
+      <c r="G261" s="6"/>
+      <c r="H261" s="6"/>
     </row>
     <row r="262" ht="15.75" customHeight="1">
-      <c r="G262" s="5"/>
-      <c r="H262" s="5"/>
+      <c r="G262" s="6"/>
+      <c r="H262" s="6"/>
     </row>
     <row r="263" ht="15.75" customHeight="1">
-      <c r="G263" s="5"/>
-      <c r="H263" s="5"/>
+      <c r="G263" s="6"/>
+      <c r="H263" s="6"/>
     </row>
     <row r="264" ht="15.75" customHeight="1">
-      <c r="G264" s="5"/>
-      <c r="H264" s="5"/>
+      <c r="G264" s="6"/>
+      <c r="H264" s="6"/>
     </row>
     <row r="265" ht="15.75" customHeight="1">
-      <c r="G265" s="5"/>
-      <c r="H265" s="5"/>
+      <c r="G265" s="6"/>
+      <c r="H265" s="6"/>
     </row>
     <row r="266" ht="15.75" customHeight="1">
-      <c r="G266" s="5"/>
-      <c r="H266" s="5"/>
+      <c r="G266" s="6"/>
+      <c r="H266" s="6"/>
     </row>
     <row r="267" ht="15.75" customHeight="1">
-      <c r="G267" s="5"/>
-      <c r="H267" s="5"/>
+      <c r="G267" s="6"/>
+      <c r="H267" s="6"/>
     </row>
     <row r="268" ht="15.75" customHeight="1">
-      <c r="G268" s="5"/>
-      <c r="H268" s="5"/>
+      <c r="G268" s="6"/>
+      <c r="H268" s="6"/>
     </row>
     <row r="269" ht="15.75" customHeight="1">
-      <c r="G269" s="5"/>
-      <c r="H269" s="5"/>
+      <c r="G269" s="6"/>
+      <c r="H269" s="6"/>
     </row>
     <row r="270" ht="15.75" customHeight="1">
-      <c r="G270" s="5"/>
-      <c r="H270" s="5"/>
+      <c r="G270" s="6"/>
+      <c r="H270" s="6"/>
     </row>
     <row r="271" ht="15.75" customHeight="1">
-      <c r="G271" s="5"/>
-      <c r="H271" s="5"/>
+      <c r="G271" s="6"/>
+      <c r="H271" s="6"/>
     </row>
     <row r="272" ht="15.75" customHeight="1">
-      <c r="G272" s="5"/>
-      <c r="H272" s="5"/>
+      <c r="G272" s="6"/>
+      <c r="H272" s="6"/>
     </row>
     <row r="273" ht="15.75" customHeight="1">
-      <c r="G273" s="5"/>
-      <c r="H273" s="5"/>
+      <c r="G273" s="6"/>
+      <c r="H273" s="6"/>
     </row>
     <row r="274" ht="15.75" customHeight="1">
-      <c r="G274" s="5"/>
-      <c r="H274" s="5"/>
+      <c r="G274" s="6"/>
+      <c r="H274" s="6"/>
     </row>
     <row r="275" ht="15.75" customHeight="1">
-      <c r="G275" s="5"/>
-      <c r="H275" s="5"/>
+      <c r="G275" s="6"/>
+      <c r="H275" s="6"/>
     </row>
     <row r="276" ht="15.75" customHeight="1">
-      <c r="G276" s="5"/>
-      <c r="H276" s="5"/>
+      <c r="G276" s="6"/>
+      <c r="H276" s="6"/>
     </row>
     <row r="277" ht="15.75" customHeight="1">
-      <c r="G277" s="5"/>
-      <c r="H277" s="5"/>
+      <c r="G277" s="6"/>
+      <c r="H277" s="6"/>
     </row>
     <row r="278" ht="15.75" customHeight="1">
-      <c r="G278" s="5"/>
-      <c r="H278" s="5"/>
+      <c r="G278" s="6"/>
+      <c r="H278" s="6"/>
     </row>
     <row r="279" ht="15.75" customHeight="1">
-      <c r="G279" s="5"/>
-      <c r="H279" s="5"/>
+      <c r="G279" s="6"/>
+      <c r="H279" s="6"/>
     </row>
     <row r="280" ht="15.75" customHeight="1">
-      <c r="G280" s="5"/>
-      <c r="H280" s="5"/>
+      <c r="G280" s="6"/>
+      <c r="H280" s="6"/>
     </row>
     <row r="281" ht="15.75" customHeight="1">
-      <c r="G281" s="5"/>
-      <c r="H281" s="5"/>
+      <c r="G281" s="6"/>
+      <c r="H281" s="6"/>
     </row>
     <row r="282" ht="15.75" customHeight="1">
-      <c r="G282" s="5"/>
-      <c r="H282" s="5"/>
+      <c r="G282" s="6"/>
+      <c r="H282" s="6"/>
     </row>
     <row r="283" ht="15.75" customHeight="1">
-      <c r="G283" s="5"/>
-      <c r="H283" s="5"/>
+      <c r="G283" s="6"/>
+      <c r="H283" s="6"/>
     </row>
     <row r="284" ht="15.75" customHeight="1">
-      <c r="G284" s="5"/>
-      <c r="H284" s="5"/>
+      <c r="G284" s="6"/>
+      <c r="H284" s="6"/>
     </row>
     <row r="285" ht="15.75" customHeight="1">
-      <c r="G285" s="5"/>
-      <c r="H285" s="5"/>
+      <c r="G285" s="6"/>
+      <c r="H285" s="6"/>
     </row>
     <row r="286" ht="15.75" customHeight="1">
-      <c r="G286" s="5"/>
-      <c r="H286" s="5"/>
+      <c r="G286" s="6"/>
+      <c r="H286" s="6"/>
     </row>
     <row r="287" ht="15.75" customHeight="1">
-      <c r="G287" s="5"/>
-      <c r="H287" s="5"/>
+      <c r="G287" s="6"/>
+      <c r="H287" s="6"/>
     </row>
     <row r="288" ht="15.75" customHeight="1">
-      <c r="G288" s="5"/>
-      <c r="H288" s="5"/>
+      <c r="G288" s="6"/>
+      <c r="H288" s="6"/>
     </row>
     <row r="289" ht="15.75" customHeight="1">
-      <c r="G289" s="5"/>
-      <c r="H289" s="5"/>
+      <c r="G289" s="6"/>
+      <c r="H289" s="6"/>
     </row>
     <row r="290" ht="15.75" customHeight="1">
-      <c r="G290" s="5"/>
-      <c r="H290" s="5"/>
+      <c r="G290" s="6"/>
+      <c r="H290" s="6"/>
     </row>
     <row r="291" ht="15.75" customHeight="1">
-      <c r="G291" s="5"/>
-      <c r="H291" s="5"/>
+      <c r="G291" s="6"/>
+      <c r="H291" s="6"/>
     </row>
     <row r="292" ht="15.75" customHeight="1">
-      <c r="G292" s="5"/>
-      <c r="H292" s="5"/>
+      <c r="G292" s="6"/>
+      <c r="H292" s="6"/>
     </row>
     <row r="293" ht="15.75" customHeight="1">
-      <c r="G293" s="5"/>
-      <c r="H293" s="5"/>
+      <c r="G293" s="6"/>
+      <c r="H293" s="6"/>
     </row>
     <row r="294" ht="15.75" customHeight="1">
-      <c r="G294" s="5"/>
-      <c r="H294" s="5"/>
+      <c r="G294" s="6"/>
+      <c r="H294" s="6"/>
     </row>
     <row r="295" ht="15.75" customHeight="1">
-      <c r="G295" s="5"/>
-      <c r="H295" s="5"/>
+      <c r="G295" s="6"/>
+      <c r="H295" s="6"/>
     </row>
     <row r="296" ht="15.75" customHeight="1">
-      <c r="G296" s="5"/>
-      <c r="H296" s="5"/>
+      <c r="G296" s="6"/>
+      <c r="H296" s="6"/>
     </row>
     <row r="297" ht="15.75" customHeight="1">
-      <c r="G297" s="5"/>
-      <c r="H297" s="5"/>
+      <c r="G297" s="6"/>
+      <c r="H297" s="6"/>
     </row>
     <row r="298" ht="15.75" customHeight="1">
-      <c r="G298" s="5"/>
-      <c r="H298" s="5"/>
+      <c r="G298" s="6"/>
+      <c r="H298" s="6"/>
     </row>
     <row r="299" ht="15.75" customHeight="1">
-      <c r="G299" s="5"/>
-      <c r="H299" s="5"/>
+      <c r="G299" s="6"/>
+      <c r="H299" s="6"/>
     </row>
     <row r="300" ht="15.75" customHeight="1">
-      <c r="G300" s="5"/>
-      <c r="H300" s="5"/>
+      <c r="G300" s="6"/>
+      <c r="H300" s="6"/>
     </row>
     <row r="301" ht="15.75" customHeight="1">
-      <c r="G301" s="5"/>
-      <c r="H301" s="5"/>
+      <c r="G301" s="6"/>
+      <c r="H301" s="6"/>
     </row>
     <row r="302" ht="15.75" customHeight="1">
-      <c r="G302" s="5"/>
-      <c r="H302" s="5"/>
+      <c r="G302" s="6"/>
+      <c r="H302" s="6"/>
     </row>
     <row r="303" ht="15.75" customHeight="1">
-      <c r="G303" s="5"/>
-      <c r="H303" s="5"/>
+      <c r="G303" s="6"/>
+      <c r="H303" s="6"/>
     </row>
     <row r="304" ht="15.75" customHeight="1">
-      <c r="G304" s="5"/>
-      <c r="H304" s="5"/>
+      <c r="G304" s="6"/>
+      <c r="H304" s="6"/>
     </row>
     <row r="305" ht="15.75" customHeight="1">
-      <c r="G305" s="5"/>
-      <c r="H305" s="5"/>
+      <c r="G305" s="6"/>
+      <c r="H305" s="6"/>
     </row>
     <row r="306" ht="15.75" customHeight="1">
-      <c r="G306" s="5"/>
-      <c r="H306" s="5"/>
+      <c r="G306" s="6"/>
+      <c r="H306" s="6"/>
     </row>
     <row r="307" ht="15.75" customHeight="1">
-      <c r="G307" s="5"/>
-      <c r="H307" s="5"/>
+      <c r="G307" s="6"/>
+      <c r="H307" s="6"/>
     </row>
     <row r="308" ht="15.75" customHeight="1">
-      <c r="G308" s="5"/>
-      <c r="H308" s="5"/>
+      <c r="G308" s="6"/>
+      <c r="H308" s="6"/>
     </row>
     <row r="309" ht="15.75" customHeight="1">
-      <c r="G309" s="5"/>
-      <c r="H309" s="5"/>
+      <c r="G309" s="6"/>
+      <c r="H309" s="6"/>
     </row>
     <row r="310" ht="15.75" customHeight="1">
-      <c r="G310" s="5"/>
-      <c r="H310" s="5"/>
+      <c r="G310" s="6"/>
+      <c r="H310" s="6"/>
     </row>
     <row r="311" ht="15.75" customHeight="1">
-      <c r="G311" s="5"/>
-      <c r="H311" s="5"/>
+      <c r="G311" s="6"/>
+      <c r="H311" s="6"/>
     </row>
     <row r="312" ht="15.75" customHeight="1">
-      <c r="G312" s="5"/>
-      <c r="H312" s="5"/>
+      <c r="G312" s="6"/>
+      <c r="H312" s="6"/>
     </row>
     <row r="313" ht="15.75" customHeight="1">
-      <c r="G313" s="5"/>
-      <c r="H313" s="5"/>
+      <c r="G313" s="6"/>
+      <c r="H313" s="6"/>
     </row>
     <row r="314" ht="15.75" customHeight="1">
-      <c r="G314" s="5"/>
-      <c r="H314" s="5"/>
+      <c r="G314" s="6"/>
+      <c r="H314" s="6"/>
     </row>
     <row r="315" ht="15.75" customHeight="1">
-      <c r="G315" s="5"/>
-      <c r="H315" s="5"/>
+      <c r="G315" s="6"/>
+      <c r="H315" s="6"/>
     </row>
     <row r="316" ht="15.75" customHeight="1">
-      <c r="G316" s="5"/>
-      <c r="H316" s="5"/>
+      <c r="G316" s="6"/>
+      <c r="H316" s="6"/>
     </row>
     <row r="317" ht="15.75" customHeight="1">
-      <c r="G317" s="5"/>
-      <c r="H317" s="5"/>
+      <c r="G317" s="6"/>
+      <c r="H317" s="6"/>
     </row>
     <row r="318" ht="15.75" customHeight="1">
-      <c r="G318" s="5"/>
-      <c r="H318" s="5"/>
+      <c r="G318" s="6"/>
+      <c r="H318" s="6"/>
     </row>
     <row r="319" ht="15.75" customHeight="1">
-      <c r="G319" s="5"/>
-      <c r="H319" s="5"/>
+      <c r="G319" s="6"/>
+      <c r="H319" s="6"/>
     </row>
     <row r="320" ht="15.75" customHeight="1">
-      <c r="G320" s="5"/>
-      <c r="H320" s="5"/>
+      <c r="G320" s="6"/>
+      <c r="H320" s="6"/>
     </row>
     <row r="321" ht="15.75" customHeight="1">
-      <c r="G321" s="5"/>
-      <c r="H321" s="5"/>
+      <c r="G321" s="6"/>
+      <c r="H321" s="6"/>
     </row>
     <row r="322" ht="15.75" customHeight="1">
-      <c r="G322" s="5"/>
-      <c r="H322" s="5"/>
+      <c r="G322" s="6"/>
+      <c r="H322" s="6"/>
     </row>
     <row r="323" ht="15.75" customHeight="1">
-      <c r="G323" s="5"/>
-      <c r="H323" s="5"/>
+      <c r="G323" s="6"/>
+      <c r="H323" s="6"/>
     </row>
     <row r="324" ht="15.75" customHeight="1">
-      <c r="G324" s="5"/>
-      <c r="H324" s="5"/>
+      <c r="G324" s="6"/>
+      <c r="H324" s="6"/>
     </row>
     <row r="325" ht="15.75" customHeight="1">
-      <c r="G325" s="5"/>
-      <c r="H325" s="5"/>
+      <c r="G325" s="6"/>
+      <c r="H325" s="6"/>
     </row>
     <row r="326" ht="15.75" customHeight="1">
-      <c r="G326" s="5"/>
-      <c r="H326" s="5"/>
+      <c r="G326" s="6"/>
+      <c r="H326" s="6"/>
     </row>
     <row r="327" ht="15.75" customHeight="1">
-      <c r="G327" s="5"/>
-      <c r="H327" s="5"/>
+      <c r="G327" s="6"/>
+      <c r="H327" s="6"/>
     </row>
     <row r="328" ht="15.75" customHeight="1">
-      <c r="G328" s="5"/>
-      <c r="H328" s="5"/>
+      <c r="G328" s="6"/>
+      <c r="H328" s="6"/>
     </row>
     <row r="329" ht="15.75" customHeight="1">
-      <c r="G329" s="5"/>
-      <c r="H329" s="5"/>
+      <c r="G329" s="6"/>
+      <c r="H329" s="6"/>
     </row>
     <row r="330" ht="15.75" customHeight="1">
-      <c r="G330" s="5"/>
-      <c r="H330" s="5"/>
+      <c r="G330" s="6"/>
+      <c r="H330" s="6"/>
     </row>
     <row r="331" ht="15.75" customHeight="1">
-      <c r="G331" s="5"/>
-      <c r="H331" s="5"/>
+      <c r="G331" s="6"/>
+      <c r="H331" s="6"/>
     </row>
     <row r="332" ht="15.75" customHeight="1">
-      <c r="G332" s="5"/>
-      <c r="H332" s="5"/>
+      <c r="G332" s="6"/>
+      <c r="H332" s="6"/>
     </row>
     <row r="333" ht="15.75" customHeight="1">
-      <c r="G333" s="5"/>
-      <c r="H333" s="5"/>
+      <c r="G333" s="6"/>
+      <c r="H333" s="6"/>
     </row>
     <row r="334" ht="15.75" customHeight="1">
-      <c r="G334" s="5"/>
-      <c r="H334" s="5"/>
+      <c r="G334" s="6"/>
+      <c r="H334" s="6"/>
     </row>
     <row r="335" ht="15.75" customHeight="1">
-      <c r="G335" s="5"/>
-      <c r="H335" s="5"/>
+      <c r="G335" s="6"/>
+      <c r="H335" s="6"/>
     </row>
     <row r="336" ht="15.75" customHeight="1">
-      <c r="G336" s="5"/>
-      <c r="H336" s="5"/>
+      <c r="G336" s="6"/>
+      <c r="H336" s="6"/>
     </row>
     <row r="337" ht="15.75" customHeight="1">
-      <c r="G337" s="5"/>
-      <c r="H337" s="5"/>
+      <c r="G337" s="6"/>
+      <c r="H337" s="6"/>
     </row>
     <row r="338" ht="15.75" customHeight="1">
-      <c r="G338" s="5"/>
-      <c r="H338" s="5"/>
+      <c r="G338" s="6"/>
+      <c r="H338" s="6"/>
     </row>
     <row r="339" ht="15.75" customHeight="1">
-      <c r="G339" s="5"/>
-      <c r="H339" s="5"/>
+      <c r="G339" s="6"/>
+      <c r="H339" s="6"/>
     </row>
     <row r="340" ht="15.75" customHeight="1">
-      <c r="G340" s="5"/>
-      <c r="H340" s="5"/>
+      <c r="G340" s="6"/>
+      <c r="H340" s="6"/>
     </row>
     <row r="341" ht="15.75" customHeight="1">
-      <c r="G341" s="5"/>
-      <c r="H341" s="5"/>
+      <c r="G341" s="6"/>
+      <c r="H341" s="6"/>
     </row>
     <row r="342" ht="15.75" customHeight="1">
-      <c r="G342" s="5"/>
-      <c r="H342" s="5"/>
+      <c r="G342" s="6"/>
+      <c r="H342" s="6"/>
     </row>
     <row r="343" ht="15.75" customHeight="1">
-      <c r="G343" s="5"/>
-      <c r="H343" s="5"/>
+      <c r="G343" s="6"/>
+      <c r="H343" s="6"/>
     </row>
     <row r="344" ht="15.75" customHeight="1">
-      <c r="G344" s="5"/>
-      <c r="H344" s="5"/>
+      <c r="G344" s="6"/>
+      <c r="H344" s="6"/>
     </row>
     <row r="345" ht="15.75" customHeight="1">
-      <c r="G345" s="5"/>
-      <c r="H345" s="5"/>
+      <c r="G345" s="6"/>
+      <c r="H345" s="6"/>
     </row>
     <row r="346" ht="15.75" customHeight="1">
-      <c r="G346" s="5"/>
-      <c r="H346" s="5"/>
+      <c r="G346" s="6"/>
+      <c r="H346" s="6"/>
     </row>
     <row r="347" ht="15.75" customHeight="1">
-      <c r="G347" s="5"/>
-      <c r="H347" s="5"/>
+      <c r="G347" s="6"/>
+      <c r="H347" s="6"/>
     </row>
     <row r="348" ht="15.75" customHeight="1">
-      <c r="G348" s="5"/>
-      <c r="H348" s="5"/>
+      <c r="G348" s="6"/>
+      <c r="H348" s="6"/>
     </row>
     <row r="349" ht="15.75" customHeight="1">
-      <c r="G349" s="5"/>
-      <c r="H349" s="5"/>
+      <c r="G349" s="6"/>
+      <c r="H349" s="6"/>
     </row>
     <row r="350" ht="15.75" customHeight="1">
-      <c r="G350" s="5"/>
-      <c r="H350" s="5"/>
+      <c r="G350" s="6"/>
+      <c r="H350" s="6"/>
     </row>
     <row r="351" ht="15.75" customHeight="1">
-      <c r="G351" s="5"/>
-      <c r="H351" s="5"/>
+      <c r="G351" s="6"/>
+      <c r="H351" s="6"/>
     </row>
     <row r="352" ht="15.75" customHeight="1">
-      <c r="G352" s="5"/>
-      <c r="H352" s="5"/>
+      <c r="G352" s="6"/>
+      <c r="H352" s="6"/>
     </row>
     <row r="353" ht="15.75" customHeight="1">
-      <c r="G353" s="5"/>
-      <c r="H353" s="5"/>
+      <c r="G353" s="6"/>
+      <c r="H353" s="6"/>
     </row>
     <row r="354" ht="15.75" customHeight="1">
-      <c r="G354" s="5"/>
-      <c r="H354" s="5"/>
+      <c r="G354" s="6"/>
+      <c r="H354" s="6"/>
     </row>
     <row r="355" ht="15.75" customHeight="1">
-      <c r="G355" s="5"/>
-      <c r="H355" s="5"/>
+      <c r="G355" s="6"/>
+      <c r="H355" s="6"/>
     </row>
     <row r="356" ht="15.75" customHeight="1">
-      <c r="G356" s="5"/>
-      <c r="H356" s="5"/>
+      <c r="G356" s="6"/>
+      <c r="H356" s="6"/>
     </row>
     <row r="357" ht="15.75" customHeight="1">
-      <c r="G357" s="5"/>
-      <c r="H357" s="5"/>
+      <c r="G357" s="6"/>
+      <c r="H357" s="6"/>
     </row>
     <row r="358" ht="15.75" customHeight="1">
-      <c r="G358" s="5"/>
-      <c r="H358" s="5"/>
+      <c r="G358" s="6"/>
+      <c r="H358" s="6"/>
     </row>
     <row r="359" ht="15.75" customHeight="1">
-      <c r="G359" s="5"/>
-      <c r="H359" s="5"/>
+      <c r="G359" s="6"/>
+      <c r="H359" s="6"/>
     </row>
     <row r="360" ht="15.75" customHeight="1">
-      <c r="G360" s="5"/>
-      <c r="H360" s="5"/>
+      <c r="G360" s="6"/>
+      <c r="H360" s="6"/>
     </row>
     <row r="361" ht="15.75" customHeight="1">
-      <c r="G361" s="5"/>
-      <c r="H361" s="5"/>
+      <c r="G361" s="6"/>
+      <c r="H361" s="6"/>
     </row>
     <row r="362" ht="15.75" customHeight="1">
-      <c r="G362" s="5"/>
-      <c r="H362" s="5"/>
+      <c r="G362" s="6"/>
+      <c r="H362" s="6"/>
     </row>
     <row r="363" ht="15.75" customHeight="1">
-      <c r="G363" s="5"/>
-      <c r="H363" s="5"/>
+      <c r="G363" s="6"/>
+      <c r="H363" s="6"/>
     </row>
     <row r="364" ht="15.75" customHeight="1">
-      <c r="G364" s="5"/>
-      <c r="H364" s="5"/>
+      <c r="G364" s="6"/>
+      <c r="H364" s="6"/>
     </row>
     <row r="365" ht="15.75" customHeight="1">
-      <c r="G365" s="5"/>
-      <c r="H365" s="5"/>
+      <c r="G365" s="6"/>
+      <c r="H365" s="6"/>
     </row>
     <row r="366" ht="15.75" customHeight="1">
-      <c r="G366" s="5"/>
-      <c r="H366" s="5"/>
+      <c r="G366" s="6"/>
+      <c r="H366" s="6"/>
     </row>
     <row r="367" ht="15.75" customHeight="1">
-      <c r="G367" s="5"/>
-      <c r="H367" s="5"/>
+      <c r="G367" s="6"/>
+      <c r="H367" s="6"/>
     </row>
     <row r="368" ht="15.75" customHeight="1">
-      <c r="G368" s="5"/>
-      <c r="H368" s="5"/>
+      <c r="G368" s="6"/>
+      <c r="H368" s="6"/>
     </row>
     <row r="369" ht="15.75" customHeight="1">
-      <c r="G369" s="5"/>
-      <c r="H369" s="5"/>
+      <c r="G369" s="6"/>
+      <c r="H369" s="6"/>
     </row>
     <row r="370" ht="15.75" customHeight="1">
-      <c r="G370" s="5"/>
-      <c r="H370" s="5"/>
+      <c r="G370" s="6"/>
+      <c r="H370" s="6"/>
     </row>
     <row r="371" ht="15.75" customHeight="1">
-      <c r="G371" s="5"/>
-      <c r="H371" s="5"/>
+      <c r="G371" s="6"/>
+      <c r="H371" s="6"/>
     </row>
     <row r="372" ht="15.75" customHeight="1">
-      <c r="G372" s="5"/>
-      <c r="H372" s="5"/>
+      <c r="G372" s="6"/>
+      <c r="H372" s="6"/>
     </row>
     <row r="373" ht="15.75" customHeight="1">
-      <c r="G373" s="5"/>
-      <c r="H373" s="5"/>
+      <c r="G373" s="6"/>
+      <c r="H373" s="6"/>
     </row>
     <row r="374" ht="15.75" customHeight="1">
-      <c r="G374" s="5"/>
-      <c r="H374" s="5"/>
+      <c r="G374" s="6"/>
+      <c r="H374" s="6"/>
     </row>
     <row r="375" ht="15.75" customHeight="1">
-      <c r="G375" s="5"/>
-      <c r="H375" s="5"/>
+      <c r="G375" s="6"/>
+      <c r="H375" s="6"/>
     </row>
     <row r="376" ht="15.75" customHeight="1">
-      <c r="G376" s="5"/>
-      <c r="H376" s="5"/>
+      <c r="G376" s="6"/>
+      <c r="H376" s="6"/>
     </row>
     <row r="377" ht="15.75" customHeight="1">
-      <c r="G377" s="5"/>
-      <c r="H377" s="5"/>
+      <c r="G377" s="6"/>
+      <c r="H377" s="6"/>
     </row>
     <row r="378" ht="15.75" customHeight="1">
-      <c r="G378" s="5"/>
-      <c r="H378" s="5"/>
+      <c r="G378" s="6"/>
+      <c r="H378" s="6"/>
     </row>
     <row r="379" ht="15.75" customHeight="1">
-      <c r="G379" s="5"/>
-      <c r="H379" s="5"/>
+      <c r="G379" s="6"/>
+      <c r="H379" s="6"/>
     </row>
     <row r="380" ht="15.75" customHeight="1">
-      <c r="G380" s="5"/>
-      <c r="H380" s="5"/>
+      <c r="G380" s="6"/>
+      <c r="H380" s="6"/>
     </row>
     <row r="381" ht="15.75" customHeight="1">
-      <c r="G381" s="5"/>
-      <c r="H381" s="5"/>
+      <c r="G381" s="6"/>
+      <c r="H381" s="6"/>
     </row>
     <row r="382" ht="15.75" customHeight="1">
-      <c r="G382" s="5"/>
-      <c r="H382" s="5"/>
+      <c r="G382" s="6"/>
+      <c r="H382" s="6"/>
     </row>
     <row r="383" ht="15.75" customHeight="1">
-      <c r="G383" s="5"/>
-      <c r="H383" s="5"/>
+      <c r="G383" s="6"/>
+      <c r="H383" s="6"/>
     </row>
     <row r="384" ht="15.75" customHeight="1">
-      <c r="G384" s="5"/>
-      <c r="H384" s="5"/>
+      <c r="G384" s="6"/>
+      <c r="H384" s="6"/>
     </row>
     <row r="385" ht="15.75" customHeight="1">
-      <c r="G385" s="5"/>
-      <c r="H385" s="5"/>
+      <c r="G385" s="6"/>
+      <c r="H385" s="6"/>
     </row>
     <row r="386" ht="15.75" customHeight="1">
-      <c r="G386" s="5"/>
-      <c r="H386" s="5"/>
+      <c r="G386" s="6"/>
+      <c r="H386" s="6"/>
     </row>
     <row r="387" ht="15.75" customHeight="1">
-      <c r="G387" s="5"/>
-      <c r="H387" s="5"/>
+      <c r="G387" s="6"/>
+      <c r="H387" s="6"/>
     </row>
     <row r="388" ht="15.75" customHeight="1">
-      <c r="G388" s="5"/>
-      <c r="H388" s="5"/>
+      <c r="G388" s="6"/>
+      <c r="H388" s="6"/>
     </row>
     <row r="389" ht="15.75" customHeight="1">
-      <c r="G389" s="5"/>
-      <c r="H389" s="5"/>
+      <c r="G389" s="6"/>
+      <c r="H389" s="6"/>
     </row>
     <row r="390" ht="15.75" customHeight="1">
-      <c r="G390" s="5"/>
-      <c r="H390" s="5"/>
+      <c r="G390" s="6"/>
+      <c r="H390" s="6"/>
     </row>
     <row r="391" ht="15.75" customHeight="1">
-      <c r="G391" s="5"/>
-      <c r="H391" s="5"/>
+      <c r="G391" s="6"/>
+      <c r="H391" s="6"/>
     </row>
     <row r="392" ht="15.75" customHeight="1">
-      <c r="G392" s="5"/>
-      <c r="H392" s="5"/>
+      <c r="G392" s="6"/>
+      <c r="H392" s="6"/>
     </row>
     <row r="393" ht="15.75" customHeight="1">
-      <c r="G393" s="5"/>
-      <c r="H393" s="5"/>
+      <c r="G393" s="6"/>
+      <c r="H393" s="6"/>
     </row>
     <row r="394" ht="15.75" customHeight="1">
-      <c r="G394" s="5"/>
-      <c r="H394" s="5"/>
+      <c r="G394" s="6"/>
+      <c r="H394" s="6"/>
     </row>
     <row r="395" ht="15.75" customHeight="1">
-      <c r="G395" s="5"/>
-      <c r="H395" s="5"/>
+      <c r="G395" s="6"/>
+      <c r="H395" s="6"/>
     </row>
     <row r="396" ht="15.75" customHeight="1">
-      <c r="G396" s="5"/>
-      <c r="H396" s="5"/>
+      <c r="G396" s="6"/>
+      <c r="H396" s="6"/>
     </row>
     <row r="397" ht="15.75" customHeight="1">
-      <c r="G397" s="5"/>
-      <c r="H397" s="5"/>
+      <c r="G397" s="6"/>
+      <c r="H397" s="6"/>
     </row>
     <row r="398" ht="15.75" customHeight="1">
-      <c r="G398" s="5"/>
-      <c r="H398" s="5"/>
+      <c r="G398" s="6"/>
+      <c r="H398" s="6"/>
     </row>
     <row r="399" ht="15.75" customHeight="1">
-      <c r="G399" s="5"/>
-      <c r="H399" s="5"/>
+      <c r="G399" s="6"/>
+      <c r="H399" s="6"/>
     </row>
     <row r="400" ht="15.75" customHeight="1">
-      <c r="G400" s="5"/>
-      <c r="H400" s="5"/>
+      <c r="G400" s="6"/>
+      <c r="H400" s="6"/>
     </row>
     <row r="401" ht="15.75" customHeight="1">
-      <c r="G401" s="5"/>
-      <c r="H401" s="5"/>
+      <c r="G401" s="6"/>
+      <c r="H401" s="6"/>
     </row>
     <row r="402" ht="15.75" customHeight="1">
-      <c r="G402" s="5"/>
-      <c r="H402" s="5"/>
+      <c r="G402" s="6"/>
+      <c r="H402" s="6"/>
     </row>
     <row r="403" ht="15.75" customHeight="1">
-      <c r="G403" s="5"/>
-      <c r="H403" s="5"/>
+      <c r="G403" s="6"/>
+      <c r="H403" s="6"/>
     </row>
     <row r="404" ht="15.75" customHeight="1">
-      <c r="G404" s="5"/>
-      <c r="H404" s="5"/>
+      <c r="G404" s="6"/>
+      <c r="H404" s="6"/>
     </row>
     <row r="405" ht="15.75" customHeight="1">
-      <c r="G405" s="5"/>
-      <c r="H405" s="5"/>
+      <c r="G405" s="6"/>
+      <c r="H405" s="6"/>
     </row>
     <row r="406" ht="15.75" customHeight="1">
-      <c r="G406" s="5"/>
-      <c r="H406" s="5"/>
+      <c r="G406" s="6"/>
+      <c r="H406" s="6"/>
     </row>
     <row r="407" ht="15.75" customHeight="1">
-      <c r="G407" s="5"/>
-      <c r="H407" s="5"/>
+      <c r="G407" s="6"/>
+      <c r="H407" s="6"/>
     </row>
     <row r="408" ht="15.75" customHeight="1">
-      <c r="G408" s="5"/>
-      <c r="H408" s="5"/>
+      <c r="G408" s="6"/>
+      <c r="H408" s="6"/>
     </row>
     <row r="409" ht="15.75" customHeight="1">
-      <c r="G409" s="5"/>
-      <c r="H409" s="5"/>
+      <c r="G409" s="6"/>
+      <c r="H409" s="6"/>
     </row>
     <row r="410" ht="15.75" customHeight="1">
-      <c r="G410" s="5"/>
-      <c r="H410" s="5"/>
+      <c r="G410" s="6"/>
+      <c r="H410" s="6"/>
     </row>
     <row r="411" ht="15.75" customHeight="1">
-      <c r="G411" s="5"/>
-      <c r="H411" s="5"/>
+      <c r="G411" s="6"/>
+      <c r="H411" s="6"/>
     </row>
     <row r="412" ht="15.75" customHeight="1">
-      <c r="G412" s="5"/>
-      <c r="H412" s="5"/>
+      <c r="G412" s="6"/>
+      <c r="H412" s="6"/>
     </row>
     <row r="413" ht="15.75" customHeight="1">
-      <c r="G413" s="5"/>
-      <c r="H413" s="5"/>
+      <c r="G413" s="6"/>
+      <c r="H413" s="6"/>
     </row>
     <row r="414" ht="15.75" customHeight="1">
-      <c r="G414" s="5"/>
-      <c r="H414" s="5"/>
+      <c r="G414" s="6"/>
+      <c r="H414" s="6"/>
     </row>
     <row r="415" ht="15.75" customHeight="1">
-      <c r="G415" s="5"/>
-      <c r="H415" s="5"/>
+      <c r="G415" s="6"/>
+      <c r="H415" s="6"/>
     </row>
     <row r="416" ht="15.75" customHeight="1">
-      <c r="G416" s="5"/>
-      <c r="H416" s="5"/>
+      <c r="G416" s="6"/>
+      <c r="H416" s="6"/>
     </row>
     <row r="417" ht="15.75" customHeight="1">
-      <c r="G417" s="5"/>
-      <c r="H417" s="5"/>
+      <c r="G417" s="6"/>
+      <c r="H417" s="6"/>
     </row>
     <row r="418" ht="15.75" customHeight="1">
-      <c r="G418" s="5"/>
-      <c r="H418" s="5"/>
+      <c r="G418" s="6"/>
+      <c r="H418" s="6"/>
     </row>
     <row r="419" ht="15.75" customHeight="1">
-      <c r="G419" s="5"/>
-      <c r="H419" s="5"/>
+      <c r="G419" s="6"/>
+      <c r="H419" s="6"/>
     </row>
     <row r="420" ht="15.75" customHeight="1">
-      <c r="G420" s="5"/>
-      <c r="H420" s="5"/>
+      <c r="G420" s="6"/>
+      <c r="H420" s="6"/>
     </row>
     <row r="421" ht="15.75" customHeight="1">
-      <c r="G421" s="5"/>
-      <c r="H421" s="5"/>
+      <c r="G421" s="6"/>
+      <c r="H421" s="6"/>
     </row>
     <row r="422" ht="15.75" customHeight="1">
-      <c r="G422" s="5"/>
-      <c r="H422" s="5"/>
+      <c r="G422" s="6"/>
+      <c r="H422" s="6"/>
     </row>
     <row r="423" ht="15.75" customHeight="1">
-      <c r="G423" s="5"/>
-      <c r="H423" s="5"/>
+      <c r="G423" s="6"/>
+      <c r="H423" s="6"/>
     </row>
     <row r="424" ht="15.75" customHeight="1">
-      <c r="G424" s="5"/>
-      <c r="H424" s="5"/>
+      <c r="G424" s="6"/>
+      <c r="H424" s="6"/>
     </row>
     <row r="425" ht="15.75" customHeight="1">
-      <c r="G425" s="5"/>
-      <c r="H425" s="5"/>
+      <c r="G425" s="6"/>
+      <c r="H425" s="6"/>
     </row>
     <row r="426" ht="15.75" customHeight="1">
-      <c r="G426" s="5"/>
-      <c r="H426" s="5"/>
+      <c r="G426" s="6"/>
+      <c r="H426" s="6"/>
     </row>
     <row r="427" ht="15.75" customHeight="1">
-      <c r="G427" s="5"/>
-      <c r="H427" s="5"/>
+      <c r="G427" s="6"/>
+      <c r="H427" s="6"/>
     </row>
     <row r="428" ht="15.75" customHeight="1">
-      <c r="G428" s="5"/>
-      <c r="H428" s="5"/>
+      <c r="G428" s="6"/>
+      <c r="H428" s="6"/>
     </row>
     <row r="429" ht="15.75" customHeight="1">
-      <c r="G429" s="5"/>
-      <c r="H429" s="5"/>
+      <c r="G429" s="6"/>
+      <c r="H429" s="6"/>
     </row>
     <row r="430" ht="15.75" customHeight="1">
-      <c r="G430" s="5"/>
-      <c r="H430" s="5"/>
+      <c r="G430" s="6"/>
+      <c r="H430" s="6"/>
     </row>
     <row r="431" ht="15.75" customHeight="1">
-      <c r="G431" s="5"/>
-      <c r="H431" s="5"/>
+      <c r="G431" s="6"/>
+      <c r="H431" s="6"/>
     </row>
     <row r="432" ht="15.75" customHeight="1">
-      <c r="G432" s="5"/>
-      <c r="H432" s="5"/>
+      <c r="G432" s="6"/>
+      <c r="H432" s="6"/>
     </row>
     <row r="433" ht="15.75" customHeight="1">
-      <c r="G433" s="5"/>
-      <c r="H433" s="5"/>
+      <c r="G433" s="6"/>
+      <c r="H433" s="6"/>
     </row>
     <row r="434" ht="15.75" customHeight="1">
-      <c r="G434" s="5"/>
-      <c r="H434" s="5"/>
+      <c r="G434" s="6"/>
+      <c r="H434" s="6"/>
     </row>
     <row r="435" ht="15.75" customHeight="1">
-      <c r="G435" s="5"/>
-      <c r="H435" s="5"/>
+      <c r="G435" s="6"/>
+      <c r="H435" s="6"/>
     </row>
     <row r="436" ht="15.75" customHeight="1">
-      <c r="G436" s="5"/>
-      <c r="H436" s="5"/>
+      <c r="G436" s="6"/>
+      <c r="H436" s="6"/>
     </row>
     <row r="437" ht="15.75" customHeight="1">
-      <c r="G437" s="5"/>
-      <c r="H437" s="5"/>
+      <c r="G437" s="6"/>
+      <c r="H437" s="6"/>
     </row>
     <row r="438" ht="15.75" customHeight="1">
-      <c r="G438" s="5"/>
-      <c r="H438" s="5"/>
+      <c r="G438" s="6"/>
+      <c r="H438" s="6"/>
     </row>
     <row r="439" ht="15.75" customHeight="1">
-      <c r="G439" s="5"/>
-      <c r="H439" s="5"/>
+      <c r="G439" s="6"/>
+      <c r="H439" s="6"/>
     </row>
     <row r="440" ht="15.75" customHeight="1">
-      <c r="G440" s="5"/>
-      <c r="H440" s="5"/>
+      <c r="G440" s="6"/>
+      <c r="H440" s="6"/>
     </row>
     <row r="441" ht="15.75" customHeight="1">
-      <c r="G441" s="5"/>
-      <c r="H441" s="5"/>
+      <c r="G441" s="6"/>
+      <c r="H441" s="6"/>
     </row>
     <row r="442" ht="15.75" customHeight="1">
-      <c r="G442" s="5"/>
-      <c r="H442" s="5"/>
+      <c r="G442" s="6"/>
+      <c r="H442" s="6"/>
     </row>
     <row r="443" ht="15.75" customHeight="1">
-      <c r="G443" s="5"/>
-      <c r="H443" s="5"/>
+      <c r="G443" s="6"/>
+      <c r="H443" s="6"/>
     </row>
     <row r="444" ht="15.75" customHeight="1">
-      <c r="G444" s="5"/>
-      <c r="H444" s="5"/>
+      <c r="G444" s="6"/>
+      <c r="H444" s="6"/>
     </row>
     <row r="445" ht="15.75" customHeight="1">
-      <c r="G445" s="5"/>
-      <c r="H445" s="5"/>
+      <c r="G445" s="6"/>
+      <c r="H445" s="6"/>
     </row>
     <row r="446" ht="15.75" customHeight="1">
-      <c r="G446" s="5"/>
-      <c r="H446" s="5"/>
+      <c r="G446" s="6"/>
+      <c r="H446" s="6"/>
     </row>
     <row r="447" ht="15.75" customHeight="1">
-      <c r="G447" s="5"/>
-      <c r="H447" s="5"/>
+      <c r="G447" s="6"/>
+      <c r="H447" s="6"/>
     </row>
     <row r="448" ht="15.75" customHeight="1">
-      <c r="G448" s="5"/>
-      <c r="H448" s="5"/>
+      <c r="G448" s="6"/>
+      <c r="H448" s="6"/>
     </row>
     <row r="449" ht="15.75" customHeight="1">
-      <c r="G449" s="5"/>
-      <c r="H449" s="5"/>
+      <c r="G449" s="6"/>
+      <c r="H449" s="6"/>
     </row>
     <row r="450" ht="15.75" customHeight="1">
-      <c r="G450" s="5"/>
-      <c r="H450" s="5"/>
+      <c r="G450" s="6"/>
+      <c r="H450" s="6"/>
     </row>
     <row r="451" ht="15.75" customHeight="1">
-      <c r="G451" s="5"/>
-      <c r="H451" s="5"/>
+      <c r="G451" s="6"/>
+      <c r="H451" s="6"/>
     </row>
     <row r="452" ht="15.75" customHeight="1">
-      <c r="G452" s="5"/>
-      <c r="H452" s="5"/>
+      <c r="G452" s="6"/>
+      <c r="H452" s="6"/>
     </row>
     <row r="453" ht="15.75" customHeight="1">
-      <c r="G453" s="5"/>
-      <c r="H453" s="5"/>
+      <c r="G453" s="6"/>
+      <c r="H453" s="6"/>
     </row>
     <row r="454" ht="15.75" customHeight="1">
-      <c r="G454" s="5"/>
-      <c r="H454" s="5"/>
+      <c r="G454" s="6"/>
+      <c r="H454" s="6"/>
     </row>
     <row r="455" ht="15.75" customHeight="1">
-      <c r="G455" s="5"/>
-      <c r="H455" s="5"/>
+      <c r="G455" s="6"/>
+      <c r="H455" s="6"/>
     </row>
     <row r="456" ht="15.75" customHeight="1">
-      <c r="G456" s="5"/>
-      <c r="H456" s="5"/>
+      <c r="G456" s="6"/>
+      <c r="H456" s="6"/>
     </row>
     <row r="457" ht="15.75" customHeight="1">
-      <c r="G457" s="5"/>
-      <c r="H457" s="5"/>
+      <c r="G457" s="6"/>
+      <c r="H457" s="6"/>
     </row>
     <row r="458" ht="15.75" customHeight="1">
-      <c r="G458" s="5"/>
-      <c r="H458" s="5"/>
+      <c r="G458" s="6"/>
+      <c r="H458" s="6"/>
     </row>
     <row r="459" ht="15.75" customHeight="1">
-      <c r="G459" s="5"/>
-      <c r="H459" s="5"/>
+      <c r="G459" s="6"/>
+      <c r="H459" s="6"/>
     </row>
     <row r="460" ht="15.75" customHeight="1">
-      <c r="G460" s="5"/>
-      <c r="H460" s="5"/>
+      <c r="G460" s="6"/>
+      <c r="H460" s="6"/>
     </row>
     <row r="461" ht="15.75" customHeight="1">
-      <c r="G461" s="5"/>
-      <c r="H461" s="5"/>
+      <c r="G461" s="6"/>
+      <c r="H461" s="6"/>
     </row>
     <row r="462" ht="15.75" customHeight="1">
-      <c r="G462" s="5"/>
-      <c r="H462" s="5"/>
+      <c r="G462" s="6"/>
+      <c r="H462" s="6"/>
     </row>
     <row r="463" ht="15.75" customHeight="1">
-      <c r="G463" s="5"/>
-      <c r="H463" s="5"/>
+      <c r="G463" s="6"/>
+      <c r="H463" s="6"/>
     </row>
     <row r="464" ht="15.75" customHeight="1">
-      <c r="G464" s="5"/>
-      <c r="H464" s="5"/>
+      <c r="G464" s="6"/>
+      <c r="H464" s="6"/>
     </row>
     <row r="465" ht="15.75" customHeight="1">
-      <c r="G465" s="5"/>
-      <c r="H465" s="5"/>
+      <c r="G465" s="6"/>
+      <c r="H465" s="6"/>
     </row>
     <row r="466" ht="15.75" customHeight="1">
-      <c r="G466" s="5"/>
-      <c r="H466" s="5"/>
+      <c r="G466" s="6"/>
+      <c r="H466" s="6"/>
     </row>
     <row r="467" ht="15.75" customHeight="1">
-      <c r="G467" s="5"/>
-      <c r="H467" s="5"/>
+      <c r="G467" s="6"/>
+      <c r="H467" s="6"/>
     </row>
     <row r="468" ht="15.75" customHeight="1">
-      <c r="G468" s="5"/>
-      <c r="H468" s="5"/>
+      <c r="G468" s="6"/>
+      <c r="H468" s="6"/>
     </row>
     <row r="469" ht="15.75" customHeight="1">
-      <c r="G469" s="5"/>
-      <c r="H469" s="5"/>
+      <c r="G469" s="6"/>
+      <c r="H469" s="6"/>
     </row>
     <row r="470" ht="15.75" customHeight="1">
-      <c r="G470" s="5"/>
-      <c r="H470" s="5"/>
+      <c r="G470" s="6"/>
+      <c r="H470" s="6"/>
     </row>
     <row r="471" ht="15.75" customHeight="1">
-      <c r="G471" s="5"/>
-      <c r="H471" s="5"/>
+      <c r="G471" s="6"/>
+      <c r="H471" s="6"/>
     </row>
     <row r="472" ht="15.75" customHeight="1">
-      <c r="G472" s="5"/>
-      <c r="H472" s="5"/>
+      <c r="G472" s="6"/>
+      <c r="H472" s="6"/>
     </row>
     <row r="473" ht="15.75" customHeight="1">
-      <c r="G473" s="5"/>
-      <c r="H473" s="5"/>
+      <c r="G473" s="6"/>
+      <c r="H473" s="6"/>
     </row>
     <row r="474" ht="15.75" customHeight="1">
-      <c r="G474" s="5"/>
-      <c r="H474" s="5"/>
+      <c r="G474" s="6"/>
+      <c r="H474" s="6"/>
     </row>
     <row r="475" ht="15.75" customHeight="1">
-      <c r="G475" s="5"/>
-      <c r="H475" s="5"/>
+      <c r="G475" s="6"/>
+      <c r="H475" s="6"/>
     </row>
     <row r="476" ht="15.75" customHeight="1">
-      <c r="G476" s="5"/>
-      <c r="H476" s="5"/>
+      <c r="G476" s="6"/>
+      <c r="H476" s="6"/>
     </row>
     <row r="477" ht="15.75" customHeight="1">
-      <c r="G477" s="5"/>
-      <c r="H477" s="5"/>
+      <c r="G477" s="6"/>
+      <c r="H477" s="6"/>
     </row>
     <row r="478" ht="15.75" customHeight="1">
-      <c r="G478" s="5"/>
-      <c r="H478" s="5"/>
+      <c r="G478" s="6"/>
+      <c r="H478" s="6"/>
     </row>
     <row r="479" ht="15.75" customHeight="1">
-      <c r="G479" s="5"/>
-      <c r="H479" s="5"/>
+      <c r="G479" s="6"/>
+      <c r="H479" s="6"/>
     </row>
     <row r="480" ht="15.75" customHeight="1">
-      <c r="G480" s="5"/>
-      <c r="H480" s="5"/>
+      <c r="G480" s="6"/>
+      <c r="H480" s="6"/>
     </row>
     <row r="481" ht="15.75" customHeight="1">
-      <c r="G481" s="5"/>
-      <c r="H481" s="5"/>
+      <c r="G481" s="6"/>
+      <c r="H481" s="6"/>
     </row>
     <row r="482" ht="15.75" customHeight="1">
-      <c r="G482" s="5"/>
-      <c r="H482" s="5"/>
+      <c r="G482" s="6"/>
+      <c r="H482" s="6"/>
     </row>
     <row r="483" ht="15.75" customHeight="1">
-      <c r="G483" s="5"/>
-      <c r="H483" s="5"/>
+      <c r="G483" s="6"/>
+      <c r="H483" s="6"/>
     </row>
     <row r="484" ht="15.75" customHeight="1">
-      <c r="G484" s="5"/>
-      <c r="H484" s="5"/>
+      <c r="G484" s="6"/>
+      <c r="H484" s="6"/>
     </row>
     <row r="485" ht="15.75" customHeight="1">
-      <c r="G485" s="5"/>
-      <c r="H485" s="5"/>
+      <c r="G485" s="6"/>
+      <c r="H485" s="6"/>
     </row>
     <row r="486" ht="15.75" customHeight="1">
-      <c r="G486" s="5"/>
-      <c r="H486" s="5"/>
+      <c r="G486" s="6"/>
+      <c r="H486" s="6"/>
     </row>
     <row r="487" ht="15.75" customHeight="1">
-      <c r="G487" s="5"/>
-      <c r="H487" s="5"/>
+      <c r="G487" s="6"/>
+      <c r="H487" s="6"/>
     </row>
     <row r="488" ht="15.75" customHeight="1">
-      <c r="G488" s="5"/>
-      <c r="H488" s="5"/>
+      <c r="G488" s="6"/>
+      <c r="H488" s="6"/>
     </row>
     <row r="489" ht="15.75" customHeight="1">
-      <c r="G489" s="5"/>
-      <c r="H489" s="5"/>
+      <c r="G489" s="6"/>
+      <c r="H489" s="6"/>
     </row>
     <row r="490" ht="15.75" customHeight="1">
-      <c r="G490" s="5"/>
-      <c r="H490" s="5"/>
+      <c r="G490" s="6"/>
+      <c r="H490" s="6"/>
     </row>
     <row r="491" ht="15.75" customHeight="1">
-      <c r="G491" s="5"/>
-      <c r="H491" s="5"/>
+      <c r="G491" s="6"/>
+      <c r="H491" s="6"/>
     </row>
     <row r="492" ht="15.75" customHeight="1">
-      <c r="G492" s="5"/>
-      <c r="H492" s="5"/>
+      <c r="G492" s="6"/>
+      <c r="H492" s="6"/>
     </row>
     <row r="493" ht="15.75" customHeight="1">
-      <c r="G493" s="5"/>
-      <c r="H493" s="5"/>
+      <c r="G493" s="6"/>
+      <c r="H493" s="6"/>
     </row>
     <row r="494" ht="15.75" customHeight="1">
-      <c r="G494" s="5"/>
-      <c r="H494" s="5"/>
+      <c r="G494" s="6"/>
+      <c r="H494" s="6"/>
     </row>
     <row r="495" ht="15.75" customHeight="1">
-      <c r="G495" s="5"/>
-      <c r="H495" s="5"/>
+      <c r="G495" s="6"/>
+      <c r="H495" s="6"/>
     </row>
     <row r="496" ht="15.75" customHeight="1">
-      <c r="G496" s="5"/>
-      <c r="H496" s="5"/>
+      <c r="G496" s="6"/>
+      <c r="H496" s="6"/>
     </row>
     <row r="497" ht="15.75" customHeight="1">
-      <c r="G497" s="5"/>
-      <c r="H497" s="5"/>
+      <c r="G497" s="6"/>
+      <c r="H497" s="6"/>
     </row>
     <row r="498" ht="15.75" customHeight="1">
-      <c r="G498" s="5"/>
-      <c r="H498" s="5"/>
+      <c r="G498" s="6"/>
+      <c r="H498" s="6"/>
     </row>
     <row r="499" ht="15.75" customHeight="1">
-      <c r="G499" s="5"/>
-      <c r="H499" s="5"/>
+      <c r="G499" s="6"/>
+      <c r="H499" s="6"/>
     </row>
     <row r="500" ht="15.75" customHeight="1">
-      <c r="G500" s="5"/>
-      <c r="H500" s="5"/>
+      <c r="G500" s="6"/>
+      <c r="H500" s="6"/>
     </row>
     <row r="501" ht="15.75" customHeight="1">
-      <c r="G501" s="5"/>
-      <c r="H501" s="5"/>
+      <c r="G501" s="6"/>
+      <c r="H501" s="6"/>
     </row>
     <row r="502" ht="15.75" customHeight="1">
-      <c r="G502" s="5"/>
-      <c r="H502" s="5"/>
+      <c r="G502" s="6"/>
+      <c r="H502" s="6"/>
     </row>
     <row r="503" ht="15.75" customHeight="1">
-      <c r="G503" s="5"/>
-      <c r="H503" s="5"/>
+      <c r="G503" s="6"/>
+      <c r="H503" s="6"/>
     </row>
     <row r="504" ht="15.75" customHeight="1">
-      <c r="G504" s="5"/>
-      <c r="H504" s="5"/>
+      <c r="G504" s="6"/>
+      <c r="H504" s="6"/>
     </row>
     <row r="505" ht="15.75" customHeight="1">
-      <c r="G505" s="5"/>
-      <c r="H505" s="5"/>
+      <c r="G505" s="6"/>
+      <c r="H505" s="6"/>
     </row>
     <row r="506" ht="15.75" customHeight="1">
-      <c r="G506" s="5"/>
-      <c r="H506" s="5"/>
+      <c r="G506" s="6"/>
+      <c r="H506" s="6"/>
     </row>
     <row r="507" ht="15.75" customHeight="1">
-      <c r="G507" s="5"/>
-      <c r="H507" s="5"/>
+      <c r="G507" s="6"/>
+      <c r="H507" s="6"/>
     </row>
     <row r="508" ht="15.75" customHeight="1">
-      <c r="G508" s="5"/>
-      <c r="H508" s="5"/>
+      <c r="G508" s="6"/>
+      <c r="H508" s="6"/>
     </row>
     <row r="509" ht="15.75" customHeight="1">
-      <c r="G509" s="5"/>
-      <c r="H509" s="5"/>
+      <c r="G509" s="6"/>
+      <c r="H509" s="6"/>
     </row>
     <row r="510" ht="15.75" customHeight="1">
-      <c r="G510" s="5"/>
-      <c r="H510" s="5"/>
+      <c r="G510" s="6"/>
+      <c r="H510" s="6"/>
     </row>
     <row r="511" ht="15.75" customHeight="1">
-      <c r="G511" s="5"/>
-      <c r="H511" s="5"/>
+      <c r="G511" s="6"/>
+      <c r="H511" s="6"/>
     </row>
     <row r="512" ht="15.75" customHeight="1">
-      <c r="G512" s="5"/>
-      <c r="H512" s="5"/>
+      <c r="G512" s="6"/>
+      <c r="H512" s="6"/>
     </row>
     <row r="513" ht="15.75" customHeight="1">
-      <c r="G513" s="5"/>
-      <c r="H513" s="5"/>
+      <c r="G513" s="6"/>
+      <c r="H513" s="6"/>
     </row>
     <row r="514" ht="15.75" customHeight="1">
-      <c r="G514" s="5"/>
-      <c r="H514" s="5"/>
+      <c r="G514" s="6"/>
+      <c r="H514" s="6"/>
     </row>
     <row r="515" ht="15.75" customHeight="1">
-      <c r="G515" s="5"/>
-      <c r="H515" s="5"/>
+      <c r="G515" s="6"/>
+      <c r="H515" s="6"/>
     </row>
     <row r="516" ht="15.75" customHeight="1">
-      <c r="G516" s="5"/>
-      <c r="H516" s="5"/>
+      <c r="G516" s="6"/>
+      <c r="H516" s="6"/>
     </row>
     <row r="517" ht="15.75" customHeight="1">
-      <c r="G517" s="5"/>
-      <c r="H517" s="5"/>
+      <c r="G517" s="6"/>
+      <c r="H517" s="6"/>
     </row>
     <row r="518" ht="15.75" customHeight="1">
-      <c r="G518" s="5"/>
-      <c r="H518" s="5"/>
+      <c r="G518" s="6"/>
+      <c r="H518" s="6"/>
     </row>
     <row r="519" ht="15.75" customHeight="1">
-      <c r="G519" s="5"/>
-      <c r="H519" s="5"/>
+      <c r="G519" s="6"/>
+      <c r="H519" s="6"/>
     </row>
     <row r="520" ht="15.75" customHeight="1">
-      <c r="G520" s="5"/>
-      <c r="H520" s="5"/>
+      <c r="G520" s="6"/>
+      <c r="H520" s="6"/>
     </row>
     <row r="521" ht="15.75" customHeight="1">
-      <c r="G521" s="5"/>
-      <c r="H521" s="5"/>
+      <c r="G521" s="6"/>
+      <c r="H521" s="6"/>
     </row>
     <row r="522" ht="15.75" customHeight="1">
-      <c r="G522" s="5"/>
-      <c r="H522" s="5"/>
+      <c r="G522" s="6"/>
+      <c r="H522" s="6"/>
     </row>
     <row r="523" ht="15.75" customHeight="1">
-      <c r="G523" s="5"/>
-      <c r="H523" s="5"/>
+      <c r="G523" s="6"/>
+      <c r="H523" s="6"/>
     </row>
     <row r="524" ht="15.75" customHeight="1">
-      <c r="G524" s="5"/>
-      <c r="H524" s="5"/>
+      <c r="G524" s="6"/>
+      <c r="H524" s="6"/>
     </row>
     <row r="525" ht="15.75" customHeight="1">
-      <c r="G525" s="5"/>
-      <c r="H525" s="5"/>
+      <c r="G525" s="6"/>
+      <c r="H525" s="6"/>
     </row>
     <row r="526" ht="15.75" customHeight="1">
-      <c r="G526" s="5"/>
-      <c r="H526" s="5"/>
+      <c r="G526" s="6"/>
+      <c r="H526" s="6"/>
     </row>
     <row r="527" ht="15.75" customHeight="1">
-      <c r="G527" s="5"/>
-      <c r="H527" s="5"/>
+      <c r="G527" s="6"/>
+      <c r="H527" s="6"/>
     </row>
     <row r="528" ht="15.75" customHeight="1">
-      <c r="G528" s="5"/>
-      <c r="H528" s="5"/>
+      <c r="G528" s="6"/>
+      <c r="H528" s="6"/>
     </row>
     <row r="529" ht="15.75" customHeight="1">
-      <c r="G529" s="5"/>
-      <c r="H529" s="5"/>
+      <c r="G529" s="6"/>
+      <c r="H529" s="6"/>
     </row>
     <row r="530" ht="15.75" customHeight="1">
-      <c r="G530" s="5"/>
-      <c r="H530" s="5"/>
+      <c r="G530" s="6"/>
+      <c r="H530" s="6"/>
     </row>
     <row r="531" ht="15.75" customHeight="1">
-      <c r="G531" s="5"/>
-      <c r="H531" s="5"/>
+      <c r="G531" s="6"/>
+      <c r="H531" s="6"/>
     </row>
     <row r="532" ht="15.75" customHeight="1">
-      <c r="G532" s="5"/>
-      <c r="H532" s="5"/>
+      <c r="G532" s="6"/>
+      <c r="H532" s="6"/>
     </row>
     <row r="533" ht="15.75" customHeight="1">
-      <c r="G533" s="5"/>
-      <c r="H533" s="5"/>
+      <c r="G533" s="6"/>
+      <c r="H533" s="6"/>
     </row>
     <row r="534" ht="15.75" customHeight="1">
-      <c r="G534" s="5"/>
-      <c r="H534" s="5"/>
+      <c r="G534" s="6"/>
+      <c r="H534" s="6"/>
     </row>
     <row r="535" ht="15.75" customHeight="1">
-      <c r="G535" s="5"/>
-      <c r="H535" s="5"/>
+      <c r="G535" s="6"/>
+      <c r="H535" s="6"/>
     </row>
     <row r="536" ht="15.75" customHeight="1">
-      <c r="G536" s="5"/>
-      <c r="H536" s="5"/>
+      <c r="G536" s="6"/>
+      <c r="H536" s="6"/>
     </row>
     <row r="537" ht="15.75" customHeight="1">
-      <c r="G537" s="5"/>
-      <c r="H537" s="5"/>
+      <c r="G537" s="6"/>
+      <c r="H537" s="6"/>
     </row>
     <row r="538" ht="15.75" customHeight="1">
-      <c r="G538" s="5"/>
-      <c r="H538" s="5"/>
+      <c r="G538" s="6"/>
+      <c r="H538" s="6"/>
     </row>
     <row r="539" ht="15.75" customHeight="1">
-      <c r="G539" s="5"/>
-      <c r="H539" s="5"/>
+      <c r="G539" s="6"/>
+      <c r="H539" s="6"/>
     </row>
     <row r="540" ht="15.75" customHeight="1">
-      <c r="G540" s="5"/>
-      <c r="H540" s="5"/>
+      <c r="G540" s="6"/>
+      <c r="H540" s="6"/>
     </row>
     <row r="541" ht="15.75" customHeight="1">
-      <c r="G541" s="5"/>
-      <c r="H541" s="5"/>
+      <c r="G541" s="6"/>
+      <c r="H541" s="6"/>
     </row>
     <row r="542" ht="15.75" customHeight="1">
-      <c r="G542" s="5"/>
-      <c r="H542" s="5"/>
+      <c r="G542" s="6"/>
+      <c r="H542" s="6"/>
     </row>
     <row r="543" ht="15.75" customHeight="1">
-      <c r="G543" s="5"/>
-      <c r="H543" s="5"/>
+      <c r="G543" s="6"/>
+      <c r="H543" s="6"/>
     </row>
     <row r="544" ht="15.75" customHeight="1">
-      <c r="G544" s="5"/>
-      <c r="H544" s="5"/>
+      <c r="G544" s="6"/>
+      <c r="H544" s="6"/>
     </row>
     <row r="545" ht="15.75" customHeight="1">
-      <c r="G545" s="5"/>
-      <c r="H545" s="5"/>
+      <c r="G545" s="6"/>
+      <c r="H545" s="6"/>
     </row>
     <row r="546" ht="15.75" customHeight="1">
-      <c r="G546" s="5"/>
-      <c r="H546" s="5"/>
+      <c r="G546" s="6"/>
+      <c r="H546" s="6"/>
     </row>
     <row r="547" ht="15.75" customHeight="1">
-      <c r="G547" s="5"/>
-      <c r="H547" s="5"/>
+      <c r="G547" s="6"/>
+      <c r="H547" s="6"/>
     </row>
     <row r="548" ht="15.75" customHeight="1">
-      <c r="G548" s="5"/>
-      <c r="H548" s="5"/>
+      <c r="G548" s="6"/>
+      <c r="H548" s="6"/>
     </row>
     <row r="549" ht="15.75" customHeight="1">
-      <c r="G549" s="5"/>
-      <c r="H549" s="5"/>
+      <c r="G549" s="6"/>
+      <c r="H549" s="6"/>
     </row>
     <row r="550" ht="15.75" customHeight="1">
-      <c r="G550" s="5"/>
-      <c r="H550" s="5"/>
+      <c r="G550" s="6"/>
+      <c r="H550" s="6"/>
     </row>
     <row r="551" ht="15.75" customHeight="1">
-      <c r="G551" s="5"/>
-      <c r="H551" s="5"/>
+      <c r="G551" s="6"/>
+      <c r="H551" s="6"/>
     </row>
     <row r="552" ht="15.75" customHeight="1">
-      <c r="G552" s="5"/>
-      <c r="H552" s="5"/>
+      <c r="G552" s="6"/>
+      <c r="H552" s="6"/>
     </row>
     <row r="553" ht="15.75" customHeight="1">
-      <c r="G553" s="5"/>
-      <c r="H553" s="5"/>
+      <c r="G553" s="6"/>
+      <c r="H553" s="6"/>
     </row>
     <row r="554" ht="15.75" customHeight="1">
-      <c r="G554" s="5"/>
-      <c r="H554" s="5"/>
+      <c r="G554" s="6"/>
+      <c r="H554" s="6"/>
     </row>
     <row r="555" ht="15.75" customHeight="1">
-      <c r="G555" s="5"/>
-      <c r="H555" s="5"/>
+      <c r="G555" s="6"/>
+      <c r="H555" s="6"/>
     </row>
     <row r="556" ht="15.75" customHeight="1">
-      <c r="G556" s="5"/>
-      <c r="H556" s="5"/>
+      <c r="G556" s="6"/>
+      <c r="H556" s="6"/>
     </row>
     <row r="557" ht="15.75" customHeight="1">
-      <c r="G557" s="5"/>
-      <c r="H557" s="5"/>
+      <c r="G557" s="6"/>
+      <c r="H557" s="6"/>
     </row>
     <row r="558" ht="15.75" customHeight="1">
-      <c r="G558" s="5"/>
-      <c r="H558" s="5"/>
+      <c r="G558" s="6"/>
+      <c r="H558" s="6"/>
     </row>
     <row r="559" ht="15.75" customHeight="1">
-      <c r="G559" s="5"/>
-      <c r="H559" s="5"/>
+      <c r="G559" s="6"/>
+      <c r="H559" s="6"/>
     </row>
     <row r="560" ht="15.75" customHeight="1">
-      <c r="G560" s="5"/>
-      <c r="H560" s="5"/>
+      <c r="G560" s="6"/>
+      <c r="H560" s="6"/>
     </row>
     <row r="561" ht="15.75" customHeight="1">
-      <c r="G561" s="5"/>
-      <c r="H561" s="5"/>
+      <c r="G561" s="6"/>
+      <c r="H561" s="6"/>
     </row>
     <row r="562" ht="15.75" customHeight="1">
-      <c r="G562" s="5"/>
-      <c r="H562" s="5"/>
+      <c r="G562" s="6"/>
+      <c r="H562" s="6"/>
     </row>
     <row r="563" ht="15.75" customHeight="1">
-      <c r="G563" s="5"/>
-      <c r="H563" s="5"/>
+      <c r="G563" s="6"/>
+      <c r="H563" s="6"/>
     </row>
     <row r="564" ht="15.75" customHeight="1">
-      <c r="G564" s="5"/>
-      <c r="H564" s="5"/>
+      <c r="G564" s="6"/>
+      <c r="H564" s="6"/>
     </row>
     <row r="565" ht="15.75" customHeight="1">
-      <c r="G565" s="5"/>
-      <c r="H565" s="5"/>
+      <c r="G565" s="6"/>
+      <c r="H565" s="6"/>
     </row>
     <row r="566" ht="15.75" customHeight="1">
-      <c r="G566" s="5"/>
-      <c r="H566" s="5"/>
+      <c r="G566" s="6"/>
+      <c r="H566" s="6"/>
     </row>
     <row r="567" ht="15.75" customHeight="1">
-      <c r="G567" s="5"/>
-      <c r="H567" s="5"/>
+      <c r="G567" s="6"/>
+      <c r="H567" s="6"/>
     </row>
     <row r="568" ht="15.75" customHeight="1">
-      <c r="G568" s="5"/>
-      <c r="H568" s="5"/>
+      <c r="G568" s="6"/>
+      <c r="H568" s="6"/>
     </row>
     <row r="569" ht="15.75" customHeight="1">
-      <c r="G569" s="5"/>
-      <c r="H569" s="5"/>
+      <c r="G569" s="6"/>
+      <c r="H569" s="6"/>
     </row>
     <row r="570" ht="15.75" customHeight="1">
-      <c r="G570" s="5"/>
-      <c r="H570" s="5"/>
+      <c r="G570" s="6"/>
+      <c r="H570" s="6"/>
     </row>
     <row r="571" ht="15.75" customHeight="1">
-      <c r="G571" s="5"/>
-      <c r="H571" s="5"/>
+      <c r="G571" s="6"/>
+      <c r="H571" s="6"/>
     </row>
     <row r="572" ht="15.75" customHeight="1">
-      <c r="G572" s="5"/>
-      <c r="H572" s="5"/>
+      <c r="G572" s="6"/>
+      <c r="H572" s="6"/>
     </row>
     <row r="573" ht="15.75" customHeight="1">
-      <c r="G573" s="5"/>
-      <c r="H573" s="5"/>
+      <c r="G573" s="6"/>
+      <c r="H573" s="6"/>
     </row>
     <row r="574" ht="15.75" customHeight="1">
-      <c r="G574" s="5"/>
-      <c r="H574" s="5"/>
+      <c r="G574" s="6"/>
+      <c r="H574" s="6"/>
     </row>
     <row r="575" ht="15.75" customHeight="1">
-      <c r="G575" s="5"/>
-      <c r="H575" s="5"/>
+      <c r="G575" s="6"/>
+      <c r="H575" s="6"/>
     </row>
     <row r="576" ht="15.75" customHeight="1">
-      <c r="G576" s="5"/>
-      <c r="H576" s="5"/>
+      <c r="G576" s="6"/>
+      <c r="H576" s="6"/>
     </row>
     <row r="577" ht="15.75" customHeight="1">
-      <c r="G577" s="5"/>
-      <c r="H577" s="5"/>
+      <c r="G577" s="6"/>
+      <c r="H577" s="6"/>
     </row>
     <row r="578" ht="15.75" customHeight="1">
-      <c r="G578" s="5"/>
-      <c r="H578" s="5"/>
+      <c r="G578" s="6"/>
+      <c r="H578" s="6"/>
     </row>
     <row r="579" ht="15.75" customHeight="1">
-      <c r="G579" s="5"/>
-      <c r="H579" s="5"/>
+      <c r="G579" s="6"/>
+      <c r="H579" s="6"/>
     </row>
     <row r="580" ht="15.75" customHeight="1">
-      <c r="G580" s="5"/>
-      <c r="H580" s="5"/>
+      <c r="G580" s="6"/>
+      <c r="H580" s="6"/>
     </row>
     <row r="581" ht="15.75" customHeight="1">
-      <c r="G581" s="5"/>
-      <c r="H581" s="5"/>
+      <c r="G581" s="6"/>
+      <c r="H581" s="6"/>
     </row>
     <row r="582" ht="15.75" customHeight="1">
-      <c r="G582" s="5"/>
-      <c r="H582" s="5"/>
+      <c r="G582" s="6"/>
+      <c r="H582" s="6"/>
     </row>
     <row r="583" ht="15.75" customHeight="1">
-      <c r="G583" s="5"/>
-      <c r="H583" s="5"/>
+      <c r="G583" s="6"/>
+      <c r="H583" s="6"/>
     </row>
     <row r="584" ht="15.75" customHeight="1">
-      <c r="G584" s="5"/>
-      <c r="H584" s="5"/>
+      <c r="G584" s="6"/>
+      <c r="H584" s="6"/>
     </row>
     <row r="585" ht="15.75" customHeight="1">
-      <c r="G585" s="5"/>
-      <c r="H585" s="5"/>
+      <c r="G585" s="6"/>
+      <c r="H585" s="6"/>
     </row>
     <row r="586" ht="15.75" customHeight="1">
-      <c r="G586" s="5"/>
-      <c r="H586" s="5"/>
+      <c r="G586" s="6"/>
+      <c r="H586" s="6"/>
     </row>
     <row r="587" ht="15.75" customHeight="1">
-      <c r="G587" s="5"/>
-      <c r="H587" s="5"/>
+      <c r="G587" s="6"/>
+      <c r="H587" s="6"/>
     </row>
     <row r="588" ht="15.75" customHeight="1">
-      <c r="G588" s="5"/>
-      <c r="H588" s="5"/>
+      <c r="G588" s="6"/>
+      <c r="H588" s="6"/>
     </row>
     <row r="589" ht="15.75" customHeight="1">
-      <c r="G589" s="5"/>
-      <c r="H589" s="5"/>
+      <c r="G589" s="6"/>
+      <c r="H589" s="6"/>
     </row>
     <row r="590" ht="15.75" customHeight="1">
-      <c r="G590" s="5"/>
-      <c r="H590" s="5"/>
+      <c r="G590" s="6"/>
+      <c r="H590" s="6"/>
     </row>
     <row r="591" ht="15.75" customHeight="1">
-      <c r="G591" s="5"/>
-      <c r="H591" s="5"/>
+      <c r="G591" s="6"/>
+      <c r="H591" s="6"/>
     </row>
     <row r="592" ht="15.75" customHeight="1">
-      <c r="G592" s="5"/>
-      <c r="H592" s="5"/>
+      <c r="G592" s="6"/>
+      <c r="H592" s="6"/>
     </row>
     <row r="593" ht="15.75" customHeight="1">
-      <c r="G593" s="5"/>
-      <c r="H593" s="5"/>
+      <c r="G593" s="6"/>
+      <c r="H593" s="6"/>
     </row>
     <row r="594" ht="15.75" customHeight="1">
-      <c r="G594" s="5"/>
-      <c r="H594" s="5"/>
+      <c r="G594" s="6"/>
+      <c r="H594" s="6"/>
     </row>
     <row r="595" ht="15.75" customHeight="1">
-      <c r="G595" s="5"/>
-      <c r="H595" s="5"/>
+      <c r="G595" s="6"/>
+      <c r="H595" s="6"/>
     </row>
     <row r="596" ht="15.75" customHeight="1">
-      <c r="G596" s="5"/>
-      <c r="H596" s="5"/>
+      <c r="G596" s="6"/>
+      <c r="H596" s="6"/>
     </row>
     <row r="597" ht="15.75" customHeight="1">
-      <c r="G597" s="5"/>
-      <c r="H597" s="5"/>
+      <c r="G597" s="6"/>
+      <c r="H597" s="6"/>
     </row>
     <row r="598" ht="15.75" customHeight="1">
-      <c r="G598" s="5"/>
-      <c r="H598" s="5"/>
+      <c r="G598" s="6"/>
+      <c r="H598" s="6"/>
     </row>
     <row r="599" ht="15.75" customHeight="1">
-      <c r="G599" s="5"/>
-      <c r="H599" s="5"/>
+      <c r="G599" s="6"/>
+      <c r="H599" s="6"/>
     </row>
     <row r="600" ht="15.75" customHeight="1">
-      <c r="G600" s="5"/>
-      <c r="H600" s="5"/>
+      <c r="G600" s="6"/>
+      <c r="H600" s="6"/>
     </row>
     <row r="601" ht="15.75" customHeight="1">
-      <c r="G601" s="5"/>
-      <c r="H601" s="5"/>
+      <c r="G601" s="6"/>
+      <c r="H601" s="6"/>
     </row>
     <row r="602" ht="15.75" customHeight="1">
-      <c r="G602" s="5"/>
-      <c r="H602" s="5"/>
+      <c r="G602" s="6"/>
+      <c r="H602" s="6"/>
     </row>
     <row r="603" ht="15.75" customHeight="1">
-      <c r="G603" s="5"/>
-      <c r="H603" s="5"/>
+      <c r="G603" s="6"/>
+      <c r="H603" s="6"/>
     </row>
     <row r="604" ht="15.75" customHeight="1">
-      <c r="G604" s="5"/>
-      <c r="H604" s="5"/>
+      <c r="G604" s="6"/>
+      <c r="H604" s="6"/>
     </row>
     <row r="605" ht="15.75" customHeight="1">
-      <c r="G605" s="5"/>
-      <c r="H605" s="5"/>
+      <c r="G605" s="6"/>
+      <c r="H605" s="6"/>
     </row>
     <row r="606" ht="15.75" customHeight="1">
-      <c r="G606" s="5"/>
-      <c r="H606" s="5"/>
+      <c r="G606" s="6"/>
+      <c r="H606" s="6"/>
     </row>
     <row r="607" ht="15.75" customHeight="1">
-      <c r="G607" s="5"/>
-      <c r="H607" s="5"/>
+      <c r="G607" s="6"/>
+      <c r="H607" s="6"/>
     </row>
     <row r="608" ht="15.75" customHeight="1">
-      <c r="G608" s="5"/>
-      <c r="H608" s="5"/>
+      <c r="G608" s="6"/>
+      <c r="H608" s="6"/>
     </row>
     <row r="609" ht="15.75" customHeight="1">
-      <c r="G609" s="5"/>
-      <c r="H609" s="5"/>
+      <c r="G609" s="6"/>
+      <c r="H609" s="6"/>
     </row>
     <row r="610" ht="15.75" customHeight="1">
-      <c r="G610" s="5"/>
-      <c r="H610" s="5"/>
+      <c r="G610" s="6"/>
+      <c r="H610" s="6"/>
     </row>
     <row r="611" ht="15.75" customHeight="1">
-      <c r="G611" s="5"/>
-      <c r="H611" s="5"/>
+      <c r="G611" s="6"/>
+      <c r="H611" s="6"/>
     </row>
     <row r="612" ht="15.75" customHeight="1">
-      <c r="G612" s="5"/>
-      <c r="H612" s="5"/>
+      <c r="G612" s="6"/>
+      <c r="H612" s="6"/>
     </row>
     <row r="613" ht="15.75" customHeight="1">
-      <c r="G613" s="5"/>
-      <c r="H613" s="5"/>
+      <c r="G613" s="6"/>
+      <c r="H613" s="6"/>
     </row>
     <row r="614" ht="15.75" customHeight="1">
-      <c r="G614" s="5"/>
-      <c r="H614" s="5"/>
+      <c r="G614" s="6"/>
+      <c r="H614" s="6"/>
     </row>
     <row r="615" ht="15.75" customHeight="1">
-      <c r="G615" s="5"/>
-      <c r="H615" s="5"/>
+      <c r="G615" s="6"/>
+      <c r="H615" s="6"/>
     </row>
     <row r="616" ht="15.75" customHeight="1">
-      <c r="G616" s="5"/>
-      <c r="H616" s="5"/>
+      <c r="G616" s="6"/>
+      <c r="H616" s="6"/>
     </row>
     <row r="617" ht="15.75" customHeight="1">
-      <c r="G617" s="5"/>
-      <c r="H617" s="5"/>
+      <c r="G617" s="6"/>
+      <c r="H617" s="6"/>
     </row>
     <row r="618" ht="15.75" customHeight="1">
-      <c r="G618" s="5"/>
-      <c r="H618" s="5"/>
+      <c r="G618" s="6"/>
+      <c r="H618" s="6"/>
     </row>
     <row r="619" ht="15.75" customHeight="1">
-      <c r="G619" s="5"/>
-      <c r="H619" s="5"/>
+      <c r="G619" s="6"/>
+      <c r="H619" s="6"/>
     </row>
     <row r="620" ht="15.75" customHeight="1">
-      <c r="G620" s="5"/>
-      <c r="H620" s="5"/>
+      <c r="G620" s="6"/>
+      <c r="H620" s="6"/>
     </row>
     <row r="621" ht="15.75" customHeight="1">
-      <c r="G621" s="5"/>
-      <c r="H621" s="5"/>
+      <c r="G621" s="6"/>
+      <c r="H621" s="6"/>
     </row>
     <row r="622" ht="15.75" customHeight="1">
-      <c r="G622" s="5"/>
-      <c r="H622" s="5"/>
+      <c r="G622" s="6"/>
+      <c r="H622" s="6"/>
     </row>
     <row r="623" ht="15.75" customHeight="1">
-      <c r="G623" s="5"/>
-      <c r="H623" s="5"/>
+      <c r="G623" s="6"/>
+      <c r="H623" s="6"/>
     </row>
     <row r="624" ht="15.75" customHeight="1">
-      <c r="G624" s="5"/>
-      <c r="H624" s="5"/>
+      <c r="G624" s="6"/>
+      <c r="H624" s="6"/>
     </row>
     <row r="625" ht="15.75" customHeight="1">
-      <c r="G625" s="5"/>
-      <c r="H625" s="5"/>
+      <c r="G625" s="6"/>
+      <c r="H625" s="6"/>
     </row>
     <row r="626" ht="15.75" customHeight="1">
-      <c r="G626" s="5"/>
-      <c r="H626" s="5"/>
+      <c r="G626" s="6"/>
+      <c r="H626" s="6"/>
     </row>
     <row r="627" ht="15.75" customHeight="1">
-      <c r="G627" s="5"/>
-      <c r="H627" s="5"/>
+      <c r="G627" s="6"/>
+      <c r="H627" s="6"/>
     </row>
     <row r="628" ht="15.75" customHeight="1">
-      <c r="G628" s="5"/>
-      <c r="H628" s="5"/>
+      <c r="G628" s="6"/>
+      <c r="H628" s="6"/>
     </row>
     <row r="629" ht="15.75" customHeight="1">
-      <c r="G629" s="5"/>
-      <c r="H629" s="5"/>
+      <c r="G629" s="6"/>
+      <c r="H629" s="6"/>
     </row>
     <row r="630" ht="15.75" customHeight="1">
-      <c r="G630" s="5"/>
-      <c r="H630" s="5"/>
+      <c r="G630" s="6"/>
+      <c r="H630" s="6"/>
     </row>
     <row r="631" ht="15.75" customHeight="1">
-      <c r="G631" s="5"/>
-      <c r="H631" s="5"/>
+      <c r="G631" s="6"/>
+      <c r="H631" s="6"/>
     </row>
     <row r="632" ht="15.75" customHeight="1">
-      <c r="G632" s="5"/>
-      <c r="H632" s="5"/>
+      <c r="G632" s="6"/>
+      <c r="H632" s="6"/>
     </row>
     <row r="633" ht="15.75" customHeight="1">
-      <c r="G633" s="5"/>
-      <c r="H633" s="5"/>
+      <c r="G633" s="6"/>
+      <c r="H633" s="6"/>
     </row>
     <row r="634" ht="15.75" customHeight="1">
-      <c r="G634" s="5"/>
-      <c r="H634" s="5"/>
+      <c r="G634" s="6"/>
+      <c r="H634" s="6"/>
     </row>
     <row r="635" ht="15.75" customHeight="1">
-      <c r="G635" s="5"/>
-      <c r="H635" s="5"/>
+      <c r="G635" s="6"/>
+      <c r="H635" s="6"/>
     </row>
     <row r="636" ht="15.75" customHeight="1">
-      <c r="G636" s="5"/>
-      <c r="H636" s="5"/>
+      <c r="G636" s="6"/>
+      <c r="H636" s="6"/>
     </row>
     <row r="637" ht="15.75" customHeight="1">
-      <c r="G637" s="5"/>
-      <c r="H637" s="5"/>
+      <c r="G637" s="6"/>
+      <c r="H637" s="6"/>
     </row>
     <row r="638" ht="15.75" customHeight="1">
-      <c r="G638" s="5"/>
-      <c r="H638" s="5"/>
+      <c r="G638" s="6"/>
+      <c r="H638" s="6"/>
     </row>
     <row r="639" ht="15.75" customHeight="1">
-      <c r="G639" s="5"/>
-      <c r="H639" s="5"/>
+      <c r="G639" s="6"/>
+      <c r="H639" s="6"/>
     </row>
     <row r="640" ht="15.75" customHeight="1">
-      <c r="G640" s="5"/>
-      <c r="H640" s="5"/>
+      <c r="G640" s="6"/>
+      <c r="H640" s="6"/>
     </row>
     <row r="641" ht="15.75" customHeight="1">
-      <c r="G641" s="5"/>
-      <c r="H641" s="5"/>
+      <c r="G641" s="6"/>
+      <c r="H641" s="6"/>
     </row>
     <row r="642" ht="15.75" customHeight="1">
-      <c r="G642" s="5"/>
-      <c r="H642" s="5"/>
+      <c r="G642" s="6"/>
+      <c r="H642" s="6"/>
     </row>
     <row r="643" ht="15.75" customHeight="1">
-      <c r="G643" s="5"/>
-      <c r="H643" s="5"/>
+      <c r="G643" s="6"/>
+      <c r="H643" s="6"/>
     </row>
     <row r="644" ht="15.75" customHeight="1">
-      <c r="G644" s="5"/>
-      <c r="H644" s="5"/>
+      <c r="G644" s="6"/>
+      <c r="H644" s="6"/>
     </row>
     <row r="645" ht="15.75" customHeight="1">
-      <c r="G645" s="5"/>
-      <c r="H645" s="5"/>
+      <c r="G645" s="6"/>
+      <c r="H645" s="6"/>
     </row>
     <row r="646" ht="15.75" customHeight="1">
-      <c r="G646" s="5"/>
-      <c r="H646" s="5"/>
+      <c r="G646" s="6"/>
+      <c r="H646" s="6"/>
     </row>
     <row r="647" ht="15.75" customHeight="1">
-      <c r="G647" s="5"/>
-      <c r="H647" s="5"/>
+      <c r="G647" s="6"/>
+      <c r="H647" s="6"/>
     </row>
     <row r="648" ht="15.75" customHeight="1">
-      <c r="G648" s="5"/>
-      <c r="H648" s="5"/>
+      <c r="G648" s="6"/>
+      <c r="H648" s="6"/>
     </row>
     <row r="649" ht="15.75" customHeight="1">
-      <c r="G649" s="5"/>
-      <c r="H649" s="5"/>
+      <c r="G649" s="6"/>
+      <c r="H649" s="6"/>
     </row>
     <row r="650" ht="15.75" customHeight="1">
-      <c r="G650" s="5"/>
-      <c r="H650" s="5"/>
+      <c r="G650" s="6"/>
+      <c r="H650" s="6"/>
     </row>
     <row r="651" ht="15.75" customHeight="1">
-      <c r="G651" s="5"/>
-      <c r="H651" s="5"/>
+      <c r="G651" s="6"/>
+      <c r="H651" s="6"/>
     </row>
     <row r="652" ht="15.75" customHeight="1">
-      <c r="G652" s="5"/>
-      <c r="H652" s="5"/>
+      <c r="G652" s="6"/>
+      <c r="H652" s="6"/>
     </row>
     <row r="653" ht="15.75" customHeight="1">
-      <c r="G653" s="5"/>
-      <c r="H653" s="5"/>
+      <c r="G653" s="6"/>
+      <c r="H653" s="6"/>
     </row>
     <row r="654" ht="15.75" customHeight="1">
-      <c r="G654" s="5"/>
-      <c r="H654" s="5"/>
+      <c r="G654" s="6"/>
+      <c r="H654" s="6"/>
     </row>
     <row r="655" ht="15.75" customHeight="1">
-      <c r="G655" s="5"/>
-      <c r="H655" s="5"/>
+      <c r="G655" s="6"/>
+      <c r="H655" s="6"/>
     </row>
     <row r="656" ht="15.75" customHeight="1">
-      <c r="G656" s="5"/>
-      <c r="H656" s="5"/>
+      <c r="G656" s="6"/>
+      <c r="H656" s="6"/>
     </row>
     <row r="657" ht="15.75" customHeight="1">
-      <c r="G657" s="5"/>
-      <c r="H657" s="5"/>
+      <c r="G657" s="6"/>
+      <c r="H657" s="6"/>
     </row>
     <row r="658" ht="15.75" customHeight="1">
-      <c r="G658" s="5"/>
-      <c r="H658" s="5"/>
+      <c r="G658" s="6"/>
+      <c r="H658" s="6"/>
     </row>
     <row r="659" ht="15.75" customHeight="1">
-      <c r="G659" s="5"/>
-      <c r="H659" s="5"/>
+      <c r="G659" s="6"/>
+      <c r="H659" s="6"/>
     </row>
     <row r="660" ht="15.75" customHeight="1">
-      <c r="G660" s="5"/>
-      <c r="H660" s="5"/>
+      <c r="G660" s="6"/>
+      <c r="H660" s="6"/>
     </row>
     <row r="661" ht="15.75" customHeight="1">
-      <c r="G661" s="5"/>
-      <c r="H661" s="5"/>
+      <c r="G661" s="6"/>
+      <c r="H661" s="6"/>
     </row>
     <row r="662" ht="15.75" customHeight="1">
-      <c r="G662" s="5"/>
-      <c r="H662" s="5"/>
+      <c r="G662" s="6"/>
+      <c r="H662" s="6"/>
     </row>
     <row r="663" ht="15.75" customHeight="1">
-      <c r="G663" s="5"/>
-      <c r="H663" s="5"/>
+      <c r="G663" s="6"/>
+      <c r="H663" s="6"/>
     </row>
     <row r="664" ht="15.75" customHeight="1">
-      <c r="G664" s="5"/>
-      <c r="H664" s="5"/>
+      <c r="G664" s="6"/>
+      <c r="H664" s="6"/>
     </row>
     <row r="665" ht="15.75" customHeight="1">
-      <c r="G665" s="5"/>
-      <c r="H665" s="5"/>
+      <c r="G665" s="6"/>
+      <c r="H665" s="6"/>
     </row>
     <row r="666" ht="15.75" customHeight="1">
-      <c r="G666" s="5"/>
-      <c r="H666" s="5"/>
+      <c r="G666" s="6"/>
+      <c r="H666" s="6"/>
     </row>
     <row r="667" ht="15.75" customHeight="1">
-      <c r="G667" s="5"/>
-      <c r="H667" s="5"/>
+      <c r="G667" s="6"/>
+      <c r="H667" s="6"/>
     </row>
     <row r="668" ht="15.75" customHeight="1">
-      <c r="G668" s="5"/>
-      <c r="H668" s="5"/>
+      <c r="G668" s="6"/>
+      <c r="H668" s="6"/>
     </row>
     <row r="669" ht="15.75" customHeight="1">
-      <c r="G669" s="5"/>
-      <c r="H669" s="5"/>
+      <c r="G669" s="6"/>
+      <c r="H669" s="6"/>
     </row>
     <row r="670" ht="15.75" customHeight="1">
-      <c r="G670" s="5"/>
-      <c r="H670" s="5"/>
+      <c r="G670" s="6"/>
+      <c r="H670" s="6"/>
     </row>
     <row r="671" ht="15.75" customHeight="1">
-      <c r="G671" s="5"/>
-      <c r="H671" s="5"/>
+      <c r="G671" s="6"/>
+      <c r="H671" s="6"/>
     </row>
     <row r="672" ht="15.75" customHeight="1">
-      <c r="G672" s="5"/>
-      <c r="H672" s="5"/>
+      <c r="G672" s="6"/>
+      <c r="H672" s="6"/>
     </row>
     <row r="673" ht="15.75" customHeight="1">
-      <c r="G673" s="5"/>
-      <c r="H673" s="5"/>
+      <c r="G673" s="6"/>
+      <c r="H673" s="6"/>
     </row>
     <row r="674" ht="15.75" customHeight="1">
-      <c r="G674" s="5"/>
-      <c r="H674" s="5"/>
+      <c r="G674" s="6"/>
+      <c r="H674" s="6"/>
     </row>
     <row r="675" ht="15.75" customHeight="1">
-      <c r="G675" s="5"/>
-      <c r="H675" s="5"/>
+      <c r="G675" s="6"/>
+      <c r="H675" s="6"/>
     </row>
     <row r="676" ht="15.75" customHeight="1">
-      <c r="G676" s="5"/>
-      <c r="H676" s="5"/>
+      <c r="G676" s="6"/>
+      <c r="H676" s="6"/>
     </row>
     <row r="677" ht="15.75" customHeight="1">
-      <c r="G677" s="5"/>
-      <c r="H677" s="5"/>
+      <c r="G677" s="6"/>
+      <c r="H677" s="6"/>
     </row>
     <row r="678" ht="15.75" customHeight="1">
-      <c r="G678" s="5"/>
-      <c r="H678" s="5"/>
+      <c r="G678" s="6"/>
+      <c r="H678" s="6"/>
     </row>
     <row r="679" ht="15.75" customHeight="1">
-      <c r="G679" s="5"/>
-      <c r="H679" s="5"/>
+      <c r="G679" s="6"/>
+      <c r="H679" s="6"/>
     </row>
     <row r="680" ht="15.75" customHeight="1">
-      <c r="G680" s="5"/>
-      <c r="H680" s="5"/>
+      <c r="G680" s="6"/>
+      <c r="H680" s="6"/>
     </row>
     <row r="681" ht="15.75" customHeight="1">
-      <c r="G681" s="5"/>
-      <c r="H681" s="5"/>
+      <c r="G681" s="6"/>
+      <c r="H681" s="6"/>
     </row>
     <row r="682" ht="15.75" customHeight="1">
-      <c r="G682" s="5"/>
-      <c r="H682" s="5"/>
+      <c r="G682" s="6"/>
+      <c r="H682" s="6"/>
     </row>
     <row r="683" ht="15.75" customHeight="1">
-      <c r="G683" s="5"/>
-      <c r="H683" s="5"/>
+      <c r="G683" s="6"/>
+      <c r="H683" s="6"/>
     </row>
     <row r="684" ht="15.75" customHeight="1">
-      <c r="G684" s="5"/>
-      <c r="H684" s="5"/>
+      <c r="G684" s="6"/>
+      <c r="H684" s="6"/>
     </row>
     <row r="685" ht="15.75" customHeight="1">
-      <c r="G685" s="5"/>
-      <c r="H685" s="5"/>
+      <c r="G685" s="6"/>
+      <c r="H685" s="6"/>
     </row>
     <row r="686" ht="15.75" customHeight="1">
-      <c r="G686" s="5"/>
-      <c r="H686" s="5"/>
+      <c r="G686" s="6"/>
+      <c r="H686" s="6"/>
     </row>
     <row r="687" ht="15.75" customHeight="1">
-      <c r="G687" s="5"/>
-      <c r="H687" s="5"/>
+      <c r="G687" s="6"/>
+      <c r="H687" s="6"/>
     </row>
     <row r="688" ht="15.75" customHeight="1">
-      <c r="G688" s="5"/>
-      <c r="H688" s="5"/>
+      <c r="G688" s="6"/>
+      <c r="H688" s="6"/>
     </row>
     <row r="689" ht="15.75" customHeight="1">
-      <c r="G689" s="5"/>
-      <c r="H689" s="5"/>
+      <c r="G689" s="6"/>
+      <c r="H689" s="6"/>
     </row>
     <row r="690" ht="15.75" customHeight="1">
-      <c r="G690" s="5"/>
-      <c r="H690" s="5"/>
+      <c r="G690" s="6"/>
+      <c r="H690" s="6"/>
     </row>
     <row r="691" ht="15.75" customHeight="1">
-      <c r="G691" s="5"/>
-      <c r="H691" s="5"/>
+      <c r="G691" s="6"/>
+      <c r="H691" s="6"/>
     </row>
     <row r="692" ht="15.75" customHeight="1">
-      <c r="G692" s="5"/>
-      <c r="H692" s="5"/>
+      <c r="G692" s="6"/>
+      <c r="H692" s="6"/>
     </row>
     <row r="693" ht="15.75" customHeight="1">
-      <c r="G693" s="5"/>
-      <c r="H693" s="5"/>
+      <c r="G693" s="6"/>
+      <c r="H693" s="6"/>
     </row>
     <row r="694" ht="15.75" customHeight="1">
-      <c r="G694" s="5"/>
-      <c r="H694" s="5"/>
+      <c r="G694" s="6"/>
+      <c r="H694" s="6"/>
     </row>
     <row r="695" ht="15.75" customHeight="1">
-      <c r="G695" s="5"/>
-      <c r="H695" s="5"/>
+      <c r="G695" s="6"/>
+      <c r="H695" s="6"/>
     </row>
     <row r="696" ht="15.75" customHeight="1">
-      <c r="G696" s="5"/>
-      <c r="H696" s="5"/>
+      <c r="G696" s="6"/>
+      <c r="H696" s="6"/>
     </row>
     <row r="697" ht="15.75" customHeight="1">
-      <c r="G697" s="5"/>
-      <c r="H697" s="5"/>
+      <c r="G697" s="6"/>
+      <c r="H697" s="6"/>
     </row>
     <row r="698" ht="15.75" customHeight="1">
-      <c r="G698" s="5"/>
-      <c r="H698" s="5"/>
+      <c r="G698" s="6"/>
+      <c r="H698" s="6"/>
     </row>
     <row r="699" ht="15.75" customHeight="1">
-      <c r="G699" s="5"/>
-      <c r="H699" s="5"/>
+      <c r="G699" s="6"/>
+      <c r="H699" s="6"/>
     </row>
     <row r="700" ht="15.75" customHeight="1">
-      <c r="G700" s="5"/>
-      <c r="H700" s="5"/>
+      <c r="G700" s="6"/>
+      <c r="H700" s="6"/>
     </row>
     <row r="701" ht="15.75" customHeight="1">
-      <c r="G701" s="5"/>
-      <c r="H701" s="5"/>
+      <c r="G701" s="6"/>
+      <c r="H701" s="6"/>
     </row>
     <row r="702" ht="15.75" customHeight="1">
-      <c r="G702" s="5"/>
-      <c r="H702" s="5"/>
+      <c r="G702" s="6"/>
+      <c r="H702" s="6"/>
     </row>
     <row r="703" ht="15.75" customHeight="1">
-      <c r="G703" s="5"/>
-      <c r="H703" s="5"/>
+      <c r="G703" s="6"/>
+      <c r="H703" s="6"/>
     </row>
     <row r="704" ht="15.75" customHeight="1">
-      <c r="G704" s="5"/>
-      <c r="H704" s="5"/>
+      <c r="G704" s="6"/>
+      <c r="H704" s="6"/>
     </row>
     <row r="705" ht="15.75" customHeight="1">
-      <c r="G705" s="5"/>
-      <c r="H705" s="5"/>
+      <c r="G705" s="6"/>
+      <c r="H705" s="6"/>
     </row>
     <row r="706" ht="15.75" customHeight="1">
-      <c r="G706" s="5"/>
-      <c r="H706" s="5"/>
+      <c r="G706" s="6"/>
+      <c r="H706" s="6"/>
     </row>
     <row r="707" ht="15.75" customHeight="1">
-      <c r="G707" s="5"/>
-      <c r="H707" s="5"/>
+      <c r="G707" s="6"/>
+      <c r="H707" s="6"/>
     </row>
     <row r="708" ht="15.75" customHeight="1">
-      <c r="G708" s="5"/>
-      <c r="H708" s="5"/>
+      <c r="G708" s="6"/>
+      <c r="H708" s="6"/>
     </row>
     <row r="709" ht="15.75" customHeight="1">
-      <c r="G709" s="5"/>
-      <c r="H709" s="5"/>
+      <c r="G709" s="6"/>
+      <c r="H709" s="6"/>
     </row>
     <row r="710" ht="15.75" customHeight="1">
-      <c r="G710" s="5"/>
-      <c r="H710" s="5"/>
+      <c r="G710" s="6"/>
+      <c r="H710" s="6"/>
     </row>
     <row r="711" ht="15.75" customHeight="1">
-      <c r="G711" s="5"/>
-      <c r="H711" s="5"/>
+      <c r="G711" s="6"/>
+      <c r="H711" s="6"/>
     </row>
     <row r="712" ht="15.75" customHeight="1">
-      <c r="G712" s="5"/>
-      <c r="H712" s="5"/>
+      <c r="G712" s="6"/>
+      <c r="H712" s="6"/>
     </row>
     <row r="713" ht="15.75" customHeight="1">
-      <c r="G713" s="5"/>
-      <c r="H713" s="5"/>
+      <c r="G713" s="6"/>
+      <c r="H713" s="6"/>
     </row>
     <row r="714" ht="15.75" customHeight="1">
-      <c r="G714" s="5"/>
-      <c r="H714" s="5"/>
+      <c r="G714" s="6"/>
+      <c r="H714" s="6"/>
     </row>
     <row r="715" ht="15.75" customHeight="1">
-      <c r="G715" s="5"/>
-      <c r="H715" s="5"/>
+      <c r="G715" s="6"/>
+      <c r="H715" s="6"/>
     </row>
     <row r="716" ht="15.75" customHeight="1">
-      <c r="G716" s="5"/>
-      <c r="H716" s="5"/>
+      <c r="G716" s="6"/>
+      <c r="H716" s="6"/>
     </row>
     <row r="717" ht="15.75" customHeight="1">
-      <c r="G717" s="5"/>
-      <c r="H717" s="5"/>
+      <c r="G717" s="6"/>
+      <c r="H717" s="6"/>
     </row>
     <row r="718" ht="15.75" customHeight="1">
-      <c r="G718" s="5"/>
-      <c r="H718" s="5"/>
+      <c r="G718" s="6"/>
+      <c r="H718" s="6"/>
     </row>
     <row r="719" ht="15.75" customHeight="1">
-      <c r="G719" s="5"/>
-      <c r="H719" s="5"/>
+      <c r="G719" s="6"/>
+      <c r="H719" s="6"/>
     </row>
     <row r="720" ht="15.75" customHeight="1">
-      <c r="G720" s="5"/>
-      <c r="H720" s="5"/>
+      <c r="G720" s="6"/>
+      <c r="H720" s="6"/>
     </row>
     <row r="721" ht="15.75" customHeight="1">
-      <c r="G721" s="5"/>
-      <c r="H721" s="5"/>
+      <c r="G721" s="6"/>
+      <c r="H721" s="6"/>
     </row>
     <row r="722" ht="15.75" customHeight="1">
-      <c r="G722" s="5"/>
-      <c r="H722" s="5"/>
+      <c r="G722" s="6"/>
+      <c r="H722" s="6"/>
     </row>
     <row r="723" ht="15.75" customHeight="1">
-      <c r="G723" s="5"/>
-      <c r="H723" s="5"/>
+      <c r="G723" s="6"/>
+      <c r="H723" s="6"/>
     </row>
     <row r="724" ht="15.75" customHeight="1">
-      <c r="G724" s="5"/>
-      <c r="H724" s="5"/>
+      <c r="G724" s="6"/>
+      <c r="H724" s="6"/>
     </row>
     <row r="725" ht="15.75" customHeight="1">
-      <c r="G725" s="5"/>
-      <c r="H725" s="5"/>
+      <c r="G725" s="6"/>
+      <c r="H725" s="6"/>
     </row>
     <row r="726" ht="15.75" customHeight="1">
-      <c r="G726" s="5"/>
-      <c r="H726" s="5"/>
+      <c r="G726" s="6"/>
+      <c r="H726" s="6"/>
     </row>
     <row r="727" ht="15.75" customHeight="1">
-      <c r="G727" s="5"/>
-      <c r="H727" s="5"/>
+      <c r="G727" s="6"/>
+      <c r="H727" s="6"/>
     </row>
     <row r="728" ht="15.75" customHeight="1">
-      <c r="G728" s="5"/>
-      <c r="H728" s="5"/>
+      <c r="G728" s="6"/>
+      <c r="H728" s="6"/>
     </row>
     <row r="729" ht="15.75" customHeight="1">
-      <c r="G729" s="5"/>
-      <c r="H729" s="5"/>
+      <c r="G729" s="6"/>
+      <c r="H729" s="6"/>
     </row>
     <row r="730" ht="15.75" customHeight="1">
-      <c r="G730" s="5"/>
-      <c r="H730" s="5"/>
+      <c r="G730" s="6"/>
+      <c r="H730" s="6"/>
     </row>
     <row r="731" ht="15.75" customHeight="1">
-      <c r="G731" s="5"/>
-      <c r="H731" s="5"/>
+      <c r="G731" s="6"/>
+      <c r="H731" s="6"/>
     </row>
     <row r="732" ht="15.75" customHeight="1">
-      <c r="G732" s="5"/>
-      <c r="H732" s="5"/>
+      <c r="G732" s="6"/>
+      <c r="H732" s="6"/>
     </row>
     <row r="733" ht="15.75" customHeight="1">
-      <c r="G733" s="5"/>
-      <c r="H733" s="5"/>
+      <c r="G733" s="6"/>
+      <c r="H733" s="6"/>
     </row>
     <row r="734" ht="15.75" customHeight="1">
-      <c r="G734" s="5"/>
-      <c r="H734" s="5"/>
+      <c r="G734" s="6"/>
+      <c r="H734" s="6"/>
     </row>
     <row r="735" ht="15.75" customHeight="1">
-      <c r="G735" s="5"/>
-      <c r="H735" s="5"/>
+      <c r="G735" s="6"/>
+      <c r="H735" s="6"/>
     </row>
     <row r="736" ht="15.75" customHeight="1">
-      <c r="G736" s="5"/>
-      <c r="H736" s="5"/>
+      <c r="G736" s="6"/>
+      <c r="H736" s="6"/>
     </row>
     <row r="737" ht="15.75" customHeight="1">
-      <c r="G737" s="5"/>
-      <c r="H737" s="5"/>
+      <c r="G737" s="6"/>
+      <c r="H737" s="6"/>
     </row>
     <row r="738" ht="15.75" customHeight="1">
-      <c r="G738" s="5"/>
-      <c r="H738" s="5"/>
+      <c r="G738" s="6"/>
+      <c r="H738" s="6"/>
     </row>
     <row r="739" ht="15.75" customHeight="1">
-      <c r="G739" s="5"/>
-      <c r="H739" s="5"/>
+      <c r="G739" s="6"/>
+      <c r="H739" s="6"/>
     </row>
     <row r="740" ht="15.75" customHeight="1">
-      <c r="G740" s="5"/>
-      <c r="H740" s="5"/>
+      <c r="G740" s="6"/>
+      <c r="H740" s="6"/>
     </row>
     <row r="741" ht="15.75" customHeight="1">
-      <c r="G741" s="5"/>
-      <c r="H741" s="5"/>
+      <c r="G741" s="6"/>
+      <c r="H741" s="6"/>
     </row>
     <row r="742" ht="15.75" customHeight="1">
-      <c r="G742" s="5"/>
-      <c r="H742" s="5"/>
+      <c r="G742" s="6"/>
+      <c r="H742" s="6"/>
     </row>
     <row r="743" ht="15.75" customHeight="1">
-      <c r="G743" s="5"/>
-      <c r="H743" s="5"/>
+      <c r="G743" s="6"/>
+      <c r="H743" s="6"/>
     </row>
     <row r="744" ht="15.75" customHeight="1">
-      <c r="G744" s="5"/>
-      <c r="H744" s="5"/>
+      <c r="G744" s="6"/>
+      <c r="H744" s="6"/>
     </row>
     <row r="745" ht="15.75" customHeight="1">
-      <c r="G745" s="5"/>
-      <c r="H745" s="5"/>
+      <c r="G745" s="6"/>
+      <c r="H745" s="6"/>
     </row>
     <row r="746" ht="15.75" customHeight="1">
-      <c r="G746" s="5"/>
-      <c r="H746" s="5"/>
+      <c r="G746" s="6"/>
+      <c r="H746" s="6"/>
     </row>
     <row r="747" ht="15.75" customHeight="1">
-      <c r="G747" s="5"/>
-      <c r="H747" s="5"/>
+      <c r="G747" s="6"/>
+      <c r="H747" s="6"/>
     </row>
     <row r="748" ht="15.75" customHeight="1">
-      <c r="G748" s="5"/>
-      <c r="H748" s="5"/>
+      <c r="G748" s="6"/>
+      <c r="H748" s="6"/>
     </row>
     <row r="749" ht="15.75" customHeight="1">
-      <c r="G749" s="5"/>
-      <c r="H749" s="5"/>
+      <c r="G749" s="6"/>
+      <c r="H749" s="6"/>
     </row>
     <row r="750" ht="15.75" customHeight="1">
-      <c r="G750" s="5"/>
-      <c r="H750" s="5"/>
+      <c r="G750" s="6"/>
+      <c r="H750" s="6"/>
     </row>
     <row r="751" ht="15.75" customHeight="1">
-      <c r="G751" s="5"/>
-      <c r="H751" s="5"/>
+      <c r="G751" s="6"/>
+      <c r="H751" s="6"/>
     </row>
     <row r="752" ht="15.75" customHeight="1">
-      <c r="G752" s="5"/>
-      <c r="H752" s="5"/>
+      <c r="G752" s="6"/>
+      <c r="H752" s="6"/>
     </row>
     <row r="753" ht="15.75" customHeight="1">
-      <c r="G753" s="5"/>
-      <c r="H753" s="5"/>
+      <c r="G753" s="6"/>
+      <c r="H753" s="6"/>
     </row>
     <row r="754" ht="15.75" customHeight="1">
-      <c r="G754" s="5"/>
-      <c r="H754" s="5"/>
+      <c r="G754" s="6"/>
+      <c r="H754" s="6"/>
     </row>
     <row r="755" ht="15.75" customHeight="1">
-      <c r="G755" s="5"/>
-      <c r="H755" s="5"/>
+      <c r="G755" s="6"/>
+      <c r="H755" s="6"/>
     </row>
     <row r="756" ht="15.75" customHeight="1">
-      <c r="G756" s="5"/>
-      <c r="H756" s="5"/>
+      <c r="G756" s="6"/>
+      <c r="H756" s="6"/>
     </row>
     <row r="757" ht="15.75" customHeight="1">
-      <c r="G757" s="5"/>
-      <c r="H757" s="5"/>
+      <c r="G757" s="6"/>
+      <c r="H757" s="6"/>
     </row>
     <row r="758" ht="15.75" customHeight="1">
-      <c r="G758" s="5"/>
-      <c r="H758" s="5"/>
+      <c r="G758" s="6"/>
+      <c r="H758" s="6"/>
     </row>
     <row r="759" ht="15.75" customHeight="1">
-      <c r="G759" s="5"/>
-      <c r="H759" s="5"/>
+      <c r="G759" s="6"/>
+      <c r="H759" s="6"/>
     </row>
     <row r="760" ht="15.75" customHeight="1">
-      <c r="G760" s="5"/>
-      <c r="H760" s="5"/>
+      <c r="G760" s="6"/>
+      <c r="H760" s="6"/>
     </row>
     <row r="761" ht="15.75" customHeight="1">
-      <c r="G761" s="5"/>
-      <c r="H761" s="5"/>
+      <c r="G761" s="6"/>
+      <c r="H761" s="6"/>
     </row>
     <row r="762" ht="15.75" customHeight="1">
-      <c r="G762" s="5"/>
-      <c r="H762" s="5"/>
+      <c r="G762" s="6"/>
+      <c r="H762" s="6"/>
     </row>
     <row r="763" ht="15.75" customHeight="1">
-      <c r="G763" s="5"/>
-      <c r="H763" s="5"/>
+      <c r="G763" s="6"/>
+      <c r="H763" s="6"/>
     </row>
     <row r="764" ht="15.75" customHeight="1">
-      <c r="G764" s="5"/>
-      <c r="H764" s="5"/>
+      <c r="G764" s="6"/>
+      <c r="H764" s="6"/>
     </row>
     <row r="765" ht="15.75" customHeight="1">
-      <c r="G765" s="5"/>
-      <c r="H765" s="5"/>
+      <c r="G765" s="6"/>
+      <c r="H765" s="6"/>
     </row>
     <row r="766" ht="15.75" customHeight="1">
-      <c r="G766" s="5"/>
-      <c r="H766" s="5"/>
+      <c r="G766" s="6"/>
+      <c r="H766" s="6"/>
     </row>
     <row r="767" ht="15.75" customHeight="1">
-      <c r="G767" s="5"/>
-      <c r="H767" s="5"/>
+      <c r="G767" s="6"/>
+      <c r="H767" s="6"/>
     </row>
     <row r="768" ht="15.75" customHeight="1">
-      <c r="G768" s="5"/>
-      <c r="H768" s="5"/>
+      <c r="G768" s="6"/>
+      <c r="H768" s="6"/>
     </row>
     <row r="769" ht="15.75" customHeight="1">
-      <c r="G769" s="5"/>
-      <c r="H769" s="5"/>
+      <c r="G769" s="6"/>
+      <c r="H769" s="6"/>
     </row>
     <row r="770" ht="15.75" customHeight="1">
-      <c r="G770" s="5"/>
-      <c r="H770" s="5"/>
+      <c r="G770" s="6"/>
+      <c r="H770" s="6"/>
     </row>
     <row r="771" ht="15.75" customHeight="1">
-      <c r="G771" s="5"/>
-      <c r="H771" s="5"/>
+      <c r="G771" s="6"/>
+      <c r="H771" s="6"/>
     </row>
     <row r="772" ht="15.75" customHeight="1">
-      <c r="G772" s="5"/>
-      <c r="H772" s="5"/>
+      <c r="G772" s="6"/>
+      <c r="H772" s="6"/>
     </row>
     <row r="773" ht="15.75" customHeight="1">
-      <c r="G773" s="5"/>
-      <c r="H773" s="5"/>
+      <c r="G773" s="6"/>
+      <c r="H773" s="6"/>
     </row>
     <row r="774" ht="15.75" customHeight="1">
-      <c r="G774" s="5"/>
-      <c r="H774" s="5"/>
+      <c r="G774" s="6"/>
+      <c r="H774" s="6"/>
     </row>
     <row r="775" ht="15.75" customHeight="1">
-      <c r="G775" s="5"/>
-      <c r="H775" s="5"/>
+      <c r="G775" s="6"/>
+      <c r="H775" s="6"/>
     </row>
     <row r="776" ht="15.75" customHeight="1">
-      <c r="G776" s="5"/>
-      <c r="H776" s="5"/>
+      <c r="G776" s="6"/>
+      <c r="H776" s="6"/>
     </row>
     <row r="777" ht="15.75" customHeight="1">
-      <c r="G777" s="5"/>
-      <c r="H777" s="5"/>
+      <c r="G777" s="6"/>
+      <c r="H777" s="6"/>
     </row>
     <row r="778" ht="15.75" customHeight="1">
-      <c r="G778" s="5"/>
-      <c r="H778" s="5"/>
+      <c r="G778" s="6"/>
+      <c r="H778" s="6"/>
     </row>
     <row r="779" ht="15.75" customHeight="1">
-      <c r="G779" s="5"/>
-      <c r="H779" s="5"/>
+      <c r="G779" s="6"/>
+      <c r="H779" s="6"/>
     </row>
     <row r="780" ht="15.75" customHeight="1">
-      <c r="G780" s="5"/>
-      <c r="H780" s="5"/>
+      <c r="G780" s="6"/>
+      <c r="H780" s="6"/>
     </row>
     <row r="781" ht="15.75" customHeight="1">
-      <c r="G781" s="5"/>
-      <c r="H781" s="5"/>
+      <c r="G781" s="6"/>
+      <c r="H781" s="6"/>
     </row>
     <row r="782" ht="15.75" customHeight="1">
-      <c r="G782" s="5"/>
-      <c r="H782" s="5"/>
+      <c r="G782" s="6"/>
+      <c r="H782" s="6"/>
     </row>
     <row r="783" ht="15.75" customHeight="1">
-      <c r="G783" s="5"/>
-      <c r="H783" s="5"/>
+      <c r="G783" s="6"/>
+      <c r="H783" s="6"/>
     </row>
     <row r="784" ht="15.75" customHeight="1">
-      <c r="G784" s="5"/>
-      <c r="H784" s="5"/>
+      <c r="G784" s="6"/>
+      <c r="H784" s="6"/>
     </row>
     <row r="785" ht="15.75" customHeight="1">
-      <c r="G785" s="5"/>
-      <c r="H785" s="5"/>
+      <c r="G785" s="6"/>
+      <c r="H785" s="6"/>
     </row>
     <row r="786" ht="15.75" customHeight="1">
-      <c r="G786" s="5"/>
-      <c r="H786" s="5"/>
+      <c r="G786" s="6"/>
+      <c r="H786" s="6"/>
     </row>
     <row r="787" ht="15.75" customHeight="1">
-      <c r="G787" s="5"/>
-      <c r="H787" s="5"/>
+      <c r="G787" s="6"/>
+      <c r="H787" s="6"/>
     </row>
     <row r="788" ht="15.75" customHeight="1">
-      <c r="G788" s="5"/>
-      <c r="H788" s="5"/>
+      <c r="G788" s="6"/>
+      <c r="H788" s="6"/>
     </row>
     <row r="789" ht="15.75" customHeight="1">
-      <c r="G789" s="5"/>
-      <c r="H789" s="5"/>
+      <c r="G789" s="6"/>
+      <c r="H789" s="6"/>
     </row>
     <row r="790" ht="15.75" customHeight="1">
-      <c r="G790" s="5"/>
-      <c r="H790" s="5"/>
+      <c r="G790" s="6"/>
+      <c r="H790" s="6"/>
     </row>
     <row r="791" ht="15.75" customHeight="1">
-      <c r="G791" s="5"/>
-      <c r="H791" s="5"/>
+      <c r="G791" s="6"/>
+      <c r="H791" s="6"/>
     </row>
     <row r="792" ht="15.75" customHeight="1">
-      <c r="G792" s="5"/>
-      <c r="H792" s="5"/>
+      <c r="G792" s="6"/>
+      <c r="H792" s="6"/>
     </row>
     <row r="793" ht="15.75" customHeight="1">
-      <c r="G793" s="5"/>
-      <c r="H793" s="5"/>
+      <c r="G793" s="6"/>
+      <c r="H793" s="6"/>
     </row>
     <row r="794" ht="15.75" customHeight="1">
-      <c r="G794" s="5"/>
-      <c r="H794" s="5"/>
+      <c r="G794" s="6"/>
+      <c r="H794" s="6"/>
     </row>
     <row r="795" ht="15.75" customHeight="1">
-      <c r="G795" s="5"/>
-      <c r="H795" s="5"/>
+      <c r="G795" s="6"/>
+      <c r="H795" s="6"/>
     </row>
     <row r="796" ht="15.75" customHeight="1">
-      <c r="G796" s="5"/>
-      <c r="H796" s="5"/>
+      <c r="G796" s="6"/>
+      <c r="H796" s="6"/>
     </row>
     <row r="797" ht="15.75" customHeight="1">
-      <c r="G797" s="5"/>
-      <c r="H797" s="5"/>
+      <c r="G797" s="6"/>
+      <c r="H797" s="6"/>
     </row>
     <row r="798" ht="15.75" customHeight="1">
-      <c r="G798" s="5"/>
-      <c r="H798" s="5"/>
+      <c r="G798" s="6"/>
+      <c r="H798" s="6"/>
     </row>
     <row r="799" ht="15.75" customHeight="1">
-      <c r="G799" s="5"/>
-      <c r="H799" s="5"/>
+      <c r="G799" s="6"/>
+      <c r="H799" s="6"/>
     </row>
     <row r="800" ht="15.75" customHeight="1">
-      <c r="G800" s="5"/>
-      <c r="H800" s="5"/>
+      <c r="G800" s="6"/>
+      <c r="H800" s="6"/>
     </row>
     <row r="801" ht="15.75" customHeight="1">
-      <c r="G801" s="5"/>
-      <c r="H801" s="5"/>
+      <c r="G801" s="6"/>
+      <c r="H801" s="6"/>
     </row>
     <row r="802" ht="15.75" customHeight="1">
-      <c r="G802" s="5"/>
-      <c r="H802" s="5"/>
+      <c r="G802" s="6"/>
+      <c r="H802" s="6"/>
     </row>
     <row r="803" ht="15.75" customHeight="1">
-      <c r="G803" s="5"/>
-      <c r="H803" s="5"/>
+      <c r="G803" s="6"/>
+      <c r="H803" s="6"/>
     </row>
     <row r="804" ht="15.75" customHeight="1">
-      <c r="G804" s="5"/>
-      <c r="H804" s="5"/>
+      <c r="G804" s="6"/>
+      <c r="H804" s="6"/>
     </row>
     <row r="805" ht="15.75" customHeight="1">
-      <c r="G805" s="5"/>
-      <c r="H805" s="5"/>
+      <c r="G805" s="6"/>
+      <c r="H805" s="6"/>
     </row>
     <row r="806" ht="15.75" customHeight="1">
-      <c r="G806" s="5"/>
-      <c r="H806" s="5"/>
+      <c r="G806" s="6"/>
+      <c r="H806" s="6"/>
     </row>
     <row r="807" ht="15.75" customHeight="1">
-      <c r="G807" s="5"/>
-      <c r="H807" s="5"/>
+      <c r="G807" s="6"/>
+      <c r="H807" s="6"/>
     </row>
     <row r="808" ht="15.75" customHeight="1">
-      <c r="G808" s="5"/>
-      <c r="H808" s="5"/>
+      <c r="G808" s="6"/>
+      <c r="H808" s="6"/>
     </row>
     <row r="809" ht="15.75" customHeight="1">
-      <c r="G809" s="5"/>
-      <c r="H809" s="5"/>
+      <c r="G809" s="6"/>
+      <c r="H809" s="6"/>
     </row>
     <row r="810" ht="15.75" customHeight="1">
-      <c r="G810" s="5"/>
-      <c r="H810" s="5"/>
+      <c r="G810" s="6"/>
+      <c r="H810" s="6"/>
     </row>
     <row r="811" ht="15.75" customHeight="1">
-      <c r="G811" s="5"/>
-      <c r="H811" s="5"/>
+      <c r="G811" s="6"/>
+      <c r="H811" s="6"/>
     </row>
     <row r="812" ht="15.75" customHeight="1">
-      <c r="G812" s="5"/>
-      <c r="H812" s="5"/>
+      <c r="G812" s="6"/>
+      <c r="H812" s="6"/>
     </row>
     <row r="813" ht="15.75" customHeight="1">
-      <c r="G813" s="5"/>
-      <c r="H813" s="5"/>
+      <c r="G813" s="6"/>
+      <c r="H813" s="6"/>
     </row>
     <row r="814" ht="15.75" customHeight="1">
-      <c r="G814" s="5"/>
-      <c r="H814" s="5"/>
+      <c r="G814" s="6"/>
+      <c r="H814" s="6"/>
     </row>
     <row r="815" ht="15.75" customHeight="1">
-      <c r="G815" s="5"/>
-      <c r="H815" s="5"/>
+      <c r="G815" s="6"/>
+      <c r="H815" s="6"/>
     </row>
     <row r="816" ht="15.75" customHeight="1">
-      <c r="G816" s="5"/>
-      <c r="H816" s="5"/>
+      <c r="G816" s="6"/>
+      <c r="H816" s="6"/>
     </row>
     <row r="817" ht="15.75" customHeight="1">
-      <c r="G817" s="5"/>
-      <c r="H817" s="5"/>
+      <c r="G817" s="6"/>
+      <c r="H817" s="6"/>
     </row>
     <row r="818" ht="15.75" customHeight="1">
-      <c r="G818" s="5"/>
-      <c r="H818" s="5"/>
+      <c r="G818" s="6"/>
+      <c r="H818" s="6"/>
     </row>
     <row r="819" ht="15.75" customHeight="1">
-      <c r="G819" s="5"/>
-      <c r="H819" s="5"/>
+      <c r="G819" s="6"/>
+      <c r="H819" s="6"/>
     </row>
     <row r="820" ht="15.75" customHeight="1">
-      <c r="G820" s="5"/>
-      <c r="H820" s="5"/>
+      <c r="G820" s="6"/>
+      <c r="H820" s="6"/>
     </row>
     <row r="821" ht="15.75" customHeight="1">
-      <c r="G821" s="5"/>
-      <c r="H821" s="5"/>
+      <c r="G821" s="6"/>
+      <c r="H821" s="6"/>
     </row>
     <row r="822" ht="15.75" customHeight="1">
-      <c r="G822" s="5"/>
-      <c r="H822" s="5"/>
+      <c r="G822" s="6"/>
+      <c r="H822" s="6"/>
     </row>
     <row r="823" ht="15.75" customHeight="1">
-      <c r="G823" s="5"/>
-      <c r="H823" s="5"/>
+      <c r="G823" s="6"/>
+      <c r="H823" s="6"/>
     </row>
     <row r="824" ht="15.75" customHeight="1">
-      <c r="G824" s="5"/>
-      <c r="H824" s="5"/>
+      <c r="G824" s="6"/>
+      <c r="H824" s="6"/>
     </row>
     <row r="825" ht="15.75" customHeight="1">
-      <c r="G825" s="5"/>
-      <c r="H825" s="5"/>
+      <c r="G825" s="6"/>
+      <c r="H825" s="6"/>
     </row>
     <row r="826" ht="15.75" customHeight="1">
-      <c r="G826" s="5"/>
-      <c r="H826" s="5"/>
+      <c r="G826" s="6"/>
+      <c r="H826" s="6"/>
     </row>
     <row r="827" ht="15.75" customHeight="1">
-      <c r="G827" s="5"/>
-      <c r="H827" s="5"/>
+      <c r="G827" s="6"/>
+      <c r="H827" s="6"/>
     </row>
     <row r="828" ht="15.75" customHeight="1">
-      <c r="G828" s="5"/>
-      <c r="H828" s="5"/>
+      <c r="G828" s="6"/>
+      <c r="H828" s="6"/>
     </row>
     <row r="829" ht="15.75" customHeight="1">
-      <c r="G829" s="5"/>
-      <c r="H829" s="5"/>
+      <c r="G829" s="6"/>
+      <c r="H829" s="6"/>
     </row>
     <row r="830" ht="15.75" customHeight="1">
-      <c r="G830" s="5"/>
-      <c r="H830" s="5"/>
+      <c r="G830" s="6"/>
+      <c r="H830" s="6"/>
     </row>
     <row r="831" ht="15.75" customHeight="1">
-      <c r="G831" s="5"/>
-      <c r="H831" s="5"/>
+      <c r="G831" s="6"/>
+      <c r="H831" s="6"/>
     </row>
     <row r="832" ht="15.75" customHeight="1">
-      <c r="G832" s="5"/>
-      <c r="H832" s="5"/>
+      <c r="G832" s="6"/>
+      <c r="H832" s="6"/>
     </row>
     <row r="833" ht="15.75" customHeight="1">
-      <c r="G833" s="5"/>
-      <c r="H833" s="5"/>
+      <c r="G833" s="6"/>
+      <c r="H833" s="6"/>
     </row>
     <row r="834" ht="15.75" customHeight="1">
-      <c r="G834" s="5"/>
-      <c r="H834" s="5"/>
+      <c r="G834" s="6"/>
+      <c r="H834" s="6"/>
     </row>
     <row r="835" ht="15.75" customHeight="1">
-      <c r="G835" s="5"/>
-      <c r="H835" s="5"/>
+      <c r="G835" s="6"/>
+      <c r="H835" s="6"/>
     </row>
     <row r="836" ht="15.75" customHeight="1">
-      <c r="G836" s="5"/>
-      <c r="H836" s="5"/>
+      <c r="G836" s="6"/>
+      <c r="H836" s="6"/>
     </row>
     <row r="837" ht="15.75" customHeight="1">
-      <c r="G837" s="5"/>
-      <c r="H837" s="5"/>
+      <c r="G837" s="6"/>
+      <c r="H837" s="6"/>
     </row>
     <row r="838" ht="15.75" customHeight="1">
-      <c r="G838" s="5"/>
-      <c r="H838" s="5"/>
+      <c r="G838" s="6"/>
+      <c r="H838" s="6"/>
     </row>
     <row r="839" ht="15.75" customHeight="1">
-      <c r="G839" s="5"/>
-      <c r="H839" s="5"/>
+      <c r="G839" s="6"/>
+      <c r="H839" s="6"/>
     </row>
     <row r="840" ht="15.75" customHeight="1">
-      <c r="G840" s="5"/>
-      <c r="H840" s="5"/>
+      <c r="G840" s="6"/>
+      <c r="H840" s="6"/>
     </row>
     <row r="841" ht="15.75" customHeight="1">
-      <c r="G841" s="5"/>
-      <c r="H841" s="5"/>
+      <c r="G841" s="6"/>
+      <c r="H841" s="6"/>
     </row>
     <row r="842" ht="15.75" customHeight="1">
-      <c r="G842" s="5"/>
-      <c r="H842" s="5"/>
+      <c r="G842" s="6"/>
+      <c r="H842" s="6"/>
     </row>
     <row r="843" ht="15.75" customHeight="1">
-      <c r="G843" s="5"/>
-      <c r="H843" s="5"/>
+      <c r="G843" s="6"/>
+      <c r="H843" s="6"/>
     </row>
     <row r="844" ht="15.75" customHeight="1">
-      <c r="G844" s="5"/>
-      <c r="H844" s="5"/>
+      <c r="G844" s="6"/>
+      <c r="H844" s="6"/>
     </row>
     <row r="845" ht="15.75" customHeight="1">
-      <c r="G845" s="5"/>
-      <c r="H845" s="5"/>
+      <c r="G845" s="6"/>
+      <c r="H845" s="6"/>
     </row>
     <row r="846" ht="15.75" customHeight="1">
-      <c r="G846" s="5"/>
-      <c r="H846" s="5"/>
+      <c r="G846" s="6"/>
+      <c r="H846" s="6"/>
     </row>
     <row r="847" ht="15.75" customHeight="1">
-      <c r="G847" s="5"/>
-      <c r="H847" s="5"/>
+      <c r="G847" s="6"/>
+      <c r="H847" s="6"/>
     </row>
     <row r="848" ht="15.75" customHeight="1">
-      <c r="G848" s="5"/>
-      <c r="H848" s="5"/>
+      <c r="G848" s="6"/>
+      <c r="H848" s="6"/>
     </row>
     <row r="849" ht="15.75" customHeight="1">
-      <c r="G849" s="5"/>
-      <c r="H849" s="5"/>
+      <c r="G849" s="6"/>
+      <c r="H849" s="6"/>
     </row>
     <row r="850" ht="15.75" customHeight="1">
-      <c r="G850" s="5"/>
-      <c r="H850" s="5"/>
+      <c r="G850" s="6"/>
+      <c r="H850" s="6"/>
     </row>
     <row r="851" ht="15.75" customHeight="1">
-      <c r="G851" s="5"/>
-      <c r="H851" s="5"/>
+      <c r="G851" s="6"/>
+      <c r="H851" s="6"/>
     </row>
     <row r="852" ht="15.75" customHeight="1">
-      <c r="G852" s="5"/>
-      <c r="H852" s="5"/>
+      <c r="G852" s="6"/>
+      <c r="H852" s="6"/>
     </row>
     <row r="853" ht="15.75" customHeight="1">
-      <c r="G853" s="5"/>
-      <c r="H853" s="5"/>
+      <c r="G853" s="6"/>
+      <c r="H853" s="6"/>
     </row>
     <row r="854" ht="15.75" customHeight="1">
-      <c r="G854" s="5"/>
-      <c r="H854" s="5"/>
+      <c r="G854" s="6"/>
+      <c r="H854" s="6"/>
     </row>
     <row r="855" ht="15.75" customHeight="1">
-      <c r="G855" s="5"/>
-      <c r="H855" s="5"/>
+      <c r="G855" s="6"/>
+      <c r="H855" s="6"/>
     </row>
     <row r="856" ht="15.75" customHeight="1">
-      <c r="G856" s="5"/>
-      <c r="H856" s="5"/>
+      <c r="G856" s="6"/>
+      <c r="H856" s="6"/>
     </row>
     <row r="857" ht="15.75" customHeight="1">
-      <c r="G857" s="5"/>
-      <c r="H857" s="5"/>
+      <c r="G857" s="6"/>
+      <c r="H857" s="6"/>
     </row>
     <row r="858" ht="15.75" customHeight="1">
-      <c r="G858" s="5"/>
-      <c r="H858" s="5"/>
+      <c r="G858" s="6"/>
+      <c r="H858" s="6"/>
     </row>
     <row r="859" ht="15.75" customHeight="1">
-      <c r="G859" s="5"/>
-      <c r="H859" s="5"/>
+      <c r="G859" s="6"/>
+      <c r="H859" s="6"/>
     </row>
     <row r="860" ht="15.75" customHeight="1">
-      <c r="G860" s="5"/>
-      <c r="H860" s="5"/>
+      <c r="G860" s="6"/>
+      <c r="H860" s="6"/>
     </row>
     <row r="861" ht="15.75" customHeight="1">
-      <c r="G861" s="5"/>
-      <c r="H861" s="5"/>
+      <c r="G861" s="6"/>
+      <c r="H861" s="6"/>
     </row>
     <row r="862" ht="15.75" customHeight="1">
-      <c r="G862" s="5"/>
-      <c r="H862" s="5"/>
+      <c r="G862" s="6"/>
+      <c r="H862" s="6"/>
     </row>
     <row r="863" ht="15.75" customHeight="1">
-      <c r="G863" s="5"/>
-      <c r="H863" s="5"/>
+      <c r="G863" s="6"/>
+      <c r="H863" s="6"/>
     </row>
     <row r="864" ht="15.75" customHeight="1">
-      <c r="G864" s="5"/>
-      <c r="H864" s="5"/>
+      <c r="G864" s="6"/>
+      <c r="H864" s="6"/>
     </row>
     <row r="865" ht="15.75" customHeight="1">
-      <c r="G865" s="5"/>
-      <c r="H865" s="5"/>
+      <c r="G865" s="6"/>
+      <c r="H865" s="6"/>
     </row>
     <row r="866" ht="15.75" customHeight="1">
-      <c r="G866" s="5"/>
-      <c r="H866" s="5"/>
+      <c r="G866" s="6"/>
+      <c r="H866" s="6"/>
     </row>
     <row r="867" ht="15.75" customHeight="1">
-      <c r="G867" s="5"/>
-      <c r="H867" s="5"/>
+      <c r="G867" s="6"/>
+      <c r="H867" s="6"/>
     </row>
     <row r="868" ht="15.75" customHeight="1">
-      <c r="G868" s="5"/>
-      <c r="H868" s="5"/>
+      <c r="G868" s="6"/>
+      <c r="H868" s="6"/>
     </row>
     <row r="869" ht="15.75" customHeight="1">
-      <c r="G869" s="5"/>
-      <c r="H869" s="5"/>
+      <c r="G869" s="6"/>
+      <c r="H869" s="6"/>
     </row>
     <row r="870" ht="15.75" customHeight="1">
-      <c r="G870" s="5"/>
-      <c r="H870" s="5"/>
+      <c r="G870" s="6"/>
+      <c r="H870" s="6"/>
     </row>
     <row r="871" ht="15.75" customHeight="1">
-      <c r="G871" s="5"/>
-      <c r="H871" s="5"/>
+      <c r="G871" s="6"/>
+      <c r="H871" s="6"/>
     </row>
     <row r="872" ht="15.75" customHeight="1">
-      <c r="G872" s="5"/>
-      <c r="H872" s="5"/>
+      <c r="G872" s="6"/>
+      <c r="H872" s="6"/>
     </row>
     <row r="873" ht="15.75" customHeight="1">
-      <c r="G873" s="5"/>
-      <c r="H873" s="5"/>
+      <c r="G873" s="6"/>
+      <c r="H873" s="6"/>
     </row>
     <row r="874" ht="15.75" customHeight="1">
-      <c r="G874" s="5"/>
-      <c r="H874" s="5"/>
+      <c r="G874" s="6"/>
+      <c r="H874" s="6"/>
     </row>
     <row r="875" ht="15.75" customHeight="1">
-      <c r="G875" s="5"/>
-      <c r="H875" s="5"/>
+      <c r="G875" s="6"/>
+      <c r="H875" s="6"/>
     </row>
     <row r="876" ht="15.75" customHeight="1">
-      <c r="G876" s="5"/>
-      <c r="H876" s="5"/>
+      <c r="G876" s="6"/>
+      <c r="H876" s="6"/>
     </row>
     <row r="877" ht="15.75" customHeight="1">
-      <c r="G877" s="5"/>
-      <c r="H877" s="5"/>
+      <c r="G877" s="6"/>
+      <c r="H877" s="6"/>
     </row>
     <row r="878" ht="15.75" customHeight="1">
-      <c r="G878" s="5"/>
-      <c r="H878" s="5"/>
+      <c r="G878" s="6"/>
+      <c r="H878" s="6"/>
     </row>
     <row r="879" ht="15.75" customHeight="1">
-      <c r="G879" s="5"/>
-      <c r="H879" s="5"/>
+      <c r="G879" s="6"/>
+      <c r="H879" s="6"/>
     </row>
     <row r="880" ht="15.75" customHeight="1">
-      <c r="G880" s="5"/>
-      <c r="H880" s="5"/>
+      <c r="G880" s="6"/>
+      <c r="H880" s="6"/>
     </row>
     <row r="881" ht="15.75" customHeight="1">
-      <c r="G881" s="5"/>
-      <c r="H881" s="5"/>
+      <c r="G881" s="6"/>
+      <c r="H881" s="6"/>
     </row>
     <row r="882" ht="15.75" customHeight="1">
-      <c r="G882" s="5"/>
-      <c r="H882" s="5"/>
+      <c r="G882" s="6"/>
+      <c r="H882" s="6"/>
     </row>
     <row r="883" ht="15.75" customHeight="1">
-      <c r="G883" s="5"/>
-      <c r="H883" s="5"/>
+      <c r="G883" s="6"/>
+      <c r="H883" s="6"/>
     </row>
     <row r="884" ht="15.75" customHeight="1">
-      <c r="G884" s="5"/>
-      <c r="H884" s="5"/>
+      <c r="G884" s="6"/>
+      <c r="H884" s="6"/>
     </row>
     <row r="885" ht="15.75" customHeight="1">
-      <c r="G885" s="5"/>
-      <c r="H885" s="5"/>
+      <c r="G885" s="6"/>
+      <c r="H885" s="6"/>
     </row>
     <row r="886" ht="15.75" customHeight="1">
-      <c r="G886" s="5"/>
-      <c r="H886" s="5"/>
+      <c r="G886" s="6"/>
+      <c r="H886" s="6"/>
     </row>
     <row r="887" ht="15.75" customHeight="1">
-      <c r="G887" s="5"/>
-      <c r="H887" s="5"/>
+      <c r="G887" s="6"/>
+      <c r="H887" s="6"/>
     </row>
     <row r="888" ht="15.75" customHeight="1">
-      <c r="G888" s="5"/>
-      <c r="H888" s="5"/>
+      <c r="G888" s="6"/>
+      <c r="H888" s="6"/>
     </row>
     <row r="889" ht="15.75" customHeight="1">
-      <c r="G889" s="5"/>
-      <c r="H889" s="5"/>
+      <c r="G889" s="6"/>
+      <c r="H889" s="6"/>
     </row>
     <row r="890" ht="15.75" customHeight="1">
-      <c r="G890" s="5"/>
-      <c r="H890" s="5"/>
+      <c r="G890" s="6"/>
+      <c r="H890" s="6"/>
     </row>
     <row r="891" ht="15.75" customHeight="1">
-      <c r="G891" s="5"/>
-      <c r="H891" s="5"/>
+      <c r="G891" s="6"/>
+      <c r="H891" s="6"/>
     </row>
     <row r="892" ht="15.75" customHeight="1">
-      <c r="G892" s="5"/>
-      <c r="H892" s="5"/>
+      <c r="G892" s="6"/>
+      <c r="H892" s="6"/>
     </row>
     <row r="893" ht="15.75" customHeight="1">
-      <c r="G893" s="5"/>
-      <c r="H893" s="5"/>
+      <c r="G893" s="6"/>
+      <c r="H893" s="6"/>
     </row>
     <row r="894" ht="15.75" customHeight="1">
-      <c r="G894" s="5"/>
-      <c r="H894" s="5"/>
+      <c r="G894" s="6"/>
+      <c r="H894" s="6"/>
     </row>
     <row r="895" ht="15.75" customHeight="1">
-      <c r="G895" s="5"/>
-      <c r="H895" s="5"/>
+      <c r="G895" s="6"/>
+      <c r="H895" s="6"/>
     </row>
     <row r="896" ht="15.75" customHeight="1">
-      <c r="G896" s="5"/>
-      <c r="H896" s="5"/>
+      <c r="G896" s="6"/>
+      <c r="H896" s="6"/>
     </row>
     <row r="897" ht="15.75" customHeight="1">
-      <c r="G897" s="5"/>
-      <c r="H897" s="5"/>
+      <c r="G897" s="6"/>
+      <c r="H897" s="6"/>
     </row>
     <row r="898" ht="15.75" customHeight="1">
-      <c r="G898" s="5"/>
-      <c r="H898" s="5"/>
+      <c r="G898" s="6"/>
+      <c r="H898" s="6"/>
     </row>
     <row r="899" ht="15.75" customHeight="1">
-      <c r="G899" s="5"/>
-      <c r="H899" s="5"/>
+      <c r="G899" s="6"/>
+      <c r="H899" s="6"/>
     </row>
     <row r="900" ht="15.75" customHeight="1">
-      <c r="G900" s="5"/>
-      <c r="H900" s="5"/>
+      <c r="G900" s="6"/>
+      <c r="H900" s="6"/>
     </row>
     <row r="901" ht="15.75" customHeight="1">
-      <c r="G901" s="5"/>
-      <c r="H901" s="5"/>
+      <c r="G901" s="6"/>
+      <c r="H901" s="6"/>
     </row>
     <row r="902" ht="15.75" customHeight="1">
-      <c r="G902" s="5"/>
-      <c r="H902" s="5"/>
+      <c r="G902" s="6"/>
+      <c r="H902" s="6"/>
     </row>
     <row r="903" ht="15.75" customHeight="1">
-      <c r="G903" s="5"/>
-      <c r="H903" s="5"/>
+      <c r="G903" s="6"/>
+      <c r="H903" s="6"/>
     </row>
     <row r="904" ht="15.75" customHeight="1">
-      <c r="G904" s="5"/>
-      <c r="H904" s="5"/>
+      <c r="G904" s="6"/>
+      <c r="H904" s="6"/>
     </row>
     <row r="905" ht="15.75" customHeight="1">
-      <c r="G905" s="5"/>
-      <c r="H905" s="5"/>
+      <c r="G905" s="6"/>
+      <c r="H905" s="6"/>
     </row>
     <row r="906" ht="15.75" customHeight="1">
-      <c r="G906" s="5"/>
-      <c r="H906" s="5"/>
+      <c r="G906" s="6"/>
+      <c r="H906" s="6"/>
     </row>
     <row r="907" ht="15.75" customHeight="1">
-      <c r="G907" s="5"/>
-      <c r="H907" s="5"/>
+      <c r="G907" s="6"/>
+      <c r="H907" s="6"/>
     </row>
     <row r="908" ht="15.75" customHeight="1">
-      <c r="G908" s="5"/>
-      <c r="H908" s="5"/>
+      <c r="G908" s="6"/>
+      <c r="H908" s="6"/>
     </row>
     <row r="909" ht="15.75" customHeight="1">
-      <c r="G909" s="5"/>
-      <c r="H909" s="5"/>
+      <c r="G909" s="6"/>
+      <c r="H909" s="6"/>
     </row>
     <row r="910" ht="15.75" customHeight="1">
-      <c r="G910" s="5"/>
-      <c r="H910" s="5"/>
+      <c r="G910" s="6"/>
+      <c r="H910" s="6"/>
     </row>
     <row r="911" ht="15.75" customHeight="1">
-      <c r="G911" s="5"/>
-      <c r="H911" s="5"/>
+      <c r="G911" s="6"/>
+      <c r="H911" s="6"/>
     </row>
     <row r="912" ht="15.75" customHeight="1">
-      <c r="G912" s="5"/>
-      <c r="H912" s="5"/>
+      <c r="G912" s="6"/>
+      <c r="H912" s="6"/>
     </row>
     <row r="913" ht="15.75" customHeight="1">
-      <c r="G913" s="5"/>
-      <c r="H913" s="5"/>
+      <c r="G913" s="6"/>
+      <c r="H913" s="6"/>
     </row>
     <row r="914" ht="15.75" customHeight="1">
-      <c r="G914" s="5"/>
-      <c r="H914" s="5"/>
+      <c r="G914" s="6"/>
+      <c r="H914" s="6"/>
     </row>
     <row r="915" ht="15.75" customHeight="1">
-      <c r="G915" s="5"/>
-      <c r="H915" s="5"/>
+      <c r="G915" s="6"/>
+      <c r="H915" s="6"/>
     </row>
     <row r="916" ht="15.75" customHeight="1">
-      <c r="G916" s="5"/>
-      <c r="H916" s="5"/>
+      <c r="G916" s="6"/>
+      <c r="H916" s="6"/>
     </row>
     <row r="917" ht="15.75" customHeight="1">
-      <c r="G917" s="5"/>
-      <c r="H917" s="5"/>
+      <c r="G917" s="6"/>
+      <c r="H917" s="6"/>
     </row>
     <row r="918" ht="15.75" customHeight="1">
-      <c r="G918" s="5"/>
-      <c r="H918" s="5"/>
+      <c r="G918" s="6"/>
+      <c r="H918" s="6"/>
     </row>
     <row r="919" ht="15.75" customHeight="1">
-      <c r="G919" s="5"/>
-      <c r="H919" s="5"/>
+      <c r="G919" s="6"/>
+      <c r="H919" s="6"/>
     </row>
     <row r="920" ht="15.75" customHeight="1">
-      <c r="G920" s="5"/>
-      <c r="H920" s="5"/>
+      <c r="G920" s="6"/>
+      <c r="H920" s="6"/>
     </row>
     <row r="921" ht="15.75" customHeight="1">
-      <c r="G921" s="5"/>
-      <c r="H921" s="5"/>
+      <c r="G921" s="6"/>
+      <c r="H921" s="6"/>
     </row>
     <row r="922" ht="15.75" customHeight="1">
-      <c r="G922" s="5"/>
-      <c r="H922" s="5"/>
+      <c r="G922" s="6"/>
+      <c r="H922" s="6"/>
     </row>
     <row r="923" ht="15.75" customHeight="1">
-      <c r="G923" s="5"/>
-      <c r="H923" s="5"/>
+      <c r="G923" s="6"/>
+      <c r="H923" s="6"/>
     </row>
     <row r="924" ht="15.75" customHeight="1">
-      <c r="G924" s="5"/>
-      <c r="H924" s="5"/>
+      <c r="G924" s="6"/>
+      <c r="H924" s="6"/>
     </row>
     <row r="925" ht="15.75" customHeight="1">
-      <c r="G925" s="5"/>
-      <c r="H925" s="5"/>
+      <c r="G925" s="6"/>
+      <c r="H925" s="6"/>
     </row>
     <row r="926" ht="15.75" customHeight="1">
-      <c r="G926" s="5"/>
-      <c r="H926" s="5"/>
+      <c r="G926" s="6"/>
+      <c r="H926" s="6"/>
     </row>
     <row r="927" ht="15.75" customHeight="1">
-      <c r="G927" s="5"/>
-      <c r="H927" s="5"/>
+      <c r="G927" s="6"/>
+      <c r="H927" s="6"/>
     </row>
     <row r="928" ht="15.75" customHeight="1">
-      <c r="G928" s="5"/>
-      <c r="H928" s="5"/>
+      <c r="G928" s="6"/>
+      <c r="H928" s="6"/>
     </row>
     <row r="929" ht="15.75" customHeight="1">
-      <c r="G929" s="5"/>
-      <c r="H929" s="5"/>
+      <c r="G929" s="6"/>
+      <c r="H929" s="6"/>
     </row>
     <row r="930" ht="15.75" customHeight="1">
-      <c r="G930" s="5"/>
-      <c r="H930" s="5"/>
+      <c r="G930" s="6"/>
+      <c r="H930" s="6"/>
     </row>
     <row r="931" ht="15.75" customHeight="1">
-      <c r="G931" s="5"/>
-      <c r="H931" s="5"/>
+      <c r="G931" s="6"/>
+      <c r="H931" s="6"/>
     </row>
     <row r="932" ht="15.75" customHeight="1">
-      <c r="G932" s="5"/>
-      <c r="H932" s="5"/>
+      <c r="G932" s="6"/>
+      <c r="H932" s="6"/>
     </row>
     <row r="933" ht="15.75" customHeight="1">
-      <c r="G933" s="5"/>
-      <c r="H933" s="5"/>
+      <c r="G933" s="6"/>
+      <c r="H933" s="6"/>
     </row>
     <row r="934" ht="15.75" customHeight="1">
-      <c r="G934" s="5"/>
-      <c r="H934" s="5"/>
+      <c r="G934" s="6"/>
+      <c r="H934" s="6"/>
     </row>
     <row r="935" ht="15.75" customHeight="1">
-      <c r="G935" s="5"/>
-      <c r="H935" s="5"/>
+      <c r="G935" s="6"/>
+      <c r="H935" s="6"/>
     </row>
     <row r="936" ht="15.75" customHeight="1">
-      <c r="G936" s="5"/>
-      <c r="H936" s="5"/>
+      <c r="G936" s="6"/>
+      <c r="H936" s="6"/>
     </row>
     <row r="937" ht="15.75" customHeight="1">
-      <c r="G937" s="5"/>
-      <c r="H937" s="5"/>
+      <c r="G937" s="6"/>
+      <c r="H937" s="6"/>
     </row>
     <row r="938" ht="15.75" customHeight="1">
-      <c r="G938" s="5"/>
-      <c r="H938" s="5"/>
+      <c r="G938" s="6"/>
+      <c r="H938" s="6"/>
     </row>
     <row r="939" ht="15.75" customHeight="1">
-      <c r="G939" s="5"/>
-      <c r="H939" s="5"/>
+      <c r="G939" s="6"/>
+      <c r="H939" s="6"/>
     </row>
     <row r="940" ht="15.75" customHeight="1">
-      <c r="G940" s="5"/>
-      <c r="H940" s="5"/>
+      <c r="G940" s="6"/>
+      <c r="H940" s="6"/>
     </row>
     <row r="941" ht="15.75" customHeight="1">
-      <c r="G941" s="5"/>
-      <c r="H941" s="5"/>
+      <c r="G941" s="6"/>
+      <c r="H941" s="6"/>
     </row>
     <row r="942" ht="15.75" customHeight="1">
-      <c r="G942" s="5"/>
-      <c r="H942" s="5"/>
+      <c r="G942" s="6"/>
+      <c r="H942" s="6"/>
     </row>
     <row r="943" ht="15.75" customHeight="1">
-      <c r="G943" s="5"/>
-      <c r="H943" s="5"/>
+      <c r="G943" s="6"/>
+      <c r="H943" s="6"/>
     </row>
     <row r="944" ht="15.75" customHeight="1">
-      <c r="G944" s="5"/>
-      <c r="H944" s="5"/>
+      <c r="G944" s="6"/>
+      <c r="H944" s="6"/>
     </row>
     <row r="945" ht="15.75" customHeight="1">
-      <c r="G945" s="5"/>
-      <c r="H945" s="5"/>
+      <c r="G945" s="6"/>
+      <c r="H945" s="6"/>
     </row>
     <row r="946" ht="15.75" customHeight="1">
-      <c r="G946" s="5"/>
-      <c r="H946" s="5"/>
+      <c r="G946" s="6"/>
+      <c r="H946" s="6"/>
     </row>
     <row r="947" ht="15.75" customHeight="1">
-      <c r="G947" s="5"/>
-      <c r="H947" s="5"/>
+      <c r="G947" s="6"/>
+      <c r="H947" s="6"/>
     </row>
     <row r="948" ht="15.75" customHeight="1">
-      <c r="G948" s="5"/>
-      <c r="H948" s="5"/>
+      <c r="G948" s="6"/>
+      <c r="H948" s="6"/>
     </row>
     <row r="949" ht="15.75" customHeight="1">
-      <c r="G949" s="5"/>
-      <c r="H949" s="5"/>
+      <c r="G949" s="6"/>
+      <c r="H949" s="6"/>
     </row>
     <row r="950" ht="15.75" customHeight="1">
-      <c r="G950" s="5"/>
-      <c r="H950" s="5"/>
+      <c r="G950" s="6"/>
+      <c r="H950" s="6"/>
     </row>
     <row r="951" ht="15.75" customHeight="1">
-      <c r="G951" s="5"/>
-      <c r="H951" s="5"/>
+      <c r="G951" s="6"/>
+      <c r="H951" s="6"/>
     </row>
     <row r="952" ht="15.75" customHeight="1">
-      <c r="G952" s="5"/>
-      <c r="H952" s="5"/>
+      <c r="G952" s="6"/>
+      <c r="H952" s="6"/>
     </row>
     <row r="953" ht="15.75" customHeight="1">
-      <c r="G953" s="5"/>
-      <c r="H953" s="5"/>
+      <c r="G953" s="6"/>
+      <c r="H953" s="6"/>
     </row>
     <row r="954" ht="15.75" customHeight="1">
-      <c r="G954" s="5"/>
-      <c r="H954" s="5"/>
+      <c r="G954" s="6"/>
+      <c r="H954" s="6"/>
     </row>
     <row r="955" ht="15.75" customHeight="1">
-      <c r="G955" s="5"/>
-      <c r="H955" s="5"/>
+      <c r="G955" s="6"/>
+      <c r="H955" s="6"/>
     </row>
     <row r="956" ht="15.75" customHeight="1">
-      <c r="G956" s="5"/>
-      <c r="H956" s="5"/>
+      <c r="G956" s="6"/>
+      <c r="H956" s="6"/>
     </row>
     <row r="957" ht="15.75" customHeight="1">
-      <c r="G957" s="5"/>
-      <c r="H957" s="5"/>
+      <c r="G957" s="6"/>
+      <c r="H957" s="6"/>
     </row>
     <row r="958" ht="15.75" customHeight="1">
-      <c r="G958" s="5"/>
-      <c r="H958" s="5"/>
+      <c r="G958" s="6"/>
+      <c r="H958" s="6"/>
     </row>
     <row r="959" ht="15.75" customHeight="1">
-      <c r="G959" s="5"/>
-      <c r="H959" s="5"/>
+      <c r="G959" s="6"/>
+      <c r="H959" s="6"/>
     </row>
     <row r="960" ht="15.75" customHeight="1">
-      <c r="G960" s="5"/>
-      <c r="H960" s="5"/>
+      <c r="G960" s="6"/>
+      <c r="H960" s="6"/>
     </row>
     <row r="961" ht="15.75" customHeight="1">
-      <c r="G961" s="5"/>
-      <c r="H961" s="5"/>
+      <c r="G961" s="6"/>
+      <c r="H961" s="6"/>
     </row>
     <row r="962" ht="15.75" customHeight="1">
-      <c r="G962" s="5"/>
-      <c r="H962" s="5"/>
+      <c r="G962" s="6"/>
+      <c r="H962" s="6"/>
     </row>
     <row r="963" ht="15.75" customHeight="1">
-      <c r="G963" s="5"/>
-      <c r="H963" s="5"/>
+      <c r="G963" s="6"/>
+      <c r="H963" s="6"/>
     </row>
     <row r="964" ht="15.75" customHeight="1">
-      <c r="G964" s="5"/>
-      <c r="H964" s="5"/>
+      <c r="G964" s="6"/>
+      <c r="H964" s="6"/>
     </row>
     <row r="965" ht="15.75" customHeight="1">
-      <c r="G965" s="5"/>
-      <c r="H965" s="5"/>
+      <c r="G965" s="6"/>
+      <c r="H965" s="6"/>
     </row>
     <row r="966" ht="15.75" customHeight="1">
-      <c r="G966" s="5"/>
-      <c r="H966" s="5"/>
+      <c r="G966" s="6"/>
+      <c r="H966" s="6"/>
     </row>
     <row r="967" ht="15.75" customHeight="1">
-      <c r="G967" s="5"/>
-      <c r="H967" s="5"/>
+      <c r="G967" s="6"/>
+      <c r="H967" s="6"/>
     </row>
     <row r="968" ht="15.75" customHeight="1">
-      <c r="G968" s="5"/>
-      <c r="H968" s="5"/>
+      <c r="G968" s="6"/>
+      <c r="H968" s="6"/>
     </row>
     <row r="969" ht="15.75" customHeight="1">
-      <c r="G969" s="5"/>
-      <c r="H969" s="5"/>
+      <c r="G969" s="6"/>
+      <c r="H969" s="6"/>
     </row>
     <row r="970" ht="15.75" customHeight="1">
-      <c r="G970" s="5"/>
-      <c r="H970" s="5"/>
+      <c r="G970" s="6"/>
+      <c r="H970" s="6"/>
     </row>
     <row r="971" ht="15.75" customHeight="1">
-      <c r="G971" s="5"/>
-      <c r="H971" s="5"/>
+      <c r="G971" s="6"/>
+      <c r="H971" s="6"/>
     </row>
     <row r="972" ht="15.75" customHeight="1">
-      <c r="G972" s="5"/>
-      <c r="H972" s="5"/>
+      <c r="G972" s="6"/>
+      <c r="H972" s="6"/>
     </row>
     <row r="973" ht="15.75" customHeight="1">
-      <c r="G973" s="5"/>
-      <c r="H973" s="5"/>
+      <c r="G973" s="6"/>
+      <c r="H973" s="6"/>
     </row>
     <row r="974" ht="15.75" customHeight="1">
-      <c r="G974" s="5"/>
-      <c r="H974" s="5"/>
+      <c r="G974" s="6"/>
+      <c r="H974" s="6"/>
     </row>
     <row r="975" ht="15.75" customHeight="1">
-      <c r="G975" s="5"/>
-      <c r="H975" s="5"/>
+      <c r="G975" s="6"/>
+      <c r="H975" s="6"/>
     </row>
     <row r="976" ht="15.75" customHeight="1">
-      <c r="G976" s="5"/>
-      <c r="H976" s="5"/>
+      <c r="G976" s="6"/>
+      <c r="H976" s="6"/>
     </row>
     <row r="977" ht="15.75" customHeight="1">
-      <c r="G977" s="5"/>
-      <c r="H977" s="5"/>
+      <c r="G977" s="6"/>
+      <c r="H977" s="6"/>
     </row>
     <row r="978" ht="15.75" customHeight="1">
-      <c r="G978" s="5"/>
-      <c r="H978" s="5"/>
+      <c r="G978" s="6"/>
+      <c r="H978" s="6"/>
     </row>
     <row r="979" ht="15.75" customHeight="1">
-      <c r="G979" s="5"/>
-      <c r="H979" s="5"/>
+      <c r="G979" s="6"/>
+      <c r="H979" s="6"/>
     </row>
     <row r="980" ht="15.75" customHeight="1">
-      <c r="G980" s="5"/>
-      <c r="H980" s="5"/>
+      <c r="G980" s="6"/>
+      <c r="H980" s="6"/>
     </row>
     <row r="981" ht="15.75" customHeight="1">
-      <c r="G981" s="5"/>
-      <c r="H981" s="5"/>
+      <c r="G981" s="6"/>
+      <c r="H981" s="6"/>
     </row>
     <row r="982" ht="15.75" customHeight="1">
-      <c r="G982" s="5"/>
-      <c r="H982" s="5"/>
+      <c r="G982" s="6"/>
+      <c r="H982" s="6"/>
     </row>
     <row r="983" ht="15.75" customHeight="1">
-      <c r="G983" s="5"/>
-      <c r="H983" s="5"/>
+      <c r="G983" s="6"/>
+      <c r="H983" s="6"/>
     </row>
     <row r="984" ht="15.75" customHeight="1">
-      <c r="G984" s="5"/>
-      <c r="H984" s="5"/>
+      <c r="G984" s="6"/>
+      <c r="H984" s="6"/>
     </row>
     <row r="985" ht="15.75" customHeight="1">
-      <c r="G985" s="5"/>
-      <c r="H985" s="5"/>
+      <c r="G985" s="6"/>
+      <c r="H985" s="6"/>
     </row>
     <row r="986" ht="15.75" customHeight="1">
-      <c r="G986" s="5"/>
-      <c r="H986" s="5"/>
+      <c r="G986" s="6"/>
+      <c r="H986" s="6"/>
     </row>
     <row r="987" ht="15.75" customHeight="1">
-      <c r="G987" s="5"/>
-      <c r="H987" s="5"/>
+      <c r="G987" s="6"/>
+      <c r="H987" s="6"/>
     </row>
     <row r="988" ht="15.75" customHeight="1">
-      <c r="G988" s="5"/>
-      <c r="H988" s="5"/>
+      <c r="G988" s="6"/>
+      <c r="H988" s="6"/>
     </row>
     <row r="989" ht="15.75" customHeight="1">
-      <c r="G989" s="5"/>
-      <c r="H989" s="5"/>
+      <c r="G989" s="6"/>
+      <c r="H989" s="6"/>
     </row>
     <row r="990" ht="15.75" customHeight="1">
-      <c r="G990" s="5"/>
-      <c r="H990" s="5"/>
+      <c r="G990" s="6"/>
+      <c r="H990" s="6"/>
     </row>
     <row r="991" ht="15.75" customHeight="1">
-      <c r="G991" s="5"/>
-      <c r="H991" s="5"/>
+      <c r="G991" s="6"/>
+      <c r="H991" s="6"/>
     </row>
     <row r="992" ht="15.75" customHeight="1">
-      <c r="G992" s="5"/>
-      <c r="H992" s="5"/>
+      <c r="G992" s="6"/>
+      <c r="H992" s="6"/>
     </row>
     <row r="993" ht="15.75" customHeight="1">
-      <c r="G993" s="5"/>
-      <c r="H993" s="5"/>
+      <c r="G993" s="6"/>
+      <c r="H993" s="6"/>
     </row>
     <row r="994" ht="15.75" customHeight="1">
-      <c r="G994" s="5"/>
-      <c r="H994" s="5"/>
+      <c r="G994" s="6"/>
+      <c r="H994" s="6"/>
     </row>
     <row r="995" ht="15.75" customHeight="1">
-      <c r="G995" s="5"/>
-      <c r="H995" s="5"/>
+      <c r="G995" s="6"/>
+      <c r="H995" s="6"/>
     </row>
     <row r="996" ht="15.75" customHeight="1">
-      <c r="G996" s="5"/>
-      <c r="H996" s="5"/>
+      <c r="G996" s="6"/>
+      <c r="H996" s="6"/>
     </row>
     <row r="997" ht="15.75" customHeight="1">
-      <c r="G997" s="5"/>
-      <c r="H997" s="5"/>
+      <c r="G997" s="6"/>
+      <c r="H997" s="6"/>
     </row>
     <row r="998" ht="15.75" customHeight="1">
-      <c r="G998" s="5"/>
-      <c r="H998" s="5"/>
+      <c r="G998" s="6"/>
+      <c r="H998" s="6"/>
     </row>
     <row r="999" ht="15.75" customHeight="1">
-      <c r="G999" s="5"/>
-      <c r="H999" s="5"/>
+      <c r="G999" s="6"/>
+      <c r="H999" s="6"/>
     </row>
     <row r="1000" ht="15.75" customHeight="1">
-      <c r="G1000" s="5"/>
-      <c r="H1000" s="5"/>
+      <c r="G1000" s="6"/>
+      <c r="H1000" s="6"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
